--- a/src/main/java/lomt/pearson/fileupload/highereducation/producttoc/alignment_case/ProductTocAlignCode.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/highereducation/producttoc/alignment_case/ProductTocAlignCode.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lomt_automation\src\main\java\lomt\pearson\fileupload\highereducation\producttoc\alignment_case\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6420" tabRatio="397"/>
   </bookViews>
@@ -3987,14 +3992,14 @@
     <t>Feldman_Product_TOC_Course</t>
   </si>
   <si>
-    <t>HE_Test_J001</t>
+    <t>HE_Test_T004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4178,6 +4183,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4436,21 +4449,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
@@ -4472,7 +4485,7 @@
     <col min="23" max="27" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" customHeight="1">
+    <row r="1" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4505,7 +4518,7 @@
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
     </row>
-    <row r="2" spans="1:27" ht="15" customHeight="1">
+    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4538,7 +4551,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="1:27" ht="15" customHeight="1">
+    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4571,7 +4584,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1">
+    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1151</v>
       </c>
@@ -4604,7 +4617,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:27" ht="15" customHeight="1">
+    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1152</v>
       </c>
@@ -4637,7 +4650,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" ht="15" customHeight="1">
+    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4668,7 +4681,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1">
+    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4701,7 +4714,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1">
+    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4734,7 +4747,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1">
+    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4767,7 +4780,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1">
+    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -4800,7 +4813,7 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1">
+    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -4833,7 +4846,7 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1">
+    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>1153</v>
       </c>
@@ -4894,7 +4907,7 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1">
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2" t="s">
@@ -4937,7 +4950,7 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1">
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="10"/>
       <c r="C14" s="2" t="s">
@@ -4978,7 +4991,7 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1">
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="10"/>
       <c r="C15" s="2" t="s">
@@ -5019,7 +5032,7 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1">
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="10"/>
       <c r="C16" s="2" t="s">
@@ -5060,7 +5073,7 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" ht="15.75" customHeight="1">
+    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="10"/>
       <c r="C17" s="2" t="s">
@@ -5101,7 +5114,7 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27" ht="15.75" customHeight="1">
+    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="10"/>
       <c r="C18" s="3"/>
@@ -5130,7 +5143,7 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27" ht="15.75" customHeight="1">
+    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="10"/>
       <c r="C19" s="2" t="s">
@@ -5171,7 +5184,7 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1">
+    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="10"/>
       <c r="C20" s="2" t="s">
@@ -5208,7 +5221,7 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="1:27" ht="15.75" customHeight="1">
+    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="10"/>
       <c r="C21" s="2" t="s">
@@ -5245,7 +5258,7 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1">
+    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="10"/>
       <c r="C22" s="3"/>
@@ -5274,7 +5287,7 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1">
+    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="10"/>
       <c r="C23" s="3"/>
@@ -5303,7 +5316,7 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27" ht="15.75" customHeight="1">
+    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="10"/>
       <c r="C24" s="3"/>
@@ -5332,7 +5345,7 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="1:27" ht="15.75" customHeight="1">
+    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="10"/>
       <c r="C25" s="2" t="s">
@@ -5369,7 +5382,7 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1">
+    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="10"/>
       <c r="C26" s="3"/>
@@ -5398,7 +5411,7 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="1:27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="10"/>
       <c r="C27" s="2" t="s">
@@ -5435,7 +5448,7 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:27" ht="15.75" customHeight="1">
+    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="3"/>
       <c r="C28" s="2" t="s">
@@ -5472,7 +5485,7 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1">
+    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="3"/>
       <c r="C29" s="2" t="s">
@@ -5509,7 +5522,7 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1">
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="3"/>
       <c r="C30" s="2" t="s">
@@ -5546,7 +5559,7 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1">
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="3"/>
       <c r="C31" s="2" t="s">
@@ -5581,7 +5594,7 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1">
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="3"/>
       <c r="C32" s="2" t="s">
@@ -5618,7 +5631,7 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="1:27" ht="15.75" customHeight="1">
+    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="3"/>
       <c r="C33" s="2" t="s">
@@ -5655,7 +5668,7 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1">
+    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="3"/>
       <c r="C34" s="2" t="s">
@@ -5690,7 +5703,7 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="1:27" ht="15.75" customHeight="1">
+    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="3"/>
       <c r="C35" s="2" t="s">
@@ -5725,7 +5738,7 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1">
+    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="3"/>
       <c r="C36" s="2" t="s">
@@ -5762,7 +5775,7 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1">
+    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="3"/>
       <c r="C37" s="2" t="s">
@@ -5799,7 +5812,7 @@
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="1:27" ht="15.75" customHeight="1">
+    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="3"/>
       <c r="C38" s="2" t="s">
@@ -5834,7 +5847,7 @@
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="1:27" ht="15.75" customHeight="1">
+    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="3"/>
       <c r="C39" s="2" t="s">
@@ -5869,7 +5882,7 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="1:27" ht="15.75" customHeight="1">
+    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="3"/>
       <c r="C40" s="2" t="s">
@@ -5904,7 +5917,7 @@
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="1:27" ht="15.75" customHeight="1">
+    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="3"/>
       <c r="C41" s="2" t="s">
@@ -5941,7 +5954,7 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
     </row>
-    <row r="42" spans="1:27" ht="15.75" customHeight="1">
+    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="3"/>
       <c r="C42" s="2" t="s">
@@ -5978,7 +5991,7 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
     </row>
-    <row r="43" spans="1:27" ht="15.75" customHeight="1">
+    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="3"/>
       <c r="C43" s="2" t="s">
@@ -6013,7 +6026,7 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
     </row>
-    <row r="44" spans="1:27" ht="13.5" customHeight="1">
+    <row r="44" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14" t="s">
@@ -6050,7 +6063,7 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
     </row>
-    <row r="45" spans="1:27" ht="13.5" customHeight="1">
+    <row r="45" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14" t="s">
@@ -6085,7 +6098,7 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
     </row>
-    <row r="46" spans="1:27" ht="13.5" customHeight="1">
+    <row r="46" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14" t="s">
@@ -6120,7 +6133,7 @@
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="1:27" ht="13.5" customHeight="1">
+    <row r="47" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14" t="s">
@@ -6157,7 +6170,7 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
     </row>
-    <row r="48" spans="1:27" ht="13.5" customHeight="1">
+    <row r="48" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14" t="s">
@@ -6194,7 +6207,7 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
     </row>
-    <row r="49" spans="1:27" ht="13.5" customHeight="1">
+    <row r="49" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14" t="s">
@@ -6231,7 +6244,7 @@
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
     </row>
-    <row r="50" spans="1:27" ht="13.5" customHeight="1">
+    <row r="50" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14" t="s">
@@ -6266,7 +6279,7 @@
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
     </row>
-    <row r="51" spans="1:27" ht="13.5" customHeight="1">
+    <row r="51" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14" t="s">
@@ -6303,7 +6316,7 @@
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
     </row>
-    <row r="52" spans="1:27" ht="13.5" customHeight="1">
+    <row r="52" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14" t="s">
@@ -6338,7 +6351,7 @@
       <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
     </row>
-    <row r="53" spans="1:27" ht="13.5" customHeight="1">
+    <row r="53" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14" t="s">
@@ -6375,7 +6388,7 @@
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
     </row>
-    <row r="54" spans="1:27" ht="13.5" customHeight="1">
+    <row r="54" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14" t="s">
@@ -6410,7 +6423,7 @@
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
     </row>
-    <row r="55" spans="1:27" ht="13.5" customHeight="1">
+    <row r="55" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14" t="s">
@@ -6447,7 +6460,7 @@
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
     </row>
-    <row r="56" spans="1:27" ht="13.5" customHeight="1">
+    <row r="56" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14" t="s">
@@ -6484,7 +6497,7 @@
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
     </row>
-    <row r="57" spans="1:27" ht="13.5" customHeight="1">
+    <row r="57" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14" t="s">
@@ -6519,7 +6532,7 @@
       <c r="Z57" s="5"/>
       <c r="AA57" s="5"/>
     </row>
-    <row r="58" spans="1:27" ht="13.5" customHeight="1">
+    <row r="58" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14" t="s">
@@ -6556,7 +6569,7 @@
       <c r="Z58" s="5"/>
       <c r="AA58" s="5"/>
     </row>
-    <row r="59" spans="1:27" ht="13.5" customHeight="1">
+    <row r="59" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14" t="s">
@@ -6593,7 +6606,7 @@
       <c r="Z59" s="5"/>
       <c r="AA59" s="5"/>
     </row>
-    <row r="60" spans="1:27" ht="13.5" customHeight="1">
+    <row r="60" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14" t="s">
@@ -6630,7 +6643,7 @@
       <c r="Z60" s="5"/>
       <c r="AA60" s="5"/>
     </row>
-    <row r="61" spans="1:27" ht="13.5" customHeight="1">
+    <row r="61" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14" t="s">
@@ -6667,7 +6680,7 @@
       <c r="Z61" s="5"/>
       <c r="AA61" s="5"/>
     </row>
-    <row r="62" spans="1:27" ht="13.5" customHeight="1">
+    <row r="62" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14" t="s">
@@ -6702,7 +6715,7 @@
       <c r="Z62" s="5"/>
       <c r="AA62" s="5"/>
     </row>
-    <row r="63" spans="1:27" ht="13.5" customHeight="1">
+    <row r="63" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14" t="s">
@@ -6739,7 +6752,7 @@
       <c r="Z63" s="5"/>
       <c r="AA63" s="5"/>
     </row>
-    <row r="64" spans="1:27" ht="13.5" customHeight="1">
+    <row r="64" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14" t="s">
@@ -6776,7 +6789,7 @@
       <c r="Z64" s="5"/>
       <c r="AA64" s="5"/>
     </row>
-    <row r="65" spans="1:27" ht="13.5" customHeight="1">
+    <row r="65" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14" t="s">
@@ -6813,7 +6826,7 @@
       <c r="Z65" s="5"/>
       <c r="AA65" s="5"/>
     </row>
-    <row r="66" spans="1:27" ht="13.5" customHeight="1">
+    <row r="66" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14" t="s">
@@ -6850,7 +6863,7 @@
       <c r="Z66" s="5"/>
       <c r="AA66" s="5"/>
     </row>
-    <row r="67" spans="1:27" ht="13.5" customHeight="1">
+    <row r="67" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14" t="s">
@@ -6887,7 +6900,7 @@
       <c r="Z67" s="5"/>
       <c r="AA67" s="5"/>
     </row>
-    <row r="68" spans="1:27" ht="13.5" customHeight="1">
+    <row r="68" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14" t="s">
@@ -6924,7 +6937,7 @@
       <c r="Z68" s="5"/>
       <c r="AA68" s="5"/>
     </row>
-    <row r="69" spans="1:27" ht="13.5" customHeight="1">
+    <row r="69" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14" t="s">
@@ -6961,7 +6974,7 @@
       <c r="Z69" s="5"/>
       <c r="AA69" s="5"/>
     </row>
-    <row r="70" spans="1:27" ht="13.5" customHeight="1">
+    <row r="70" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14" t="s">
@@ -6998,7 +7011,7 @@
       <c r="Z70" s="5"/>
       <c r="AA70" s="5"/>
     </row>
-    <row r="71" spans="1:27" ht="13.5" customHeight="1">
+    <row r="71" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14" t="s">
@@ -7035,7 +7048,7 @@
       <c r="Z71" s="5"/>
       <c r="AA71" s="5"/>
     </row>
-    <row r="72" spans="1:27" ht="13.5" customHeight="1">
+    <row r="72" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="13"/>
       <c r="C72" s="14" t="s">
@@ -7072,7 +7085,7 @@
       <c r="Z72" s="5"/>
       <c r="AA72" s="5"/>
     </row>
-    <row r="73" spans="1:27" ht="13.5" customHeight="1">
+    <row r="73" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="13"/>
       <c r="C73" s="14" t="s">
@@ -7109,7 +7122,7 @@
       <c r="Z73" s="5"/>
       <c r="AA73" s="5"/>
     </row>
-    <row r="74" spans="1:27" ht="13.5" customHeight="1">
+    <row r="74" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="13"/>
       <c r="C74" s="14" t="s">
@@ -7146,7 +7159,7 @@
       <c r="Z74" s="5"/>
       <c r="AA74" s="5"/>
     </row>
-    <row r="75" spans="1:27" ht="13.5" customHeight="1">
+    <row r="75" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="13"/>
       <c r="C75" s="14" t="s">
@@ -7183,7 +7196,7 @@
       <c r="Z75" s="5"/>
       <c r="AA75" s="5"/>
     </row>
-    <row r="76" spans="1:27" ht="13.5" customHeight="1">
+    <row r="76" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="13"/>
       <c r="C76" s="14" t="s">
@@ -7220,7 +7233,7 @@
       <c r="Z76" s="5"/>
       <c r="AA76" s="5"/>
     </row>
-    <row r="77" spans="1:27" ht="13.5" customHeight="1">
+    <row r="77" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="13"/>
       <c r="C77" s="14" t="s">
@@ -7257,7 +7270,7 @@
       <c r="Z77" s="5"/>
       <c r="AA77" s="5"/>
     </row>
-    <row r="78" spans="1:27" ht="13.5" customHeight="1">
+    <row r="78" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -7288,7 +7301,7 @@
       <c r="Z78" s="5"/>
       <c r="AA78" s="5"/>
     </row>
-    <row r="79" spans="1:27" ht="13.5" customHeight="1">
+    <row r="79" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="13"/>
       <c r="C79" s="14" t="s">
@@ -7323,7 +7336,7 @@
       <c r="Z79" s="5"/>
       <c r="AA79" s="5"/>
     </row>
-    <row r="80" spans="1:27" ht="13.5" customHeight="1">
+    <row r="80" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="13"/>
       <c r="C80" s="14" t="s">
@@ -7360,7 +7373,7 @@
       <c r="Z80" s="5"/>
       <c r="AA80" s="5"/>
     </row>
-    <row r="81" spans="1:27" ht="13.5" customHeight="1">
+    <row r="81" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="13"/>
       <c r="C81" s="14" t="s">
@@ -7395,7 +7408,7 @@
       <c r="Z81" s="5"/>
       <c r="AA81" s="5"/>
     </row>
-    <row r="82" spans="1:27" ht="13.5" customHeight="1">
+    <row r="82" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="13"/>
       <c r="C82" s="14" t="s">
@@ -7432,7 +7445,7 @@
       <c r="Z82" s="5"/>
       <c r="AA82" s="5"/>
     </row>
-    <row r="83" spans="1:27" ht="13.5" customHeight="1">
+    <row r="83" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="13"/>
       <c r="C83" s="14" t="s">
@@ -7469,7 +7482,7 @@
       <c r="Z83" s="5"/>
       <c r="AA83" s="5"/>
     </row>
-    <row r="84" spans="1:27" ht="13.5" customHeight="1">
+    <row r="84" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="13"/>
       <c r="C84" s="14" t="s">
@@ -7506,7 +7519,7 @@
       <c r="Z84" s="5"/>
       <c r="AA84" s="5"/>
     </row>
-    <row r="85" spans="1:27" ht="13.5" customHeight="1">
+    <row r="85" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="13"/>
       <c r="C85" s="14" t="s">
@@ -7541,7 +7554,7 @@
       <c r="Z85" s="5"/>
       <c r="AA85" s="5"/>
     </row>
-    <row r="86" spans="1:27" ht="13.5" customHeight="1">
+    <row r="86" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="13"/>
       <c r="C86" s="14" t="s">
@@ -7578,7 +7591,7 @@
       <c r="Z86" s="5"/>
       <c r="AA86" s="5"/>
     </row>
-    <row r="87" spans="1:27" ht="13.5" customHeight="1">
+    <row r="87" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="13"/>
       <c r="C87" s="14" t="s">
@@ -7613,7 +7626,7 @@
       <c r="Z87" s="5"/>
       <c r="AA87" s="5"/>
     </row>
-    <row r="88" spans="1:27" ht="13.5" customHeight="1">
+    <row r="88" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="13"/>
       <c r="C88" s="14" t="s">
@@ -7648,7 +7661,7 @@
       <c r="Z88" s="5"/>
       <c r="AA88" s="5"/>
     </row>
-    <row r="89" spans="1:27" ht="13.5" customHeight="1">
+    <row r="89" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
       <c r="B89" s="13"/>
       <c r="C89" s="14" t="s">
@@ -7685,7 +7698,7 @@
       <c r="Z89" s="5"/>
       <c r="AA89" s="5"/>
     </row>
-    <row r="90" spans="1:27" ht="13.5" customHeight="1">
+    <row r="90" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="13"/>
       <c r="C90" s="14" t="s">
@@ -7722,7 +7735,7 @@
       <c r="Z90" s="5"/>
       <c r="AA90" s="5"/>
     </row>
-    <row r="91" spans="1:27" ht="13.5" customHeight="1">
+    <row r="91" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="B91" s="13"/>
       <c r="C91" s="14" t="s">
@@ -7759,7 +7772,7 @@
       <c r="Z91" s="5"/>
       <c r="AA91" s="5"/>
     </row>
-    <row r="92" spans="1:27" ht="13.5" customHeight="1">
+    <row r="92" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="13"/>
       <c r="C92" s="14" t="s">
@@ -7794,7 +7807,7 @@
       <c r="Z92" s="5"/>
       <c r="AA92" s="5"/>
     </row>
-    <row r="93" spans="1:27" ht="13.5" customHeight="1">
+    <row r="93" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="13"/>
       <c r="C93" s="14" t="s">
@@ -7829,7 +7842,7 @@
       <c r="Z93" s="5"/>
       <c r="AA93" s="5"/>
     </row>
-    <row r="94" spans="1:27" ht="13.5" customHeight="1">
+    <row r="94" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="13"/>
       <c r="C94" s="14" t="s">
@@ -7866,7 +7879,7 @@
       <c r="Z94" s="5"/>
       <c r="AA94" s="5"/>
     </row>
-    <row r="95" spans="1:27" ht="13.5" customHeight="1">
+    <row r="95" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="13"/>
       <c r="C95" s="14" t="s">
@@ -7901,7 +7914,7 @@
       <c r="Z95" s="5"/>
       <c r="AA95" s="5"/>
     </row>
-    <row r="96" spans="1:27" ht="13.5" customHeight="1">
+    <row r="96" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="13"/>
       <c r="C96" s="14" t="s">
@@ -7938,7 +7951,7 @@
       <c r="Z96" s="5"/>
       <c r="AA96" s="5"/>
     </row>
-    <row r="97" spans="1:27" ht="13.5" customHeight="1">
+    <row r="97" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="13"/>
       <c r="C97" s="14" t="s">
@@ -7975,7 +7988,7 @@
       <c r="Z97" s="5"/>
       <c r="AA97" s="5"/>
     </row>
-    <row r="98" spans="1:27" ht="13.5" customHeight="1">
+    <row r="98" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="13"/>
       <c r="C98" s="14" t="s">
@@ -8012,7 +8025,7 @@
       <c r="Z98" s="5"/>
       <c r="AA98" s="5"/>
     </row>
-    <row r="99" spans="1:27" ht="13.5" customHeight="1">
+    <row r="99" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="13"/>
       <c r="C99" s="14" t="s">
@@ -8049,7 +8062,7 @@
       <c r="Z99" s="5"/>
       <c r="AA99" s="5"/>
     </row>
-    <row r="100" spans="1:27" ht="13.5" customHeight="1">
+    <row r="100" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="13"/>
       <c r="C100" s="14" t="s">
@@ -8086,7 +8099,7 @@
       <c r="Z100" s="5"/>
       <c r="AA100" s="5"/>
     </row>
-    <row r="101" spans="1:27" ht="13.5" customHeight="1">
+    <row r="101" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="13"/>
       <c r="C101" s="14" t="s">
@@ -8123,7 +8136,7 @@
       <c r="Z101" s="5"/>
       <c r="AA101" s="5"/>
     </row>
-    <row r="102" spans="1:27" ht="13.5" customHeight="1">
+    <row r="102" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="13"/>
       <c r="C102" s="14" t="s">
@@ -8160,7 +8173,7 @@
       <c r="Z102" s="5"/>
       <c r="AA102" s="5"/>
     </row>
-    <row r="103" spans="1:27" ht="13.5" customHeight="1">
+    <row r="103" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="13"/>
       <c r="C103" s="14" t="s">
@@ -8197,7 +8210,7 @@
       <c r="Z103" s="5"/>
       <c r="AA103" s="5"/>
     </row>
-    <row r="104" spans="1:27" ht="13.5" customHeight="1">
+    <row r="104" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="13"/>
       <c r="C104" s="14" t="s">
@@ -8234,7 +8247,7 @@
       <c r="Z104" s="5"/>
       <c r="AA104" s="5"/>
     </row>
-    <row r="105" spans="1:27" ht="13.5" customHeight="1">
+    <row r="105" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="13"/>
       <c r="C105" s="14" t="s">
@@ -8269,7 +8282,7 @@
       <c r="Z105" s="5"/>
       <c r="AA105" s="5"/>
     </row>
-    <row r="106" spans="1:27" ht="13.5" customHeight="1">
+    <row r="106" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="13"/>
       <c r="C106" s="14" t="s">
@@ -8306,7 +8319,7 @@
       <c r="Z106" s="5"/>
       <c r="AA106" s="5"/>
     </row>
-    <row r="107" spans="1:27" ht="13.5" customHeight="1">
+    <row r="107" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="13"/>
       <c r="C107" s="14" t="s">
@@ -8343,7 +8356,7 @@
       <c r="Z107" s="5"/>
       <c r="AA107" s="5"/>
     </row>
-    <row r="108" spans="1:27" ht="13.5" customHeight="1">
+    <row r="108" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -8372,7 +8385,7 @@
       <c r="Z108" s="5"/>
       <c r="AA108" s="5"/>
     </row>
-    <row r="109" spans="1:27" ht="13.5" customHeight="1">
+    <row r="109" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="13"/>
       <c r="C109" s="14" t="s">
@@ -8407,7 +8420,7 @@
       <c r="Z109" s="5"/>
       <c r="AA109" s="5"/>
     </row>
-    <row r="110" spans="1:27" ht="13.5" customHeight="1">
+    <row r="110" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="13"/>
       <c r="C110" s="14" t="s">
@@ -8442,7 +8455,7 @@
       <c r="Z110" s="5"/>
       <c r="AA110" s="5"/>
     </row>
-    <row r="111" spans="1:27" ht="13.5" customHeight="1">
+    <row r="111" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
       <c r="B111" s="13"/>
       <c r="C111" s="14" t="s">
@@ -8477,7 +8490,7 @@
       <c r="Z111" s="5"/>
       <c r="AA111" s="5"/>
     </row>
-    <row r="112" spans="1:27" ht="13.5" customHeight="1">
+    <row r="112" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
       <c r="B112" s="13"/>
       <c r="C112" s="14" t="s">
@@ -8514,7 +8527,7 @@
       <c r="Z112" s="5"/>
       <c r="AA112" s="5"/>
     </row>
-    <row r="113" spans="1:27" ht="13.5" customHeight="1">
+    <row r="113" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="B113" s="13"/>
       <c r="C113" s="14" t="s">
@@ -8549,7 +8562,7 @@
       <c r="Z113" s="5"/>
       <c r="AA113" s="5"/>
     </row>
-    <row r="114" spans="1:27" ht="13.5" customHeight="1">
+    <row r="114" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
       <c r="B114" s="13"/>
       <c r="C114" s="14" t="s">
@@ -8586,7 +8599,7 @@
       <c r="Z114" s="5"/>
       <c r="AA114" s="5"/>
     </row>
-    <row r="115" spans="1:27" ht="13.5" customHeight="1">
+    <row r="115" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
       <c r="B115" s="13"/>
       <c r="C115" s="14" t="s">
@@ -8623,7 +8636,7 @@
       <c r="Z115" s="5"/>
       <c r="AA115" s="5"/>
     </row>
-    <row r="116" spans="1:27" ht="13.5" customHeight="1">
+    <row r="116" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
       <c r="B116" s="13"/>
       <c r="C116" s="14" t="s">
@@ -8660,7 +8673,7 @@
       <c r="Z116" s="5"/>
       <c r="AA116" s="5"/>
     </row>
-    <row r="117" spans="1:27" ht="13.5" customHeight="1">
+    <row r="117" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
@@ -8689,7 +8702,7 @@
       <c r="Z117" s="5"/>
       <c r="AA117" s="5"/>
     </row>
-    <row r="118" spans="1:27" ht="13.5" customHeight="1">
+    <row r="118" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
       <c r="B118" s="13"/>
       <c r="C118" s="14" t="s">
@@ -8726,7 +8739,7 @@
       <c r="Z118" s="5"/>
       <c r="AA118" s="5"/>
     </row>
-    <row r="119" spans="1:27" ht="13.5" customHeight="1">
+    <row r="119" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="B119" s="13"/>
       <c r="C119" s="14" t="s">
@@ -8763,7 +8776,7 @@
       <c r="Z119" s="5"/>
       <c r="AA119" s="5"/>
     </row>
-    <row r="120" spans="1:27" ht="13.5" customHeight="1">
+    <row r="120" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
       <c r="B120" s="13"/>
       <c r="C120" s="14" t="s">
@@ -8800,7 +8813,7 @@
       <c r="Z120" s="5"/>
       <c r="AA120" s="5"/>
     </row>
-    <row r="121" spans="1:27" ht="13.5" customHeight="1">
+    <row r="121" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="B121" s="13"/>
       <c r="C121" s="14" t="s">
@@ -8837,7 +8850,7 @@
       <c r="Z121" s="5"/>
       <c r="AA121" s="5"/>
     </row>
-    <row r="122" spans="1:27" ht="13.5" customHeight="1">
+    <row r="122" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
       <c r="B122" s="13"/>
       <c r="C122" s="14" t="s">
@@ -8874,7 +8887,7 @@
       <c r="Z122" s="5"/>
       <c r="AA122" s="5"/>
     </row>
-    <row r="123" spans="1:27" ht="13.5" customHeight="1">
+    <row r="123" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
       <c r="B123" s="13"/>
       <c r="C123" s="14" t="s">
@@ -8911,7 +8924,7 @@
       <c r="Z123" s="5"/>
       <c r="AA123" s="5"/>
     </row>
-    <row r="124" spans="1:27" ht="13.5" customHeight="1">
+    <row r="124" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
       <c r="B124" s="13"/>
       <c r="C124" s="14" t="s">
@@ -8948,7 +8961,7 @@
       <c r="Z124" s="5"/>
       <c r="AA124" s="5"/>
     </row>
-    <row r="125" spans="1:27">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
       <c r="B125" s="5"/>
       <c r="C125" s="6" t="s">
@@ -8985,7 +8998,7 @@
       <c r="Z125" s="5"/>
       <c r="AA125" s="5"/>
     </row>
-    <row r="126" spans="1:27" ht="25.5">
+    <row r="126" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
       <c r="B126" s="5"/>
       <c r="C126" s="6" t="s">
@@ -9022,7 +9035,7 @@
       <c r="Z126" s="5"/>
       <c r="AA126" s="5"/>
     </row>
-    <row r="127" spans="1:27" ht="25.5">
+    <row r="127" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
       <c r="B127" s="5"/>
       <c r="C127" s="6" t="s">
@@ -9059,7 +9072,7 @@
       <c r="Z127" s="5"/>
       <c r="AA127" s="5"/>
     </row>
-    <row r="128" spans="1:27">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
       <c r="B128" s="5"/>
       <c r="C128" s="6" t="s">
@@ -9094,7 +9107,7 @@
       <c r="Z128" s="5"/>
       <c r="AA128" s="5"/>
     </row>
-    <row r="129" spans="1:27" ht="25.5">
+    <row r="129" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
       <c r="B129" s="5"/>
       <c r="C129" s="6" t="s">
@@ -9131,7 +9144,7 @@
       <c r="Z129" s="5"/>
       <c r="AA129" s="5"/>
     </row>
-    <row r="130" spans="1:27" ht="25.5">
+    <row r="130" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
       <c r="B130" s="5"/>
       <c r="C130" s="6" t="s">
@@ -9166,7 +9179,7 @@
       <c r="Z130" s="5"/>
       <c r="AA130" s="5"/>
     </row>
-    <row r="131" spans="1:27" ht="25.5">
+    <row r="131" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
       <c r="B131" s="5"/>
       <c r="C131" s="6" t="s">
@@ -9203,7 +9216,7 @@
       <c r="Z131" s="5"/>
       <c r="AA131" s="5"/>
     </row>
-    <row r="132" spans="1:27">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
       <c r="B132" s="5"/>
       <c r="C132" s="6" t="s">
@@ -9240,7 +9253,7 @@
       <c r="Z132" s="5"/>
       <c r="AA132" s="5"/>
     </row>
-    <row r="133" spans="1:27" ht="25.5">
+    <row r="133" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
       <c r="B133" s="5"/>
       <c r="C133" s="6" t="s">
@@ -9275,7 +9288,7 @@
       <c r="Z133" s="5"/>
       <c r="AA133" s="5"/>
     </row>
-    <row r="134" spans="1:27" ht="25.5">
+    <row r="134" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
       <c r="B134" s="5"/>
       <c r="C134" s="6" t="s">
@@ -9310,7 +9323,7 @@
       <c r="Z134" s="5"/>
       <c r="AA134" s="5"/>
     </row>
-    <row r="135" spans="1:27" ht="25.5">
+    <row r="135" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
       <c r="B135" s="5"/>
       <c r="C135" s="6" t="s">
@@ -9347,7 +9360,7 @@
       <c r="Z135" s="5"/>
       <c r="AA135" s="5"/>
     </row>
-    <row r="136" spans="1:27">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -9376,7 +9389,7 @@
       <c r="Z136" s="5"/>
       <c r="AA136" s="5"/>
     </row>
-    <row r="137" spans="1:27">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
       <c r="B137" s="5"/>
       <c r="C137" s="6" t="s">
@@ -9413,7 +9426,7 @@
       <c r="Z137" s="5"/>
       <c r="AA137" s="5"/>
     </row>
-    <row r="138" spans="1:27" ht="25.5">
+    <row r="138" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A138" s="7"/>
       <c r="B138" s="5"/>
       <c r="C138" s="6" t="s">
@@ -9450,7 +9463,7 @@
       <c r="Z138" s="5"/>
       <c r="AA138" s="5"/>
     </row>
-    <row r="139" spans="1:27" ht="25.5">
+    <row r="139" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A139" s="7"/>
       <c r="B139" s="5"/>
       <c r="C139" s="6" t="s">
@@ -9485,7 +9498,7 @@
       <c r="Z139" s="5"/>
       <c r="AA139" s="5"/>
     </row>
-    <row r="140" spans="1:27" ht="25.5">
+    <row r="140" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
       <c r="B140" s="5"/>
       <c r="C140" s="6" t="s">
@@ -9520,7 +9533,7 @@
       <c r="Z140" s="5"/>
       <c r="AA140" s="5"/>
     </row>
-    <row r="141" spans="1:27" ht="25.5">
+    <row r="141" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A141" s="7"/>
       <c r="B141" s="5"/>
       <c r="C141" s="6" t="s">
@@ -9557,7 +9570,7 @@
       <c r="Z141" s="5"/>
       <c r="AA141" s="5"/>
     </row>
-    <row r="142" spans="1:27" ht="25.5">
+    <row r="142" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A142" s="7"/>
       <c r="B142" s="5"/>
       <c r="C142" s="6" t="s">
@@ -9594,7 +9607,7 @@
       <c r="Z142" s="5"/>
       <c r="AA142" s="5"/>
     </row>
-    <row r="143" spans="1:27" ht="25.5">
+    <row r="143" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A143" s="7"/>
       <c r="B143" s="5"/>
       <c r="C143" s="6" t="s">
@@ -9629,7 +9642,7 @@
       <c r="Z143" s="5"/>
       <c r="AA143" s="5"/>
     </row>
-    <row r="144" spans="1:27" ht="25.5">
+    <row r="144" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A144" s="7"/>
       <c r="B144" s="5"/>
       <c r="C144" s="6" t="s">
@@ -9666,7 +9679,7 @@
       <c r="Z144" s="5"/>
       <c r="AA144" s="5"/>
     </row>
-    <row r="145" spans="1:27" ht="38.25">
+    <row r="145" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A145" s="7"/>
       <c r="B145" s="5"/>
       <c r="C145" s="6" t="s">
@@ -9703,7 +9716,7 @@
       <c r="Z145" s="5"/>
       <c r="AA145" s="5"/>
     </row>
-    <row r="146" spans="1:27">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A146" s="7"/>
       <c r="B146" s="5"/>
       <c r="C146" s="6" t="s">
@@ -9740,7 +9753,7 @@
       <c r="Z146" s="5"/>
       <c r="AA146" s="5"/>
     </row>
-    <row r="147" spans="1:27" ht="38.25">
+    <row r="147" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
       <c r="B147" s="5"/>
       <c r="C147" s="6" t="s">
@@ -9777,7 +9790,7 @@
       <c r="Z147" s="5"/>
       <c r="AA147" s="5"/>
     </row>
-    <row r="148" spans="1:27" ht="25.5">
+    <row r="148" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A148" s="7"/>
       <c r="B148" s="5"/>
       <c r="C148" s="6" t="s">
@@ -9814,7 +9827,7 @@
       <c r="Z148" s="5"/>
       <c r="AA148" s="5"/>
     </row>
-    <row r="149" spans="1:27" ht="25.5">
+    <row r="149" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
       <c r="B149" s="5"/>
       <c r="C149" s="6" t="s">
@@ -9851,7 +9864,7 @@
       <c r="Z149" s="5"/>
       <c r="AA149" s="5"/>
     </row>
-    <row r="150" spans="1:27" ht="25.5">
+    <row r="150" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
       <c r="B150" s="5"/>
       <c r="C150" s="6" t="s">
@@ -9888,7 +9901,7 @@
       <c r="Z150" s="5"/>
       <c r="AA150" s="5"/>
     </row>
-    <row r="151" spans="1:27">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
       <c r="B151" s="5"/>
       <c r="C151" s="6" t="s">
@@ -9923,7 +9936,7 @@
       <c r="Z151" s="5"/>
       <c r="AA151" s="5"/>
     </row>
-    <row r="152" spans="1:27">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
       <c r="B152" s="5"/>
       <c r="C152" s="6" t="s">
@@ -9958,7 +9971,7 @@
       <c r="Z152" s="5"/>
       <c r="AA152" s="5"/>
     </row>
-    <row r="153" spans="1:27">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
       <c r="B153" s="5"/>
       <c r="C153" s="6" t="s">
@@ -9993,7 +10006,7 @@
       <c r="Z153" s="5"/>
       <c r="AA153" s="5"/>
     </row>
-    <row r="154" spans="1:27" ht="25.5">
+    <row r="154" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
       <c r="B154" s="5"/>
       <c r="C154" s="6" t="s">
@@ -10030,7 +10043,7 @@
       <c r="Z154" s="5"/>
       <c r="AA154" s="5"/>
     </row>
-    <row r="155" spans="1:27">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
       <c r="B155" s="5"/>
       <c r="C155" s="6" t="s">
@@ -10065,7 +10078,7 @@
       <c r="Z155" s="5"/>
       <c r="AA155" s="5"/>
     </row>
-    <row r="156" spans="1:27" ht="25.5">
+    <row r="156" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
       <c r="B156" s="5"/>
       <c r="C156" s="6" t="s">
@@ -10100,7 +10113,7 @@
       <c r="Z156" s="5"/>
       <c r="AA156" s="5"/>
     </row>
-    <row r="157" spans="1:27">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
       <c r="B157" s="5"/>
       <c r="C157" s="6" t="s">
@@ -10137,7 +10150,7 @@
       <c r="Z157" s="5"/>
       <c r="AA157" s="5"/>
     </row>
-    <row r="158" spans="1:27" ht="25.5">
+    <row r="158" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
       <c r="B158" s="5"/>
       <c r="C158" s="6" t="s">
@@ -10174,7 +10187,7 @@
       <c r="Z158" s="5"/>
       <c r="AA158" s="5"/>
     </row>
-    <row r="159" spans="1:27">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -10203,7 +10216,7 @@
       <c r="Z159" s="5"/>
       <c r="AA159" s="5"/>
     </row>
-    <row r="160" spans="1:27" ht="25.5">
+    <row r="160" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
       <c r="B160" s="5"/>
       <c r="C160" s="6" t="s">
@@ -10240,7 +10253,7 @@
       <c r="Z160" s="5"/>
       <c r="AA160" s="5"/>
     </row>
-    <row r="161" spans="1:27">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
       <c r="B161" s="5"/>
       <c r="C161" s="6" t="s">
@@ -10275,7 +10288,7 @@
       <c r="Z161" s="5"/>
       <c r="AA161" s="5"/>
     </row>
-    <row r="162" spans="1:27" ht="25.5">
+    <row r="162" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
       <c r="B162" s="5"/>
       <c r="C162" s="6" t="s">
@@ -10310,7 +10323,7 @@
       <c r="Z162" s="5"/>
       <c r="AA162" s="5"/>
     </row>
-    <row r="163" spans="1:27" ht="25.5">
+    <row r="163" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A163" s="7"/>
       <c r="B163" s="5"/>
       <c r="C163" s="6" t="s">
@@ -10347,7 +10360,7 @@
       <c r="Z163" s="5"/>
       <c r="AA163" s="5"/>
     </row>
-    <row r="164" spans="1:27">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A164" s="7"/>
       <c r="B164" s="5"/>
       <c r="C164" s="6" t="s">
@@ -10382,7 +10395,7 @@
       <c r="Z164" s="5"/>
       <c r="AA164" s="5"/>
     </row>
-    <row r="165" spans="1:27">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A165" s="7"/>
       <c r="B165" s="5"/>
       <c r="C165" s="6" t="s">
@@ -10417,7 +10430,7 @@
       <c r="Z165" s="5"/>
       <c r="AA165" s="5"/>
     </row>
-    <row r="166" spans="1:27" ht="25.5">
+    <row r="166" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A166" s="7"/>
       <c r="B166" s="5"/>
       <c r="C166" s="6" t="s">
@@ -10454,7 +10467,7 @@
       <c r="Z166" s="5"/>
       <c r="AA166" s="5"/>
     </row>
-    <row r="167" spans="1:27">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A167" s="7"/>
       <c r="B167" s="5"/>
       <c r="C167" s="6" t="s">
@@ -10491,7 +10504,7 @@
       <c r="Z167" s="5"/>
       <c r="AA167" s="5"/>
     </row>
-    <row r="168" spans="1:27" ht="25.5">
+    <row r="168" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A168" s="7"/>
       <c r="B168" s="5"/>
       <c r="C168" s="6" t="s">
@@ -10526,7 +10539,7 @@
       <c r="Z168" s="5"/>
       <c r="AA168" s="5"/>
     </row>
-    <row r="169" spans="1:27" ht="25.5">
+    <row r="169" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A169" s="7"/>
       <c r="B169" s="5"/>
       <c r="C169" s="6" t="s">
@@ -10563,7 +10576,7 @@
       <c r="Z169" s="5"/>
       <c r="AA169" s="5"/>
     </row>
-    <row r="170" spans="1:27" ht="25.5">
+    <row r="170" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A170" s="7"/>
       <c r="B170" s="5"/>
       <c r="C170" s="6" t="s">
@@ -10598,7 +10611,7 @@
       <c r="Z170" s="5"/>
       <c r="AA170" s="5"/>
     </row>
-    <row r="171" spans="1:27" ht="38.25">
+    <row r="171" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A171" s="7"/>
       <c r="B171" s="5"/>
       <c r="C171" s="6" t="s">
@@ -10635,7 +10648,7 @@
       <c r="Z171" s="5"/>
       <c r="AA171" s="5"/>
     </row>
-    <row r="172" spans="1:27">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A172" s="7"/>
       <c r="B172" s="5"/>
       <c r="C172" s="6" t="s">
@@ -10670,7 +10683,7 @@
       <c r="Z172" s="5"/>
       <c r="AA172" s="5"/>
     </row>
-    <row r="173" spans="1:27">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A173" s="7"/>
       <c r="B173" s="5"/>
       <c r="C173" s="6" t="s">
@@ -10705,7 +10718,7 @@
       <c r="Z173" s="5"/>
       <c r="AA173" s="5"/>
     </row>
-    <row r="174" spans="1:27" ht="38.25">
+    <row r="174" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A174" s="7"/>
       <c r="B174" s="5"/>
       <c r="C174" s="6" t="s">
@@ -10742,7 +10755,7 @@
       <c r="Z174" s="5"/>
       <c r="AA174" s="5"/>
     </row>
-    <row r="175" spans="1:27" ht="25.5">
+    <row r="175" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A175" s="7"/>
       <c r="B175" s="5"/>
       <c r="C175" s="6" t="s">
@@ -10779,7 +10792,7 @@
       <c r="Z175" s="5"/>
       <c r="AA175" s="5"/>
     </row>
-    <row r="176" spans="1:27">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="6" t="s">
@@ -10814,7 +10827,7 @@
       <c r="Z176" s="5"/>
       <c r="AA176" s="5"/>
     </row>
-    <row r="177" spans="1:27">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="6" t="s">
@@ -10849,7 +10862,7 @@
       <c r="Z177" s="5"/>
       <c r="AA177" s="5"/>
     </row>
-    <row r="178" spans="1:27" ht="25.5">
+    <row r="178" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="6" t="s">
@@ -10886,7 +10899,7 @@
       <c r="Z178" s="5"/>
       <c r="AA178" s="5"/>
     </row>
-    <row r="179" spans="1:27" ht="25.5">
+    <row r="179" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="6" t="s">
@@ -10923,7 +10936,7 @@
       <c r="Z179" s="5"/>
       <c r="AA179" s="5"/>
     </row>
-    <row r="180" spans="1:27" ht="25.5">
+    <row r="180" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="6" t="s">
@@ -10960,7 +10973,7 @@
       <c r="Z180" s="5"/>
       <c r="AA180" s="5"/>
     </row>
-    <row r="181" spans="1:27" ht="25.5">
+    <row r="181" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="6" t="s">
@@ -10995,7 +11008,7 @@
       <c r="Z181" s="5"/>
       <c r="AA181" s="5"/>
     </row>
-    <row r="182" spans="1:27" ht="25.5">
+    <row r="182" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="6" t="s">
@@ -11032,7 +11045,7 @@
       <c r="Z182" s="5"/>
       <c r="AA182" s="5"/>
     </row>
-    <row r="183" spans="1:27" ht="25.5">
+    <row r="183" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="6" t="s">
@@ -11069,7 +11082,7 @@
       <c r="Z183" s="5"/>
       <c r="AA183" s="5"/>
     </row>
-    <row r="184" spans="1:27">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="6" t="s">
@@ -11106,7 +11119,7 @@
       <c r="Z184" s="5"/>
       <c r="AA184" s="5"/>
     </row>
-    <row r="185" spans="1:27" ht="25.5">
+    <row r="185" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="6" t="s">
@@ -11143,7 +11156,7 @@
       <c r="Z185" s="5"/>
       <c r="AA185" s="5"/>
     </row>
-    <row r="186" spans="1:27">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="6" t="s">
@@ -11178,7 +11191,7 @@
       <c r="Z186" s="5"/>
       <c r="AA186" s="5"/>
     </row>
-    <row r="187" spans="1:27" ht="38.25">
+    <row r="187" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="6" t="s">
@@ -11215,7 +11228,7 @@
       <c r="Z187" s="5"/>
       <c r="AA187" s="5"/>
     </row>
-    <row r="188" spans="1:27" ht="25.5">
+    <row r="188" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="6" t="s">
@@ -11252,7 +11265,7 @@
       <c r="Z188" s="5"/>
       <c r="AA188" s="5"/>
     </row>
-    <row r="189" spans="1:27" ht="25.5">
+    <row r="189" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="6" t="s">
@@ -11289,7 +11302,7 @@
       <c r="Z189" s="5"/>
       <c r="AA189" s="5"/>
     </row>
-    <row r="190" spans="1:27" ht="25.5">
+    <row r="190" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="6" t="s">
@@ -11326,7 +11339,7 @@
       <c r="Z190" s="5"/>
       <c r="AA190" s="5"/>
     </row>
-    <row r="191" spans="1:27">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -11355,7 +11368,7 @@
       <c r="Z191" s="5"/>
       <c r="AA191" s="5"/>
     </row>
-    <row r="192" spans="1:27">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="6" t="s">
@@ -11390,7 +11403,7 @@
       <c r="Z192" s="5"/>
       <c r="AA192" s="5"/>
     </row>
-    <row r="193" spans="1:27" ht="25.5">
+    <row r="193" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="6" t="s">
@@ -11425,7 +11438,7 @@
       <c r="Z193" s="5"/>
       <c r="AA193" s="5"/>
     </row>
-    <row r="194" spans="1:27" ht="25.5">
+    <row r="194" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="6" t="s">
@@ -11460,7 +11473,7 @@
       <c r="Z194" s="5"/>
       <c r="AA194" s="5"/>
     </row>
-    <row r="195" spans="1:27" ht="25.5">
+    <row r="195" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="6" t="s">
@@ -11495,7 +11508,7 @@
       <c r="Z195" s="5"/>
       <c r="AA195" s="5"/>
     </row>
-    <row r="196" spans="1:27" ht="25.5">
+    <row r="196" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="6" t="s">
@@ -11530,7 +11543,7 @@
       <c r="Z196" s="5"/>
       <c r="AA196" s="5"/>
     </row>
-    <row r="197" spans="1:27">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="6" t="s">
@@ -11565,7 +11578,7 @@
       <c r="Z197" s="5"/>
       <c r="AA197" s="5"/>
     </row>
-    <row r="198" spans="1:27" ht="25.5">
+    <row r="198" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="6" t="s">
@@ -11602,7 +11615,7 @@
       <c r="Z198" s="5"/>
       <c r="AA198" s="5"/>
     </row>
-    <row r="199" spans="1:27" ht="38.25">
+    <row r="199" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="6" t="s">
@@ -11637,7 +11650,7 @@
       <c r="Z199" s="5"/>
       <c r="AA199" s="5"/>
     </row>
-    <row r="200" spans="1:27" ht="38.25">
+    <row r="200" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="6" t="s">
@@ -11674,7 +11687,7 @@
       <c r="Z200" s="5"/>
       <c r="AA200" s="5"/>
     </row>
-    <row r="201" spans="1:27">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="6" t="s">
@@ -11709,7 +11722,7 @@
       <c r="Z201" s="5"/>
       <c r="AA201" s="5"/>
     </row>
-    <row r="202" spans="1:27">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -11738,7 +11751,7 @@
       <c r="Z202" s="5"/>
       <c r="AA202" s="5"/>
     </row>
-    <row r="203" spans="1:27" ht="25.5">
+    <row r="203" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="6" t="s">
@@ -11775,7 +11788,7 @@
       <c r="Z203" s="5"/>
       <c r="AA203" s="5"/>
     </row>
-    <row r="204" spans="1:27">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="6" t="s">
@@ -11810,7 +11823,7 @@
       <c r="Z204" s="5"/>
       <c r="AA204" s="5"/>
     </row>
-    <row r="205" spans="1:27" ht="25.5">
+    <row r="205" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="6" t="s">
@@ -11845,7 +11858,7 @@
       <c r="Z205" s="5"/>
       <c r="AA205" s="5"/>
     </row>
-    <row r="206" spans="1:27" ht="38.25">
+    <row r="206" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="6" t="s">
@@ -11882,7 +11895,7 @@
       <c r="Z206" s="5"/>
       <c r="AA206" s="5"/>
     </row>
-    <row r="207" spans="1:27">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -11911,7 +11924,7 @@
       <c r="Z207" s="5"/>
       <c r="AA207" s="5"/>
     </row>
-    <row r="208" spans="1:27">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="6" t="s">
@@ -11946,7 +11959,7 @@
       <c r="Z208" s="5"/>
       <c r="AA208" s="5"/>
     </row>
-    <row r="209" spans="1:27" ht="38.25">
+    <row r="209" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="6" t="s">
@@ -11981,7 +11994,7 @@
       <c r="Z209" s="5"/>
       <c r="AA209" s="5"/>
     </row>
-    <row r="210" spans="1:27" ht="25.5">
+    <row r="210" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="6" t="s">
@@ -12018,7 +12031,7 @@
       <c r="Z210" s="5"/>
       <c r="AA210" s="5"/>
     </row>
-    <row r="211" spans="1:27">
+    <row r="211" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="6" t="s">
@@ -12055,7 +12068,7 @@
       <c r="Z211" s="5"/>
       <c r="AA211" s="5"/>
     </row>
-    <row r="212" spans="1:27" ht="25.5">
+    <row r="212" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="6" t="s">
@@ -12090,7 +12103,7 @@
       <c r="Z212" s="5"/>
       <c r="AA212" s="5"/>
     </row>
-    <row r="213" spans="1:27" ht="25.5">
+    <row r="213" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="6" t="s">
@@ -12127,7 +12140,7 @@
       <c r="Z213" s="5"/>
       <c r="AA213" s="5"/>
     </row>
-    <row r="214" spans="1:27" ht="25.5">
+    <row r="214" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="6" t="s">
@@ -12164,7 +12177,7 @@
       <c r="Z214" s="5"/>
       <c r="AA214" s="5"/>
     </row>
-    <row r="215" spans="1:27">
+    <row r="215" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="6" t="s">
@@ -12199,7 +12212,7 @@
       <c r="Z215" s="5"/>
       <c r="AA215" s="5"/>
     </row>
-    <row r="216" spans="1:27" ht="25.5">
+    <row r="216" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="6" t="s">
@@ -12234,7 +12247,7 @@
       <c r="Z216" s="5"/>
       <c r="AA216" s="5"/>
     </row>
-    <row r="217" spans="1:27" ht="25.5">
+    <row r="217" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="6" t="s">
@@ -12271,7 +12284,7 @@
       <c r="Z217" s="5"/>
       <c r="AA217" s="5"/>
     </row>
-    <row r="218" spans="1:27" ht="25.5">
+    <row r="218" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="6" t="s">
@@ -12306,7 +12319,7 @@
       <c r="Z218" s="5"/>
       <c r="AA218" s="5"/>
     </row>
-    <row r="219" spans="1:27">
+    <row r="219" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="6" t="s">
@@ -12341,7 +12354,7 @@
       <c r="Z219" s="5"/>
       <c r="AA219" s="5"/>
     </row>
-    <row r="220" spans="1:27">
+    <row r="220" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -12370,7 +12383,7 @@
       <c r="Z220" s="5"/>
       <c r="AA220" s="5"/>
     </row>
-    <row r="221" spans="1:27" ht="25.5">
+    <row r="221" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="6" t="s">
@@ -12407,7 +12420,7 @@
       <c r="Z221" s="5"/>
       <c r="AA221" s="5"/>
     </row>
-    <row r="222" spans="1:27" ht="25.5">
+    <row r="222" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="6" t="s">
@@ -12444,7 +12457,7 @@
       <c r="Z222" s="5"/>
       <c r="AA222" s="5"/>
     </row>
-    <row r="223" spans="1:27" ht="25.5">
+    <row r="223" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="6" t="s">
@@ -12479,7 +12492,7 @@
       <c r="Z223" s="5"/>
       <c r="AA223" s="5"/>
     </row>
-    <row r="224" spans="1:27" ht="38.25">
+    <row r="224" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="6" t="s">
@@ -12516,7 +12529,7 @@
       <c r="Z224" s="5"/>
       <c r="AA224" s="5"/>
     </row>
-    <row r="225" spans="1:27" ht="25.5">
+    <row r="225" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="6" t="s">
@@ -12551,7 +12564,7 @@
       <c r="Z225" s="5"/>
       <c r="AA225" s="5"/>
     </row>
-    <row r="226" spans="1:27">
+    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="6" t="s">
@@ -12586,7 +12599,7 @@
       <c r="Z226" s="5"/>
       <c r="AA226" s="5"/>
     </row>
-    <row r="227" spans="1:27" ht="25.5">
+    <row r="227" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="6" t="s">
@@ -12621,7 +12634,7 @@
       <c r="Z227" s="5"/>
       <c r="AA227" s="5"/>
     </row>
-    <row r="228" spans="1:27" ht="25.5">
+    <row r="228" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="6" t="s">
@@ -12658,7 +12671,7 @@
       <c r="Z228" s="5"/>
       <c r="AA228" s="5"/>
     </row>
-    <row r="229" spans="1:27" ht="25.5">
+    <row r="229" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="6" t="s">
@@ -12695,7 +12708,7 @@
       <c r="Z229" s="5"/>
       <c r="AA229" s="5"/>
     </row>
-    <row r="230" spans="1:27" ht="25.5">
+    <row r="230" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="6" t="s">
@@ -12732,7 +12745,7 @@
       <c r="Z230" s="5"/>
       <c r="AA230" s="5"/>
     </row>
-    <row r="231" spans="1:27" ht="38.25">
+    <row r="231" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="6" t="s">
@@ -12769,7 +12782,7 @@
       <c r="Z231" s="5"/>
       <c r="AA231" s="5"/>
     </row>
-    <row r="232" spans="1:27">
+    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="6" t="s">
@@ -12806,7 +12819,7 @@
       <c r="Z232" s="5"/>
       <c r="AA232" s="5"/>
     </row>
-    <row r="233" spans="1:27" ht="25.5">
+    <row r="233" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="6" t="s">
@@ -12843,7 +12856,7 @@
       <c r="Z233" s="5"/>
       <c r="AA233" s="5"/>
     </row>
-    <row r="234" spans="1:27" ht="25.5">
+    <row r="234" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="6" t="s">
@@ -12878,7 +12891,7 @@
       <c r="Z234" s="5"/>
       <c r="AA234" s="5"/>
     </row>
-    <row r="235" spans="1:27" ht="25.5">
+    <row r="235" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="6" t="s">
@@ -12915,7 +12928,7 @@
       <c r="Z235" s="5"/>
       <c r="AA235" s="5"/>
     </row>
-    <row r="236" spans="1:27">
+    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="6" t="s">
@@ -12950,7 +12963,7 @@
       <c r="Z236" s="5"/>
       <c r="AA236" s="5"/>
     </row>
-    <row r="237" spans="1:27">
+    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="6" t="s">
@@ -12985,7 +12998,7 @@
       <c r="Z237" s="5"/>
       <c r="AA237" s="5"/>
     </row>
-    <row r="238" spans="1:27" ht="38.25">
+    <row r="238" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="6" t="s">
@@ -13022,7 +13035,7 @@
       <c r="Z238" s="5"/>
       <c r="AA238" s="5"/>
     </row>
-    <row r="239" spans="1:27">
+    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -13053,7 +13066,7 @@
       <c r="Z239" s="5"/>
       <c r="AA239" s="5"/>
     </row>
-    <row r="240" spans="1:27">
+    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="6" t="s">
@@ -13090,7 +13103,7 @@
       <c r="Z240" s="5"/>
       <c r="AA240" s="5"/>
     </row>
-    <row r="241" spans="1:27" ht="38.25">
+    <row r="241" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="6" t="s">
@@ -13127,7 +13140,7 @@
       <c r="Z241" s="5"/>
       <c r="AA241" s="5"/>
     </row>
-    <row r="242" spans="1:27" ht="25.5">
+    <row r="242" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="6" t="s">
@@ -13164,7 +13177,7 @@
       <c r="Z242" s="5"/>
       <c r="AA242" s="5"/>
     </row>
-    <row r="243" spans="1:27" ht="38.25">
+    <row r="243" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="6" t="s">
@@ -13199,7 +13212,7 @@
       <c r="Z243" s="5"/>
       <c r="AA243" s="5"/>
     </row>
-    <row r="244" spans="1:27" ht="38.25">
+    <row r="244" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="6" t="s">
@@ -13234,7 +13247,7 @@
       <c r="Z244" s="5"/>
       <c r="AA244" s="5"/>
     </row>
-    <row r="245" spans="1:27" ht="25.5">
+    <row r="245" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="6" t="s">
@@ -13271,7 +13284,7 @@
       <c r="Z245" s="5"/>
       <c r="AA245" s="5"/>
     </row>
-    <row r="246" spans="1:27">
+    <row r="246" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -13300,7 +13313,7 @@
       <c r="Z246" s="5"/>
       <c r="AA246" s="5"/>
     </row>
-    <row r="247" spans="1:27" ht="38.25">
+    <row r="247" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="6" t="s">
@@ -13337,7 +13350,7 @@
       <c r="Z247" s="5"/>
       <c r="AA247" s="5"/>
     </row>
-    <row r="248" spans="1:27">
+    <row r="248" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -13366,7 +13379,7 @@
       <c r="Z248" s="5"/>
       <c r="AA248" s="5"/>
     </row>
-    <row r="249" spans="1:27">
+    <row r="249" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="6" t="s">
@@ -13401,7 +13414,7 @@
       <c r="Z249" s="5"/>
       <c r="AA249" s="5"/>
     </row>
-    <row r="250" spans="1:27" ht="25.5">
+    <row r="250" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="6" t="s">
@@ -13438,7 +13451,7 @@
       <c r="Z250" s="5"/>
       <c r="AA250" s="5"/>
     </row>
-    <row r="251" spans="1:27">
+    <row r="251" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="6" t="s">
@@ -13473,7 +13486,7 @@
       <c r="Z251" s="5"/>
       <c r="AA251" s="5"/>
     </row>
-    <row r="252" spans="1:27" ht="38.25">
+    <row r="252" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="6" t="s">
@@ -13510,7 +13523,7 @@
       <c r="Z252" s="5"/>
       <c r="AA252" s="5"/>
     </row>
-    <row r="253" spans="1:27">
+    <row r="253" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -13539,7 +13552,7 @@
       <c r="Z253" s="5"/>
       <c r="AA253" s="5"/>
     </row>
-    <row r="254" spans="1:27" ht="25.5">
+    <row r="254" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="6" t="s">
@@ -13576,7 +13589,7 @@
       <c r="Z254" s="5"/>
       <c r="AA254" s="5"/>
     </row>
-    <row r="255" spans="1:27">
+    <row r="255" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="6" t="s">
@@ -13611,7 +13624,7 @@
       <c r="Z255" s="5"/>
       <c r="AA255" s="5"/>
     </row>
-    <row r="256" spans="1:27" ht="25.5">
+    <row r="256" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="6" t="s">
@@ -13648,7 +13661,7 @@
       <c r="Z256" s="5"/>
       <c r="AA256" s="5"/>
     </row>
-    <row r="257" spans="1:27" ht="25.5">
+    <row r="257" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="6" t="s">
@@ -13685,7 +13698,7 @@
       <c r="Z257" s="5"/>
       <c r="AA257" s="5"/>
     </row>
-    <row r="258" spans="1:27">
+    <row r="258" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="6" t="s">
@@ -13722,7 +13735,7 @@
       <c r="Z258" s="5"/>
       <c r="AA258" s="5"/>
     </row>
-    <row r="259" spans="1:27">
+    <row r="259" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="6" t="s">
@@ -13759,7 +13772,7 @@
       <c r="Z259" s="5"/>
       <c r="AA259" s="5"/>
     </row>
-    <row r="260" spans="1:27">
+    <row r="260" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -13788,7 +13801,7 @@
       <c r="Z260" s="5"/>
       <c r="AA260" s="5"/>
     </row>
-    <row r="261" spans="1:27" ht="25.5">
+    <row r="261" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="6" t="s">
@@ -13825,7 +13838,7 @@
       <c r="Z261" s="5"/>
       <c r="AA261" s="5"/>
     </row>
-    <row r="262" spans="1:27">
+    <row r="262" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -13854,7 +13867,7 @@
       <c r="Z262" s="5"/>
       <c r="AA262" s="5"/>
     </row>
-    <row r="263" spans="1:27" ht="25.5">
+    <row r="263" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="6" t="s">
@@ -13891,7 +13904,7 @@
       <c r="Z263" s="5"/>
       <c r="AA263" s="5"/>
     </row>
-    <row r="264" spans="1:27" ht="25.5">
+    <row r="264" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="6" t="s">
@@ -13926,7 +13939,7 @@
       <c r="Z264" s="5"/>
       <c r="AA264" s="5"/>
     </row>
-    <row r="265" spans="1:27" ht="38.25">
+    <row r="265" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="6" t="s">
@@ -13963,7 +13976,7 @@
       <c r="Z265" s="5"/>
       <c r="AA265" s="5"/>
     </row>
-    <row r="266" spans="1:27">
+    <row r="266" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -13994,7 +14007,7 @@
       <c r="Z266" s="5"/>
       <c r="AA266" s="5"/>
     </row>
-    <row r="267" spans="1:27" ht="25.5">
+    <row r="267" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="6" t="s">
@@ -14031,7 +14044,7 @@
       <c r="Z267" s="5"/>
       <c r="AA267" s="5"/>
     </row>
-    <row r="268" spans="1:27" ht="25.5">
+    <row r="268" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="6" t="s">
@@ -14066,7 +14079,7 @@
       <c r="Z268" s="5"/>
       <c r="AA268" s="5"/>
     </row>
-    <row r="269" spans="1:27" ht="25.5">
+    <row r="269" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="6" t="s">
@@ -14101,7 +14114,7 @@
       <c r="Z269" s="5"/>
       <c r="AA269" s="5"/>
     </row>
-    <row r="270" spans="1:27" ht="25.5">
+    <row r="270" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="6" t="s">
@@ -14136,7 +14149,7 @@
       <c r="Z270" s="5"/>
       <c r="AA270" s="5"/>
     </row>
-    <row r="271" spans="1:27" ht="25.5">
+    <row r="271" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="6" t="s">
@@ -14171,7 +14184,7 @@
       <c r="Z271" s="5"/>
       <c r="AA271" s="5"/>
     </row>
-    <row r="272" spans="1:27" ht="25.5">
+    <row r="272" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="6" t="s">
@@ -14208,7 +14221,7 @@
       <c r="Z272" s="5"/>
       <c r="AA272" s="5"/>
     </row>
-    <row r="273" spans="1:27" ht="25.5">
+    <row r="273" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="6" t="s">
@@ -14245,7 +14258,7 @@
       <c r="Z273" s="5"/>
       <c r="AA273" s="5"/>
     </row>
-    <row r="274" spans="1:27" ht="38.25">
+    <row r="274" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="6" t="s">
@@ -14282,7 +14295,7 @@
       <c r="Z274" s="5"/>
       <c r="AA274" s="5"/>
     </row>
-    <row r="275" spans="1:27" ht="38.25">
+    <row r="275" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="6" t="s">
@@ -14319,7 +14332,7 @@
       <c r="Z275" s="5"/>
       <c r="AA275" s="5"/>
     </row>
-    <row r="276" spans="1:27" ht="25.5">
+    <row r="276" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="6" t="s">
@@ -14356,7 +14369,7 @@
       <c r="Z276" s="5"/>
       <c r="AA276" s="5"/>
     </row>
-    <row r="277" spans="1:27">
+    <row r="277" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="6" t="s">
@@ -14391,7 +14404,7 @@
       <c r="Z277" s="5"/>
       <c r="AA277" s="5"/>
     </row>
-    <row r="278" spans="1:27" ht="25.5">
+    <row r="278" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="6" t="s">
@@ -14428,7 +14441,7 @@
       <c r="Z278" s="5"/>
       <c r="AA278" s="5"/>
     </row>
-    <row r="279" spans="1:27" ht="25.5">
+    <row r="279" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="6" t="s">
@@ -14463,7 +14476,7 @@
       <c r="Z279" s="5"/>
       <c r="AA279" s="5"/>
     </row>
-    <row r="280" spans="1:27" ht="38.25">
+    <row r="280" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="6" t="s">
@@ -14500,7 +14513,7 @@
       <c r="Z280" s="5"/>
       <c r="AA280" s="5"/>
     </row>
-    <row r="281" spans="1:27" ht="51">
+    <row r="281" spans="1:27" ht="51" x14ac:dyDescent="0.25">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="6" t="s">
@@ -14535,7 +14548,7 @@
       <c r="Z281" s="5"/>
       <c r="AA281" s="5"/>
     </row>
-    <row r="282" spans="1:27" ht="25.5">
+    <row r="282" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="6" t="s">
@@ -14572,7 +14585,7 @@
       <c r="Z282" s="5"/>
       <c r="AA282" s="5"/>
     </row>
-    <row r="283" spans="1:27" ht="25.5">
+    <row r="283" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="6" t="s">
@@ -14609,7 +14622,7 @@
       <c r="Z283" s="5"/>
       <c r="AA283" s="5"/>
     </row>
-    <row r="284" spans="1:27" ht="25.5">
+    <row r="284" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="6" t="s">
@@ -14646,7 +14659,7 @@
       <c r="Z284" s="5"/>
       <c r="AA284" s="5"/>
     </row>
-    <row r="285" spans="1:27">
+    <row r="285" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="6" t="s">
@@ -14681,7 +14694,7 @@
       <c r="Z285" s="5"/>
       <c r="AA285" s="5"/>
     </row>
-    <row r="286" spans="1:27">
+    <row r="286" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="6" t="s">
@@ -14716,7 +14729,7 @@
       <c r="Z286" s="5"/>
       <c r="AA286" s="5"/>
     </row>
-    <row r="287" spans="1:27">
+    <row r="287" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="6" t="s">
@@ -14751,7 +14764,7 @@
       <c r="Z287" s="5"/>
       <c r="AA287" s="5"/>
     </row>
-    <row r="288" spans="1:27" ht="25.5">
+    <row r="288" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="6" t="s">
@@ -14788,7 +14801,7 @@
       <c r="Z288" s="5"/>
       <c r="AA288" s="5"/>
     </row>
-    <row r="289" spans="1:27">
+    <row r="289" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="6" t="s">
@@ -14823,7 +14836,7 @@
       <c r="Z289" s="5"/>
       <c r="AA289" s="5"/>
     </row>
-    <row r="290" spans="1:27" ht="38.25">
+    <row r="290" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="6" t="s">
@@ -14860,7 +14873,7 @@
       <c r="Z290" s="5"/>
       <c r="AA290" s="5"/>
     </row>
-    <row r="291" spans="1:27">
+    <row r="291" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="6" t="s">
@@ -14895,7 +14908,7 @@
       <c r="Z291" s="5"/>
       <c r="AA291" s="5"/>
     </row>
-    <row r="292" spans="1:27">
+    <row r="292" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="6" t="s">
@@ -14930,7 +14943,7 @@
       <c r="Z292" s="5"/>
       <c r="AA292" s="5"/>
     </row>
-    <row r="293" spans="1:27" ht="25.5">
+    <row r="293" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="6" t="s">
@@ -14967,7 +14980,7 @@
       <c r="Z293" s="5"/>
       <c r="AA293" s="5"/>
     </row>
-    <row r="294" spans="1:27" ht="38.25">
+    <row r="294" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="6" t="s">
@@ -15002,7 +15015,7 @@
       <c r="Z294" s="5"/>
       <c r="AA294" s="5"/>
     </row>
-    <row r="295" spans="1:27">
+    <row r="295" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="6" t="s">
@@ -15039,7 +15052,7 @@
       <c r="Z295" s="5"/>
       <c r="AA295" s="5"/>
     </row>
-    <row r="296" spans="1:27" ht="25.5">
+    <row r="296" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="6" t="s">
@@ -15074,7 +15087,7 @@
       <c r="Z296" s="5"/>
       <c r="AA296" s="5"/>
     </row>
-    <row r="297" spans="1:27" ht="25.5">
+    <row r="297" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="6" t="s">
@@ -15111,7 +15124,7 @@
       <c r="Z297" s="5"/>
       <c r="AA297" s="5"/>
     </row>
-    <row r="298" spans="1:27" ht="25.5">
+    <row r="298" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="6" t="s">
@@ -15148,7 +15161,7 @@
       <c r="Z298" s="5"/>
       <c r="AA298" s="5"/>
     </row>
-    <row r="299" spans="1:27" ht="25.5">
+    <row r="299" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="6" t="s">
@@ -15185,7 +15198,7 @@
       <c r="Z299" s="5"/>
       <c r="AA299" s="5"/>
     </row>
-    <row r="300" spans="1:27" ht="25.5">
+    <row r="300" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="6" t="s">
@@ -15222,7 +15235,7 @@
       <c r="Z300" s="5"/>
       <c r="AA300" s="5"/>
     </row>
-    <row r="301" spans="1:27" ht="25.5">
+    <row r="301" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="6" t="s">
@@ -15259,7 +15272,7 @@
       <c r="Z301" s="5"/>
       <c r="AA301" s="5"/>
     </row>
-    <row r="302" spans="1:27">
+    <row r="302" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="6" t="s">
@@ -15294,7 +15307,7 @@
       <c r="Z302" s="5"/>
       <c r="AA302" s="5"/>
     </row>
-    <row r="303" spans="1:27" ht="25.5">
+    <row r="303" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="6" t="s">
@@ -15331,7 +15344,7 @@
       <c r="Z303" s="5"/>
       <c r="AA303" s="5"/>
     </row>
-    <row r="304" spans="1:27" ht="25.5">
+    <row r="304" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="6" t="s">
@@ -15368,7 +15381,7 @@
       <c r="Z304" s="5"/>
       <c r="AA304" s="5"/>
     </row>
-    <row r="305" spans="1:27" ht="25.5">
+    <row r="305" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="6" t="s">
@@ -15405,7 +15418,7 @@
       <c r="Z305" s="5"/>
       <c r="AA305" s="5"/>
     </row>
-    <row r="306" spans="1:27">
+    <row r="306" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -15434,7 +15447,7 @@
       <c r="Z306" s="5"/>
       <c r="AA306" s="5"/>
     </row>
-    <row r="307" spans="1:27">
+    <row r="307" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="6" t="s">
@@ -15469,7 +15482,7 @@
       <c r="Z307" s="5"/>
       <c r="AA307" s="5"/>
     </row>
-    <row r="308" spans="1:27" ht="38.25">
+    <row r="308" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="6" t="s">
@@ -15506,7 +15519,7 @@
       <c r="Z308" s="5"/>
       <c r="AA308" s="5"/>
     </row>
-    <row r="309" spans="1:27">
+    <row r="309" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="6" t="s">
@@ -15541,7 +15554,7 @@
       <c r="Z309" s="5"/>
       <c r="AA309" s="5"/>
     </row>
-    <row r="310" spans="1:27">
+    <row r="310" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="6" t="s">
@@ -15576,7 +15589,7 @@
       <c r="Z310" s="5"/>
       <c r="AA310" s="5"/>
     </row>
-    <row r="311" spans="1:27" ht="25.5">
+    <row r="311" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="6" t="s">
@@ -15613,7 +15626,7 @@
       <c r="Z311" s="5"/>
       <c r="AA311" s="5"/>
     </row>
-    <row r="312" spans="1:27" ht="25.5">
+    <row r="312" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="6" t="s">
@@ -15650,7 +15663,7 @@
       <c r="Z312" s="5"/>
       <c r="AA312" s="5"/>
     </row>
-    <row r="313" spans="1:27" ht="38.25">
+    <row r="313" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="6" t="s">
@@ -15687,7 +15700,7 @@
       <c r="Z313" s="5"/>
       <c r="AA313" s="5"/>
     </row>
-    <row r="314" spans="1:27">
+    <row r="314" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="6" t="s">
@@ -15722,7 +15735,7 @@
       <c r="Z314" s="5"/>
       <c r="AA314" s="5"/>
     </row>
-    <row r="315" spans="1:27">
+    <row r="315" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="6" t="s">
@@ -15757,7 +15770,7 @@
       <c r="Z315" s="5"/>
       <c r="AA315" s="5"/>
     </row>
-    <row r="316" spans="1:27">
+    <row r="316" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="6" t="s">
@@ -15792,7 +15805,7 @@
       <c r="Z316" s="5"/>
       <c r="AA316" s="5"/>
     </row>
-    <row r="317" spans="1:27" ht="25.5">
+    <row r="317" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="6" t="s">
@@ -15829,7 +15842,7 @@
       <c r="Z317" s="5"/>
       <c r="AA317" s="5"/>
     </row>
-    <row r="318" spans="1:27" ht="25.5">
+    <row r="318" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="6" t="s">
@@ -15866,7 +15879,7 @@
       <c r="Z318" s="5"/>
       <c r="AA318" s="5"/>
     </row>
-    <row r="319" spans="1:27" ht="25.5">
+    <row r="319" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="6" t="s">
@@ -15903,7 +15916,7 @@
       <c r="Z319" s="5"/>
       <c r="AA319" s="5"/>
     </row>
-    <row r="320" spans="1:27" ht="25.5">
+    <row r="320" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="6" t="s">
@@ -15940,7 +15953,7 @@
       <c r="Z320" s="5"/>
       <c r="AA320" s="5"/>
     </row>
-    <row r="321" spans="1:27" ht="25.5">
+    <row r="321" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="6" t="s">
@@ -15977,7 +15990,7 @@
       <c r="Z321" s="5"/>
       <c r="AA321" s="5"/>
     </row>
-    <row r="322" spans="1:27" ht="25.5">
+    <row r="322" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="6" t="s">
@@ -16012,7 +16025,7 @@
       <c r="Z322" s="5"/>
       <c r="AA322" s="5"/>
     </row>
-    <row r="323" spans="1:27" ht="25.5">
+    <row r="323" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="6" t="s">
@@ -16047,7 +16060,7 @@
       <c r="Z323" s="5"/>
       <c r="AA323" s="5"/>
     </row>
-    <row r="324" spans="1:27">
+    <row r="324" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="6" t="s">
@@ -16082,7 +16095,7 @@
       <c r="Z324" s="5"/>
       <c r="AA324" s="5"/>
     </row>
-    <row r="325" spans="1:27">
+    <row r="325" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="6" t="s">
@@ -16117,7 +16130,7 @@
       <c r="Z325" s="5"/>
       <c r="AA325" s="5"/>
     </row>
-    <row r="326" spans="1:27" ht="38.25">
+    <row r="326" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="6" t="s">
@@ -16154,7 +16167,7 @@
       <c r="Z326" s="5"/>
       <c r="AA326" s="5"/>
     </row>
-    <row r="327" spans="1:27" ht="25.5">
+    <row r="327" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="6" t="s">
@@ -16191,7 +16204,7 @@
       <c r="Z327" s="5"/>
       <c r="AA327" s="5"/>
     </row>
-    <row r="328" spans="1:27" ht="25.5">
+    <row r="328" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="6" t="s">
@@ -16226,7 +16239,7 @@
       <c r="Z328" s="5"/>
       <c r="AA328" s="5"/>
     </row>
-    <row r="329" spans="1:27" ht="25.5">
+    <row r="329" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="6" t="s">
@@ -16263,7 +16276,7 @@
       <c r="Z329" s="5"/>
       <c r="AA329" s="5"/>
     </row>
-    <row r="330" spans="1:27" ht="38.25">
+    <row r="330" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="6" t="s">
@@ -16300,7 +16313,7 @@
       <c r="Z330" s="5"/>
       <c r="AA330" s="5"/>
     </row>
-    <row r="331" spans="1:27">
+    <row r="331" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="6" t="s">
@@ -16335,7 +16348,7 @@
       <c r="Z331" s="5"/>
       <c r="AA331" s="5"/>
     </row>
-    <row r="332" spans="1:27" ht="25.5">
+    <row r="332" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="6" t="s">
@@ -16372,7 +16385,7 @@
       <c r="Z332" s="5"/>
       <c r="AA332" s="5"/>
     </row>
-    <row r="333" spans="1:27">
+    <row r="333" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="6" t="s">
@@ -16407,7 +16420,7 @@
       <c r="Z333" s="5"/>
       <c r="AA333" s="5"/>
     </row>
-    <row r="334" spans="1:27" ht="38.25">
+    <row r="334" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="6" t="s">
@@ -16444,7 +16457,7 @@
       <c r="Z334" s="5"/>
       <c r="AA334" s="5"/>
     </row>
-    <row r="335" spans="1:27">
+    <row r="335" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
@@ -16473,7 +16486,7 @@
       <c r="Z335" s="5"/>
       <c r="AA335" s="5"/>
     </row>
-    <row r="336" spans="1:27" ht="25.5">
+    <row r="336" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="6" t="s">
@@ -16510,7 +16523,7 @@
       <c r="Z336" s="5"/>
       <c r="AA336" s="5"/>
     </row>
-    <row r="337" spans="1:27">
+    <row r="337" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
@@ -16539,7 +16552,7 @@
       <c r="Z337" s="5"/>
       <c r="AA337" s="5"/>
     </row>
-    <row r="338" spans="1:27" ht="25.5">
+    <row r="338" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="6" t="s">
@@ -16576,7 +16589,7 @@
       <c r="Z338" s="5"/>
       <c r="AA338" s="5"/>
     </row>
-    <row r="339" spans="1:27" ht="25.5">
+    <row r="339" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="6" t="s">
@@ -16611,7 +16624,7 @@
       <c r="Z339" s="5"/>
       <c r="AA339" s="5"/>
     </row>
-    <row r="340" spans="1:27">
+    <row r="340" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="6" t="s">
@@ -16646,7 +16659,7 @@
       <c r="Z340" s="5"/>
       <c r="AA340" s="5"/>
     </row>
-    <row r="341" spans="1:27" ht="25.5">
+    <row r="341" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="6" t="s">
@@ -16683,7 +16696,7 @@
       <c r="Z341" s="5"/>
       <c r="AA341" s="5"/>
     </row>
-    <row r="342" spans="1:27" ht="25.5">
+    <row r="342" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="6" t="s">
@@ -16720,7 +16733,7 @@
       <c r="Z342" s="5"/>
       <c r="AA342" s="5"/>
     </row>
-    <row r="343" spans="1:27">
+    <row r="343" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="6" t="s">
@@ -16755,7 +16768,7 @@
       <c r="Z343" s="5"/>
       <c r="AA343" s="5"/>
     </row>
-    <row r="344" spans="1:27">
+    <row r="344" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="6" t="s">
@@ -16790,7 +16803,7 @@
       <c r="Z344" s="5"/>
       <c r="AA344" s="5"/>
     </row>
-    <row r="345" spans="1:27">
+    <row r="345" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="6" t="s">
@@ -16825,7 +16838,7 @@
       <c r="Z345" s="5"/>
       <c r="AA345" s="5"/>
     </row>
-    <row r="346" spans="1:27" ht="25.5">
+    <row r="346" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="6" t="s">
@@ -16862,7 +16875,7 @@
       <c r="Z346" s="5"/>
       <c r="AA346" s="5"/>
     </row>
-    <row r="347" spans="1:27">
+    <row r="347" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="6" t="s">
@@ -16899,7 +16912,7 @@
       <c r="Z347" s="5"/>
       <c r="AA347" s="5"/>
     </row>
-    <row r="348" spans="1:27" ht="25.5">
+    <row r="348" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="6" t="s">
@@ -16936,7 +16949,7 @@
       <c r="Z348" s="5"/>
       <c r="AA348" s="5"/>
     </row>
-    <row r="349" spans="1:27" ht="25.5">
+    <row r="349" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="6" t="s">
@@ -16973,7 +16986,7 @@
       <c r="Z349" s="5"/>
       <c r="AA349" s="5"/>
     </row>
-    <row r="350" spans="1:27" ht="25.5">
+    <row r="350" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="6" t="s">
@@ -17010,7 +17023,7 @@
       <c r="Z350" s="5"/>
       <c r="AA350" s="5"/>
     </row>
-    <row r="351" spans="1:27" ht="25.5">
+    <row r="351" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="6" t="s">
@@ -17047,7 +17060,7 @@
       <c r="Z351" s="5"/>
       <c r="AA351" s="5"/>
     </row>
-    <row r="352" spans="1:27" ht="51">
+    <row r="352" spans="1:27" ht="51" x14ac:dyDescent="0.25">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="6" t="s">
@@ -17084,7 +17097,7 @@
       <c r="Z352" s="5"/>
       <c r="AA352" s="5"/>
     </row>
-    <row r="353" spans="1:27" ht="25.5">
+    <row r="353" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="6" t="s">
@@ -17121,7 +17134,7 @@
       <c r="Z353" s="5"/>
       <c r="AA353" s="5"/>
     </row>
-    <row r="354" spans="1:27" ht="25.5">
+    <row r="354" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="6" t="s">
@@ -17156,7 +17169,7 @@
       <c r="Z354" s="5"/>
       <c r="AA354" s="5"/>
     </row>
-    <row r="355" spans="1:27" ht="25.5">
+    <row r="355" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="6" t="s">
@@ -17191,7 +17204,7 @@
       <c r="Z355" s="5"/>
       <c r="AA355" s="5"/>
     </row>
-    <row r="356" spans="1:27" ht="38.25">
+    <row r="356" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="6" t="s">
@@ -17228,7 +17241,7 @@
       <c r="Z356" s="5"/>
       <c r="AA356" s="5"/>
     </row>
-    <row r="357" spans="1:27" ht="25.5">
+    <row r="357" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="6" t="s">
@@ -17265,7 +17278,7 @@
       <c r="Z357" s="5"/>
       <c r="AA357" s="5"/>
     </row>
-    <row r="358" spans="1:27" ht="25.5">
+    <row r="358" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="6" t="s">
@@ -17302,7 +17315,7 @@
       <c r="Z358" s="5"/>
       <c r="AA358" s="5"/>
     </row>
-    <row r="359" spans="1:27" ht="25.5">
+    <row r="359" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="6" t="s">
@@ -17339,7 +17352,7 @@
       <c r="Z359" s="5"/>
       <c r="AA359" s="5"/>
     </row>
-    <row r="360" spans="1:27" ht="25.5">
+    <row r="360" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="6" t="s">
@@ -17376,7 +17389,7 @@
       <c r="Z360" s="5"/>
       <c r="AA360" s="5"/>
     </row>
-    <row r="361" spans="1:27">
+    <row r="361" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="6" t="s">
@@ -17411,7 +17424,7 @@
       <c r="Z361" s="5"/>
       <c r="AA361" s="5"/>
     </row>
-    <row r="362" spans="1:27">
+    <row r="362" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -17440,7 +17453,7 @@
       <c r="Z362" s="5"/>
       <c r="AA362" s="5"/>
     </row>
-    <row r="363" spans="1:27">
+    <row r="363" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="6" t="s">
@@ -17475,7 +17488,7 @@
       <c r="Z363" s="5"/>
       <c r="AA363" s="5"/>
     </row>
-    <row r="364" spans="1:27" ht="38.25">
+    <row r="364" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="6" t="s">
@@ -17512,7 +17525,7 @@
       <c r="Z364" s="5"/>
       <c r="AA364" s="5"/>
     </row>
-    <row r="365" spans="1:27" ht="25.5">
+    <row r="365" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="6" t="s">
@@ -17549,7 +17562,7 @@
       <c r="Z365" s="5"/>
       <c r="AA365" s="5"/>
     </row>
-    <row r="366" spans="1:27" ht="25.5">
+    <row r="366" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="6" t="s">
@@ -17584,7 +17597,7 @@
       <c r="Z366" s="5"/>
       <c r="AA366" s="5"/>
     </row>
-    <row r="367" spans="1:27">
+    <row r="367" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="6" t="s">
@@ -17619,7 +17632,7 @@
       <c r="Z367" s="5"/>
       <c r="AA367" s="5"/>
     </row>
-    <row r="368" spans="1:27" ht="25.5">
+    <row r="368" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="6" t="s">
@@ -17654,7 +17667,7 @@
       <c r="Z368" s="5"/>
       <c r="AA368" s="5"/>
     </row>
-    <row r="369" spans="1:27" ht="25.5">
+    <row r="369" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="6" t="s">
@@ -17691,7 +17704,7 @@
       <c r="Z369" s="5"/>
       <c r="AA369" s="5"/>
     </row>
-    <row r="370" spans="1:27" ht="25.5">
+    <row r="370" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="6" t="s">
@@ -17728,7 +17741,7 @@
       <c r="Z370" s="5"/>
       <c r="AA370" s="5"/>
     </row>
-    <row r="371" spans="1:27">
+    <row r="371" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
@@ -17757,7 +17770,7 @@
       <c r="Z371" s="5"/>
       <c r="AA371" s="5"/>
     </row>
-    <row r="372" spans="1:27" ht="25.5">
+    <row r="372" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="6" t="s">
@@ -17794,7 +17807,7 @@
       <c r="Z372" s="5"/>
       <c r="AA372" s="5"/>
     </row>
-    <row r="373" spans="1:27">
+    <row r="373" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="6" t="s">
@@ -17829,7 +17842,7 @@
       <c r="Z373" s="5"/>
       <c r="AA373" s="5"/>
     </row>
-    <row r="374" spans="1:27">
+    <row r="374" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="6" t="s">
@@ -17864,7 +17877,7 @@
       <c r="Z374" s="5"/>
       <c r="AA374" s="5"/>
     </row>
-    <row r="375" spans="1:27" ht="25.5">
+    <row r="375" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="6" t="s">
@@ -17901,7 +17914,7 @@
       <c r="Z375" s="5"/>
       <c r="AA375" s="5"/>
     </row>
-    <row r="376" spans="1:27" ht="25.5">
+    <row r="376" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="6" t="s">
@@ -17936,7 +17949,7 @@
       <c r="Z376" s="5"/>
       <c r="AA376" s="5"/>
     </row>
-    <row r="377" spans="1:27">
+    <row r="377" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="6" t="s">
@@ -17971,7 +17984,7 @@
       <c r="Z377" s="5"/>
       <c r="AA377" s="5"/>
     </row>
-    <row r="378" spans="1:27" ht="38.25">
+    <row r="378" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="6" t="s">
@@ -18008,7 +18021,7 @@
       <c r="Z378" s="5"/>
       <c r="AA378" s="5"/>
     </row>
-    <row r="379" spans="1:27" ht="25.5">
+    <row r="379" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="6" t="s">
@@ -18045,7 +18058,7 @@
       <c r="Z379" s="5"/>
       <c r="AA379" s="5"/>
     </row>
-    <row r="380" spans="1:27" ht="38.25">
+    <row r="380" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="6" t="s">
@@ -18082,7 +18095,7 @@
       <c r="Z380" s="5"/>
       <c r="AA380" s="5"/>
     </row>
-    <row r="381" spans="1:27">
+    <row r="381" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="6" t="s">
@@ -18117,7 +18130,7 @@
       <c r="Z381" s="5"/>
       <c r="AA381" s="5"/>
     </row>
-    <row r="382" spans="1:27" ht="25.5">
+    <row r="382" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="6" t="s">
@@ -18152,7 +18165,7 @@
       <c r="Z382" s="5"/>
       <c r="AA382" s="5"/>
     </row>
-    <row r="383" spans="1:27" ht="38.25">
+    <row r="383" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="6" t="s">
@@ -18189,7 +18202,7 @@
       <c r="Z383" s="5"/>
       <c r="AA383" s="5"/>
     </row>
-    <row r="384" spans="1:27" ht="25.5">
+    <row r="384" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="6" t="s">
@@ -18226,7 +18239,7 @@
       <c r="Z384" s="5"/>
       <c r="AA384" s="5"/>
     </row>
-    <row r="385" spans="1:27">
+    <row r="385" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="6" t="s">
@@ -18261,7 +18274,7 @@
       <c r="Z385" s="5"/>
       <c r="AA385" s="5"/>
     </row>
-    <row r="386" spans="1:27">
+    <row r="386" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="6" t="s">
@@ -18296,7 +18309,7 @@
       <c r="Z386" s="5"/>
       <c r="AA386" s="5"/>
     </row>
-    <row r="387" spans="1:27" ht="38.25">
+    <row r="387" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
       <c r="C387" s="6" t="s">
@@ -18333,7 +18346,7 @@
       <c r="Z387" s="5"/>
       <c r="AA387" s="5"/>
     </row>
-    <row r="388" spans="1:27" ht="25.5">
+    <row r="388" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="6" t="s">
@@ -18368,7 +18381,7 @@
       <c r="Z388" s="5"/>
       <c r="AA388" s="5"/>
     </row>
-    <row r="389" spans="1:27" ht="25.5">
+    <row r="389" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="6" t="s">
@@ -18405,7 +18418,7 @@
       <c r="Z389" s="5"/>
       <c r="AA389" s="5"/>
     </row>
-    <row r="390" spans="1:27">
+    <row r="390" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
@@ -18434,7 +18447,7 @@
       <c r="Z390" s="5"/>
       <c r="AA390" s="5"/>
     </row>
-    <row r="391" spans="1:27" ht="38.25">
+    <row r="391" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="6" t="s">
@@ -18469,7 +18482,7 @@
       <c r="Z391" s="5"/>
       <c r="AA391" s="5"/>
     </row>
-    <row r="392" spans="1:27">
+    <row r="392" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="6" t="s">
@@ -18506,7 +18519,7 @@
       <c r="Z392" s="5"/>
       <c r="AA392" s="5"/>
     </row>
-    <row r="393" spans="1:27" ht="25.5">
+    <row r="393" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="6" t="s">
@@ -18541,7 +18554,7 @@
       <c r="Z393" s="5"/>
       <c r="AA393" s="5"/>
     </row>
-    <row r="394" spans="1:27" ht="38.25">
+    <row r="394" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="6" t="s">
@@ -18578,7 +18591,7 @@
       <c r="Z394" s="5"/>
       <c r="AA394" s="5"/>
     </row>
-    <row r="395" spans="1:27" ht="25.5">
+    <row r="395" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="6" t="s">
@@ -18615,7 +18628,7 @@
       <c r="Z395" s="5"/>
       <c r="AA395" s="5"/>
     </row>
-    <row r="396" spans="1:27">
+    <row r="396" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
@@ -18644,7 +18657,7 @@
       <c r="Z396" s="5"/>
       <c r="AA396" s="5"/>
     </row>
-    <row r="397" spans="1:27" ht="25.5">
+    <row r="397" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
       <c r="C397" s="6" t="s">
@@ -18681,7 +18694,7 @@
       <c r="Z397" s="5"/>
       <c r="AA397" s="5"/>
     </row>
-    <row r="398" spans="1:27" ht="25.5">
+    <row r="398" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="6" t="s">
@@ -18716,7 +18729,7 @@
       <c r="Z398" s="5"/>
       <c r="AA398" s="5"/>
     </row>
-    <row r="399" spans="1:27" ht="25.5">
+    <row r="399" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="6" t="s">
@@ -18753,7 +18766,7 @@
       <c r="Z399" s="5"/>
       <c r="AA399" s="5"/>
     </row>
-    <row r="400" spans="1:27" ht="25.5">
+    <row r="400" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="6" t="s">
@@ -18790,7 +18803,7 @@
       <c r="Z400" s="5"/>
       <c r="AA400" s="5"/>
     </row>
-    <row r="401" spans="1:27">
+    <row r="401" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
@@ -18819,7 +18832,7 @@
       <c r="Z401" s="5"/>
       <c r="AA401" s="5"/>
     </row>
-    <row r="402" spans="1:27" ht="38.25">
+    <row r="402" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="6" t="s">
@@ -18856,7 +18869,7 @@
       <c r="Z402" s="5"/>
       <c r="AA402" s="5"/>
     </row>
-    <row r="403" spans="1:27" ht="25.5">
+    <row r="403" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="6" t="s">
@@ -18893,7 +18906,7 @@
       <c r="Z403" s="5"/>
       <c r="AA403" s="5"/>
     </row>
-    <row r="404" spans="1:27" ht="25.5">
+    <row r="404" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="6" t="s">
@@ -18928,7 +18941,7 @@
       <c r="Z404" s="5"/>
       <c r="AA404" s="5"/>
     </row>
-    <row r="405" spans="1:27" ht="25.5">
+    <row r="405" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="C405" s="6" t="s">
@@ -18963,7 +18976,7 @@
       <c r="Z405" s="5"/>
       <c r="AA405" s="5"/>
     </row>
-    <row r="406" spans="1:27" ht="25.5">
+    <row r="406" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
       <c r="C406" s="6" t="s">
@@ -18998,7 +19011,7 @@
       <c r="Z406" s="5"/>
       <c r="AA406" s="5"/>
     </row>
-    <row r="407" spans="1:27" ht="38.25">
+    <row r="407" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="6" t="s">
@@ -19035,7 +19048,7 @@
       <c r="Z407" s="5"/>
       <c r="AA407" s="5"/>
     </row>
-    <row r="408" spans="1:27" ht="38.25">
+    <row r="408" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
       <c r="C408" s="6" t="s">
@@ -19072,7 +19085,7 @@
       <c r="Z408" s="5"/>
       <c r="AA408" s="5"/>
     </row>
-    <row r="409" spans="1:27" ht="25.5">
+    <row r="409" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="6" t="s">
@@ -19107,7 +19120,7 @@
       <c r="Z409" s="5"/>
       <c r="AA409" s="5"/>
     </row>
-    <row r="410" spans="1:27">
+    <row r="410" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
       <c r="C410" s="6" t="s">
@@ -19142,7 +19155,7 @@
       <c r="Z410" s="5"/>
       <c r="AA410" s="5"/>
     </row>
-    <row r="411" spans="1:27">
+    <row r="411" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="6" t="s">
@@ -19177,7 +19190,7 @@
       <c r="Z411" s="5"/>
       <c r="AA411" s="5"/>
     </row>
-    <row r="412" spans="1:27" ht="25.5">
+    <row r="412" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
       <c r="C412" s="6" t="s">
@@ -19214,7 +19227,7 @@
       <c r="Z412" s="5"/>
       <c r="AA412" s="5"/>
     </row>
-    <row r="413" spans="1:27">
+    <row r="413" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="6" t="s">
@@ -19249,7 +19262,7 @@
       <c r="Z413" s="5"/>
       <c r="AA413" s="5"/>
     </row>
-    <row r="414" spans="1:27" ht="25.5">
+    <row r="414" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="6" t="s">
@@ -19286,7 +19299,7 @@
       <c r="Z414" s="5"/>
       <c r="AA414" s="5"/>
     </row>
-    <row r="415" spans="1:27" ht="38.25">
+    <row r="415" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="C415" s="6" t="s">
@@ -19323,7 +19336,7 @@
       <c r="Z415" s="5"/>
       <c r="AA415" s="5"/>
     </row>
-    <row r="416" spans="1:27" ht="25.5">
+    <row r="416" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="6" t="s">
@@ -19360,7 +19373,7 @@
       <c r="Z416" s="5"/>
       <c r="AA416" s="5"/>
     </row>
-    <row r="417" spans="1:27" ht="25.5">
+    <row r="417" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="6" t="s">
@@ -19397,7 +19410,7 @@
       <c r="Z417" s="5"/>
       <c r="AA417" s="5"/>
     </row>
-    <row r="418" spans="1:27" ht="25.5">
+    <row r="418" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="6" t="s">
@@ -19434,7 +19447,7 @@
       <c r="Z418" s="5"/>
       <c r="AA418" s="5"/>
     </row>
-    <row r="419" spans="1:27">
+    <row r="419" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
@@ -19463,7 +19476,7 @@
       <c r="Z419" s="5"/>
       <c r="AA419" s="5"/>
     </row>
-    <row r="420" spans="1:27">
+    <row r="420" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
@@ -19492,7 +19505,7 @@
       <c r="Z420" s="5"/>
       <c r="AA420" s="5"/>
     </row>
-    <row r="421" spans="1:27">
+    <row r="421" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
@@ -19521,7 +19534,7 @@
       <c r="Z421" s="5"/>
       <c r="AA421" s="5"/>
     </row>
-    <row r="422" spans="1:27" ht="25.5">
+    <row r="422" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
       <c r="C422" s="6" t="s">
@@ -19558,7 +19571,7 @@
       <c r="Z422" s="5"/>
       <c r="AA422" s="5"/>
     </row>
-    <row r="423" spans="1:27">
+    <row r="423" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="6" t="s">
@@ -19593,7 +19606,7 @@
       <c r="Z423" s="5"/>
       <c r="AA423" s="5"/>
     </row>
-    <row r="424" spans="1:27">
+    <row r="424" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="6" t="s">
@@ -19628,7 +19641,7 @@
       <c r="Z424" s="5"/>
       <c r="AA424" s="5"/>
     </row>
-    <row r="425" spans="1:27" ht="25.5">
+    <row r="425" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="6" t="s">
@@ -19663,7 +19676,7 @@
       <c r="Z425" s="5"/>
       <c r="AA425" s="5"/>
     </row>
-    <row r="426" spans="1:27">
+    <row r="426" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
       <c r="C426" s="6" t="s">
@@ -19698,7 +19711,7 @@
       <c r="Z426" s="5"/>
       <c r="AA426" s="5"/>
     </row>
-    <row r="427" spans="1:27">
+    <row r="427" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="6" t="s">
@@ -19733,7 +19746,7 @@
       <c r="Z427" s="5"/>
       <c r="AA427" s="5"/>
     </row>
-    <row r="428" spans="1:27" ht="25.5">
+    <row r="428" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="6" t="s">
@@ -19770,7 +19783,7 @@
       <c r="Z428" s="5"/>
       <c r="AA428" s="5"/>
     </row>
-    <row r="429" spans="1:27" ht="25.5">
+    <row r="429" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="6" t="s">
@@ -19807,7 +19820,7 @@
       <c r="Z429" s="5"/>
       <c r="AA429" s="5"/>
     </row>
-    <row r="430" spans="1:27">
+    <row r="430" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="6" t="s">
@@ -19842,7 +19855,7 @@
       <c r="Z430" s="5"/>
       <c r="AA430" s="5"/>
     </row>
-    <row r="431" spans="1:27" ht="25.5">
+    <row r="431" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="6" t="s">
@@ -19877,7 +19890,7 @@
       <c r="Z431" s="5"/>
       <c r="AA431" s="5"/>
     </row>
-    <row r="432" spans="1:27">
+    <row r="432" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="6" t="s">
@@ -19912,7 +19925,7 @@
       <c r="Z432" s="5"/>
       <c r="AA432" s="5"/>
     </row>
-    <row r="433" spans="1:27" ht="25.5">
+    <row r="433" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A433" s="5"/>
       <c r="B433" s="5"/>
       <c r="C433" s="6" t="s">
@@ -19947,7 +19960,7 @@
       <c r="Z433" s="5"/>
       <c r="AA433" s="5"/>
     </row>
-    <row r="434" spans="1:27">
+    <row r="434" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A434" s="5"/>
       <c r="B434" s="5"/>
       <c r="C434" s="6" t="s">
@@ -19984,7 +19997,7 @@
       <c r="Z434" s="5"/>
       <c r="AA434" s="5"/>
     </row>
-    <row r="435" spans="1:27" ht="38.25">
+    <row r="435" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A435" s="5"/>
       <c r="B435" s="5"/>
       <c r="C435" s="6" t="s">
@@ -20021,7 +20034,7 @@
       <c r="Z435" s="5"/>
       <c r="AA435" s="5"/>
     </row>
-    <row r="436" spans="1:27">
+    <row r="436" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A436" s="5"/>
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
@@ -20050,7 +20063,7 @@
       <c r="Z436" s="5"/>
       <c r="AA436" s="5"/>
     </row>
-    <row r="437" spans="1:27" ht="38.25">
+    <row r="437" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A437" s="5"/>
       <c r="B437" s="5"/>
       <c r="C437" s="6" t="s">
@@ -20087,7 +20100,7 @@
       <c r="Z437" s="5"/>
       <c r="AA437" s="5"/>
     </row>
-    <row r="438" spans="1:27" ht="25.5">
+    <row r="438" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A438" s="5"/>
       <c r="B438" s="5"/>
       <c r="C438" s="6" t="s">
@@ -20124,7 +20137,7 @@
       <c r="Z438" s="5"/>
       <c r="AA438" s="5"/>
     </row>
-    <row r="439" spans="1:27" ht="25.5">
+    <row r="439" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A439" s="5"/>
       <c r="B439" s="5"/>
       <c r="C439" s="6" t="s">
@@ -20161,7 +20174,7 @@
       <c r="Z439" s="5"/>
       <c r="AA439" s="5"/>
     </row>
-    <row r="440" spans="1:27" ht="38.25">
+    <row r="440" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A440" s="5"/>
       <c r="B440" s="5"/>
       <c r="C440" s="6" t="s">
@@ -20198,7 +20211,7 @@
       <c r="Z440" s="5"/>
       <c r="AA440" s="5"/>
     </row>
-    <row r="441" spans="1:27">
+    <row r="441" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A441" s="5"/>
       <c r="B441" s="5"/>
       <c r="C441" s="6" t="s">
@@ -20233,7 +20246,7 @@
       <c r="Z441" s="5"/>
       <c r="AA441" s="5"/>
     </row>
-    <row r="442" spans="1:27">
+    <row r="442" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A442" s="5"/>
       <c r="B442" s="5"/>
       <c r="C442" s="6" t="s">
@@ -20268,7 +20281,7 @@
       <c r="Z442" s="5"/>
       <c r="AA442" s="5"/>
     </row>
-    <row r="443" spans="1:27" ht="38.25">
+    <row r="443" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A443" s="5"/>
       <c r="B443" s="5"/>
       <c r="C443" s="6" t="s">
@@ -20305,7 +20318,7 @@
       <c r="Z443" s="5"/>
       <c r="AA443" s="5"/>
     </row>
-    <row r="444" spans="1:27">
+    <row r="444" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A444" s="5"/>
       <c r="B444" s="5"/>
       <c r="C444" s="6" t="s">
@@ -20340,7 +20353,7 @@
       <c r="Z444" s="5"/>
       <c r="AA444" s="5"/>
     </row>
-    <row r="445" spans="1:27" ht="25.5">
+    <row r="445" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A445" s="5"/>
       <c r="B445" s="5"/>
       <c r="C445" s="6" t="s">
@@ -20375,7 +20388,7 @@
       <c r="Z445" s="5"/>
       <c r="AA445" s="5"/>
     </row>
-    <row r="446" spans="1:27" ht="38.25">
+    <row r="446" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A446" s="5"/>
       <c r="B446" s="5"/>
       <c r="C446" s="6" t="s">
@@ -20412,7 +20425,7 @@
       <c r="Z446" s="5"/>
       <c r="AA446" s="5"/>
     </row>
-    <row r="447" spans="1:27" ht="25.5">
+    <row r="447" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A447" s="5"/>
       <c r="B447" s="5"/>
       <c r="C447" s="6" t="s">
@@ -20449,7 +20462,7 @@
       <c r="Z447" s="5"/>
       <c r="AA447" s="5"/>
     </row>
-    <row r="448" spans="1:27">
+    <row r="448" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A448" s="5"/>
       <c r="B448" s="5"/>
       <c r="C448" s="6" t="s">
@@ -20484,7 +20497,7 @@
       <c r="Z448" s="5"/>
       <c r="AA448" s="5"/>
     </row>
-    <row r="449" spans="1:27" ht="25.5">
+    <row r="449" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A449" s="5"/>
       <c r="B449" s="5"/>
       <c r="C449" s="6" t="s">
@@ -20521,7 +20534,7 @@
       <c r="Z449" s="5"/>
       <c r="AA449" s="5"/>
     </row>
-    <row r="450" spans="1:27">
+    <row r="450" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A450" s="5"/>
       <c r="B450" s="5"/>
       <c r="C450" s="6" t="s">
@@ -20556,7 +20569,7 @@
       <c r="Z450" s="5"/>
       <c r="AA450" s="5"/>
     </row>
-    <row r="451" spans="1:27" ht="38.25">
+    <row r="451" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A451" s="5"/>
       <c r="B451" s="5"/>
       <c r="C451" s="6" t="s">
@@ -20593,7 +20606,7 @@
       <c r="Z451" s="5"/>
       <c r="AA451" s="5"/>
     </row>
-    <row r="452" spans="1:27" ht="25.5">
+    <row r="452" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A452" s="5"/>
       <c r="B452" s="5"/>
       <c r="C452" s="6" t="s">
@@ -20630,7 +20643,7 @@
       <c r="Z452" s="5"/>
       <c r="AA452" s="5"/>
     </row>
-    <row r="453" spans="1:27" ht="25.5">
+    <row r="453" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A453" s="5"/>
       <c r="B453" s="5"/>
       <c r="C453" s="6" t="s">
@@ -20667,7 +20680,7 @@
       <c r="Z453" s="5"/>
       <c r="AA453" s="5"/>
     </row>
-    <row r="454" spans="1:27" ht="38.25">
+    <row r="454" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A454" s="5"/>
       <c r="B454" s="5"/>
       <c r="C454" s="6" t="s">
@@ -20704,7 +20717,7 @@
       <c r="Z454" s="5"/>
       <c r="AA454" s="5"/>
     </row>
-    <row r="455" spans="1:27">
+    <row r="455" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A455" s="5"/>
       <c r="B455" s="5"/>
       <c r="C455" s="5"/>
@@ -20733,7 +20746,7 @@
       <c r="Z455" s="5"/>
       <c r="AA455" s="5"/>
     </row>
-    <row r="456" spans="1:27" ht="25.5">
+    <row r="456" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A456" s="5"/>
       <c r="B456" s="5"/>
       <c r="C456" s="6" t="s">
@@ -20768,7 +20781,7 @@
       <c r="Z456" s="5"/>
       <c r="AA456" s="5"/>
     </row>
-    <row r="457" spans="1:27">
+    <row r="457" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A457" s="5"/>
       <c r="B457" s="5"/>
       <c r="C457" s="6" t="s">
@@ -20805,7 +20818,7 @@
       <c r="Z457" s="5"/>
       <c r="AA457" s="5"/>
     </row>
-    <row r="458" spans="1:27" ht="38.25">
+    <row r="458" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A458" s="5"/>
       <c r="B458" s="5"/>
       <c r="C458" s="6" t="s">
@@ -20842,7 +20855,7 @@
       <c r="Z458" s="5"/>
       <c r="AA458" s="5"/>
     </row>
-    <row r="459" spans="1:27" ht="25.5">
+    <row r="459" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A459" s="5"/>
       <c r="B459" s="5"/>
       <c r="C459" s="6" t="s">
@@ -20877,7 +20890,7 @@
       <c r="Z459" s="5"/>
       <c r="AA459" s="5"/>
     </row>
-    <row r="460" spans="1:27" ht="25.5">
+    <row r="460" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A460" s="5"/>
       <c r="B460" s="5"/>
       <c r="C460" s="6" t="s">
@@ -20912,7 +20925,7 @@
       <c r="Z460" s="5"/>
       <c r="AA460" s="5"/>
     </row>
-    <row r="461" spans="1:27" ht="25.5">
+    <row r="461" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A461" s="5"/>
       <c r="B461" s="5"/>
       <c r="C461" s="6" t="s">
@@ -20949,7 +20962,7 @@
       <c r="Z461" s="5"/>
       <c r="AA461" s="5"/>
     </row>
-    <row r="462" spans="1:27" ht="38.25">
+    <row r="462" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A462" s="5"/>
       <c r="B462" s="5"/>
       <c r="C462" s="6" t="s">
@@ -20986,7 +20999,7 @@
       <c r="Z462" s="5"/>
       <c r="AA462" s="5"/>
     </row>
-    <row r="463" spans="1:27" ht="25.5">
+    <row r="463" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A463" s="5"/>
       <c r="B463" s="5"/>
       <c r="C463" s="6" t="s">
@@ -21021,7 +21034,7 @@
       <c r="Z463" s="5"/>
       <c r="AA463" s="5"/>
     </row>
-    <row r="464" spans="1:27" ht="25.5">
+    <row r="464" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A464" s="5"/>
       <c r="B464" s="5"/>
       <c r="C464" s="6" t="s">
@@ -21058,7 +21071,7 @@
       <c r="Z464" s="5"/>
       <c r="AA464" s="5"/>
     </row>
-    <row r="465" spans="1:27">
+    <row r="465" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A465" s="5"/>
       <c r="B465" s="5"/>
       <c r="C465" s="6" t="s">
@@ -21095,7 +21108,7 @@
       <c r="Z465" s="5"/>
       <c r="AA465" s="5"/>
     </row>
-    <row r="466" spans="1:27" ht="25.5">
+    <row r="466" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A466" s="5"/>
       <c r="B466" s="5"/>
       <c r="C466" s="6" t="s">
@@ -21130,7 +21143,7 @@
       <c r="Z466" s="5"/>
       <c r="AA466" s="5"/>
     </row>
-    <row r="467" spans="1:27" ht="38.25">
+    <row r="467" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A467" s="5"/>
       <c r="B467" s="5"/>
       <c r="C467" s="6" t="s">
@@ -21167,7 +21180,7 @@
       <c r="Z467" s="5"/>
       <c r="AA467" s="5"/>
     </row>
-    <row r="468" spans="1:27" ht="25.5">
+    <row r="468" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A468" s="5"/>
       <c r="B468" s="5"/>
       <c r="C468" s="6" t="s">
@@ -21204,7 +21217,7 @@
       <c r="Z468" s="5"/>
       <c r="AA468" s="5"/>
     </row>
-    <row r="469" spans="1:27" ht="25.5">
+    <row r="469" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A469" s="5"/>
       <c r="B469" s="5"/>
       <c r="C469" s="6" t="s">
@@ -21241,7 +21254,7 @@
       <c r="Z469" s="5"/>
       <c r="AA469" s="5"/>
     </row>
-    <row r="470" spans="1:27" ht="25.5">
+    <row r="470" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A470" s="5"/>
       <c r="B470" s="5"/>
       <c r="C470" s="6" t="s">
@@ -21278,7 +21291,7 @@
       <c r="Z470" s="5"/>
       <c r="AA470" s="5"/>
     </row>
-    <row r="471" spans="1:27">
+    <row r="471" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A471" s="5"/>
       <c r="B471" s="5"/>
       <c r="C471" s="6" t="s">
@@ -21313,7 +21326,7 @@
       <c r="Z471" s="5"/>
       <c r="AA471" s="5"/>
     </row>
-    <row r="472" spans="1:27">
+    <row r="472" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A472" s="5"/>
       <c r="B472" s="5"/>
       <c r="C472" s="5"/>
@@ -21342,7 +21355,7 @@
       <c r="Z472" s="5"/>
       <c r="AA472" s="5"/>
     </row>
-    <row r="473" spans="1:27" ht="25.5">
+    <row r="473" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A473" s="5"/>
       <c r="B473" s="5"/>
       <c r="C473" s="6" t="s">
@@ -21379,7 +21392,7 @@
       <c r="Z473" s="5"/>
       <c r="AA473" s="5"/>
     </row>
-    <row r="474" spans="1:27">
+    <row r="474" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A474" s="5"/>
       <c r="B474" s="5"/>
       <c r="C474" s="6" t="s">
@@ -21414,7 +21427,7 @@
       <c r="Z474" s="5"/>
       <c r="AA474" s="5"/>
     </row>
-    <row r="475" spans="1:27">
+    <row r="475" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A475" s="5"/>
       <c r="B475" s="5"/>
       <c r="C475" s="6" t="s">
@@ -21449,7 +21462,7 @@
       <c r="Z475" s="5"/>
       <c r="AA475" s="5"/>
     </row>
-    <row r="476" spans="1:27" ht="25.5">
+    <row r="476" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A476" s="5"/>
       <c r="B476" s="5"/>
       <c r="C476" s="6" t="s">
@@ -21486,7 +21499,7 @@
       <c r="Z476" s="5"/>
       <c r="AA476" s="5"/>
     </row>
-    <row r="477" spans="1:27" ht="25.5">
+    <row r="477" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A477" s="5"/>
       <c r="B477" s="5"/>
       <c r="C477" s="6" t="s">
@@ -21523,7 +21536,7 @@
       <c r="Z477" s="5"/>
       <c r="AA477" s="5"/>
     </row>
-    <row r="478" spans="1:27">
+    <row r="478" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A478" s="5"/>
       <c r="B478" s="5"/>
       <c r="C478" s="6" t="s">
@@ -21558,7 +21571,7 @@
       <c r="Z478" s="5"/>
       <c r="AA478" s="5"/>
     </row>
-    <row r="479" spans="1:27" ht="25.5">
+    <row r="479" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A479" s="5"/>
       <c r="B479" s="5"/>
       <c r="C479" s="6" t="s">
@@ -21593,7 +21606,7 @@
       <c r="Z479" s="5"/>
       <c r="AA479" s="5"/>
     </row>
-    <row r="480" spans="1:27" ht="25.5">
+    <row r="480" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A480" s="5"/>
       <c r="B480" s="5"/>
       <c r="C480" s="6" t="s">
@@ -21628,7 +21641,7 @@
       <c r="Z480" s="5"/>
       <c r="AA480" s="5"/>
     </row>
-    <row r="481" spans="1:27" ht="25.5">
+    <row r="481" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A481" s="5"/>
       <c r="B481" s="5"/>
       <c r="C481" s="6" t="s">
@@ -21665,7 +21678,7 @@
       <c r="Z481" s="5"/>
       <c r="AA481" s="5"/>
     </row>
-    <row r="482" spans="1:27" ht="25.5">
+    <row r="482" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A482" s="5"/>
       <c r="B482" s="5"/>
       <c r="C482" s="6" t="s">
@@ -21700,7 +21713,7 @@
       <c r="Z482" s="5"/>
       <c r="AA482" s="5"/>
     </row>
-    <row r="483" spans="1:27">
+    <row r="483" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A483" s="5"/>
       <c r="B483" s="5"/>
       <c r="C483" s="6" t="s">
@@ -21735,7 +21748,7 @@
       <c r="Z483" s="5"/>
       <c r="AA483" s="5"/>
     </row>
-    <row r="484" spans="1:27">
+    <row r="484" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A484" s="5"/>
       <c r="B484" s="5"/>
       <c r="C484" s="6" t="s">
@@ -21770,7 +21783,7 @@
       <c r="Z484" s="5"/>
       <c r="AA484" s="5"/>
     </row>
-    <row r="485" spans="1:27" ht="25.5">
+    <row r="485" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A485" s="5"/>
       <c r="B485" s="5"/>
       <c r="C485" s="6" t="s">
@@ -21807,7 +21820,7 @@
       <c r="Z485" s="5"/>
       <c r="AA485" s="5"/>
     </row>
-    <row r="486" spans="1:27" ht="25.5">
+    <row r="486" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A486" s="5"/>
       <c r="B486" s="5"/>
       <c r="C486" s="6" t="s">
@@ -21844,7 +21857,7 @@
       <c r="Z486" s="5"/>
       <c r="AA486" s="5"/>
     </row>
-    <row r="487" spans="1:27" ht="25.5">
+    <row r="487" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A487" s="5"/>
       <c r="B487" s="5"/>
       <c r="C487" s="6" t="s">
@@ -21881,7 +21894,7 @@
       <c r="Z487" s="5"/>
       <c r="AA487" s="5"/>
     </row>
-    <row r="488" spans="1:27" ht="38.25">
+    <row r="488" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A488" s="5"/>
       <c r="B488" s="5"/>
       <c r="C488" s="6" t="s">
@@ -21918,7 +21931,7 @@
       <c r="Z488" s="5"/>
       <c r="AA488" s="5"/>
     </row>
-    <row r="489" spans="1:27">
+    <row r="489" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A489" s="5"/>
       <c r="B489" s="5"/>
       <c r="C489" s="6" t="s">
@@ -21953,7 +21966,7 @@
       <c r="Z489" s="5"/>
       <c r="AA489" s="5"/>
     </row>
-    <row r="490" spans="1:27">
+    <row r="490" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A490" s="5"/>
       <c r="B490" s="5"/>
       <c r="C490" s="6" t="s">
@@ -21988,7 +22001,7 @@
       <c r="Z490" s="5"/>
       <c r="AA490" s="5"/>
     </row>
-    <row r="491" spans="1:27" ht="25.5">
+    <row r="491" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A491" s="5"/>
       <c r="B491" s="5"/>
       <c r="C491" s="6" t="s">
@@ -22025,7 +22038,7 @@
       <c r="Z491" s="5"/>
       <c r="AA491" s="5"/>
     </row>
-    <row r="492" spans="1:27" ht="25.5">
+    <row r="492" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A492" s="5"/>
       <c r="B492" s="5"/>
       <c r="C492" s="6" t="s">
@@ -22062,7 +22075,7 @@
       <c r="Z492" s="5"/>
       <c r="AA492" s="5"/>
     </row>
-    <row r="493" spans="1:27" ht="25.5">
+    <row r="493" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A493" s="5"/>
       <c r="B493" s="5"/>
       <c r="C493" s="6" t="s">
@@ -22099,7 +22112,7 @@
       <c r="Z493" s="5"/>
       <c r="AA493" s="5"/>
     </row>
-    <row r="494" spans="1:27">
+    <row r="494" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A494" s="5"/>
       <c r="B494" s="5"/>
       <c r="C494" s="6" t="s">
@@ -22134,7 +22147,7 @@
       <c r="Z494" s="5"/>
       <c r="AA494" s="5"/>
     </row>
-    <row r="495" spans="1:27">
+    <row r="495" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A495" s="5"/>
       <c r="B495" s="5"/>
       <c r="C495" s="6" t="s">
@@ -22169,7 +22182,7 @@
       <c r="Z495" s="5"/>
       <c r="AA495" s="5"/>
     </row>
-    <row r="496" spans="1:27">
+    <row r="496" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A496" s="5"/>
       <c r="B496" s="5"/>
       <c r="C496" s="6" t="s">
@@ -22204,7 +22217,7 @@
       <c r="Z496" s="5"/>
       <c r="AA496" s="5"/>
     </row>
-    <row r="497" spans="1:27" ht="38.25">
+    <row r="497" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A497" s="5"/>
       <c r="B497" s="5"/>
       <c r="C497" s="6" t="s">
@@ -22241,7 +22254,7 @@
       <c r="Z497" s="5"/>
       <c r="AA497" s="5"/>
     </row>
-    <row r="498" spans="1:27" ht="25.5">
+    <row r="498" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A498" s="5"/>
       <c r="B498" s="5"/>
       <c r="C498" s="6" t="s">
@@ -22278,7 +22291,7 @@
       <c r="Z498" s="5"/>
       <c r="AA498" s="5"/>
     </row>
-    <row r="499" spans="1:27" ht="25.5">
+    <row r="499" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A499" s="5"/>
       <c r="B499" s="5"/>
       <c r="C499" s="6" t="s">
@@ -22315,7 +22328,7 @@
       <c r="Z499" s="5"/>
       <c r="AA499" s="5"/>
     </row>
-    <row r="500" spans="1:27">
+    <row r="500" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A500" s="5"/>
       <c r="B500" s="5"/>
       <c r="C500" s="6" t="s">
@@ -22350,7 +22363,7 @@
       <c r="Z500" s="5"/>
       <c r="AA500" s="5"/>
     </row>
-    <row r="501" spans="1:27" ht="25.5">
+    <row r="501" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A501" s="5"/>
       <c r="B501" s="5"/>
       <c r="C501" s="6" t="s">
@@ -22385,7 +22398,7 @@
       <c r="Z501" s="5"/>
       <c r="AA501" s="5"/>
     </row>
-    <row r="502" spans="1:27">
+    <row r="502" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A502" s="5"/>
       <c r="B502" s="5"/>
       <c r="C502" s="6" t="s">
@@ -22420,7 +22433,7 @@
       <c r="Z502" s="5"/>
       <c r="AA502" s="5"/>
     </row>
-    <row r="503" spans="1:27" ht="25.5">
+    <row r="503" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A503" s="5"/>
       <c r="B503" s="5"/>
       <c r="C503" s="6" t="s">
@@ -22457,7 +22470,7 @@
       <c r="Z503" s="5"/>
       <c r="AA503" s="5"/>
     </row>
-    <row r="504" spans="1:27" ht="25.5">
+    <row r="504" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A504" s="5"/>
       <c r="B504" s="5"/>
       <c r="C504" s="6" t="s">
@@ -22494,7 +22507,7 @@
       <c r="Z504" s="5"/>
       <c r="AA504" s="5"/>
     </row>
-    <row r="505" spans="1:27" ht="25.5">
+    <row r="505" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A505" s="5"/>
       <c r="B505" s="5"/>
       <c r="C505" s="6" t="s">
@@ -22531,7 +22544,7 @@
       <c r="Z505" s="5"/>
       <c r="AA505" s="5"/>
     </row>
-    <row r="506" spans="1:27" ht="25.5">
+    <row r="506" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A506" s="5"/>
       <c r="B506" s="5"/>
       <c r="C506" s="6" t="s">
@@ -22568,7 +22581,7 @@
       <c r="Z506" s="5"/>
       <c r="AA506" s="5"/>
     </row>
-    <row r="507" spans="1:27" ht="25.5">
+    <row r="507" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A507" s="5"/>
       <c r="B507" s="5"/>
       <c r="C507" s="6" t="s">
@@ -22605,7 +22618,7 @@
       <c r="Z507" s="5"/>
       <c r="AA507" s="5"/>
     </row>
-    <row r="508" spans="1:27">
+    <row r="508" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A508" s="5"/>
       <c r="B508" s="5"/>
       <c r="C508" s="6" t="s">
@@ -22640,7 +22653,7 @@
       <c r="Z508" s="5"/>
       <c r="AA508" s="5"/>
     </row>
-    <row r="509" spans="1:27">
+    <row r="509" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A509" s="5"/>
       <c r="B509" s="5"/>
       <c r="C509" s="6" t="s">
@@ -22675,7 +22688,7 @@
       <c r="Z509" s="5"/>
       <c r="AA509" s="5"/>
     </row>
-    <row r="510" spans="1:27" ht="25.5">
+    <row r="510" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A510" s="5"/>
       <c r="B510" s="5"/>
       <c r="C510" s="6" t="s">
@@ -22712,7 +22725,7 @@
       <c r="Z510" s="5"/>
       <c r="AA510" s="5"/>
     </row>
-    <row r="511" spans="1:27">
+    <row r="511" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A511" s="5"/>
       <c r="B511" s="5"/>
       <c r="C511" s="6" t="s">
@@ -22747,7 +22760,7 @@
       <c r="Z511" s="5"/>
       <c r="AA511" s="5"/>
     </row>
-    <row r="512" spans="1:27">
+    <row r="512" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A512" s="5"/>
       <c r="B512" s="5"/>
       <c r="C512" s="6" t="s">
@@ -22782,7 +22795,7 @@
       <c r="Z512" s="5"/>
       <c r="AA512" s="5"/>
     </row>
-    <row r="513" spans="1:27" ht="25.5">
+    <row r="513" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A513" s="5"/>
       <c r="B513" s="5"/>
       <c r="C513" s="6" t="s">
@@ -22819,7 +22832,7 @@
       <c r="Z513" s="5"/>
       <c r="AA513" s="5"/>
     </row>
-    <row r="514" spans="1:27" ht="25.5">
+    <row r="514" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A514" s="5"/>
       <c r="B514" s="5"/>
       <c r="C514" s="6" t="s">
@@ -22854,7 +22867,7 @@
       <c r="Z514" s="5"/>
       <c r="AA514" s="5"/>
     </row>
-    <row r="515" spans="1:27" ht="25.5">
+    <row r="515" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A515" s="5"/>
       <c r="B515" s="5"/>
       <c r="C515" s="6" t="s">
@@ -22889,7 +22902,7 @@
       <c r="Z515" s="5"/>
       <c r="AA515" s="5"/>
     </row>
-    <row r="516" spans="1:27" ht="25.5">
+    <row r="516" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A516" s="5"/>
       <c r="B516" s="5"/>
       <c r="C516" s="6" t="s">
@@ -22926,7 +22939,7 @@
       <c r="Z516" s="5"/>
       <c r="AA516" s="5"/>
     </row>
-    <row r="517" spans="1:27">
+    <row r="517" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A517" s="5"/>
       <c r="B517" s="5"/>
       <c r="C517" s="6" t="s">
@@ -22961,7 +22974,7 @@
       <c r="Z517" s="5"/>
       <c r="AA517" s="5"/>
     </row>
-    <row r="518" spans="1:27" ht="25.5">
+    <row r="518" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A518" s="5"/>
       <c r="B518" s="5"/>
       <c r="C518" s="6" t="s">
@@ -22996,7 +23009,7 @@
       <c r="Z518" s="5"/>
       <c r="AA518" s="5"/>
     </row>
-    <row r="519" spans="1:27" ht="25.5">
+    <row r="519" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A519" s="5"/>
       <c r="B519" s="5"/>
       <c r="C519" s="6" t="s">
@@ -23033,7 +23046,7 @@
       <c r="Z519" s="5"/>
       <c r="AA519" s="5"/>
     </row>
-    <row r="520" spans="1:27">
+    <row r="520" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A520" s="5"/>
       <c r="B520" s="5"/>
       <c r="C520" s="6" t="s">
@@ -23068,7 +23081,7 @@
       <c r="Z520" s="5"/>
       <c r="AA520" s="5"/>
     </row>
-    <row r="521" spans="1:27" ht="25.5">
+    <row r="521" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A521" s="5"/>
       <c r="B521" s="5"/>
       <c r="C521" s="6" t="s">
@@ -23105,7 +23118,7 @@
       <c r="Z521" s="5"/>
       <c r="AA521" s="5"/>
     </row>
-    <row r="522" spans="1:27" ht="25.5">
+    <row r="522" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A522" s="5"/>
       <c r="B522" s="5"/>
       <c r="C522" s="6" t="s">
@@ -23142,7 +23155,7 @@
       <c r="Z522" s="5"/>
       <c r="AA522" s="5"/>
     </row>
-    <row r="523" spans="1:27" ht="25.5">
+    <row r="523" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A523" s="5"/>
       <c r="B523" s="5"/>
       <c r="C523" s="6" t="s">
@@ -23179,7 +23192,7 @@
       <c r="Z523" s="5"/>
       <c r="AA523" s="5"/>
     </row>
-    <row r="524" spans="1:27" ht="25.5">
+    <row r="524" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A524" s="5"/>
       <c r="B524" s="5"/>
       <c r="C524" s="6" t="s">
@@ -23216,7 +23229,7 @@
       <c r="Z524" s="5"/>
       <c r="AA524" s="5"/>
     </row>
-    <row r="525" spans="1:27">
+    <row r="525" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A525" s="5"/>
       <c r="B525" s="5"/>
       <c r="C525" s="6" t="s">
@@ -23251,7 +23264,7 @@
       <c r="Z525" s="5"/>
       <c r="AA525" s="5"/>
     </row>
-    <row r="526" spans="1:27" ht="25.5">
+    <row r="526" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A526" s="5"/>
       <c r="B526" s="5"/>
       <c r="C526" s="6" t="s">
@@ -23286,7 +23299,7 @@
       <c r="Z526" s="5"/>
       <c r="AA526" s="5"/>
     </row>
-    <row r="527" spans="1:27" ht="38.25">
+    <row r="527" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A527" s="5"/>
       <c r="B527" s="5"/>
       <c r="C527" s="6" t="s">
@@ -23323,7 +23336,7 @@
       <c r="Z527" s="5"/>
       <c r="AA527" s="5"/>
     </row>
-    <row r="528" spans="1:27">
+    <row r="528" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A528" s="5"/>
       <c r="B528" s="5"/>
       <c r="C528" s="6" t="s">
@@ -23358,7 +23371,7 @@
       <c r="Z528" s="5"/>
       <c r="AA528" s="5"/>
     </row>
-    <row r="529" spans="1:27" ht="25.5">
+    <row r="529" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A529" s="5"/>
       <c r="B529" s="5"/>
       <c r="C529" s="6" t="s">
@@ -23395,7 +23408,7 @@
       <c r="Z529" s="5"/>
       <c r="AA529" s="5"/>
     </row>
-    <row r="530" spans="1:27" ht="38.25">
+    <row r="530" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A530" s="5"/>
       <c r="B530" s="5"/>
       <c r="C530" s="6" t="s">
@@ -23432,7 +23445,7 @@
       <c r="Z530" s="5"/>
       <c r="AA530" s="5"/>
     </row>
-    <row r="531" spans="1:27">
+    <row r="531" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A531" s="5"/>
       <c r="B531" s="5"/>
       <c r="C531" s="5"/>
@@ -23461,7 +23474,7 @@
       <c r="Z531" s="5"/>
       <c r="AA531" s="5"/>
     </row>
-    <row r="532" spans="1:27" ht="25.5">
+    <row r="532" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A532" s="5"/>
       <c r="B532" s="5"/>
       <c r="C532" s="6" t="s">
@@ -23498,7 +23511,7 @@
       <c r="Z532" s="5"/>
       <c r="AA532" s="5"/>
     </row>
-    <row r="533" spans="1:27">
+    <row r="533" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A533" s="5"/>
       <c r="B533" s="5"/>
       <c r="C533" s="5"/>
@@ -23527,7 +23540,7 @@
       <c r="Z533" s="5"/>
       <c r="AA533" s="5"/>
     </row>
-    <row r="534" spans="1:27" ht="25.5">
+    <row r="534" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A534" s="5"/>
       <c r="B534" s="5"/>
       <c r="C534" s="6" t="s">
@@ -23562,7 +23575,7 @@
       <c r="Z534" s="5"/>
       <c r="AA534" s="5"/>
     </row>
-    <row r="535" spans="1:27" ht="25.5">
+    <row r="535" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A535" s="5"/>
       <c r="B535" s="5"/>
       <c r="C535" s="6" t="s">
@@ -23599,7 +23612,7 @@
       <c r="Z535" s="5"/>
       <c r="AA535" s="5"/>
     </row>
-    <row r="536" spans="1:27" ht="25.5">
+    <row r="536" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A536" s="5"/>
       <c r="B536" s="5"/>
       <c r="C536" s="6" t="s">
@@ -23636,7 +23649,7 @@
       <c r="Z536" s="5"/>
       <c r="AA536" s="5"/>
     </row>
-    <row r="537" spans="1:27" ht="25.5">
+    <row r="537" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A537" s="5"/>
       <c r="B537" s="5"/>
       <c r="C537" s="6" t="s">
@@ -23673,7 +23686,7 @@
       <c r="Z537" s="5"/>
       <c r="AA537" s="5"/>
     </row>
-    <row r="538" spans="1:27" ht="25.5">
+    <row r="538" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A538" s="5"/>
       <c r="B538" s="5"/>
       <c r="C538" s="6" t="s">
@@ -23710,7 +23723,7 @@
       <c r="Z538" s="5"/>
       <c r="AA538" s="5"/>
     </row>
-    <row r="539" spans="1:27">
+    <row r="539" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A539" s="5"/>
       <c r="B539" s="5"/>
       <c r="C539" s="6" t="s">
@@ -23747,7 +23760,7 @@
       <c r="Z539" s="5"/>
       <c r="AA539" s="5"/>
     </row>
-    <row r="540" spans="1:27" ht="25.5">
+    <row r="540" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A540" s="5"/>
       <c r="B540" s="5"/>
       <c r="C540" s="6" t="s">
@@ -23784,7 +23797,7 @@
       <c r="Z540" s="5"/>
       <c r="AA540" s="5"/>
     </row>
-    <row r="541" spans="1:27" ht="25.5">
+    <row r="541" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A541" s="5"/>
       <c r="B541" s="5"/>
       <c r="C541" s="6" t="s">
@@ -23821,7 +23834,7 @@
       <c r="Z541" s="5"/>
       <c r="AA541" s="5"/>
     </row>
-    <row r="542" spans="1:27">
+    <row r="542" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A542" s="5"/>
       <c r="B542" s="5"/>
       <c r="C542" s="5"/>
@@ -23850,7 +23863,7 @@
       <c r="Z542" s="5"/>
       <c r="AA542" s="5"/>
     </row>
-    <row r="543" spans="1:27" ht="25.5">
+    <row r="543" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A543" s="5"/>
       <c r="B543" s="5"/>
       <c r="C543" s="6" t="s">
@@ -23887,7 +23900,7 @@
       <c r="Z543" s="5"/>
       <c r="AA543" s="5"/>
     </row>
-    <row r="544" spans="1:27" ht="25.5">
+    <row r="544" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A544" s="5"/>
       <c r="B544" s="5"/>
       <c r="C544" s="6" t="s">
@@ -23924,7 +23937,7 @@
       <c r="Z544" s="5"/>
       <c r="AA544" s="5"/>
     </row>
-    <row r="545" spans="1:27">
+    <row r="545" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A545" s="5"/>
       <c r="B545" s="5"/>
       <c r="C545" s="5"/>
@@ -23953,7 +23966,7 @@
       <c r="Z545" s="5"/>
       <c r="AA545" s="5"/>
     </row>
-    <row r="546" spans="1:27" ht="25.5">
+    <row r="546" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A546" s="5"/>
       <c r="B546" s="5"/>
       <c r="C546" s="6" t="s">
@@ -23990,7 +24003,7 @@
       <c r="Z546" s="5"/>
       <c r="AA546" s="5"/>
     </row>
-    <row r="547" spans="1:27" ht="25.5">
+    <row r="547" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A547" s="5"/>
       <c r="B547" s="5"/>
       <c r="C547" s="6" t="s">
@@ -24027,7 +24040,7 @@
       <c r="Z547" s="5"/>
       <c r="AA547" s="5"/>
     </row>
-    <row r="548" spans="1:27" ht="25.5">
+    <row r="548" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A548" s="5"/>
       <c r="B548" s="5"/>
       <c r="C548" s="6" t="s">
@@ -24064,7 +24077,7 @@
       <c r="Z548" s="5"/>
       <c r="AA548" s="5"/>
     </row>
-    <row r="549" spans="1:27" ht="25.5">
+    <row r="549" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A549" s="5"/>
       <c r="B549" s="5"/>
       <c r="C549" s="6" t="s">
@@ -24101,7 +24114,7 @@
       <c r="Z549" s="5"/>
       <c r="AA549" s="5"/>
     </row>
-    <row r="550" spans="1:27" ht="38.25">
+    <row r="550" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A550" s="5"/>
       <c r="B550" s="5"/>
       <c r="C550" s="6" t="s">
@@ -24138,7 +24151,7 @@
       <c r="Z550" s="5"/>
       <c r="AA550" s="5"/>
     </row>
-    <row r="551" spans="1:27" ht="25.5">
+    <row r="551" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A551" s="5"/>
       <c r="B551" s="5"/>
       <c r="C551" s="6" t="s">
@@ -24175,7 +24188,7 @@
       <c r="Z551" s="5"/>
       <c r="AA551" s="5"/>
     </row>
-    <row r="552" spans="1:27">
+    <row r="552" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A552" s="5"/>
       <c r="B552" s="5"/>
       <c r="C552" s="5"/>
@@ -24204,7 +24217,7 @@
       <c r="Z552" s="5"/>
       <c r="AA552" s="5"/>
     </row>
-    <row r="553" spans="1:27" ht="25.5">
+    <row r="553" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A553" s="5"/>
       <c r="B553" s="5"/>
       <c r="C553" s="6" t="s">
@@ -24241,7 +24254,7 @@
       <c r="Z553" s="5"/>
       <c r="AA553" s="5"/>
     </row>
-    <row r="554" spans="1:27" ht="25.5">
+    <row r="554" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A554" s="5"/>
       <c r="B554" s="5"/>
       <c r="C554" s="6" t="s">
@@ -24278,7 +24291,7 @@
       <c r="Z554" s="5"/>
       <c r="AA554" s="5"/>
     </row>
-    <row r="555" spans="1:27" ht="38.25">
+    <row r="555" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A555" s="5"/>
       <c r="B555" s="5"/>
       <c r="C555" s="6" t="s">
@@ -24313,7 +24326,7 @@
       <c r="Z555" s="5"/>
       <c r="AA555" s="5"/>
     </row>
-    <row r="556" spans="1:27" ht="38.25">
+    <row r="556" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A556" s="5"/>
       <c r="B556" s="5"/>
       <c r="C556" s="6" t="s">
@@ -24350,7 +24363,7 @@
       <c r="Z556" s="5"/>
       <c r="AA556" s="5"/>
     </row>
-    <row r="557" spans="1:27">
+    <row r="557" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A557" s="5"/>
       <c r="B557" s="5"/>
       <c r="C557" s="6" t="s">
@@ -24385,7 +24398,7 @@
       <c r="Z557" s="5"/>
       <c r="AA557" s="5"/>
     </row>
-    <row r="558" spans="1:27" ht="25.5">
+    <row r="558" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A558" s="5"/>
       <c r="B558" s="5"/>
       <c r="C558" s="6" t="s">
@@ -24422,7 +24435,7 @@
       <c r="Z558" s="5"/>
       <c r="AA558" s="5"/>
     </row>
-    <row r="559" spans="1:27" ht="25.5">
+    <row r="559" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A559" s="5"/>
       <c r="B559" s="5"/>
       <c r="C559" s="6" t="s">
@@ -24459,7 +24472,7 @@
       <c r="Z559" s="5"/>
       <c r="AA559" s="5"/>
     </row>
-    <row r="560" spans="1:27" ht="25.5">
+    <row r="560" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A560" s="5"/>
       <c r="B560" s="5"/>
       <c r="C560" s="6" t="s">
@@ -24496,7 +24509,7 @@
       <c r="Z560" s="5"/>
       <c r="AA560" s="5"/>
     </row>
-    <row r="561" spans="1:27">
+    <row r="561" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A561" s="5"/>
       <c r="B561" s="5"/>
       <c r="C561" s="6" t="s">
@@ -24531,7 +24544,7 @@
       <c r="Z561" s="5"/>
       <c r="AA561" s="5"/>
     </row>
-    <row r="562" spans="1:27" ht="26.25">
+    <row r="562" spans="1:27" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A562" s="5"/>
       <c r="B562" s="5"/>
       <c r="C562" s="6" t="s">
@@ -24568,7 +24581,7 @@
       <c r="Z562" s="5"/>
       <c r="AA562" s="5"/>
     </row>
-    <row r="563" spans="1:27" ht="25.5">
+    <row r="563" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A563" s="5"/>
       <c r="B563" s="5"/>
       <c r="C563" s="6" t="s">
@@ -24605,7 +24618,7 @@
       <c r="Z563" s="5"/>
       <c r="AA563" s="5"/>
     </row>
-    <row r="564" spans="1:27" ht="25.5">
+    <row r="564" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A564" s="5"/>
       <c r="B564" s="5"/>
       <c r="C564" s="6" t="s">
@@ -24642,7 +24655,7 @@
       <c r="Z564" s="5"/>
       <c r="AA564" s="5"/>
     </row>
-    <row r="565" spans="1:27" ht="25.5">
+    <row r="565" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A565" s="5"/>
       <c r="B565" s="5"/>
       <c r="C565" s="6" t="s">
@@ -24679,7 +24692,7 @@
       <c r="Z565" s="5"/>
       <c r="AA565" s="5"/>
     </row>
-    <row r="566" spans="1:27" ht="25.5">
+    <row r="566" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A566" s="5"/>
       <c r="B566" s="5"/>
       <c r="C566" s="6" t="s">
@@ -24714,7 +24727,7 @@
       <c r="Z566" s="5"/>
       <c r="AA566" s="5"/>
     </row>
-    <row r="567" spans="1:27" ht="51">
+    <row r="567" spans="1:27" ht="51" x14ac:dyDescent="0.25">
       <c r="A567" s="5"/>
       <c r="B567" s="5"/>
       <c r="C567" s="6" t="s">
@@ -24751,7 +24764,7 @@
       <c r="Z567" s="5"/>
       <c r="AA567" s="5"/>
     </row>
-    <row r="568" spans="1:27">
+    <row r="568" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A568" s="5"/>
       <c r="B568" s="5"/>
       <c r="C568" s="6" t="s">
@@ -24788,7 +24801,7 @@
       <c r="Z568" s="5"/>
       <c r="AA568" s="5"/>
     </row>
-    <row r="569" spans="1:27" ht="51">
+    <row r="569" spans="1:27" ht="51" x14ac:dyDescent="0.25">
       <c r="A569" s="5"/>
       <c r="B569" s="5"/>
       <c r="C569" s="6" t="s">
@@ -24825,7 +24838,7 @@
       <c r="Z569" s="5"/>
       <c r="AA569" s="5"/>
     </row>
-    <row r="570" spans="1:27">
+    <row r="570" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A570" s="5"/>
       <c r="B570" s="5"/>
       <c r="C570" s="6" t="s">
@@ -24862,7 +24875,7 @@
       <c r="Z570" s="5"/>
       <c r="AA570" s="5"/>
     </row>
-    <row r="571" spans="1:27" ht="25.5">
+    <row r="571" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A571" s="5"/>
       <c r="B571" s="5"/>
       <c r="C571" s="6" t="s">
@@ -24899,7 +24912,7 @@
       <c r="Z571" s="5"/>
       <c r="AA571" s="5"/>
     </row>
-    <row r="572" spans="1:27">
+    <row r="572" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A572" s="5"/>
       <c r="B572" s="5"/>
       <c r="C572" s="6" t="s">
@@ -24934,7 +24947,7 @@
       <c r="Z572" s="5"/>
       <c r="AA572" s="5"/>
     </row>
-    <row r="573" spans="1:27" ht="25.5">
+    <row r="573" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A573" s="5"/>
       <c r="B573" s="5"/>
       <c r="C573" s="6" t="s">
@@ -24971,7 +24984,7 @@
       <c r="Z573" s="5"/>
       <c r="AA573" s="5"/>
     </row>
-    <row r="574" spans="1:27" ht="25.5">
+    <row r="574" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A574" s="5"/>
       <c r="B574" s="5"/>
       <c r="C574" s="6" t="s">
@@ -25008,7 +25021,7 @@
       <c r="Z574" s="5"/>
       <c r="AA574" s="5"/>
     </row>
-    <row r="575" spans="1:27">
+    <row r="575" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A575" s="5"/>
       <c r="B575" s="5"/>
       <c r="C575" s="6" t="s">
@@ -25043,7 +25056,7 @@
       <c r="Z575" s="5"/>
       <c r="AA575" s="5"/>
     </row>
-    <row r="576" spans="1:27">
+    <row r="576" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A576" s="5"/>
       <c r="B576" s="5"/>
       <c r="C576" s="6" t="s">
@@ -25078,7 +25091,7 @@
       <c r="Z576" s="5"/>
       <c r="AA576" s="5"/>
     </row>
-    <row r="577" spans="1:27" ht="25.5">
+    <row r="577" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A577" s="5"/>
       <c r="B577" s="5"/>
       <c r="C577" s="6" t="s">
@@ -25113,7 +25126,7 @@
       <c r="Z577" s="5"/>
       <c r="AA577" s="5"/>
     </row>
-    <row r="578" spans="1:27" ht="25.5">
+    <row r="578" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A578" s="5"/>
       <c r="B578" s="5"/>
       <c r="C578" s="6" t="s">
@@ -25150,7 +25163,7 @@
       <c r="Z578" s="5"/>
       <c r="AA578" s="5"/>
     </row>
-    <row r="579" spans="1:27">
+    <row r="579" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A579" s="5"/>
       <c r="B579" s="5"/>
       <c r="C579" s="5"/>
@@ -25179,7 +25192,7 @@
       <c r="Z579" s="5"/>
       <c r="AA579" s="5"/>
     </row>
-    <row r="580" spans="1:27" ht="25.5">
+    <row r="580" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A580" s="5"/>
       <c r="B580" s="5"/>
       <c r="C580" s="6" t="s">
@@ -25216,7 +25229,7 @@
       <c r="Z580" s="5"/>
       <c r="AA580" s="5"/>
     </row>
-    <row r="581" spans="1:27">
+    <row r="581" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A581" s="5"/>
       <c r="B581" s="5"/>
       <c r="C581" s="6" t="s">
@@ -25251,7 +25264,7 @@
       <c r="Z581" s="5"/>
       <c r="AA581" s="5"/>
     </row>
-    <row r="582" spans="1:27" ht="25.5">
+    <row r="582" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A582" s="5"/>
       <c r="B582" s="5"/>
       <c r="C582" s="6" t="s">
@@ -25288,7 +25301,7 @@
       <c r="Z582" s="5"/>
       <c r="AA582" s="5"/>
     </row>
-    <row r="583" spans="1:27" ht="25.5">
+    <row r="583" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A583" s="5"/>
       <c r="B583" s="5"/>
       <c r="C583" s="6" t="s">
@@ -25325,7 +25338,7 @@
       <c r="Z583" s="5"/>
       <c r="AA583" s="5"/>
     </row>
-    <row r="584" spans="1:27" ht="25.5">
+    <row r="584" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A584" s="5"/>
       <c r="B584" s="5"/>
       <c r="C584" s="6" t="s">
@@ -25362,7 +25375,7 @@
       <c r="Z584" s="5"/>
       <c r="AA584" s="5"/>
     </row>
-    <row r="585" spans="1:27">
+    <row r="585" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A585" s="5"/>
       <c r="B585" s="5"/>
       <c r="C585" s="6" t="s">
@@ -25397,7 +25410,7 @@
       <c r="Z585" s="5"/>
       <c r="AA585" s="5"/>
     </row>
-    <row r="586" spans="1:27" ht="25.5">
+    <row r="586" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A586" s="5"/>
       <c r="B586" s="5"/>
       <c r="C586" s="6" t="s">
@@ -25434,7 +25447,7 @@
       <c r="Z586" s="5"/>
       <c r="AA586" s="5"/>
     </row>
-    <row r="587" spans="1:27">
+    <row r="587" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A587" s="5"/>
       <c r="B587" s="5"/>
       <c r="C587" s="6" t="s">
@@ -25469,7 +25482,7 @@
       <c r="Z587" s="5"/>
       <c r="AA587" s="5"/>
     </row>
-    <row r="588" spans="1:27" ht="25.5">
+    <row r="588" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A588" s="5"/>
       <c r="B588" s="5"/>
       <c r="C588" s="6" t="s">
@@ -25504,7 +25517,7 @@
       <c r="Z588" s="5"/>
       <c r="AA588" s="5"/>
     </row>
-    <row r="589" spans="1:27" ht="25.5">
+    <row r="589" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A589" s="5"/>
       <c r="B589" s="5"/>
       <c r="C589" s="6" t="s">
@@ -25541,7 +25554,7 @@
       <c r="Z589" s="5"/>
       <c r="AA589" s="5"/>
     </row>
-    <row r="590" spans="1:27">
+    <row r="590" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A590" s="5"/>
       <c r="B590" s="5"/>
       <c r="C590" s="5"/>
@@ -25570,7 +25583,7 @@
       <c r="Z590" s="5"/>
       <c r="AA590" s="5"/>
     </row>
-    <row r="591" spans="1:27">
+    <row r="591" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A591" s="5"/>
       <c r="B591" s="5"/>
       <c r="C591" s="5"/>
@@ -25599,7 +25612,7 @@
       <c r="Z591" s="5"/>
       <c r="AA591" s="5"/>
     </row>
-    <row r="592" spans="1:27">
+    <row r="592" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A592" s="5"/>
       <c r="B592" s="5"/>
       <c r="C592" s="5"/>
@@ -25628,7 +25641,7 @@
       <c r="Z592" s="5"/>
       <c r="AA592" s="5"/>
     </row>
-    <row r="593" spans="1:27">
+    <row r="593" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A593" s="5"/>
       <c r="B593" s="5"/>
       <c r="C593" s="6" t="s">
@@ -25663,7 +25676,7 @@
       <c r="Z593" s="5"/>
       <c r="AA593" s="5"/>
     </row>
-    <row r="594" spans="1:27" ht="25.5">
+    <row r="594" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A594" s="5"/>
       <c r="B594" s="5"/>
       <c r="C594" s="6" t="s">
@@ -25698,7 +25711,7 @@
       <c r="Z594" s="5"/>
       <c r="AA594" s="5"/>
     </row>
-    <row r="595" spans="1:27" ht="25.5">
+    <row r="595" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A595" s="5"/>
       <c r="B595" s="5"/>
       <c r="C595" s="6" t="s">
@@ -25735,7 +25748,7 @@
       <c r="Z595" s="5"/>
       <c r="AA595" s="5"/>
     </row>
-    <row r="596" spans="1:27" ht="25.5">
+    <row r="596" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A596" s="5"/>
       <c r="B596" s="5"/>
       <c r="C596" s="6" t="s">
@@ -25772,7 +25785,7 @@
       <c r="Z596" s="5"/>
       <c r="AA596" s="5"/>
     </row>
-    <row r="597" spans="1:27" ht="25.5">
+    <row r="597" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A597" s="5"/>
       <c r="B597" s="5"/>
       <c r="C597" s="6" t="s">
@@ -25809,7 +25822,7 @@
       <c r="Z597" s="5"/>
       <c r="AA597" s="5"/>
     </row>
-    <row r="598" spans="1:27" ht="25.5">
+    <row r="598" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A598" s="5"/>
       <c r="B598" s="5"/>
       <c r="C598" s="6" t="s">
@@ -25846,7 +25859,7 @@
       <c r="Z598" s="5"/>
       <c r="AA598" s="5"/>
     </row>
-    <row r="599" spans="1:27">
+    <row r="599" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A599" s="5"/>
       <c r="B599" s="5"/>
       <c r="C599" s="6" t="s">
@@ -25881,7 +25894,7 @@
       <c r="Z599" s="5"/>
       <c r="AA599" s="5"/>
     </row>
-    <row r="600" spans="1:27">
+    <row r="600" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A600" s="5"/>
       <c r="B600" s="5"/>
       <c r="C600" s="6" t="s">
@@ -25916,7 +25929,7 @@
       <c r="Z600" s="5"/>
       <c r="AA600" s="5"/>
     </row>
-    <row r="601" spans="1:27">
+    <row r="601" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A601" s="5"/>
       <c r="B601" s="5"/>
       <c r="C601" s="5"/>
@@ -25945,7 +25958,7 @@
       <c r="Z601" s="5"/>
       <c r="AA601" s="5"/>
     </row>
-    <row r="602" spans="1:27" ht="25.5">
+    <row r="602" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A602" s="5"/>
       <c r="B602" s="5"/>
       <c r="C602" s="6" t="s">
@@ -25982,7 +25995,7 @@
       <c r="Z602" s="5"/>
       <c r="AA602" s="5"/>
     </row>
-    <row r="603" spans="1:27" ht="38.25">
+    <row r="603" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A603" s="5"/>
       <c r="B603" s="5"/>
       <c r="C603" s="6" t="s">
@@ -26019,7 +26032,7 @@
       <c r="Z603" s="5"/>
       <c r="AA603" s="5"/>
     </row>
-    <row r="604" spans="1:27" ht="25.5">
+    <row r="604" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A604" s="5"/>
       <c r="B604" s="5"/>
       <c r="C604" s="6" t="s">
@@ -26056,7 +26069,7 @@
       <c r="Z604" s="5"/>
       <c r="AA604" s="5"/>
     </row>
-    <row r="605" spans="1:27" ht="25.5">
+    <row r="605" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A605" s="5"/>
       <c r="B605" s="5"/>
       <c r="C605" s="6" t="s">
@@ -26093,7 +26106,7 @@
       <c r="Z605" s="5"/>
       <c r="AA605" s="5"/>
     </row>
-    <row r="606" spans="1:27" ht="25.5">
+    <row r="606" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A606" s="5"/>
       <c r="B606" s="5"/>
       <c r="C606" s="6" t="s">
@@ -26130,7 +26143,7 @@
       <c r="Z606" s="5"/>
       <c r="AA606" s="5"/>
     </row>
-    <row r="607" spans="1:27" ht="25.5">
+    <row r="607" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A607" s="5"/>
       <c r="B607" s="5"/>
       <c r="C607" s="6" t="s">
@@ -26167,7 +26180,7 @@
       <c r="Z607" s="5"/>
       <c r="AA607" s="5"/>
     </row>
-    <row r="608" spans="1:27" ht="25.5">
+    <row r="608" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A608" s="5"/>
       <c r="B608" s="5"/>
       <c r="C608" s="6" t="s">
@@ -26204,7 +26217,7 @@
       <c r="Z608" s="5"/>
       <c r="AA608" s="5"/>
     </row>
-    <row r="609" spans="1:27">
+    <row r="609" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A609" s="5"/>
       <c r="B609" s="5"/>
       <c r="C609" s="6" t="s">
@@ -26241,7 +26254,7 @@
       <c r="Z609" s="5"/>
       <c r="AA609" s="5"/>
     </row>
-    <row r="610" spans="1:27" ht="38.25">
+    <row r="610" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A610" s="5"/>
       <c r="B610" s="5"/>
       <c r="C610" s="6" t="s">
@@ -26278,7 +26291,7 @@
       <c r="Z610" s="5"/>
       <c r="AA610" s="5"/>
     </row>
-    <row r="611" spans="1:27">
+    <row r="611" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A611" s="5"/>
       <c r="B611" s="5"/>
       <c r="C611" s="5"/>
@@ -26307,7 +26320,7 @@
       <c r="Z611" s="5"/>
       <c r="AA611" s="5"/>
     </row>
-    <row r="612" spans="1:27" ht="25.5">
+    <row r="612" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A612" s="5"/>
       <c r="B612" s="5"/>
       <c r="C612" s="6" t="s">
@@ -26342,7 +26355,7 @@
       <c r="Z612" s="5"/>
       <c r="AA612" s="5"/>
     </row>
-    <row r="613" spans="1:27" ht="25.5">
+    <row r="613" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A613" s="5"/>
       <c r="B613" s="5"/>
       <c r="C613" s="6" t="s">
@@ -26379,7 +26392,7 @@
       <c r="Z613" s="5"/>
       <c r="AA613" s="5"/>
     </row>
-    <row r="614" spans="1:27">
+    <row r="614" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A614" s="5"/>
       <c r="B614" s="5"/>
       <c r="C614" s="5"/>
@@ -26408,7 +26421,7 @@
       <c r="Z614" s="5"/>
       <c r="AA614" s="5"/>
     </row>
-    <row r="615" spans="1:27" ht="38.25">
+    <row r="615" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A615" s="5"/>
       <c r="B615" s="5"/>
       <c r="C615" s="6" t="s">
@@ -26445,7 +26458,7 @@
       <c r="Z615" s="5"/>
       <c r="AA615" s="5"/>
     </row>
-    <row r="616" spans="1:27">
+    <row r="616" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A616" s="5"/>
       <c r="B616" s="5"/>
       <c r="C616" s="5"/>
@@ -26474,7 +26487,7 @@
       <c r="Z616" s="5"/>
       <c r="AA616" s="5"/>
     </row>
-    <row r="617" spans="1:27" ht="25.5">
+    <row r="617" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A617" s="5"/>
       <c r="B617" s="5"/>
       <c r="C617" s="6" t="s">
@@ -26509,7 +26522,7 @@
       <c r="Z617" s="5"/>
       <c r="AA617" s="5"/>
     </row>
-    <row r="618" spans="1:27">
+    <row r="618" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A618" s="5"/>
       <c r="B618" s="5"/>
       <c r="C618" s="6" t="s">
@@ -26546,7 +26559,7 @@
       <c r="Z618" s="5"/>
       <c r="AA618" s="5"/>
     </row>
-    <row r="619" spans="1:27" ht="25.5">
+    <row r="619" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A619" s="5"/>
       <c r="B619" s="5"/>
       <c r="C619" s="6" t="s">
@@ -26583,7 +26596,7 @@
       <c r="Z619" s="5"/>
       <c r="AA619" s="5"/>
     </row>
-    <row r="620" spans="1:27" ht="25.5">
+    <row r="620" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A620" s="5"/>
       <c r="B620" s="5"/>
       <c r="C620" s="6" t="s">
@@ -26618,7 +26631,7 @@
       <c r="Z620" s="5"/>
       <c r="AA620" s="5"/>
     </row>
-    <row r="621" spans="1:27" ht="25.5">
+    <row r="621" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A621" s="5"/>
       <c r="B621" s="5"/>
       <c r="C621" s="6" t="s">
@@ -26655,7 +26668,7 @@
       <c r="Z621" s="5"/>
       <c r="AA621" s="5"/>
     </row>
-    <row r="622" spans="1:27" ht="38.25">
+    <row r="622" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A622" s="5"/>
       <c r="B622" s="5"/>
       <c r="C622" s="6" t="s">
@@ -26692,7 +26705,7 @@
       <c r="Z622" s="5"/>
       <c r="AA622" s="5"/>
     </row>
-    <row r="623" spans="1:27" ht="25.5">
+    <row r="623" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A623" s="5"/>
       <c r="B623" s="5"/>
       <c r="C623" s="6" t="s">
@@ -26729,7 +26742,7 @@
       <c r="Z623" s="5"/>
       <c r="AA623" s="5"/>
     </row>
-    <row r="624" spans="1:27">
+    <row r="624" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A624" s="5"/>
       <c r="B624" s="5"/>
       <c r="C624" s="6" t="s">
@@ -26766,7 +26779,7 @@
       <c r="Z624" s="5"/>
       <c r="AA624" s="5"/>
     </row>
-    <row r="625" spans="1:27" ht="38.25">
+    <row r="625" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A625" s="5"/>
       <c r="B625" s="5"/>
       <c r="C625" s="6" t="s">
@@ -26803,7 +26816,7 @@
       <c r="Z625" s="5"/>
       <c r="AA625" s="5"/>
     </row>
-    <row r="626" spans="1:27" ht="25.5">
+    <row r="626" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A626" s="5"/>
       <c r="B626" s="5"/>
       <c r="C626" s="5"/>
@@ -26834,7 +26847,7 @@
       <c r="Z626" s="5"/>
       <c r="AA626" s="5"/>
     </row>
-    <row r="627" spans="1:27" ht="25.5">
+    <row r="627" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A627" s="5"/>
       <c r="B627" s="5"/>
       <c r="C627" s="6" t="s">
@@ -26871,7 +26884,7 @@
       <c r="Z627" s="5"/>
       <c r="AA627" s="5"/>
     </row>
-    <row r="628" spans="1:27" ht="38.25">
+    <row r="628" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A628" s="5"/>
       <c r="B628" s="5"/>
       <c r="C628" s="6" t="s">
@@ -26906,7 +26919,7 @@
       <c r="Z628" s="5"/>
       <c r="AA628" s="5"/>
     </row>
-    <row r="629" spans="1:27">
+    <row r="629" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A629" s="5"/>
       <c r="B629" s="5"/>
       <c r="C629" s="6" t="s">
@@ -26943,7 +26956,7 @@
       <c r="Z629" s="5"/>
       <c r="AA629" s="5"/>
     </row>
-    <row r="630" spans="1:27" ht="25.5">
+    <row r="630" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A630" s="5"/>
       <c r="B630" s="5"/>
       <c r="C630" s="6" t="s">
@@ -26980,7 +26993,7 @@
       <c r="Z630" s="5"/>
       <c r="AA630" s="5"/>
     </row>
-    <row r="631" spans="1:27" ht="25.5">
+    <row r="631" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A631" s="5"/>
       <c r="B631" s="5"/>
       <c r="C631" s="6" t="s">
@@ -27017,7 +27030,7 @@
       <c r="Z631" s="5"/>
       <c r="AA631" s="5"/>
     </row>
-    <row r="632" spans="1:27" ht="25.5">
+    <row r="632" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A632" s="5"/>
       <c r="B632" s="5"/>
       <c r="C632" s="6" t="s">
@@ -27054,7 +27067,7 @@
       <c r="Z632" s="5"/>
       <c r="AA632" s="5"/>
     </row>
-    <row r="633" spans="1:27" ht="25.5">
+    <row r="633" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A633" s="5"/>
       <c r="B633" s="5"/>
       <c r="C633" s="6" t="s">
@@ -27089,7 +27102,7 @@
       <c r="Z633" s="5"/>
       <c r="AA633" s="5"/>
     </row>
-    <row r="634" spans="1:27" ht="25.5">
+    <row r="634" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A634" s="5"/>
       <c r="B634" s="5"/>
       <c r="C634" s="6" t="s">
@@ -27126,7 +27139,7 @@
       <c r="Z634" s="5"/>
       <c r="AA634" s="5"/>
     </row>
-    <row r="635" spans="1:27" ht="25.5">
+    <row r="635" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A635" s="5"/>
       <c r="B635" s="5"/>
       <c r="C635" s="6" t="s">
@@ -27163,7 +27176,7 @@
       <c r="Z635" s="5"/>
       <c r="AA635" s="5"/>
     </row>
-    <row r="636" spans="1:27">
+    <row r="636" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A636" s="5"/>
       <c r="B636" s="5"/>
       <c r="C636" s="6" t="s">
@@ -27198,7 +27211,7 @@
       <c r="Z636" s="5"/>
       <c r="AA636" s="5"/>
     </row>
-    <row r="637" spans="1:27" ht="25.5">
+    <row r="637" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A637" s="5"/>
       <c r="B637" s="5"/>
       <c r="C637" s="6" t="s">
@@ -27235,7 +27248,7 @@
       <c r="Z637" s="5"/>
       <c r="AA637" s="5"/>
     </row>
-    <row r="638" spans="1:27" ht="25.5">
+    <row r="638" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A638" s="5"/>
       <c r="B638" s="5"/>
       <c r="C638" s="6" t="s">
@@ -27272,7 +27285,7 @@
       <c r="Z638" s="5"/>
       <c r="AA638" s="5"/>
     </row>
-    <row r="639" spans="1:27">
+    <row r="639" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A639" s="5"/>
       <c r="B639" s="5"/>
       <c r="C639" s="6" t="s">
@@ -27307,7 +27320,7 @@
       <c r="Z639" s="5"/>
       <c r="AA639" s="5"/>
     </row>
-    <row r="640" spans="1:27" ht="25.5">
+    <row r="640" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A640" s="5"/>
       <c r="B640" s="5"/>
       <c r="C640" s="6" t="s">
@@ -27344,7 +27357,7 @@
       <c r="Z640" s="5"/>
       <c r="AA640" s="5"/>
     </row>
-    <row r="641" spans="1:27">
+    <row r="641" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A641" s="5"/>
       <c r="B641" s="5"/>
       <c r="C641" s="6" t="s">
@@ -27379,7 +27392,7 @@
       <c r="Z641" s="5"/>
       <c r="AA641" s="5"/>
     </row>
-    <row r="642" spans="1:27" ht="25.5">
+    <row r="642" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A642" s="5"/>
       <c r="B642" s="5"/>
       <c r="C642" s="6" t="s">
@@ -27416,7 +27429,7 @@
       <c r="Z642" s="5"/>
       <c r="AA642" s="5"/>
     </row>
-    <row r="643" spans="1:27" ht="25.5">
+    <row r="643" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A643" s="5"/>
       <c r="B643" s="5"/>
       <c r="C643" s="6" t="s">
@@ -27453,7 +27466,7 @@
       <c r="Z643" s="5"/>
       <c r="AA643" s="5"/>
     </row>
-    <row r="644" spans="1:27" ht="25.5">
+    <row r="644" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A644" s="5"/>
       <c r="B644" s="5"/>
       <c r="C644" s="6" t="s">
@@ -27490,7 +27503,7 @@
       <c r="Z644" s="5"/>
       <c r="AA644" s="5"/>
     </row>
-    <row r="645" spans="1:27" ht="25.5">
+    <row r="645" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A645" s="5"/>
       <c r="B645" s="5"/>
       <c r="C645" s="6" t="s">
@@ -27527,7 +27540,7 @@
       <c r="Z645" s="5"/>
       <c r="AA645" s="5"/>
     </row>
-    <row r="646" spans="1:27" ht="25.5">
+    <row r="646" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A646" s="5"/>
       <c r="B646" s="5"/>
       <c r="C646" s="6" t="s">
@@ -27564,7 +27577,7 @@
       <c r="Z646" s="5"/>
       <c r="AA646" s="5"/>
     </row>
-    <row r="647" spans="1:27">
+    <row r="647" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A647" s="5"/>
       <c r="B647" s="5"/>
       <c r="C647" s="6" t="s">
@@ -27599,7 +27612,7 @@
       <c r="Z647" s="5"/>
       <c r="AA647" s="5"/>
     </row>
-    <row r="648" spans="1:27">
+    <row r="648" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A648" s="5"/>
       <c r="B648" s="5"/>
       <c r="C648" s="6" t="s">
@@ -27634,7 +27647,7 @@
       <c r="Z648" s="5"/>
       <c r="AA648" s="5"/>
     </row>
-    <row r="649" spans="1:27" ht="25.5">
+    <row r="649" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A649" s="5"/>
       <c r="B649" s="5"/>
       <c r="C649" s="6" t="s">
@@ -27671,7 +27684,7 @@
       <c r="Z649" s="5"/>
       <c r="AA649" s="5"/>
     </row>
-    <row r="650" spans="1:27">
+    <row r="650" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A650" s="5"/>
       <c r="B650" s="5"/>
       <c r="C650" s="6" t="s">
@@ -27708,7 +27721,7 @@
       <c r="Z650" s="5"/>
       <c r="AA650" s="5"/>
     </row>
-    <row r="651" spans="1:27" ht="25.5">
+    <row r="651" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A651" s="5"/>
       <c r="B651" s="5"/>
       <c r="C651" s="6" t="s">
@@ -27743,7 +27756,7 @@
       <c r="Z651" s="5"/>
       <c r="AA651" s="5"/>
     </row>
-    <row r="652" spans="1:27" ht="25.5">
+    <row r="652" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A652" s="5"/>
       <c r="B652" s="5"/>
       <c r="C652" s="6" t="s">
@@ -27780,7 +27793,7 @@
       <c r="Z652" s="5"/>
       <c r="AA652" s="5"/>
     </row>
-    <row r="653" spans="1:27" ht="38.25">
+    <row r="653" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A653" s="5"/>
       <c r="B653" s="5"/>
       <c r="C653" s="6" t="s">
@@ -27817,7 +27830,7 @@
       <c r="Z653" s="5"/>
       <c r="AA653" s="5"/>
     </row>
-    <row r="654" spans="1:27">
+    <row r="654" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A654" s="5"/>
       <c r="B654" s="5"/>
       <c r="C654" s="5"/>
@@ -27846,7 +27859,7 @@
       <c r="Z654" s="5"/>
       <c r="AA654" s="5"/>
     </row>
-    <row r="655" spans="1:27" ht="25.5">
+    <row r="655" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A655" s="5"/>
       <c r="B655" s="5"/>
       <c r="C655" s="6" t="s">
@@ -27883,7 +27896,7 @@
       <c r="Z655" s="5"/>
       <c r="AA655" s="5"/>
     </row>
-    <row r="656" spans="1:27" ht="25.5">
+    <row r="656" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A656" s="5"/>
       <c r="B656" s="5"/>
       <c r="C656" s="6" t="s">
@@ -27920,7 +27933,7 @@
       <c r="Z656" s="5"/>
       <c r="AA656" s="5"/>
     </row>
-    <row r="657" spans="1:27" ht="25.5">
+    <row r="657" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A657" s="5"/>
       <c r="B657" s="5"/>
       <c r="C657" s="6" t="s">
@@ -27957,7 +27970,7 @@
       <c r="Z657" s="5"/>
       <c r="AA657" s="5"/>
     </row>
-    <row r="658" spans="1:27">
+    <row r="658" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A658" s="5"/>
       <c r="B658" s="5"/>
       <c r="C658" s="6" t="s">
@@ -27992,7 +28005,7 @@
       <c r="Z658" s="5"/>
       <c r="AA658" s="5"/>
     </row>
-    <row r="659" spans="1:27" ht="25.5">
+    <row r="659" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A659" s="5"/>
       <c r="B659" s="5"/>
       <c r="C659" s="6" t="s">
@@ -28027,7 +28040,7 @@
       <c r="Z659" s="5"/>
       <c r="AA659" s="5"/>
     </row>
-    <row r="660" spans="1:27" ht="25.5">
+    <row r="660" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A660" s="5"/>
       <c r="B660" s="5"/>
       <c r="C660" s="6" t="s">
@@ -28064,7 +28077,7 @@
       <c r="Z660" s="5"/>
       <c r="AA660" s="5"/>
     </row>
-    <row r="661" spans="1:27" ht="25.5">
+    <row r="661" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A661" s="5"/>
       <c r="B661" s="5"/>
       <c r="C661" s="6" t="s">
@@ -28101,7 +28114,7 @@
       <c r="Z661" s="5"/>
       <c r="AA661" s="5"/>
     </row>
-    <row r="662" spans="1:27" ht="25.5">
+    <row r="662" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A662" s="5"/>
       <c r="B662" s="5"/>
       <c r="C662" s="6" t="s">
@@ -28136,7 +28149,7 @@
       <c r="Z662" s="5"/>
       <c r="AA662" s="5"/>
     </row>
-    <row r="663" spans="1:27" ht="25.5">
+    <row r="663" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A663" s="5"/>
       <c r="B663" s="5"/>
       <c r="C663" s="6" t="s">
@@ -28171,7 +28184,7 @@
       <c r="Z663" s="5"/>
       <c r="AA663" s="5"/>
     </row>
-    <row r="664" spans="1:27" ht="25.5">
+    <row r="664" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A664" s="5"/>
       <c r="B664" s="5"/>
       <c r="C664" s="6" t="s">
@@ -28208,7 +28221,7 @@
       <c r="Z664" s="5"/>
       <c r="AA664" s="5"/>
     </row>
-    <row r="665" spans="1:27" ht="25.5">
+    <row r="665" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A665" s="5"/>
       <c r="B665" s="5"/>
       <c r="C665" s="6" t="s">
@@ -28245,7 +28258,7 @@
       <c r="Z665" s="5"/>
       <c r="AA665" s="5"/>
     </row>
-    <row r="666" spans="1:27">
+    <row r="666" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A666" s="5"/>
       <c r="B666" s="5"/>
       <c r="C666" s="6" t="s">
@@ -28280,7 +28293,7 @@
       <c r="Z666" s="5"/>
       <c r="AA666" s="5"/>
     </row>
-    <row r="667" spans="1:27" ht="25.5">
+    <row r="667" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A667" s="5"/>
       <c r="B667" s="5"/>
       <c r="C667" s="6" t="s">
@@ -28317,7 +28330,7 @@
       <c r="Z667" s="5"/>
       <c r="AA667" s="5"/>
     </row>
-    <row r="668" spans="1:27" ht="25.5">
+    <row r="668" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A668" s="5"/>
       <c r="B668" s="5"/>
       <c r="C668" s="6" t="s">
@@ -28354,7 +28367,7 @@
       <c r="Z668" s="5"/>
       <c r="AA668" s="5"/>
     </row>
-    <row r="669" spans="1:27">
+    <row r="669" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A669" s="5"/>
       <c r="B669" s="5"/>
       <c r="C669" s="6" t="s">
@@ -28389,7 +28402,7 @@
       <c r="Z669" s="5"/>
       <c r="AA669" s="5"/>
     </row>
-    <row r="670" spans="1:27">
+    <row r="670" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A670" s="5"/>
       <c r="B670" s="5"/>
       <c r="C670" s="6" t="s">
@@ -28424,7 +28437,7 @@
       <c r="Z670" s="5"/>
       <c r="AA670" s="5"/>
     </row>
-    <row r="671" spans="1:27">
+    <row r="671" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A671" s="5"/>
       <c r="B671" s="5"/>
       <c r="C671" s="6" t="s">
@@ -28459,7 +28472,7 @@
       <c r="Z671" s="5"/>
       <c r="AA671" s="5"/>
     </row>
-    <row r="672" spans="1:27" ht="25.5">
+    <row r="672" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A672" s="5"/>
       <c r="B672" s="5"/>
       <c r="C672" s="6" t="s">
@@ -28496,7 +28509,7 @@
       <c r="Z672" s="5"/>
       <c r="AA672" s="5"/>
     </row>
-    <row r="673" spans="1:27" ht="25.5">
+    <row r="673" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A673" s="5"/>
       <c r="B673" s="5"/>
       <c r="C673" s="6" t="s">
@@ -28533,7 +28546,7 @@
       <c r="Z673" s="5"/>
       <c r="AA673" s="5"/>
     </row>
-    <row r="674" spans="1:27" ht="25.5">
+    <row r="674" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A674" s="5"/>
       <c r="B674" s="5"/>
       <c r="C674" s="6" t="s">
@@ -28570,7 +28583,7 @@
       <c r="Z674" s="5"/>
       <c r="AA674" s="5"/>
     </row>
-    <row r="675" spans="1:27" ht="25.5">
+    <row r="675" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A675" s="5"/>
       <c r="B675" s="5"/>
       <c r="C675" s="6" t="s">
@@ -28607,7 +28620,7 @@
       <c r="Z675" s="5"/>
       <c r="AA675" s="5"/>
     </row>
-    <row r="676" spans="1:27">
+    <row r="676" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A676" s="5"/>
       <c r="B676" s="5"/>
       <c r="C676" s="6" t="s">
@@ -28642,7 +28655,7 @@
       <c r="Z676" s="5"/>
       <c r="AA676" s="5"/>
     </row>
-    <row r="677" spans="1:27" ht="38.25">
+    <row r="677" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A677" s="5"/>
       <c r="B677" s="5"/>
       <c r="C677" s="6" t="s">
@@ -28679,7 +28692,7 @@
       <c r="Z677" s="5"/>
       <c r="AA677" s="5"/>
     </row>
-    <row r="678" spans="1:27">
+    <row r="678" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A678" s="5"/>
       <c r="B678" s="5"/>
       <c r="C678" s="5"/>
@@ -28708,7 +28721,7 @@
       <c r="Z678" s="5"/>
       <c r="AA678" s="5"/>
     </row>
-    <row r="679" spans="1:27" ht="25.5">
+    <row r="679" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A679" s="5"/>
       <c r="B679" s="5"/>
       <c r="C679" s="6" t="s">
@@ -28745,7 +28758,7 @@
       <c r="Z679" s="5"/>
       <c r="AA679" s="5"/>
     </row>
-    <row r="680" spans="1:27" ht="25.5">
+    <row r="680" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A680" s="5"/>
       <c r="B680" s="5"/>
       <c r="C680" s="6" t="s">
@@ -28782,7 +28795,7 @@
       <c r="Z680" s="5"/>
       <c r="AA680" s="5"/>
     </row>
-    <row r="681" spans="1:27" ht="25.5">
+    <row r="681" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A681" s="5"/>
       <c r="B681" s="5"/>
       <c r="C681" s="6" t="s">
@@ -28819,7 +28832,7 @@
       <c r="Z681" s="5"/>
       <c r="AA681" s="5"/>
     </row>
-    <row r="682" spans="1:27" ht="25.5">
+    <row r="682" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A682" s="5"/>
       <c r="B682" s="5"/>
       <c r="C682" s="6" t="s">
@@ -28854,7 +28867,7 @@
       <c r="Z682" s="5"/>
       <c r="AA682" s="5"/>
     </row>
-    <row r="683" spans="1:27" ht="25.5">
+    <row r="683" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A683" s="5"/>
       <c r="B683" s="5"/>
       <c r="C683" s="6" t="s">
@@ -28891,7 +28904,7 @@
       <c r="Z683" s="5"/>
       <c r="AA683" s="5"/>
     </row>
-    <row r="684" spans="1:27" ht="25.5">
+    <row r="684" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A684" s="5"/>
       <c r="B684" s="5"/>
       <c r="C684" s="6" t="s">
@@ -28926,7 +28939,7 @@
       <c r="Z684" s="5"/>
       <c r="AA684" s="5"/>
     </row>
-    <row r="685" spans="1:27">
+    <row r="685" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A685" s="5"/>
       <c r="B685" s="5"/>
       <c r="C685" s="6" t="s">
@@ -28963,7 +28976,7 @@
       <c r="Z685" s="5"/>
       <c r="AA685" s="5"/>
     </row>
-    <row r="686" spans="1:27">
+    <row r="686" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A686" s="5"/>
       <c r="B686" s="5"/>
       <c r="C686" s="5"/>
@@ -28992,7 +29005,7 @@
       <c r="Z686" s="5"/>
       <c r="AA686" s="5"/>
     </row>
-    <row r="687" spans="1:27" ht="25.5">
+    <row r="687" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A687" s="5"/>
       <c r="B687" s="5"/>
       <c r="C687" s="6" t="s">
@@ -29029,7 +29042,7 @@
       <c r="Z687" s="5"/>
       <c r="AA687" s="5"/>
     </row>
-    <row r="688" spans="1:27" ht="38.25">
+    <row r="688" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A688" s="5"/>
       <c r="B688" s="5"/>
       <c r="C688" s="6" t="s">
@@ -29066,7 +29079,7 @@
       <c r="Z688" s="5"/>
       <c r="AA688" s="5"/>
     </row>
-    <row r="689" spans="1:27">
+    <row r="689" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A689" s="5"/>
       <c r="B689" s="5"/>
       <c r="C689" s="5"/>
@@ -29095,7 +29108,7 @@
       <c r="Z689" s="5"/>
       <c r="AA689" s="5"/>
     </row>
-    <row r="690" spans="1:27">
+    <row r="690" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A690" s="5"/>
       <c r="B690" s="5"/>
       <c r="C690" s="6" t="s">
@@ -29130,7 +29143,7 @@
       <c r="Z690" s="5"/>
       <c r="AA690" s="5"/>
     </row>
-    <row r="691" spans="1:27">
+    <row r="691" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A691" s="5"/>
       <c r="B691" s="5"/>
       <c r="C691" s="6" t="s">
@@ -29167,7 +29180,7 @@
       <c r="Z691" s="5"/>
       <c r="AA691" s="5"/>
     </row>
-    <row r="692" spans="1:27" ht="38.25">
+    <row r="692" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A692" s="5"/>
       <c r="B692" s="5"/>
       <c r="C692" s="6" t="s">
@@ -29204,7 +29217,7 @@
       <c r="Z692" s="5"/>
       <c r="AA692" s="5"/>
     </row>
-    <row r="693" spans="1:27" ht="25.5">
+    <row r="693" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A693" s="5"/>
       <c r="B693" s="5"/>
       <c r="C693" s="6" t="s">
@@ -29241,7 +29254,7 @@
       <c r="Z693" s="5"/>
       <c r="AA693" s="5"/>
     </row>
-    <row r="694" spans="1:27" ht="38.25">
+    <row r="694" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A694" s="5"/>
       <c r="B694" s="5"/>
       <c r="C694" s="6" t="s">
@@ -29278,7 +29291,7 @@
       <c r="Z694" s="5"/>
       <c r="AA694" s="5"/>
     </row>
-    <row r="695" spans="1:27">
+    <row r="695" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A695" s="5"/>
       <c r="B695" s="5"/>
       <c r="C695" s="5"/>
@@ -29307,7 +29320,7 @@
       <c r="Z695" s="5"/>
       <c r="AA695" s="5"/>
     </row>
-    <row r="696" spans="1:27" ht="38.25">
+    <row r="696" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A696" s="5"/>
       <c r="B696" s="5"/>
       <c r="C696" s="6" t="s">
@@ -29342,7 +29355,7 @@
       <c r="Z696" s="5"/>
       <c r="AA696" s="5"/>
     </row>
-    <row r="697" spans="1:27" ht="25.5">
+    <row r="697" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A697" s="5"/>
       <c r="B697" s="5"/>
       <c r="C697" s="6" t="s">
@@ -29379,7 +29392,7 @@
       <c r="Z697" s="5"/>
       <c r="AA697" s="5"/>
     </row>
-    <row r="698" spans="1:27" ht="38.25">
+    <row r="698" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A698" s="5"/>
       <c r="B698" s="5"/>
       <c r="C698" s="6" t="s">
@@ -29416,7 +29429,7 @@
       <c r="Z698" s="5"/>
       <c r="AA698" s="5"/>
     </row>
-    <row r="699" spans="1:27" ht="25.5">
+    <row r="699" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A699" s="5"/>
       <c r="B699" s="5"/>
       <c r="C699" s="6" t="s">
@@ -29453,7 +29466,7 @@
       <c r="Z699" s="5"/>
       <c r="AA699" s="5"/>
     </row>
-    <row r="700" spans="1:27">
+    <row r="700" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A700" s="5"/>
       <c r="B700" s="5"/>
       <c r="C700" s="6" t="s">
@@ -29488,7 +29501,7 @@
       <c r="Z700" s="5"/>
       <c r="AA700" s="5"/>
     </row>
-    <row r="701" spans="1:27" ht="25.5">
+    <row r="701" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A701" s="5"/>
       <c r="B701" s="5"/>
       <c r="C701" s="6" t="s">
@@ -29523,7 +29536,7 @@
       <c r="Z701" s="5"/>
       <c r="AA701" s="5"/>
     </row>
-    <row r="702" spans="1:27" ht="25.5">
+    <row r="702" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A702" s="5"/>
       <c r="B702" s="5"/>
       <c r="C702" s="6" t="s">
@@ -29558,7 +29571,7 @@
       <c r="Z702" s="5"/>
       <c r="AA702" s="5"/>
     </row>
-    <row r="703" spans="1:27">
+    <row r="703" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A703" s="5"/>
       <c r="B703" s="5"/>
       <c r="C703" s="5"/>
@@ -29587,7 +29600,7 @@
       <c r="Z703" s="5"/>
       <c r="AA703" s="5"/>
     </row>
-    <row r="704" spans="1:27" ht="38.25">
+    <row r="704" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A704" s="5"/>
       <c r="B704" s="5"/>
       <c r="C704" s="6" t="s">
@@ -29624,7 +29637,7 @@
       <c r="Z704" s="5"/>
       <c r="AA704" s="5"/>
     </row>
-    <row r="705" spans="1:27" ht="25.5">
+    <row r="705" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A705" s="5"/>
       <c r="B705" s="5"/>
       <c r="C705" s="6" t="s">
@@ -29661,7 +29674,7 @@
       <c r="Z705" s="5"/>
       <c r="AA705" s="5"/>
     </row>
-    <row r="706" spans="1:27" ht="25.5">
+    <row r="706" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A706" s="5"/>
       <c r="B706" s="5"/>
       <c r="C706" s="6" t="s">
@@ -29698,7 +29711,7 @@
       <c r="Z706" s="5"/>
       <c r="AA706" s="5"/>
     </row>
-    <row r="707" spans="1:27" ht="25.5">
+    <row r="707" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A707" s="5"/>
       <c r="B707" s="5"/>
       <c r="C707" s="6" t="s">
@@ -29735,7 +29748,7 @@
       <c r="Z707" s="5"/>
       <c r="AA707" s="5"/>
     </row>
-    <row r="708" spans="1:27" ht="25.5">
+    <row r="708" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A708" s="5"/>
       <c r="B708" s="5"/>
       <c r="C708" s="6" t="s">
@@ -29772,7 +29785,7 @@
       <c r="Z708" s="5"/>
       <c r="AA708" s="5"/>
     </row>
-    <row r="709" spans="1:27" ht="25.5">
+    <row r="709" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A709" s="5"/>
       <c r="B709" s="5"/>
       <c r="C709" s="6" t="s">
@@ -29807,7 +29820,7 @@
       <c r="Z709" s="5"/>
       <c r="AA709" s="5"/>
     </row>
-    <row r="710" spans="1:27" ht="25.5">
+    <row r="710" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A710" s="5"/>
       <c r="B710" s="5"/>
       <c r="C710" s="6" t="s">
@@ -29844,7 +29857,7 @@
       <c r="Z710" s="5"/>
       <c r="AA710" s="5"/>
     </row>
-    <row r="711" spans="1:27" ht="38.25">
+    <row r="711" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A711" s="5"/>
       <c r="B711" s="5"/>
       <c r="C711" s="6" t="s">
@@ -29879,7 +29892,7 @@
       <c r="Z711" s="5"/>
       <c r="AA711" s="5"/>
     </row>
-    <row r="712" spans="1:27" ht="25.5">
+    <row r="712" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A712" s="5"/>
       <c r="B712" s="5"/>
       <c r="C712" s="6" t="s">
@@ -29916,7 +29929,7 @@
       <c r="Z712" s="5"/>
       <c r="AA712" s="5"/>
     </row>
-    <row r="713" spans="1:27" ht="25.5">
+    <row r="713" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A713" s="5"/>
       <c r="B713" s="5"/>
       <c r="C713" s="6" t="s">
@@ -29953,7 +29966,7 @@
       <c r="Z713" s="5"/>
       <c r="AA713" s="5"/>
     </row>
-    <row r="714" spans="1:27">
+    <row r="714" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A714" s="5"/>
       <c r="B714" s="5"/>
       <c r="C714" s="6" t="s">
@@ -29988,7 +30001,7 @@
       <c r="Z714" s="5"/>
       <c r="AA714" s="5"/>
     </row>
-    <row r="715" spans="1:27">
+    <row r="715" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A715" s="5"/>
       <c r="B715" s="5"/>
       <c r="C715" s="6" t="s">
@@ -30023,7 +30036,7 @@
       <c r="Z715" s="5"/>
       <c r="AA715" s="5"/>
     </row>
-    <row r="716" spans="1:27" ht="25.5">
+    <row r="716" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A716" s="5"/>
       <c r="B716" s="5"/>
       <c r="C716" s="6" t="s">
@@ -30060,7 +30073,7 @@
       <c r="Z716" s="5"/>
       <c r="AA716" s="5"/>
     </row>
-    <row r="717" spans="1:27" ht="25.5">
+    <row r="717" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A717" s="5"/>
       <c r="B717" s="5"/>
       <c r="C717" s="6" t="s">
@@ -30097,7 +30110,7 @@
       <c r="Z717" s="5"/>
       <c r="AA717" s="5"/>
     </row>
-    <row r="718" spans="1:27" ht="25.5">
+    <row r="718" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A718" s="5"/>
       <c r="B718" s="5"/>
       <c r="C718" s="6" t="s">
@@ -30134,7 +30147,7 @@
       <c r="Z718" s="5"/>
       <c r="AA718" s="5"/>
     </row>
-    <row r="719" spans="1:27" ht="25.5">
+    <row r="719" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A719" s="5"/>
       <c r="B719" s="5"/>
       <c r="C719" s="6" t="s">
@@ -30171,7 +30184,7 @@
       <c r="Z719" s="5"/>
       <c r="AA719" s="5"/>
     </row>
-    <row r="720" spans="1:27" ht="25.5">
+    <row r="720" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A720" s="5"/>
       <c r="B720" s="5"/>
       <c r="C720" s="6" t="s">
@@ -30208,7 +30221,7 @@
       <c r="Z720" s="5"/>
       <c r="AA720" s="5"/>
     </row>
-    <row r="721" spans="1:27">
+    <row r="721" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A721" s="5"/>
       <c r="B721" s="5"/>
       <c r="C721" s="6" t="s">
@@ -30243,7 +30256,7 @@
       <c r="Z721" s="5"/>
       <c r="AA721" s="5"/>
     </row>
-    <row r="722" spans="1:27">
+    <row r="722" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A722" s="5"/>
       <c r="B722" s="5"/>
       <c r="C722" s="6" t="s">
@@ -30280,7 +30293,7 @@
       <c r="Z722" s="5"/>
       <c r="AA722" s="5"/>
     </row>
-    <row r="723" spans="1:27" ht="25.5">
+    <row r="723" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A723" s="5"/>
       <c r="B723" s="5"/>
       <c r="C723" s="6" t="s">
@@ -30317,7 +30330,7 @@
       <c r="Z723" s="5"/>
       <c r="AA723" s="5"/>
     </row>
-    <row r="724" spans="1:27">
+    <row r="724" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A724" s="5"/>
       <c r="B724" s="5"/>
       <c r="C724" s="6" t="s">
@@ -30352,7 +30365,7 @@
       <c r="Z724" s="5"/>
       <c r="AA724" s="5"/>
     </row>
-    <row r="725" spans="1:27" ht="25.5">
+    <row r="725" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A725" s="5"/>
       <c r="B725" s="5"/>
       <c r="C725" s="6" t="s">
@@ -30389,7 +30402,7 @@
       <c r="Z725" s="5"/>
       <c r="AA725" s="5"/>
     </row>
-    <row r="726" spans="1:27">
+    <row r="726" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A726" s="5"/>
       <c r="B726" s="5"/>
       <c r="C726" s="6" t="s">
@@ -30424,7 +30437,7 @@
       <c r="Z726" s="5"/>
       <c r="AA726" s="5"/>
     </row>
-    <row r="727" spans="1:27" ht="25.5">
+    <row r="727" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A727" s="5"/>
       <c r="B727" s="5"/>
       <c r="C727" s="6" t="s">
@@ -30461,7 +30474,7 @@
       <c r="Z727" s="5"/>
       <c r="AA727" s="5"/>
     </row>
-    <row r="728" spans="1:27" ht="25.5">
+    <row r="728" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A728" s="5"/>
       <c r="B728" s="5"/>
       <c r="C728" s="6" t="s">
@@ -30498,7 +30511,7 @@
       <c r="Z728" s="5"/>
       <c r="AA728" s="5"/>
     </row>
-    <row r="729" spans="1:27" ht="25.5">
+    <row r="729" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A729" s="5"/>
       <c r="B729" s="5"/>
       <c r="C729" s="6" t="s">
@@ -30535,7 +30548,7 @@
       <c r="Z729" s="5"/>
       <c r="AA729" s="5"/>
     </row>
-    <row r="730" spans="1:27">
+    <row r="730" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A730" s="5"/>
       <c r="B730" s="5"/>
       <c r="C730" s="5"/>
@@ -30564,7 +30577,7 @@
       <c r="Z730" s="5"/>
       <c r="AA730" s="5"/>
     </row>
-    <row r="731" spans="1:27" ht="25.5">
+    <row r="731" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A731" s="5"/>
       <c r="B731" s="5"/>
       <c r="C731" s="6" t="s">
@@ -30601,7 +30614,7 @@
       <c r="Z731" s="5"/>
       <c r="AA731" s="5"/>
     </row>
-    <row r="732" spans="1:27">
+    <row r="732" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A732" s="5"/>
       <c r="B732" s="5"/>
       <c r="C732" s="6" t="s">
@@ -30636,7 +30649,7 @@
       <c r="Z732" s="5"/>
       <c r="AA732" s="5"/>
     </row>
-    <row r="733" spans="1:27" ht="25.5">
+    <row r="733" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A733" s="5"/>
       <c r="B733" s="5"/>
       <c r="C733" s="6" t="s">
@@ -30673,7 +30686,7 @@
       <c r="Z733" s="5"/>
       <c r="AA733" s="5"/>
     </row>
-    <row r="734" spans="1:27" ht="25.5">
+    <row r="734" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A734" s="5"/>
       <c r="B734" s="5"/>
       <c r="C734" s="6" t="s">
@@ -30710,7 +30723,7 @@
       <c r="Z734" s="5"/>
       <c r="AA734" s="5"/>
     </row>
-    <row r="735" spans="1:27">
+    <row r="735" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A735" s="5"/>
       <c r="B735" s="5"/>
       <c r="C735" s="6" t="s">
@@ -30745,7 +30758,7 @@
       <c r="Z735" s="5"/>
       <c r="AA735" s="5"/>
     </row>
-    <row r="736" spans="1:27" ht="25.5">
+    <row r="736" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A736" s="5"/>
       <c r="B736" s="5"/>
       <c r="C736" s="6" t="s">
@@ -30782,7 +30795,7 @@
       <c r="Z736" s="5"/>
       <c r="AA736" s="5"/>
     </row>
-    <row r="737" spans="1:27">
+    <row r="737" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A737" s="5"/>
       <c r="B737" s="5"/>
       <c r="C737" s="5"/>
@@ -30811,7 +30824,7 @@
       <c r="Z737" s="5"/>
       <c r="AA737" s="5"/>
     </row>
-    <row r="738" spans="1:27">
+    <row r="738" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A738" s="5"/>
       <c r="B738" s="5"/>
       <c r="C738" s="5"/>
@@ -30840,7 +30853,7 @@
       <c r="Z738" s="5"/>
       <c r="AA738" s="5"/>
     </row>
-    <row r="739" spans="1:27">
+    <row r="739" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A739" s="5"/>
       <c r="B739" s="5"/>
       <c r="C739" s="5"/>
@@ -30869,7 +30882,7 @@
       <c r="Z739" s="5"/>
       <c r="AA739" s="5"/>
     </row>
-    <row r="740" spans="1:27">
+    <row r="740" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A740" s="5"/>
       <c r="B740" s="5"/>
       <c r="C740" s="6" t="s">
@@ -30904,7 +30917,7 @@
       <c r="Z740" s="5"/>
       <c r="AA740" s="5"/>
     </row>
-    <row r="741" spans="1:27" ht="63.75">
+    <row r="741" spans="1:27" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A741" s="5"/>
       <c r="B741" s="5"/>
       <c r="C741" s="6" t="s">
@@ -30941,7 +30954,7 @@
       <c r="Z741" s="5"/>
       <c r="AA741" s="5"/>
     </row>
-    <row r="742" spans="1:27">
+    <row r="742" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A742" s="5"/>
       <c r="B742" s="5"/>
       <c r="C742" s="5"/>
@@ -30970,7 +30983,7 @@
       <c r="Z742" s="5"/>
       <c r="AA742" s="5"/>
     </row>
-    <row r="743" spans="1:27">
+    <row r="743" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A743" s="5"/>
       <c r="B743" s="5"/>
       <c r="C743" s="5"/>
@@ -30999,7 +31012,7 @@
       <c r="Z743" s="5"/>
       <c r="AA743" s="5"/>
     </row>
-    <row r="744" spans="1:27">
+    <row r="744" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A744" s="5"/>
       <c r="B744" s="5"/>
       <c r="C744" s="5"/>
@@ -31028,7 +31041,7 @@
       <c r="Z744" s="5"/>
       <c r="AA744" s="5"/>
     </row>
-    <row r="745" spans="1:27" ht="25.5">
+    <row r="745" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A745" s="5"/>
       <c r="B745" s="5"/>
       <c r="C745" s="6" t="s">
@@ -31065,7 +31078,7 @@
       <c r="Z745" s="5"/>
       <c r="AA745" s="5"/>
     </row>
-    <row r="746" spans="1:27" ht="25.5">
+    <row r="746" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A746" s="5"/>
       <c r="B746" s="5"/>
       <c r="C746" s="6" t="s">
@@ -31102,7 +31115,7 @@
       <c r="Z746" s="5"/>
       <c r="AA746" s="5"/>
     </row>
-    <row r="747" spans="1:27" ht="25.5">
+    <row r="747" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A747" s="5"/>
       <c r="B747" s="5"/>
       <c r="C747" s="6" t="s">
@@ -31139,7 +31152,7 @@
       <c r="Z747" s="5"/>
       <c r="AA747" s="5"/>
     </row>
-    <row r="748" spans="1:27" ht="25.5">
+    <row r="748" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A748" s="5"/>
       <c r="B748" s="5"/>
       <c r="C748" s="6" t="s">
@@ -31176,7 +31189,7 @@
       <c r="Z748" s="5"/>
       <c r="AA748" s="5"/>
     </row>
-    <row r="749" spans="1:27" ht="25.5">
+    <row r="749" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A749" s="5"/>
       <c r="B749" s="5"/>
       <c r="C749" s="6" t="s">
@@ -31213,7 +31226,7 @@
       <c r="Z749" s="5"/>
       <c r="AA749" s="5"/>
     </row>
-    <row r="750" spans="1:27" ht="25.5">
+    <row r="750" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A750" s="5"/>
       <c r="B750" s="5"/>
       <c r="C750" s="6" t="s">
@@ -31250,7 +31263,7 @@
       <c r="Z750" s="5"/>
       <c r="AA750" s="5"/>
     </row>
-    <row r="751" spans="1:27" ht="25.5">
+    <row r="751" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A751" s="5"/>
       <c r="B751" s="5"/>
       <c r="C751" s="6" t="s">
@@ -31287,7 +31300,7 @@
       <c r="Z751" s="5"/>
       <c r="AA751" s="5"/>
     </row>
-    <row r="752" spans="1:27" ht="63.75">
+    <row r="752" spans="1:27" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A752" s="5"/>
       <c r="B752" s="5"/>
       <c r="C752" s="6" t="s">
@@ -31324,7 +31337,7 @@
       <c r="Z752" s="5"/>
       <c r="AA752" s="5"/>
     </row>
-    <row r="753" spans="1:27">
+    <row r="753" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A753" s="5"/>
       <c r="B753" s="5"/>
       <c r="C753" s="5"/>
@@ -31353,7 +31366,7 @@
       <c r="Z753" s="5"/>
       <c r="AA753" s="5"/>
     </row>
-    <row r="754" spans="1:27">
+    <row r="754" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A754" s="5"/>
       <c r="B754" s="5"/>
       <c r="C754" s="5"/>
@@ -31382,7 +31395,7 @@
       <c r="Z754" s="5"/>
       <c r="AA754" s="5"/>
     </row>
-    <row r="755" spans="1:27">
+    <row r="755" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A755" s="5"/>
       <c r="B755" s="5"/>
       <c r="C755" s="5"/>
@@ -31411,7 +31424,7 @@
       <c r="Z755" s="5"/>
       <c r="AA755" s="5"/>
     </row>
-    <row r="756" spans="1:27">
+    <row r="756" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A756" s="5"/>
       <c r="B756" s="5"/>
       <c r="C756" s="5"/>
@@ -31440,7 +31453,7 @@
       <c r="Z756" s="5"/>
       <c r="AA756" s="5"/>
     </row>
-    <row r="757" spans="1:27">
+    <row r="757" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A757" s="5"/>
       <c r="B757" s="5"/>
       <c r="C757" s="6" t="s">
@@ -31475,7 +31488,7 @@
       <c r="Z757" s="5"/>
       <c r="AA757" s="5"/>
     </row>
-    <row r="758" spans="1:27" ht="25.5">
+    <row r="758" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A758" s="5"/>
       <c r="B758" s="5"/>
       <c r="C758" s="6" t="s">
@@ -31512,7 +31525,7 @@
       <c r="Z758" s="5"/>
       <c r="AA758" s="5"/>
     </row>
-    <row r="759" spans="1:27" ht="25.5">
+    <row r="759" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A759" s="5"/>
       <c r="B759" s="5"/>
       <c r="C759" s="6" t="s">
@@ -31547,7 +31560,7 @@
       <c r="Z759" s="5"/>
       <c r="AA759" s="5"/>
     </row>
-    <row r="760" spans="1:27" ht="25.5">
+    <row r="760" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A760" s="5"/>
       <c r="B760" s="5"/>
       <c r="C760" s="6" t="s">
@@ -31584,7 +31597,7 @@
       <c r="Z760" s="5"/>
       <c r="AA760" s="5"/>
     </row>
-    <row r="761" spans="1:27" ht="25.5">
+    <row r="761" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A761" s="5"/>
       <c r="B761" s="5"/>
       <c r="C761" s="6" t="s">
@@ -31621,7 +31634,7 @@
       <c r="Z761" s="5"/>
       <c r="AA761" s="5"/>
     </row>
-    <row r="762" spans="1:27" ht="25.5">
+    <row r="762" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A762" s="5"/>
       <c r="B762" s="5"/>
       <c r="C762" s="6" t="s">
@@ -31658,7 +31671,7 @@
       <c r="Z762" s="5"/>
       <c r="AA762" s="5"/>
     </row>
-    <row r="763" spans="1:27" ht="25.5">
+    <row r="763" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A763" s="5"/>
       <c r="B763" s="5"/>
       <c r="C763" s="6" t="s">
@@ -31695,7 +31708,7 @@
       <c r="Z763" s="5"/>
       <c r="AA763" s="5"/>
     </row>
-    <row r="764" spans="1:27" ht="25.5">
+    <row r="764" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A764" s="5"/>
       <c r="B764" s="5"/>
       <c r="C764" s="6" t="s">
@@ -31732,7 +31745,7 @@
       <c r="Z764" s="5"/>
       <c r="AA764" s="5"/>
     </row>
-    <row r="765" spans="1:27" ht="38.25">
+    <row r="765" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A765" s="5"/>
       <c r="B765" s="5"/>
       <c r="C765" s="6" t="s">
@@ -31769,7 +31782,7 @@
       <c r="Z765" s="5"/>
       <c r="AA765" s="5"/>
     </row>
-    <row r="766" spans="1:27">
+    <row r="766" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A766" s="5"/>
       <c r="B766" s="5"/>
       <c r="C766" s="5"/>
@@ -31798,7 +31811,7 @@
       <c r="Z766" s="5"/>
       <c r="AA766" s="5"/>
     </row>
-    <row r="767" spans="1:27">
+    <row r="767" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A767" s="5"/>
       <c r="B767" s="5"/>
       <c r="C767" s="6" t="s">
@@ -31835,7 +31848,7 @@
       <c r="Z767" s="5"/>
       <c r="AA767" s="5"/>
     </row>
-    <row r="768" spans="1:27" ht="38.25">
+    <row r="768" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A768" s="5"/>
       <c r="B768" s="5"/>
       <c r="C768" s="6" t="s">
@@ -31872,7 +31885,7 @@
       <c r="Z768" s="5"/>
       <c r="AA768" s="5"/>
     </row>
-    <row r="769" spans="1:27" ht="25.5">
+    <row r="769" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A769" s="5"/>
       <c r="B769" s="5"/>
       <c r="C769" s="6" t="s">
@@ -31909,7 +31922,7 @@
       <c r="Z769" s="5"/>
       <c r="AA769" s="5"/>
     </row>
-    <row r="770" spans="1:27">
+    <row r="770" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A770" s="5"/>
       <c r="B770" s="5"/>
       <c r="C770" s="5"/>
@@ -31938,7 +31951,7 @@
       <c r="Z770" s="5"/>
       <c r="AA770" s="5"/>
     </row>
-    <row r="771" spans="1:27">
+    <row r="771" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A771" s="5"/>
       <c r="B771" s="5"/>
       <c r="C771" s="5"/>
@@ -31967,7 +31980,7 @@
       <c r="Z771" s="5"/>
       <c r="AA771" s="5"/>
     </row>
-    <row r="772" spans="1:27" ht="25.5">
+    <row r="772" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A772" s="5"/>
       <c r="B772" s="5"/>
       <c r="C772" s="6" t="s">
@@ -32004,7 +32017,7 @@
       <c r="Z772" s="5"/>
       <c r="AA772" s="5"/>
     </row>
-    <row r="773" spans="1:27" ht="51">
+    <row r="773" spans="1:27" ht="51" x14ac:dyDescent="0.25">
       <c r="A773" s="5"/>
       <c r="B773" s="5"/>
       <c r="C773" s="6" t="s">
@@ -32041,7 +32054,7 @@
       <c r="Z773" s="5"/>
       <c r="AA773" s="5"/>
     </row>
-    <row r="774" spans="1:27">
+    <row r="774" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A774" s="5"/>
       <c r="B774" s="5"/>
       <c r="C774" s="5"/>
@@ -32070,7 +32083,7 @@
       <c r="Z774" s="5"/>
       <c r="AA774" s="5"/>
     </row>
-    <row r="775" spans="1:27">
+    <row r="775" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A775" s="5"/>
       <c r="B775" s="5"/>
       <c r="C775" s="5"/>
@@ -32099,7 +32112,7 @@
       <c r="Z775" s="5"/>
       <c r="AA775" s="5"/>
     </row>
-    <row r="776" spans="1:27">
+    <row r="776" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A776" s="5"/>
       <c r="B776" s="5"/>
       <c r="C776" s="6" t="s">
@@ -32134,7 +32147,7 @@
       <c r="Z776" s="5"/>
       <c r="AA776" s="5"/>
     </row>
-    <row r="777" spans="1:27">
+    <row r="777" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A777" s="5"/>
       <c r="B777" s="5"/>
       <c r="C777" s="6" t="s">
@@ -32169,7 +32182,7 @@
       <c r="Z777" s="5"/>
       <c r="AA777" s="5"/>
     </row>
-    <row r="778" spans="1:27" ht="76.5">
+    <row r="778" spans="1:27" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A778" s="5"/>
       <c r="B778" s="5"/>
       <c r="C778" s="6" t="s">
@@ -32206,7 +32219,7 @@
       <c r="Z778" s="5"/>
       <c r="AA778" s="5"/>
     </row>
-    <row r="779" spans="1:27">
+    <row r="779" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A779" s="5"/>
       <c r="B779" s="5"/>
       <c r="C779" s="5"/>
@@ -32235,7 +32248,7 @@
       <c r="Z779" s="5"/>
       <c r="AA779" s="5"/>
     </row>
-    <row r="780" spans="1:27">
+    <row r="780" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A780" s="5"/>
       <c r="B780" s="5"/>
       <c r="C780" s="5"/>
@@ -32264,7 +32277,7 @@
       <c r="Z780" s="5"/>
       <c r="AA780" s="5"/>
     </row>
-    <row r="781" spans="1:27">
+    <row r="781" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A781" s="5"/>
       <c r="B781" s="5"/>
       <c r="C781" s="5"/>
@@ -32293,7 +32306,7 @@
       <c r="Z781" s="5"/>
       <c r="AA781" s="5"/>
     </row>
-    <row r="782" spans="1:27">
+    <row r="782" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A782" s="5"/>
       <c r="B782" s="5"/>
       <c r="C782" s="5"/>
@@ -32322,7 +32335,7 @@
       <c r="Z782" s="5"/>
       <c r="AA782" s="5"/>
     </row>
-    <row r="783" spans="1:27">
+    <row r="783" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A783" s="5"/>
       <c r="B783" s="5"/>
       <c r="C783" s="5"/>
@@ -32351,7 +32364,7 @@
       <c r="Z783" s="5"/>
       <c r="AA783" s="5"/>
     </row>
-    <row r="784" spans="1:27">
+    <row r="784" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A784" s="5"/>
       <c r="B784" s="5"/>
       <c r="C784" s="6" t="s">
@@ -32388,7 +32401,7 @@
       <c r="Z784" s="5"/>
       <c r="AA784" s="5"/>
     </row>
-    <row r="785" spans="1:27" ht="51">
+    <row r="785" spans="1:27" ht="51" x14ac:dyDescent="0.25">
       <c r="A785" s="5"/>
       <c r="B785" s="5"/>
       <c r="C785" s="6" t="s">
@@ -32425,7 +32438,7 @@
       <c r="Z785" s="5"/>
       <c r="AA785" s="5"/>
     </row>
-    <row r="786" spans="1:27">
+    <row r="786" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A786" s="5"/>
       <c r="B786" s="5"/>
       <c r="C786" s="5"/>
@@ -32454,7 +32467,7 @@
       <c r="Z786" s="5"/>
       <c r="AA786" s="5"/>
     </row>
-    <row r="787" spans="1:27">
+    <row r="787" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A787" s="5"/>
       <c r="B787" s="5"/>
       <c r="C787" s="5"/>
@@ -32483,7 +32496,7 @@
       <c r="Z787" s="5"/>
       <c r="AA787" s="5"/>
     </row>
-    <row r="788" spans="1:27" ht="38.25">
+    <row r="788" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A788" s="5"/>
       <c r="B788" s="5"/>
       <c r="C788" s="6" t="s">
@@ -32520,7 +32533,7 @@
       <c r="Z788" s="5"/>
       <c r="AA788" s="5"/>
     </row>
-    <row r="789" spans="1:27">
+    <row r="789" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A789" s="5"/>
       <c r="B789" s="5"/>
       <c r="C789" s="5"/>
@@ -32549,7 +32562,7 @@
       <c r="Z789" s="5"/>
       <c r="AA789" s="5"/>
     </row>
-    <row r="790" spans="1:27">
+    <row r="790" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A790" s="5"/>
       <c r="B790" s="5"/>
       <c r="C790" s="5"/>
@@ -32578,7 +32591,7 @@
       <c r="Z790" s="5"/>
       <c r="AA790" s="5"/>
     </row>
-    <row r="791" spans="1:27">
+    <row r="791" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A791" s="5"/>
       <c r="B791" s="5"/>
       <c r="C791" s="5"/>
@@ -32607,7 +32620,7 @@
       <c r="Z791" s="5"/>
       <c r="AA791" s="5"/>
     </row>
-    <row r="792" spans="1:27">
+    <row r="792" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A792" s="5"/>
       <c r="B792" s="5"/>
       <c r="C792" s="5"/>
@@ -32636,7 +32649,7 @@
       <c r="Z792" s="5"/>
       <c r="AA792" s="5"/>
     </row>
-    <row r="793" spans="1:27">
+    <row r="793" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A793" s="5"/>
       <c r="B793" s="5"/>
       <c r="C793" s="5"/>
@@ -32665,7 +32678,7 @@
       <c r="Z793" s="5"/>
       <c r="AA793" s="5"/>
     </row>
-    <row r="794" spans="1:27">
+    <row r="794" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A794" s="5"/>
       <c r="B794" s="5"/>
       <c r="C794" s="5"/>
@@ -32694,7 +32707,7 @@
       <c r="Z794" s="5"/>
       <c r="AA794" s="5"/>
     </row>
-    <row r="795" spans="1:27">
+    <row r="795" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A795" s="5"/>
       <c r="B795" s="5"/>
       <c r="C795" s="5"/>
@@ -32723,7 +32736,7 @@
       <c r="Z795" s="5"/>
       <c r="AA795" s="5"/>
     </row>
-    <row r="796" spans="1:27">
+    <row r="796" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A796" s="5"/>
       <c r="B796" s="5"/>
       <c r="C796" s="5"/>
@@ -32752,7 +32765,7 @@
       <c r="Z796" s="5"/>
       <c r="AA796" s="5"/>
     </row>
-    <row r="797" spans="1:27">
+    <row r="797" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A797" s="5"/>
       <c r="B797" s="5"/>
       <c r="C797" s="5"/>
@@ -32781,7 +32794,7 @@
       <c r="Z797" s="5"/>
       <c r="AA797" s="5"/>
     </row>
-    <row r="798" spans="1:27">
+    <row r="798" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A798" s="5"/>
       <c r="B798" s="5"/>
       <c r="C798" s="5"/>
@@ -32810,7 +32823,7 @@
       <c r="Z798" s="5"/>
       <c r="AA798" s="5"/>
     </row>
-    <row r="799" spans="1:27">
+    <row r="799" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A799" s="5"/>
       <c r="B799" s="5"/>
       <c r="C799" s="5"/>
@@ -32839,7 +32852,7 @@
       <c r="Z799" s="5"/>
       <c r="AA799" s="5"/>
     </row>
-    <row r="800" spans="1:27">
+    <row r="800" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A800" s="5"/>
       <c r="B800" s="5"/>
       <c r="C800" s="5"/>
@@ -32868,7 +32881,7 @@
       <c r="Z800" s="5"/>
       <c r="AA800" s="5"/>
     </row>
-    <row r="801" spans="1:27">
+    <row r="801" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A801" s="5"/>
       <c r="B801" s="5"/>
       <c r="C801" s="5"/>
@@ -32897,7 +32910,7 @@
       <c r="Z801" s="5"/>
       <c r="AA801" s="5"/>
     </row>
-    <row r="802" spans="1:27">
+    <row r="802" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A802" s="5"/>
       <c r="B802" s="5"/>
       <c r="C802" s="5"/>
@@ -32926,7 +32939,7 @@
       <c r="Z802" s="5"/>
       <c r="AA802" s="5"/>
     </row>
-    <row r="803" spans="1:27">
+    <row r="803" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A803" s="5"/>
       <c r="B803" s="5"/>
       <c r="C803" s="5"/>
@@ -32955,7 +32968,7 @@
       <c r="Z803" s="5"/>
       <c r="AA803" s="5"/>
     </row>
-    <row r="804" spans="1:27">
+    <row r="804" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A804" s="5"/>
       <c r="B804" s="5"/>
       <c r="C804" s="5"/>
@@ -32984,7 +32997,7 @@
       <c r="Z804" s="5"/>
       <c r="AA804" s="5"/>
     </row>
-    <row r="805" spans="1:27">
+    <row r="805" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A805" s="5"/>
       <c r="B805" s="5"/>
       <c r="C805" s="5"/>
@@ -33013,7 +33026,7 @@
       <c r="Z805" s="5"/>
       <c r="AA805" s="5"/>
     </row>
-    <row r="806" spans="1:27">
+    <row r="806" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A806" s="5"/>
       <c r="B806" s="5"/>
       <c r="C806" s="5"/>
@@ -33042,7 +33055,7 @@
       <c r="Z806" s="5"/>
       <c r="AA806" s="5"/>
     </row>
-    <row r="807" spans="1:27">
+    <row r="807" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A807" s="5"/>
       <c r="B807" s="5"/>
       <c r="C807" s="5"/>
@@ -33071,7 +33084,7 @@
       <c r="Z807" s="5"/>
       <c r="AA807" s="5"/>
     </row>
-    <row r="808" spans="1:27">
+    <row r="808" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A808" s="5"/>
       <c r="B808" s="5"/>
       <c r="C808" s="5"/>
@@ -33100,7 +33113,7 @@
       <c r="Z808" s="5"/>
       <c r="AA808" s="5"/>
     </row>
-    <row r="809" spans="1:27">
+    <row r="809" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A809" s="5"/>
       <c r="B809" s="5"/>
       <c r="C809" s="5"/>
@@ -33129,7 +33142,7 @@
       <c r="Z809" s="5"/>
       <c r="AA809" s="5"/>
     </row>
-    <row r="810" spans="1:27">
+    <row r="810" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A810" s="5"/>
       <c r="B810" s="5"/>
       <c r="C810" s="5"/>
@@ -33158,7 +33171,7 @@
       <c r="Z810" s="5"/>
       <c r="AA810" s="5"/>
     </row>
-    <row r="811" spans="1:27">
+    <row r="811" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A811" s="5"/>
       <c r="B811" s="5"/>
       <c r="C811" s="5"/>
@@ -33187,7 +33200,7 @@
       <c r="Z811" s="5"/>
       <c r="AA811" s="5"/>
     </row>
-    <row r="812" spans="1:27">
+    <row r="812" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A812" s="5"/>
       <c r="B812" s="5"/>
       <c r="C812" s="5"/>
@@ -33216,7 +33229,7 @@
       <c r="Z812" s="5"/>
       <c r="AA812" s="5"/>
     </row>
-    <row r="813" spans="1:27">
+    <row r="813" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A813" s="5"/>
       <c r="B813" s="5"/>
       <c r="C813" s="5"/>
@@ -33245,7 +33258,7 @@
       <c r="Z813" s="5"/>
       <c r="AA813" s="5"/>
     </row>
-    <row r="814" spans="1:27">
+    <row r="814" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A814" s="5"/>
       <c r="B814" s="5"/>
       <c r="C814" s="5"/>
@@ -33274,7 +33287,7 @@
       <c r="Z814" s="5"/>
       <c r="AA814" s="5"/>
     </row>
-    <row r="815" spans="1:27">
+    <row r="815" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A815" s="5"/>
       <c r="B815" s="5"/>
       <c r="C815" s="5"/>
@@ -33303,7 +33316,7 @@
       <c r="Z815" s="5"/>
       <c r="AA815" s="5"/>
     </row>
-    <row r="816" spans="1:27">
+    <row r="816" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A816" s="5"/>
       <c r="B816" s="5"/>
       <c r="C816" s="5"/>
@@ -33332,7 +33345,7 @@
       <c r="Z816" s="5"/>
       <c r="AA816" s="5"/>
     </row>
-    <row r="817" spans="1:27">
+    <row r="817" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A817" s="5"/>
       <c r="B817" s="5"/>
       <c r="C817" s="5"/>
@@ -33361,7 +33374,7 @@
       <c r="Z817" s="5"/>
       <c r="AA817" s="5"/>
     </row>
-    <row r="818" spans="1:27">
+    <row r="818" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A818" s="5"/>
       <c r="B818" s="5"/>
       <c r="C818" s="5"/>
@@ -33390,7 +33403,7 @@
       <c r="Z818" s="5"/>
       <c r="AA818" s="5"/>
     </row>
-    <row r="819" spans="1:27">
+    <row r="819" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A819" s="5"/>
       <c r="B819" s="5"/>
       <c r="C819" s="5"/>
@@ -33419,7 +33432,7 @@
       <c r="Z819" s="5"/>
       <c r="AA819" s="5"/>
     </row>
-    <row r="820" spans="1:27">
+    <row r="820" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A820" s="5"/>
       <c r="B820" s="5"/>
       <c r="C820" s="5"/>
@@ -33448,7 +33461,7 @@
       <c r="Z820" s="5"/>
       <c r="AA820" s="5"/>
     </row>
-    <row r="821" spans="1:27">
+    <row r="821" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A821" s="5"/>
       <c r="B821" s="5"/>
       <c r="C821" s="5"/>
@@ -33477,7 +33490,7 @@
       <c r="Z821" s="5"/>
       <c r="AA821" s="5"/>
     </row>
-    <row r="822" spans="1:27">
+    <row r="822" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A822" s="5"/>
       <c r="B822" s="5"/>
       <c r="C822" s="5"/>
@@ -33506,7 +33519,7 @@
       <c r="Z822" s="5"/>
       <c r="AA822" s="5"/>
     </row>
-    <row r="823" spans="1:27">
+    <row r="823" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A823" s="5"/>
       <c r="B823" s="5"/>
       <c r="C823" s="5"/>
@@ -33535,7 +33548,7 @@
       <c r="Z823" s="5"/>
       <c r="AA823" s="5"/>
     </row>
-    <row r="824" spans="1:27">
+    <row r="824" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A824" s="5"/>
       <c r="B824" s="5"/>
       <c r="C824" s="5"/>
@@ -33564,7 +33577,7 @@
       <c r="Z824" s="5"/>
       <c r="AA824" s="5"/>
     </row>
-    <row r="825" spans="1:27">
+    <row r="825" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A825" s="5"/>
       <c r="B825" s="5"/>
       <c r="C825" s="5"/>
@@ -33593,7 +33606,7 @@
       <c r="Z825" s="5"/>
       <c r="AA825" s="5"/>
     </row>
-    <row r="826" spans="1:27">
+    <row r="826" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A826" s="5"/>
       <c r="B826" s="5"/>
       <c r="C826" s="5"/>
@@ -33622,7 +33635,7 @@
       <c r="Z826" s="5"/>
       <c r="AA826" s="5"/>
     </row>
-    <row r="827" spans="1:27">
+    <row r="827" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A827" s="5"/>
       <c r="B827" s="5"/>
       <c r="C827" s="5"/>
@@ -33651,7 +33664,7 @@
       <c r="Z827" s="5"/>
       <c r="AA827" s="5"/>
     </row>
-    <row r="828" spans="1:27">
+    <row r="828" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A828" s="5"/>
       <c r="B828" s="5"/>
       <c r="C828" s="5"/>
@@ -33680,7 +33693,7 @@
       <c r="Z828" s="5"/>
       <c r="AA828" s="5"/>
     </row>
-    <row r="829" spans="1:27">
+    <row r="829" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A829" s="5"/>
       <c r="B829" s="5"/>
       <c r="C829" s="5"/>
@@ -33709,7 +33722,7 @@
       <c r="Z829" s="5"/>
       <c r="AA829" s="5"/>
     </row>
-    <row r="830" spans="1:27">
+    <row r="830" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A830" s="5"/>
       <c r="B830" s="5"/>
       <c r="C830" s="5"/>
@@ -33738,7 +33751,7 @@
       <c r="Z830" s="5"/>
       <c r="AA830" s="5"/>
     </row>
-    <row r="831" spans="1:27">
+    <row r="831" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A831" s="5"/>
       <c r="B831" s="5"/>
       <c r="C831" s="5"/>
@@ -33767,7 +33780,7 @@
       <c r="Z831" s="5"/>
       <c r="AA831" s="5"/>
     </row>
-    <row r="832" spans="1:27">
+    <row r="832" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A832" s="5"/>
       <c r="B832" s="5"/>
       <c r="C832" s="5"/>
@@ -33796,7 +33809,7 @@
       <c r="Z832" s="5"/>
       <c r="AA832" s="5"/>
     </row>
-    <row r="833" spans="1:27">
+    <row r="833" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A833" s="5"/>
       <c r="B833" s="5"/>
       <c r="C833" s="5"/>
@@ -33825,7 +33838,7 @@
       <c r="Z833" s="5"/>
       <c r="AA833" s="5"/>
     </row>
-    <row r="834" spans="1:27">
+    <row r="834" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A834" s="5"/>
       <c r="B834" s="5"/>
       <c r="C834" s="5"/>
@@ -33854,7 +33867,7 @@
       <c r="Z834" s="5"/>
       <c r="AA834" s="5"/>
     </row>
-    <row r="835" spans="1:27">
+    <row r="835" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A835" s="5"/>
       <c r="B835" s="5"/>
       <c r="C835" s="5"/>
@@ -33883,7 +33896,7 @@
       <c r="Z835" s="5"/>
       <c r="AA835" s="5"/>
     </row>
-    <row r="836" spans="1:27">
+    <row r="836" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A836" s="5"/>
       <c r="B836" s="5"/>
       <c r="C836" s="5"/>
@@ -33912,7 +33925,7 @@
       <c r="Z836" s="5"/>
       <c r="AA836" s="5"/>
     </row>
-    <row r="837" spans="1:27">
+    <row r="837" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A837" s="5"/>
       <c r="B837" s="5"/>
       <c r="C837" s="5"/>
@@ -33941,7 +33954,7 @@
       <c r="Z837" s="5"/>
       <c r="AA837" s="5"/>
     </row>
-    <row r="838" spans="1:27">
+    <row r="838" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A838" s="5"/>
       <c r="B838" s="5"/>
       <c r="C838" s="5"/>
@@ -33970,7 +33983,7 @@
       <c r="Z838" s="5"/>
       <c r="AA838" s="5"/>
     </row>
-    <row r="839" spans="1:27">
+    <row r="839" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A839" s="5"/>
       <c r="B839" s="5"/>
       <c r="C839" s="5"/>
@@ -33999,7 +34012,7 @@
       <c r="Z839" s="5"/>
       <c r="AA839" s="5"/>
     </row>
-    <row r="840" spans="1:27">
+    <row r="840" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A840" s="5"/>
       <c r="B840" s="5"/>
       <c r="C840" s="5"/>
@@ -34028,7 +34041,7 @@
       <c r="Z840" s="5"/>
       <c r="AA840" s="5"/>
     </row>
-    <row r="841" spans="1:27">
+    <row r="841" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A841" s="5"/>
       <c r="B841" s="5"/>
       <c r="C841" s="5"/>
@@ -34057,7 +34070,7 @@
       <c r="Z841" s="5"/>
       <c r="AA841" s="5"/>
     </row>
-    <row r="842" spans="1:27">
+    <row r="842" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A842" s="5"/>
       <c r="B842" s="5"/>
       <c r="C842" s="5"/>
@@ -34086,7 +34099,7 @@
       <c r="Z842" s="5"/>
       <c r="AA842" s="5"/>
     </row>
-    <row r="843" spans="1:27">
+    <row r="843" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A843" s="5"/>
       <c r="B843" s="5"/>
       <c r="C843" s="5"/>
@@ -34115,7 +34128,7 @@
       <c r="Z843" s="5"/>
       <c r="AA843" s="5"/>
     </row>
-    <row r="844" spans="1:27">
+    <row r="844" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A844" s="5"/>
       <c r="B844" s="5"/>
       <c r="C844" s="5"/>
@@ -34144,7 +34157,7 @@
       <c r="Z844" s="5"/>
       <c r="AA844" s="5"/>
     </row>
-    <row r="845" spans="1:27">
+    <row r="845" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A845" s="5"/>
       <c r="B845" s="5"/>
       <c r="C845" s="5"/>
@@ -34173,7 +34186,7 @@
       <c r="Z845" s="5"/>
       <c r="AA845" s="5"/>
     </row>
-    <row r="846" spans="1:27">
+    <row r="846" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A846" s="5"/>
       <c r="B846" s="5"/>
       <c r="C846" s="5"/>
@@ -34202,7 +34215,7 @@
       <c r="Z846" s="5"/>
       <c r="AA846" s="5"/>
     </row>
-    <row r="847" spans="1:27">
+    <row r="847" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A847" s="5"/>
       <c r="B847" s="5"/>
       <c r="C847" s="5"/>
@@ -34231,7 +34244,7 @@
       <c r="Z847" s="5"/>
       <c r="AA847" s="5"/>
     </row>
-    <row r="848" spans="1:27">
+    <row r="848" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A848" s="5"/>
       <c r="B848" s="5"/>
       <c r="C848" s="5"/>
@@ -34260,7 +34273,7 @@
       <c r="Z848" s="5"/>
       <c r="AA848" s="5"/>
     </row>
-    <row r="849" spans="1:27">
+    <row r="849" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A849" s="5"/>
       <c r="B849" s="5"/>
       <c r="C849" s="5"/>
@@ -34289,7 +34302,7 @@
       <c r="Z849" s="5"/>
       <c r="AA849" s="5"/>
     </row>
-    <row r="850" spans="1:27">
+    <row r="850" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A850" s="5"/>
       <c r="B850" s="5"/>
       <c r="C850" s="5"/>
@@ -34318,7 +34331,7 @@
       <c r="Z850" s="5"/>
       <c r="AA850" s="5"/>
     </row>
-    <row r="851" spans="1:27">
+    <row r="851" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A851" s="5"/>
       <c r="B851" s="5"/>
       <c r="C851" s="5"/>
@@ -34347,7 +34360,7 @@
       <c r="Z851" s="5"/>
       <c r="AA851" s="5"/>
     </row>
-    <row r="852" spans="1:27">
+    <row r="852" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A852" s="5"/>
       <c r="B852" s="5"/>
       <c r="C852" s="5"/>
@@ -34376,7 +34389,7 @@
       <c r="Z852" s="5"/>
       <c r="AA852" s="5"/>
     </row>
-    <row r="853" spans="1:27">
+    <row r="853" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A853" s="5"/>
       <c r="B853" s="5"/>
       <c r="C853" s="5"/>
@@ -34405,7 +34418,7 @@
       <c r="Z853" s="5"/>
       <c r="AA853" s="5"/>
     </row>
-    <row r="854" spans="1:27">
+    <row r="854" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A854" s="5"/>
       <c r="B854" s="5"/>
       <c r="C854" s="5"/>
@@ -34434,7 +34447,7 @@
       <c r="Z854" s="5"/>
       <c r="AA854" s="5"/>
     </row>
-    <row r="855" spans="1:27">
+    <row r="855" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A855" s="5"/>
       <c r="B855" s="5"/>
       <c r="C855" s="5"/>
@@ -34463,7 +34476,7 @@
       <c r="Z855" s="5"/>
       <c r="AA855" s="5"/>
     </row>
-    <row r="856" spans="1:27">
+    <row r="856" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A856" s="5"/>
       <c r="B856" s="5"/>
       <c r="C856" s="5"/>
@@ -34492,7 +34505,7 @@
       <c r="Z856" s="5"/>
       <c r="AA856" s="5"/>
     </row>
-    <row r="857" spans="1:27">
+    <row r="857" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A857" s="5"/>
       <c r="B857" s="5"/>
       <c r="C857" s="5"/>
@@ -34521,7 +34534,7 @@
       <c r="Z857" s="5"/>
       <c r="AA857" s="5"/>
     </row>
-    <row r="858" spans="1:27">
+    <row r="858" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A858" s="5"/>
       <c r="B858" s="5"/>
       <c r="C858" s="5"/>
@@ -34550,7 +34563,7 @@
       <c r="Z858" s="5"/>
       <c r="AA858" s="5"/>
     </row>
-    <row r="859" spans="1:27">
+    <row r="859" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A859" s="5"/>
       <c r="B859" s="5"/>
       <c r="C859" s="5"/>
@@ -34579,7 +34592,7 @@
       <c r="Z859" s="5"/>
       <c r="AA859" s="5"/>
     </row>
-    <row r="860" spans="1:27">
+    <row r="860" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A860" s="5"/>
       <c r="B860" s="5"/>
       <c r="C860" s="5"/>
@@ -34608,7 +34621,7 @@
       <c r="Z860" s="5"/>
       <c r="AA860" s="5"/>
     </row>
-    <row r="861" spans="1:27">
+    <row r="861" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A861" s="5"/>
       <c r="B861" s="5"/>
       <c r="C861" s="5"/>
@@ -34637,7 +34650,7 @@
       <c r="Z861" s="5"/>
       <c r="AA861" s="5"/>
     </row>
-    <row r="862" spans="1:27">
+    <row r="862" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A862" s="5"/>
       <c r="B862" s="5"/>
       <c r="C862" s="5"/>
@@ -34666,7 +34679,7 @@
       <c r="Z862" s="5"/>
       <c r="AA862" s="5"/>
     </row>
-    <row r="863" spans="1:27">
+    <row r="863" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A863" s="5"/>
       <c r="B863" s="5"/>
       <c r="C863" s="5"/>
@@ -34695,7 +34708,7 @@
       <c r="Z863" s="5"/>
       <c r="AA863" s="5"/>
     </row>
-    <row r="864" spans="1:27">
+    <row r="864" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A864" s="5"/>
       <c r="B864" s="5"/>
       <c r="C864" s="5"/>
@@ -34724,7 +34737,7 @@
       <c r="Z864" s="5"/>
       <c r="AA864" s="5"/>
     </row>
-    <row r="865" spans="1:27">
+    <row r="865" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A865" s="5"/>
       <c r="B865" s="5"/>
       <c r="C865" s="5"/>
@@ -34753,7 +34766,7 @@
       <c r="Z865" s="5"/>
       <c r="AA865" s="5"/>
     </row>
-    <row r="866" spans="1:27">
+    <row r="866" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A866" s="5"/>
       <c r="B866" s="5"/>
       <c r="C866" s="5"/>
@@ -34782,7 +34795,7 @@
       <c r="Z866" s="5"/>
       <c r="AA866" s="5"/>
     </row>
-    <row r="867" spans="1:27">
+    <row r="867" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A867" s="5"/>
       <c r="B867" s="5"/>
       <c r="C867" s="5"/>
@@ -34811,7 +34824,7 @@
       <c r="Z867" s="5"/>
       <c r="AA867" s="5"/>
     </row>
-    <row r="868" spans="1:27">
+    <row r="868" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A868" s="5"/>
       <c r="B868" s="5"/>
       <c r="C868" s="5"/>
@@ -34840,7 +34853,7 @@
       <c r="Z868" s="5"/>
       <c r="AA868" s="5"/>
     </row>
-    <row r="869" spans="1:27">
+    <row r="869" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A869" s="5"/>
       <c r="B869" s="5"/>
       <c r="C869" s="5"/>
@@ -34869,7 +34882,7 @@
       <c r="Z869" s="5"/>
       <c r="AA869" s="5"/>
     </row>
-    <row r="870" spans="1:27">
+    <row r="870" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A870" s="5"/>
       <c r="B870" s="5"/>
       <c r="C870" s="5"/>
@@ -34898,7 +34911,7 @@
       <c r="Z870" s="5"/>
       <c r="AA870" s="5"/>
     </row>
-    <row r="871" spans="1:27">
+    <row r="871" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A871" s="5"/>
       <c r="B871" s="5"/>
       <c r="C871" s="5"/>
@@ -34927,7 +34940,7 @@
       <c r="Z871" s="5"/>
       <c r="AA871" s="5"/>
     </row>
-    <row r="872" spans="1:27">
+    <row r="872" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A872" s="5"/>
       <c r="B872" s="5"/>
       <c r="C872" s="5"/>
@@ -34956,7 +34969,7 @@
       <c r="Z872" s="5"/>
       <c r="AA872" s="5"/>
     </row>
-    <row r="873" spans="1:27">
+    <row r="873" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A873" s="5"/>
       <c r="B873" s="5"/>
       <c r="C873" s="5"/>
@@ -34985,7 +34998,7 @@
       <c r="Z873" s="5"/>
       <c r="AA873" s="5"/>
     </row>
-    <row r="874" spans="1:27">
+    <row r="874" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A874" s="5"/>
       <c r="B874" s="5"/>
       <c r="C874" s="5"/>
@@ -35014,7 +35027,7 @@
       <c r="Z874" s="5"/>
       <c r="AA874" s="5"/>
     </row>
-    <row r="875" spans="1:27">
+    <row r="875" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A875" s="5"/>
       <c r="B875" s="5"/>
       <c r="C875" s="5"/>
@@ -35043,7 +35056,7 @@
       <c r="Z875" s="5"/>
       <c r="AA875" s="5"/>
     </row>
-    <row r="876" spans="1:27">
+    <row r="876" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A876" s="5"/>
       <c r="B876" s="5"/>
       <c r="C876" s="5"/>
@@ -35072,7 +35085,7 @@
       <c r="Z876" s="5"/>
       <c r="AA876" s="5"/>
     </row>
-    <row r="877" spans="1:27">
+    <row r="877" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A877" s="5"/>
       <c r="B877" s="5"/>
       <c r="C877" s="5"/>
@@ -35101,7 +35114,7 @@
       <c r="Z877" s="5"/>
       <c r="AA877" s="5"/>
     </row>
-    <row r="878" spans="1:27">
+    <row r="878" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A878" s="5"/>
       <c r="B878" s="5"/>
       <c r="C878" s="5"/>
@@ -35130,7 +35143,7 @@
       <c r="Z878" s="5"/>
       <c r="AA878" s="5"/>
     </row>
-    <row r="879" spans="1:27">
+    <row r="879" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A879" s="5"/>
       <c r="B879" s="5"/>
       <c r="C879" s="5"/>
@@ -35159,7 +35172,7 @@
       <c r="Z879" s="5"/>
       <c r="AA879" s="5"/>
     </row>
-    <row r="880" spans="1:27">
+    <row r="880" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A880" s="5"/>
       <c r="B880" s="5"/>
       <c r="C880" s="5"/>
@@ -35188,7 +35201,7 @@
       <c r="Z880" s="5"/>
       <c r="AA880" s="5"/>
     </row>
-    <row r="881" spans="1:27">
+    <row r="881" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A881" s="5"/>
       <c r="B881" s="5"/>
       <c r="C881" s="5"/>
@@ -35217,7 +35230,7 @@
       <c r="Z881" s="5"/>
       <c r="AA881" s="5"/>
     </row>
-    <row r="882" spans="1:27">
+    <row r="882" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A882" s="5"/>
       <c r="B882" s="5"/>
       <c r="C882" s="5"/>
@@ -35246,7 +35259,7 @@
       <c r="Z882" s="5"/>
       <c r="AA882" s="5"/>
     </row>
-    <row r="883" spans="1:27">
+    <row r="883" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A883" s="5"/>
       <c r="B883" s="5"/>
       <c r="C883" s="5"/>
@@ -35275,7 +35288,7 @@
       <c r="Z883" s="5"/>
       <c r="AA883" s="5"/>
     </row>
-    <row r="884" spans="1:27">
+    <row r="884" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A884" s="5"/>
       <c r="B884" s="5"/>
       <c r="C884" s="5"/>
@@ -35304,7 +35317,7 @@
       <c r="Z884" s="5"/>
       <c r="AA884" s="5"/>
     </row>
-    <row r="885" spans="1:27">
+    <row r="885" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A885" s="5"/>
       <c r="B885" s="5"/>
       <c r="C885" s="5"/>
@@ -35333,7 +35346,7 @@
       <c r="Z885" s="5"/>
       <c r="AA885" s="5"/>
     </row>
-    <row r="886" spans="1:27">
+    <row r="886" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A886" s="5"/>
       <c r="B886" s="5"/>
       <c r="C886" s="5"/>
@@ -35362,7 +35375,7 @@
       <c r="Z886" s="5"/>
       <c r="AA886" s="5"/>
     </row>
-    <row r="887" spans="1:27">
+    <row r="887" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A887" s="5"/>
       <c r="B887" s="5"/>
       <c r="C887" s="5"/>
@@ -35391,7 +35404,7 @@
       <c r="Z887" s="5"/>
       <c r="AA887" s="5"/>
     </row>
-    <row r="888" spans="1:27">
+    <row r="888" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A888" s="5"/>
       <c r="B888" s="5"/>
       <c r="C888" s="5"/>
@@ -35420,7 +35433,7 @@
       <c r="Z888" s="5"/>
       <c r="AA888" s="5"/>
     </row>
-    <row r="889" spans="1:27">
+    <row r="889" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A889" s="5"/>
       <c r="B889" s="5"/>
       <c r="C889" s="5"/>
@@ -35449,7 +35462,7 @@
       <c r="Z889" s="5"/>
       <c r="AA889" s="5"/>
     </row>
-    <row r="890" spans="1:27">
+    <row r="890" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A890" s="5"/>
       <c r="B890" s="5"/>
       <c r="C890" s="5"/>
@@ -35478,7 +35491,7 @@
       <c r="Z890" s="5"/>
       <c r="AA890" s="5"/>
     </row>
-    <row r="891" spans="1:27">
+    <row r="891" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A891" s="5"/>
       <c r="B891" s="5"/>
       <c r="C891" s="5"/>
@@ -35507,7 +35520,7 @@
       <c r="Z891" s="5"/>
       <c r="AA891" s="5"/>
     </row>
-    <row r="892" spans="1:27">
+    <row r="892" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A892" s="5"/>
       <c r="B892" s="5"/>
       <c r="C892" s="5"/>
@@ -35536,7 +35549,7 @@
       <c r="Z892" s="5"/>
       <c r="AA892" s="5"/>
     </row>
-    <row r="893" spans="1:27">
+    <row r="893" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A893" s="5"/>
       <c r="B893" s="5"/>
       <c r="C893" s="5"/>
@@ -35565,7 +35578,7 @@
       <c r="Z893" s="5"/>
       <c r="AA893" s="5"/>
     </row>
-    <row r="894" spans="1:27">
+    <row r="894" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A894" s="5"/>
       <c r="B894" s="5"/>
       <c r="C894" s="5"/>
@@ -35594,7 +35607,7 @@
       <c r="Z894" s="5"/>
       <c r="AA894" s="5"/>
     </row>
-    <row r="895" spans="1:27">
+    <row r="895" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A895" s="5"/>
       <c r="B895" s="5"/>
       <c r="C895" s="5"/>
@@ -35623,7 +35636,7 @@
       <c r="Z895" s="5"/>
       <c r="AA895" s="5"/>
     </row>
-    <row r="896" spans="1:27">
+    <row r="896" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A896" s="5"/>
       <c r="B896" s="5"/>
       <c r="C896" s="5"/>
@@ -35652,7 +35665,7 @@
       <c r="Z896" s="5"/>
       <c r="AA896" s="5"/>
     </row>
-    <row r="897" spans="1:27">
+    <row r="897" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A897" s="5"/>
       <c r="B897" s="5"/>
       <c r="C897" s="5"/>
@@ -35681,7 +35694,7 @@
       <c r="Z897" s="5"/>
       <c r="AA897" s="5"/>
     </row>
-    <row r="898" spans="1:27">
+    <row r="898" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A898" s="5"/>
       <c r="B898" s="5"/>
       <c r="C898" s="5"/>
@@ -35710,7 +35723,7 @@
       <c r="Z898" s="5"/>
       <c r="AA898" s="5"/>
     </row>
-    <row r="899" spans="1:27">
+    <row r="899" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A899" s="5"/>
       <c r="B899" s="5"/>
       <c r="C899" s="5"/>
@@ -35739,7 +35752,7 @@
       <c r="Z899" s="5"/>
       <c r="AA899" s="5"/>
     </row>
-    <row r="900" spans="1:27">
+    <row r="900" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A900" s="5"/>
       <c r="B900" s="5"/>
       <c r="C900" s="5"/>
@@ -35768,7 +35781,7 @@
       <c r="Z900" s="5"/>
       <c r="AA900" s="5"/>
     </row>
-    <row r="901" spans="1:27">
+    <row r="901" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A901" s="5"/>
       <c r="B901" s="5"/>
       <c r="C901" s="5"/>
@@ -35797,7 +35810,7 @@
       <c r="Z901" s="5"/>
       <c r="AA901" s="5"/>
     </row>
-    <row r="902" spans="1:27">
+    <row r="902" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A902" s="5"/>
       <c r="B902" s="5"/>
       <c r="C902" s="5"/>
@@ -35826,7 +35839,7 @@
       <c r="Z902" s="5"/>
       <c r="AA902" s="5"/>
     </row>
-    <row r="903" spans="1:27">
+    <row r="903" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A903" s="5"/>
       <c r="B903" s="5"/>
       <c r="C903" s="5"/>
@@ -35855,7 +35868,7 @@
       <c r="Z903" s="5"/>
       <c r="AA903" s="5"/>
     </row>
-    <row r="904" spans="1:27">
+    <row r="904" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A904" s="5"/>
       <c r="B904" s="5"/>
       <c r="C904" s="5"/>
@@ -35884,7 +35897,7 @@
       <c r="Z904" s="5"/>
       <c r="AA904" s="5"/>
     </row>
-    <row r="905" spans="1:27">
+    <row r="905" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A905" s="5"/>
       <c r="B905" s="5"/>
       <c r="C905" s="5"/>
@@ -35913,7 +35926,7 @@
       <c r="Z905" s="5"/>
       <c r="AA905" s="5"/>
     </row>
-    <row r="906" spans="1:27">
+    <row r="906" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A906" s="5"/>
       <c r="B906" s="5"/>
       <c r="C906" s="5"/>
@@ -35942,7 +35955,7 @@
       <c r="Z906" s="5"/>
       <c r="AA906" s="5"/>
     </row>
-    <row r="907" spans="1:27">
+    <row r="907" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A907" s="5"/>
       <c r="B907" s="5"/>
       <c r="C907" s="5"/>
@@ -35971,7 +35984,7 @@
       <c r="Z907" s="5"/>
       <c r="AA907" s="5"/>
     </row>
-    <row r="908" spans="1:27">
+    <row r="908" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A908" s="5"/>
       <c r="B908" s="5"/>
       <c r="C908" s="5"/>
@@ -36000,7 +36013,7 @@
       <c r="Z908" s="5"/>
       <c r="AA908" s="5"/>
     </row>
-    <row r="909" spans="1:27">
+    <row r="909" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A909" s="5"/>
       <c r="B909" s="5"/>
       <c r="C909" s="5"/>
@@ -36029,7 +36042,7 @@
       <c r="Z909" s="5"/>
       <c r="AA909" s="5"/>
     </row>
-    <row r="910" spans="1:27">
+    <row r="910" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A910" s="5"/>
       <c r="B910" s="5"/>
       <c r="C910" s="5"/>
@@ -36058,7 +36071,7 @@
       <c r="Z910" s="5"/>
       <c r="AA910" s="5"/>
     </row>
-    <row r="911" spans="1:27">
+    <row r="911" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A911" s="5"/>
       <c r="B911" s="5"/>
       <c r="C911" s="5"/>
@@ -36087,7 +36100,7 @@
       <c r="Z911" s="5"/>
       <c r="AA911" s="5"/>
     </row>
-    <row r="912" spans="1:27">
+    <row r="912" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A912" s="5"/>
       <c r="B912" s="5"/>
       <c r="C912" s="5"/>
@@ -36116,7 +36129,7 @@
       <c r="Z912" s="5"/>
       <c r="AA912" s="5"/>
     </row>
-    <row r="913" spans="1:27">
+    <row r="913" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A913" s="5"/>
       <c r="B913" s="5"/>
       <c r="C913" s="5"/>
@@ -36145,7 +36158,7 @@
       <c r="Z913" s="5"/>
       <c r="AA913" s="5"/>
     </row>
-    <row r="914" spans="1:27">
+    <row r="914" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A914" s="5"/>
       <c r="B914" s="5"/>
       <c r="C914" s="5"/>
@@ -36174,7 +36187,7 @@
       <c r="Z914" s="5"/>
       <c r="AA914" s="5"/>
     </row>
-    <row r="915" spans="1:27">
+    <row r="915" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A915" s="5"/>
       <c r="B915" s="5"/>
       <c r="C915" s="5"/>
@@ -36203,7 +36216,7 @@
       <c r="Z915" s="5"/>
       <c r="AA915" s="5"/>
     </row>
-    <row r="916" spans="1:27">
+    <row r="916" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A916" s="5"/>
       <c r="B916" s="5"/>
       <c r="C916" s="5"/>
@@ -36232,7 +36245,7 @@
       <c r="Z916" s="5"/>
       <c r="AA916" s="5"/>
     </row>
-    <row r="917" spans="1:27">
+    <row r="917" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A917" s="5"/>
       <c r="B917" s="5"/>
       <c r="C917" s="5"/>
@@ -36261,7 +36274,7 @@
       <c r="Z917" s="5"/>
       <c r="AA917" s="5"/>
     </row>
-    <row r="918" spans="1:27">
+    <row r="918" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A918" s="5"/>
       <c r="B918" s="5"/>
       <c r="C918" s="5"/>
@@ -36290,7 +36303,7 @@
       <c r="Z918" s="5"/>
       <c r="AA918" s="5"/>
     </row>
-    <row r="919" spans="1:27">
+    <row r="919" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A919" s="5"/>
       <c r="B919" s="5"/>
       <c r="C919" s="5"/>
@@ -36319,7 +36332,7 @@
       <c r="Z919" s="5"/>
       <c r="AA919" s="5"/>
     </row>
-    <row r="920" spans="1:27">
+    <row r="920" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A920" s="5"/>
       <c r="B920" s="5"/>
       <c r="C920" s="5"/>
@@ -36348,7 +36361,7 @@
       <c r="Z920" s="5"/>
       <c r="AA920" s="5"/>
     </row>
-    <row r="921" spans="1:27">
+    <row r="921" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A921" s="5"/>
       <c r="B921" s="5"/>
       <c r="C921" s="5"/>
@@ -36377,7 +36390,7 @@
       <c r="Z921" s="5"/>
       <c r="AA921" s="5"/>
     </row>
-    <row r="922" spans="1:27">
+    <row r="922" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A922" s="5"/>
       <c r="B922" s="5"/>
       <c r="C922" s="5"/>
@@ -36406,7 +36419,7 @@
       <c r="Z922" s="5"/>
       <c r="AA922" s="5"/>
     </row>
-    <row r="923" spans="1:27">
+    <row r="923" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A923" s="5"/>
       <c r="B923" s="5"/>
       <c r="C923" s="5"/>
@@ -36435,7 +36448,7 @@
       <c r="Z923" s="5"/>
       <c r="AA923" s="5"/>
     </row>
-    <row r="924" spans="1:27">
+    <row r="924" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A924" s="5"/>
       <c r="B924" s="5"/>
       <c r="C924" s="5"/>
@@ -36464,7 +36477,7 @@
       <c r="Z924" s="5"/>
       <c r="AA924" s="5"/>
     </row>
-    <row r="925" spans="1:27">
+    <row r="925" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A925" s="5"/>
       <c r="B925" s="5"/>
       <c r="C925" s="5"/>
@@ -36493,7 +36506,7 @@
       <c r="Z925" s="5"/>
       <c r="AA925" s="5"/>
     </row>
-    <row r="926" spans="1:27">
+    <row r="926" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A926" s="5"/>
       <c r="B926" s="5"/>
       <c r="C926" s="5"/>
@@ -36522,7 +36535,7 @@
       <c r="Z926" s="5"/>
       <c r="AA926" s="5"/>
     </row>
-    <row r="927" spans="1:27">
+    <row r="927" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A927" s="5"/>
       <c r="B927" s="5"/>
       <c r="C927" s="5"/>
@@ -36551,7 +36564,7 @@
       <c r="Z927" s="5"/>
       <c r="AA927" s="5"/>
     </row>
-    <row r="928" spans="1:27">
+    <row r="928" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A928" s="5"/>
       <c r="B928" s="5"/>
       <c r="C928" s="5"/>
@@ -36580,7 +36593,7 @@
       <c r="Z928" s="5"/>
       <c r="AA928" s="5"/>
     </row>
-    <row r="929" spans="1:27">
+    <row r="929" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A929" s="5"/>
       <c r="B929" s="5"/>
       <c r="C929" s="5"/>
@@ -36609,7 +36622,7 @@
       <c r="Z929" s="5"/>
       <c r="AA929" s="5"/>
     </row>
-    <row r="930" spans="1:27">
+    <row r="930" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A930" s="5"/>
       <c r="B930" s="5"/>
       <c r="C930" s="5"/>
@@ -36638,7 +36651,7 @@
       <c r="Z930" s="5"/>
       <c r="AA930" s="5"/>
     </row>
-    <row r="931" spans="1:27">
+    <row r="931" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A931" s="5"/>
       <c r="B931" s="5"/>
       <c r="C931" s="5"/>
@@ -36667,7 +36680,7 @@
       <c r="Z931" s="5"/>
       <c r="AA931" s="5"/>
     </row>
-    <row r="932" spans="1:27">
+    <row r="932" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A932" s="5"/>
       <c r="B932" s="5"/>
       <c r="C932" s="5"/>
@@ -36696,7 +36709,7 @@
       <c r="Z932" s="5"/>
       <c r="AA932" s="5"/>
     </row>
-    <row r="933" spans="1:27">
+    <row r="933" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A933" s="5"/>
       <c r="B933" s="5"/>
       <c r="C933" s="5"/>
@@ -36725,7 +36738,7 @@
       <c r="Z933" s="5"/>
       <c r="AA933" s="5"/>
     </row>
-    <row r="934" spans="1:27">
+    <row r="934" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A934" s="5"/>
       <c r="B934" s="5"/>
       <c r="C934" s="5"/>
@@ -36754,7 +36767,7 @@
       <c r="Z934" s="5"/>
       <c r="AA934" s="5"/>
     </row>
-    <row r="935" spans="1:27">
+    <row r="935" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A935" s="5"/>
       <c r="B935" s="5"/>
       <c r="C935" s="5"/>
@@ -36783,7 +36796,7 @@
       <c r="Z935" s="5"/>
       <c r="AA935" s="5"/>
     </row>
-    <row r="936" spans="1:27">
+    <row r="936" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A936" s="5"/>
       <c r="B936" s="5"/>
       <c r="C936" s="5"/>
@@ -36812,7 +36825,7 @@
       <c r="Z936" s="5"/>
       <c r="AA936" s="5"/>
     </row>
-    <row r="937" spans="1:27">
+    <row r="937" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A937" s="5"/>
       <c r="B937" s="5"/>
       <c r="C937" s="5"/>
@@ -36841,7 +36854,7 @@
       <c r="Z937" s="5"/>
       <c r="AA937" s="5"/>
     </row>
-    <row r="938" spans="1:27">
+    <row r="938" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A938" s="5"/>
       <c r="B938" s="5"/>
       <c r="C938" s="5"/>
@@ -36870,7 +36883,7 @@
       <c r="Z938" s="5"/>
       <c r="AA938" s="5"/>
     </row>
-    <row r="939" spans="1:27">
+    <row r="939" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A939" s="5"/>
       <c r="B939" s="5"/>
       <c r="C939" s="5"/>
@@ -36899,7 +36912,7 @@
       <c r="Z939" s="5"/>
       <c r="AA939" s="5"/>
     </row>
-    <row r="940" spans="1:27">
+    <row r="940" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A940" s="5"/>
       <c r="B940" s="5"/>
       <c r="C940" s="5"/>
@@ -36928,7 +36941,7 @@
       <c r="Z940" s="5"/>
       <c r="AA940" s="5"/>
     </row>
-    <row r="941" spans="1:27">
+    <row r="941" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A941" s="5"/>
       <c r="B941" s="5"/>
       <c r="C941" s="5"/>
@@ -36957,7 +36970,7 @@
       <c r="Z941" s="5"/>
       <c r="AA941" s="5"/>
     </row>
-    <row r="942" spans="1:27">
+    <row r="942" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A942" s="5"/>
       <c r="B942" s="5"/>
       <c r="C942" s="5"/>
@@ -36986,7 +36999,7 @@
       <c r="Z942" s="5"/>
       <c r="AA942" s="5"/>
     </row>
-    <row r="943" spans="1:27">
+    <row r="943" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A943" s="5"/>
       <c r="B943" s="5"/>
       <c r="C943" s="5"/>
@@ -37015,7 +37028,7 @@
       <c r="Z943" s="5"/>
       <c r="AA943" s="5"/>
     </row>
-    <row r="944" spans="1:27">
+    <row r="944" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A944" s="5"/>
       <c r="B944" s="5"/>
       <c r="C944" s="5"/>
@@ -37044,7 +37057,7 @@
       <c r="Z944" s="5"/>
       <c r="AA944" s="5"/>
     </row>
-    <row r="945" spans="1:27">
+    <row r="945" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A945" s="5"/>
       <c r="B945" s="5"/>
       <c r="C945" s="5"/>
@@ -37073,7 +37086,7 @@
       <c r="Z945" s="5"/>
       <c r="AA945" s="5"/>
     </row>
-    <row r="946" spans="1:27">
+    <row r="946" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A946" s="5"/>
       <c r="B946" s="5"/>
       <c r="C946" s="5"/>
@@ -37102,7 +37115,7 @@
       <c r="Z946" s="5"/>
       <c r="AA946" s="5"/>
     </row>
-    <row r="947" spans="1:27">
+    <row r="947" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A947" s="5"/>
       <c r="B947" s="5"/>
       <c r="C947" s="5"/>
@@ -37131,7 +37144,7 @@
       <c r="Z947" s="5"/>
       <c r="AA947" s="5"/>
     </row>
-    <row r="948" spans="1:27">
+    <row r="948" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A948" s="5"/>
       <c r="B948" s="5"/>
       <c r="C948" s="5"/>
@@ -37160,7 +37173,7 @@
       <c r="Z948" s="5"/>
       <c r="AA948" s="5"/>
     </row>
-    <row r="949" spans="1:27">
+    <row r="949" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A949" s="5"/>
       <c r="B949" s="5"/>
       <c r="C949" s="5"/>
@@ -37189,7 +37202,7 @@
       <c r="Z949" s="5"/>
       <c r="AA949" s="5"/>
     </row>
-    <row r="950" spans="1:27">
+    <row r="950" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A950" s="5"/>
       <c r="B950" s="5"/>
       <c r="C950" s="5"/>
@@ -37218,7 +37231,7 @@
       <c r="Z950" s="5"/>
       <c r="AA950" s="5"/>
     </row>
-    <row r="951" spans="1:27">
+    <row r="951" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A951" s="5"/>
       <c r="B951" s="5"/>
       <c r="C951" s="5"/>
@@ -37247,7 +37260,7 @@
       <c r="Z951" s="5"/>
       <c r="AA951" s="5"/>
     </row>
-    <row r="952" spans="1:27">
+    <row r="952" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A952" s="5"/>
       <c r="B952" s="5"/>
       <c r="C952" s="5"/>
@@ -37276,7 +37289,7 @@
       <c r="Z952" s="5"/>
       <c r="AA952" s="5"/>
     </row>
-    <row r="953" spans="1:27">
+    <row r="953" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A953" s="5"/>
       <c r="B953" s="5"/>
       <c r="C953" s="5"/>
@@ -37305,7 +37318,7 @@
       <c r="Z953" s="5"/>
       <c r="AA953" s="5"/>
     </row>
-    <row r="954" spans="1:27">
+    <row r="954" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A954" s="5"/>
       <c r="B954" s="5"/>
       <c r="C954" s="5"/>
@@ -37334,7 +37347,7 @@
       <c r="Z954" s="5"/>
       <c r="AA954" s="5"/>
     </row>
-    <row r="955" spans="1:27">
+    <row r="955" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A955" s="5"/>
       <c r="B955" s="5"/>
       <c r="C955" s="5"/>
@@ -37363,7 +37376,7 @@
       <c r="Z955" s="5"/>
       <c r="AA955" s="5"/>
     </row>
-    <row r="956" spans="1:27">
+    <row r="956" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A956" s="5"/>
       <c r="B956" s="5"/>
       <c r="C956" s="5"/>
@@ -37392,7 +37405,7 @@
       <c r="Z956" s="5"/>
       <c r="AA956" s="5"/>
     </row>
-    <row r="957" spans="1:27">
+    <row r="957" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A957" s="5"/>
       <c r="B957" s="5"/>
       <c r="C957" s="5"/>
@@ -37421,7 +37434,7 @@
       <c r="Z957" s="5"/>
       <c r="AA957" s="5"/>
     </row>
-    <row r="958" spans="1:27">
+    <row r="958" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A958" s="5"/>
       <c r="B958" s="5"/>
       <c r="C958" s="5"/>
@@ -37450,7 +37463,7 @@
       <c r="Z958" s="5"/>
       <c r="AA958" s="5"/>
     </row>
-    <row r="959" spans="1:27">
+    <row r="959" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A959" s="5"/>
       <c r="B959" s="5"/>
       <c r="C959" s="5"/>
@@ -37479,7 +37492,7 @@
       <c r="Z959" s="5"/>
       <c r="AA959" s="5"/>
     </row>
-    <row r="960" spans="1:27">
+    <row r="960" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A960" s="5"/>
       <c r="B960" s="5"/>
       <c r="C960" s="5"/>
@@ -37508,7 +37521,7 @@
       <c r="Z960" s="5"/>
       <c r="AA960" s="5"/>
     </row>
-    <row r="961" spans="1:27">
+    <row r="961" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A961" s="5"/>
       <c r="B961" s="5"/>
       <c r="C961" s="5"/>
@@ -37537,7 +37550,7 @@
       <c r="Z961" s="5"/>
       <c r="AA961" s="5"/>
     </row>
-    <row r="962" spans="1:27">
+    <row r="962" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A962" s="5"/>
       <c r="B962" s="5"/>
       <c r="C962" s="5"/>
@@ -37566,7 +37579,7 @@
       <c r="Z962" s="5"/>
       <c r="AA962" s="5"/>
     </row>
-    <row r="963" spans="1:27">
+    <row r="963" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A963" s="5"/>
       <c r="B963" s="5"/>
       <c r="C963" s="5"/>
@@ -37595,7 +37608,7 @@
       <c r="Z963" s="5"/>
       <c r="AA963" s="5"/>
     </row>
-    <row r="964" spans="1:27">
+    <row r="964" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A964" s="5"/>
       <c r="B964" s="5"/>
       <c r="C964" s="5"/>
@@ -37624,7 +37637,7 @@
       <c r="Z964" s="5"/>
       <c r="AA964" s="5"/>
     </row>
-    <row r="965" spans="1:27">
+    <row r="965" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A965" s="5"/>
       <c r="B965" s="5"/>
       <c r="C965" s="5"/>
@@ -37653,7 +37666,7 @@
       <c r="Z965" s="5"/>
       <c r="AA965" s="5"/>
     </row>
-    <row r="966" spans="1:27">
+    <row r="966" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A966" s="5"/>
       <c r="B966" s="5"/>
       <c r="C966" s="5"/>
@@ -37682,7 +37695,7 @@
       <c r="Z966" s="5"/>
       <c r="AA966" s="5"/>
     </row>
-    <row r="967" spans="1:27">
+    <row r="967" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A967" s="5"/>
       <c r="B967" s="5"/>
       <c r="C967" s="5"/>
@@ -37711,7 +37724,7 @@
       <c r="Z967" s="5"/>
       <c r="AA967" s="5"/>
     </row>
-    <row r="968" spans="1:27">
+    <row r="968" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A968" s="5"/>
       <c r="B968" s="5"/>
       <c r="C968" s="5"/>
@@ -37740,7 +37753,7 @@
       <c r="Z968" s="5"/>
       <c r="AA968" s="5"/>
     </row>
-    <row r="969" spans="1:27">
+    <row r="969" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A969" s="5"/>
       <c r="B969" s="5"/>
       <c r="C969" s="5"/>
@@ -37769,7 +37782,7 @@
       <c r="Z969" s="5"/>
       <c r="AA969" s="5"/>
     </row>
-    <row r="970" spans="1:27">
+    <row r="970" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A970" s="5"/>
       <c r="B970" s="5"/>
       <c r="C970" s="5"/>
@@ -37798,7 +37811,7 @@
       <c r="Z970" s="5"/>
       <c r="AA970" s="5"/>
     </row>
-    <row r="971" spans="1:27">
+    <row r="971" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A971" s="5"/>
       <c r="B971" s="5"/>
       <c r="C971" s="5"/>
@@ -37827,7 +37840,7 @@
       <c r="Z971" s="5"/>
       <c r="AA971" s="5"/>
     </row>
-    <row r="972" spans="1:27">
+    <row r="972" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A972" s="5"/>
       <c r="B972" s="5"/>
       <c r="C972" s="5"/>
@@ -37856,7 +37869,7 @@
       <c r="Z972" s="5"/>
       <c r="AA972" s="5"/>
     </row>
-    <row r="973" spans="1:27">
+    <row r="973" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A973" s="5"/>
       <c r="B973" s="5"/>
       <c r="C973" s="5"/>
@@ -37885,7 +37898,7 @@
       <c r="Z973" s="5"/>
       <c r="AA973" s="5"/>
     </row>
-    <row r="974" spans="1:27">
+    <row r="974" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A974" s="5"/>
       <c r="B974" s="5"/>
       <c r="C974" s="5"/>
@@ -37914,7 +37927,7 @@
       <c r="Z974" s="5"/>
       <c r="AA974" s="5"/>
     </row>
-    <row r="975" spans="1:27">
+    <row r="975" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A975" s="5"/>
       <c r="B975" s="5"/>
       <c r="C975" s="5"/>
@@ -37943,7 +37956,7 @@
       <c r="Z975" s="5"/>
       <c r="AA975" s="5"/>
     </row>
-    <row r="976" spans="1:27">
+    <row r="976" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A976" s="5"/>
       <c r="B976" s="5"/>
       <c r="C976" s="5"/>
@@ -37972,7 +37985,7 @@
       <c r="Z976" s="5"/>
       <c r="AA976" s="5"/>
     </row>
-    <row r="977" spans="1:27">
+    <row r="977" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A977" s="5"/>
       <c r="B977" s="5"/>
       <c r="C977" s="5"/>
@@ -38001,7 +38014,7 @@
       <c r="Z977" s="5"/>
       <c r="AA977" s="5"/>
     </row>
-    <row r="978" spans="1:27">
+    <row r="978" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A978" s="5"/>
       <c r="B978" s="5"/>
       <c r="C978" s="5"/>
@@ -38030,7 +38043,7 @@
       <c r="Z978" s="5"/>
       <c r="AA978" s="5"/>
     </row>
-    <row r="979" spans="1:27">
+    <row r="979" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A979" s="5"/>
       <c r="B979" s="5"/>
       <c r="C979" s="5"/>
@@ -38059,7 +38072,7 @@
       <c r="Z979" s="5"/>
       <c r="AA979" s="5"/>
     </row>
-    <row r="980" spans="1:27">
+    <row r="980" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A980" s="5"/>
       <c r="B980" s="5"/>
       <c r="C980" s="5"/>
@@ -38088,7 +38101,7 @@
       <c r="Z980" s="5"/>
       <c r="AA980" s="5"/>
     </row>
-    <row r="981" spans="1:27">
+    <row r="981" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A981" s="5"/>
       <c r="B981" s="5"/>
       <c r="C981" s="5"/>
@@ -38117,7 +38130,7 @@
       <c r="Z981" s="5"/>
       <c r="AA981" s="5"/>
     </row>
-    <row r="982" spans="1:27">
+    <row r="982" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A982" s="5"/>
       <c r="B982" s="5"/>
       <c r="C982" s="5"/>
@@ -38146,7 +38159,7 @@
       <c r="Z982" s="5"/>
       <c r="AA982" s="5"/>
     </row>
-    <row r="983" spans="1:27">
+    <row r="983" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A983" s="5"/>
       <c r="B983" s="5"/>
       <c r="C983" s="5"/>
@@ -38175,7 +38188,7 @@
       <c r="Z983" s="5"/>
       <c r="AA983" s="5"/>
     </row>
-    <row r="984" spans="1:27">
+    <row r="984" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A984" s="5"/>
       <c r="B984" s="5"/>
       <c r="C984" s="5"/>
@@ -38204,7 +38217,7 @@
       <c r="Z984" s="5"/>
       <c r="AA984" s="5"/>
     </row>
-    <row r="985" spans="1:27">
+    <row r="985" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A985" s="5"/>
       <c r="B985" s="5"/>
       <c r="C985" s="5"/>
@@ -38233,7 +38246,7 @@
       <c r="Z985" s="5"/>
       <c r="AA985" s="5"/>
     </row>
-    <row r="986" spans="1:27">
+    <row r="986" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A986" s="5"/>
       <c r="B986" s="5"/>
       <c r="C986" s="5"/>
@@ -38262,7 +38275,7 @@
       <c r="Z986" s="5"/>
       <c r="AA986" s="5"/>
     </row>
-    <row r="987" spans="1:27">
+    <row r="987" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A987" s="5"/>
       <c r="B987" s="5"/>
       <c r="C987" s="5"/>
@@ -38291,7 +38304,7 @@
       <c r="Z987" s="5"/>
       <c r="AA987" s="5"/>
     </row>
-    <row r="988" spans="1:27">
+    <row r="988" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A988" s="5"/>
       <c r="B988" s="5"/>
       <c r="C988" s="5"/>
@@ -38320,7 +38333,7 @@
       <c r="Z988" s="5"/>
       <c r="AA988" s="5"/>
     </row>
-    <row r="989" spans="1:27">
+    <row r="989" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A989" s="5"/>
       <c r="B989" s="5"/>
       <c r="C989" s="5"/>
@@ -38349,7 +38362,7 @@
       <c r="Z989" s="5"/>
       <c r="AA989" s="5"/>
     </row>
-    <row r="990" spans="1:27">
+    <row r="990" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A990" s="5"/>
       <c r="B990" s="5"/>
       <c r="C990" s="5"/>
@@ -38378,7 +38391,7 @@
       <c r="Z990" s="5"/>
       <c r="AA990" s="5"/>
     </row>
-    <row r="991" spans="1:27">
+    <row r="991" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A991" s="5"/>
       <c r="B991" s="5"/>
       <c r="C991" s="5"/>
@@ -38407,7 +38420,7 @@
       <c r="Z991" s="5"/>
       <c r="AA991" s="5"/>
     </row>
-    <row r="992" spans="1:27">
+    <row r="992" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A992" s="5"/>
       <c r="B992" s="5"/>
       <c r="C992" s="5"/>
@@ -38436,7 +38449,7 @@
       <c r="Z992" s="5"/>
       <c r="AA992" s="5"/>
     </row>
-    <row r="993" spans="1:27">
+    <row r="993" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A993" s="5"/>
       <c r="B993" s="5"/>
       <c r="C993" s="5"/>
@@ -38465,7 +38478,7 @@
       <c r="Z993" s="5"/>
       <c r="AA993" s="5"/>
     </row>
-    <row r="994" spans="1:27">
+    <row r="994" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A994" s="5"/>
       <c r="B994" s="5"/>
       <c r="C994" s="5"/>
@@ -38494,7 +38507,7 @@
       <c r="Z994" s="5"/>
       <c r="AA994" s="5"/>
     </row>
-    <row r="995" spans="1:27">
+    <row r="995" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A995" s="5"/>
       <c r="B995" s="5"/>
       <c r="C995" s="5"/>
@@ -38523,7 +38536,7 @@
       <c r="Z995" s="5"/>
       <c r="AA995" s="5"/>
     </row>
-    <row r="996" spans="1:27">
+    <row r="996" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A996" s="5"/>
       <c r="B996" s="5"/>
       <c r="C996" s="5"/>
@@ -38552,7 +38565,7 @@
       <c r="Z996" s="5"/>
       <c r="AA996" s="5"/>
     </row>
-    <row r="997" spans="1:27">
+    <row r="997" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A997" s="5"/>
       <c r="B997" s="5"/>
       <c r="C997" s="5"/>
@@ -38581,7 +38594,7 @@
       <c r="Z997" s="5"/>
       <c r="AA997" s="5"/>
     </row>
-    <row r="998" spans="1:27">
+    <row r="998" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A998" s="5"/>
       <c r="B998" s="5"/>
       <c r="C998" s="5"/>
@@ -38610,7 +38623,7 @@
       <c r="Z998" s="5"/>
       <c r="AA998" s="5"/>
     </row>
-    <row r="999" spans="1:27">
+    <row r="999" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A999" s="5"/>
       <c r="B999" s="5"/>
       <c r="C999" s="5"/>
@@ -38639,7 +38652,7 @@
       <c r="Z999" s="5"/>
       <c r="AA999" s="5"/>
     </row>
-    <row r="1000" spans="1:27">
+    <row r="1000" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1000" s="5"/>
       <c r="B1000" s="5"/>
       <c r="C1000" s="5"/>

--- a/src/main/java/lomt/pearson/fileupload/highereducation/producttoc/alignment_case/ProductTocAlignCode.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/highereducation/producttoc/alignment_case/ProductTocAlignCode.xlsx
@@ -3992,7 +3992,7 @@
     <t>Feldman_Product_TOC_Course</t>
   </si>
   <si>
-    <t>HE_Test_T004</t>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -4237,7 +4237,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4272,7 +4272,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4460,7 +4460,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/src/main/java/lomt/pearson/fileupload/highereducation/producttoc/alignment_case/ProductTocAlignCode.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/highereducation/producttoc/alignment_case/ProductTocAlignCode.xlsx
@@ -3992,7 +3992,7 @@
     <t>Feldman_Product_TOC_Course</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>HE_Test_Jan</t>
   </si>
 </sst>
 </file>
@@ -4460,7 +4460,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/src/main/java/lomt/pearson/fileupload/highereducation/producttoc/alignment_case/ProductTocAlignCode.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/highereducation/producttoc/alignment_case/ProductTocAlignCode.xlsx
@@ -3992,7 +3992,7 @@
     <t>Feldman_Product_TOC_Course</t>
   </si>
   <si>
-    <t>HE_Test_Jan</t>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -4460,7 +4460,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/src/main/java/lomt/pearson/fileupload/highereducation/producttoc/alignment_case/ProductTocAlignCode.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/highereducation/producttoc/alignment_case/ProductTocAlignCode.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="1165">
   <si>
     <t>Program Title</t>
   </si>
@@ -3906,9 +3906,6 @@
   </si>
   <si>
     <t>isbn updated 13</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
   </si>
   <si>
     <t>Colorado</t>
@@ -3992,7 +3989,7 @@
     <t>Feldman_Product_TOC_Course</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>HE_Test_T123</t>
   </si>
 </sst>
 </file>
@@ -4490,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -4523,7 +4520,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -4556,7 +4553,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -4588,9 +4585,7 @@
       <c r="A4" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>1160</v>
-      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -4622,7 +4617,7 @@
         <v>1152</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -5239,7 +5234,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="31" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>

--- a/src/main/java/lomt/pearson/fileupload/highereducation/producttoc/alignment_case/ProductTocAlignCode.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/highereducation/producttoc/alignment_case/ProductTocAlignCode.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lomt_automation\src\main\java\lomt\pearson\fileupload\highereducation\producttoc\alignment_case\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6420" tabRatio="397"/>
   </bookViews>
@@ -3989,14 +3984,14 @@
     <t>Feldman_Product_TOC_Course</t>
   </si>
   <si>
-    <t>HE_Test_T123</t>
+    <t>HE_ppe_25Feb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4234,7 +4229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4269,7 +4264,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4446,21 +4441,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
@@ -4482,7 +4477,7 @@
     <col min="23" max="27" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4515,7 +4510,7 @@
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
     </row>
-    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4548,7 +4543,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4581,7 +4576,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>1151</v>
       </c>
@@ -4612,7 +4607,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>1152</v>
       </c>
@@ -4645,7 +4640,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4676,7 +4671,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4709,7 +4704,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4742,7 +4737,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4775,7 +4770,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -4808,7 +4803,7 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -4841,7 +4836,7 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="15" customHeight="1">
       <c r="A12" s="27" t="s">
         <v>1153</v>
       </c>
@@ -4902,7 +4897,7 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="15.75" customHeight="1">
       <c r="A13" s="7"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2" t="s">
@@ -4945,7 +4940,7 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="15.75" customHeight="1">
       <c r="A14" s="7"/>
       <c r="B14" s="10"/>
       <c r="C14" s="2" t="s">
@@ -4986,7 +4981,7 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="15.75" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="10"/>
       <c r="C15" s="2" t="s">
@@ -5027,7 +5022,7 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="15.75" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="10"/>
       <c r="C16" s="2" t="s">
@@ -5068,7 +5063,7 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="15.75" customHeight="1">
       <c r="A17" s="7"/>
       <c r="B17" s="10"/>
       <c r="C17" s="2" t="s">
@@ -5109,7 +5104,7 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="15.75" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="10"/>
       <c r="C18" s="3"/>
@@ -5138,7 +5133,7 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="15.75" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="10"/>
       <c r="C19" s="2" t="s">
@@ -5179,7 +5174,7 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="15.75" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="10"/>
       <c r="C20" s="2" t="s">
@@ -5216,7 +5211,7 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="15.75" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="10"/>
       <c r="C21" s="2" t="s">
@@ -5253,7 +5248,7 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="15.75" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="10"/>
       <c r="C22" s="3"/>
@@ -5282,7 +5277,7 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="15.75" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="10"/>
       <c r="C23" s="3"/>
@@ -5311,7 +5306,7 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="15.75" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="10"/>
       <c r="C24" s="3"/>
@@ -5340,7 +5335,7 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="15.75" customHeight="1">
       <c r="A25" s="7"/>
       <c r="B25" s="10"/>
       <c r="C25" s="2" t="s">
@@ -5377,7 +5372,7 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="15.75" customHeight="1">
       <c r="A26" s="7"/>
       <c r="B26" s="10"/>
       <c r="C26" s="3"/>
@@ -5406,7 +5401,7 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="15.75" customHeight="1">
       <c r="A27" s="7"/>
       <c r="B27" s="10"/>
       <c r="C27" s="2" t="s">
@@ -5443,7 +5438,7 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="15.75" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="3"/>
       <c r="C28" s="2" t="s">
@@ -5480,7 +5475,7 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="15.75" customHeight="1">
       <c r="A29" s="7"/>
       <c r="B29" s="3"/>
       <c r="C29" s="2" t="s">
@@ -5517,7 +5512,7 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="15.75" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="3"/>
       <c r="C30" s="2" t="s">
@@ -5554,7 +5549,7 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="15.75" customHeight="1">
       <c r="A31" s="7"/>
       <c r="B31" s="3"/>
       <c r="C31" s="2" t="s">
@@ -5589,7 +5584,7 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="15.75" customHeight="1">
       <c r="A32" s="7"/>
       <c r="B32" s="3"/>
       <c r="C32" s="2" t="s">
@@ -5626,7 +5621,7 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" ht="15.75" customHeight="1">
       <c r="A33" s="7"/>
       <c r="B33" s="3"/>
       <c r="C33" s="2" t="s">
@@ -5663,7 +5658,7 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" ht="15.75" customHeight="1">
       <c r="A34" s="7"/>
       <c r="B34" s="3"/>
       <c r="C34" s="2" t="s">
@@ -5698,7 +5693,7 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" ht="15.75" customHeight="1">
       <c r="A35" s="7"/>
       <c r="B35" s="3"/>
       <c r="C35" s="2" t="s">
@@ -5733,7 +5728,7 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" ht="15.75" customHeight="1">
       <c r="A36" s="7"/>
       <c r="B36" s="3"/>
       <c r="C36" s="2" t="s">
@@ -5770,7 +5765,7 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" ht="15.75" customHeight="1">
       <c r="A37" s="7"/>
       <c r="B37" s="3"/>
       <c r="C37" s="2" t="s">
@@ -5807,7 +5802,7 @@
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" ht="15.75" customHeight="1">
       <c r="A38" s="7"/>
       <c r="B38" s="3"/>
       <c r="C38" s="2" t="s">
@@ -5842,7 +5837,7 @@
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" ht="15.75" customHeight="1">
       <c r="A39" s="7"/>
       <c r="B39" s="3"/>
       <c r="C39" s="2" t="s">
@@ -5877,7 +5872,7 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="15.75" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="3"/>
       <c r="C40" s="2" t="s">
@@ -5912,7 +5907,7 @@
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" ht="15.75" customHeight="1">
       <c r="A41" s="7"/>
       <c r="B41" s="3"/>
       <c r="C41" s="2" t="s">
@@ -5949,7 +5944,7 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
     </row>
-    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" ht="15.75" customHeight="1">
       <c r="A42" s="7"/>
       <c r="B42" s="3"/>
       <c r="C42" s="2" t="s">
@@ -5986,7 +5981,7 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
     </row>
-    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" ht="15.75" customHeight="1">
       <c r="A43" s="7"/>
       <c r="B43" s="3"/>
       <c r="C43" s="2" t="s">
@@ -6021,7 +6016,7 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
     </row>
-    <row r="44" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" ht="13.5" customHeight="1">
       <c r="A44" s="7"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14" t="s">
@@ -6058,7 +6053,7 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
     </row>
-    <row r="45" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" ht="13.5" customHeight="1">
       <c r="A45" s="7"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14" t="s">
@@ -6093,7 +6088,7 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
     </row>
-    <row r="46" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" ht="13.5" customHeight="1">
       <c r="A46" s="7"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14" t="s">
@@ -6128,7 +6123,7 @@
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" ht="13.5" customHeight="1">
       <c r="A47" s="7"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14" t="s">
@@ -6165,7 +6160,7 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
     </row>
-    <row r="48" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" ht="13.5" customHeight="1">
       <c r="A48" s="7"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14" t="s">
@@ -6202,7 +6197,7 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
     </row>
-    <row r="49" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" ht="13.5" customHeight="1">
       <c r="A49" s="7"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14" t="s">
@@ -6239,7 +6234,7 @@
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
     </row>
-    <row r="50" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" ht="13.5" customHeight="1">
       <c r="A50" s="7"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14" t="s">
@@ -6274,7 +6269,7 @@
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
     </row>
-    <row r="51" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" ht="13.5" customHeight="1">
       <c r="A51" s="7"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14" t="s">
@@ -6311,7 +6306,7 @@
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
     </row>
-    <row r="52" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" ht="13.5" customHeight="1">
       <c r="A52" s="7"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14" t="s">
@@ -6346,7 +6341,7 @@
       <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
     </row>
-    <row r="53" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" ht="13.5" customHeight="1">
       <c r="A53" s="7"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14" t="s">
@@ -6383,7 +6378,7 @@
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
     </row>
-    <row r="54" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" ht="13.5" customHeight="1">
       <c r="A54" s="7"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14" t="s">
@@ -6418,7 +6413,7 @@
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
     </row>
-    <row r="55" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" ht="13.5" customHeight="1">
       <c r="A55" s="7"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14" t="s">
@@ -6455,7 +6450,7 @@
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
     </row>
-    <row r="56" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" ht="13.5" customHeight="1">
       <c r="A56" s="7"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14" t="s">
@@ -6492,7 +6487,7 @@
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
     </row>
-    <row r="57" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" ht="13.5" customHeight="1">
       <c r="A57" s="7"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14" t="s">
@@ -6527,7 +6522,7 @@
       <c r="Z57" s="5"/>
       <c r="AA57" s="5"/>
     </row>
-    <row r="58" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" ht="13.5" customHeight="1">
       <c r="A58" s="7"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14" t="s">
@@ -6564,7 +6559,7 @@
       <c r="Z58" s="5"/>
       <c r="AA58" s="5"/>
     </row>
-    <row r="59" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" ht="13.5" customHeight="1">
       <c r="A59" s="7"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14" t="s">
@@ -6601,7 +6596,7 @@
       <c r="Z59" s="5"/>
       <c r="AA59" s="5"/>
     </row>
-    <row r="60" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" ht="13.5" customHeight="1">
       <c r="A60" s="7"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14" t="s">
@@ -6638,7 +6633,7 @@
       <c r="Z60" s="5"/>
       <c r="AA60" s="5"/>
     </row>
-    <row r="61" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" ht="13.5" customHeight="1">
       <c r="A61" s="7"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14" t="s">
@@ -6675,7 +6670,7 @@
       <c r="Z61" s="5"/>
       <c r="AA61" s="5"/>
     </row>
-    <row r="62" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" ht="13.5" customHeight="1">
       <c r="A62" s="7"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14" t="s">
@@ -6710,7 +6705,7 @@
       <c r="Z62" s="5"/>
       <c r="AA62" s="5"/>
     </row>
-    <row r="63" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" ht="13.5" customHeight="1">
       <c r="A63" s="7"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14" t="s">
@@ -6747,7 +6742,7 @@
       <c r="Z63" s="5"/>
       <c r="AA63" s="5"/>
     </row>
-    <row r="64" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" ht="13.5" customHeight="1">
       <c r="A64" s="7"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14" t="s">
@@ -6784,7 +6779,7 @@
       <c r="Z64" s="5"/>
       <c r="AA64" s="5"/>
     </row>
-    <row r="65" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" ht="13.5" customHeight="1">
       <c r="A65" s="7"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14" t="s">
@@ -6821,7 +6816,7 @@
       <c r="Z65" s="5"/>
       <c r="AA65" s="5"/>
     </row>
-    <row r="66" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" ht="13.5" customHeight="1">
       <c r="A66" s="7"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14" t="s">
@@ -6858,7 +6853,7 @@
       <c r="Z66" s="5"/>
       <c r="AA66" s="5"/>
     </row>
-    <row r="67" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" ht="13.5" customHeight="1">
       <c r="A67" s="7"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14" t="s">
@@ -6895,7 +6890,7 @@
       <c r="Z67" s="5"/>
       <c r="AA67" s="5"/>
     </row>
-    <row r="68" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" ht="13.5" customHeight="1">
       <c r="A68" s="7"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14" t="s">
@@ -6932,7 +6927,7 @@
       <c r="Z68" s="5"/>
       <c r="AA68" s="5"/>
     </row>
-    <row r="69" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" ht="13.5" customHeight="1">
       <c r="A69" s="7"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14" t="s">
@@ -6969,7 +6964,7 @@
       <c r="Z69" s="5"/>
       <c r="AA69" s="5"/>
     </row>
-    <row r="70" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" ht="13.5" customHeight="1">
       <c r="A70" s="7"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14" t="s">
@@ -7006,7 +7001,7 @@
       <c r="Z70" s="5"/>
       <c r="AA70" s="5"/>
     </row>
-    <row r="71" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" ht="13.5" customHeight="1">
       <c r="A71" s="7"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14" t="s">
@@ -7043,7 +7038,7 @@
       <c r="Z71" s="5"/>
       <c r="AA71" s="5"/>
     </row>
-    <row r="72" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" ht="13.5" customHeight="1">
       <c r="A72" s="7"/>
       <c r="B72" s="13"/>
       <c r="C72" s="14" t="s">
@@ -7080,7 +7075,7 @@
       <c r="Z72" s="5"/>
       <c r="AA72" s="5"/>
     </row>
-    <row r="73" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" ht="13.5" customHeight="1">
       <c r="A73" s="7"/>
       <c r="B73" s="13"/>
       <c r="C73" s="14" t="s">
@@ -7117,7 +7112,7 @@
       <c r="Z73" s="5"/>
       <c r="AA73" s="5"/>
     </row>
-    <row r="74" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" ht="13.5" customHeight="1">
       <c r="A74" s="7"/>
       <c r="B74" s="13"/>
       <c r="C74" s="14" t="s">
@@ -7154,7 +7149,7 @@
       <c r="Z74" s="5"/>
       <c r="AA74" s="5"/>
     </row>
-    <row r="75" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" ht="13.5" customHeight="1">
       <c r="A75" s="7"/>
       <c r="B75" s="13"/>
       <c r="C75" s="14" t="s">
@@ -7191,7 +7186,7 @@
       <c r="Z75" s="5"/>
       <c r="AA75" s="5"/>
     </row>
-    <row r="76" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" ht="13.5" customHeight="1">
       <c r="A76" s="7"/>
       <c r="B76" s="13"/>
       <c r="C76" s="14" t="s">
@@ -7228,7 +7223,7 @@
       <c r="Z76" s="5"/>
       <c r="AA76" s="5"/>
     </row>
-    <row r="77" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" ht="13.5" customHeight="1">
       <c r="A77" s="7"/>
       <c r="B77" s="13"/>
       <c r="C77" s="14" t="s">
@@ -7265,7 +7260,7 @@
       <c r="Z77" s="5"/>
       <c r="AA77" s="5"/>
     </row>
-    <row r="78" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" ht="13.5" customHeight="1">
       <c r="A78" s="7"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -7296,7 +7291,7 @@
       <c r="Z78" s="5"/>
       <c r="AA78" s="5"/>
     </row>
-    <row r="79" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" ht="13.5" customHeight="1">
       <c r="A79" s="7"/>
       <c r="B79" s="13"/>
       <c r="C79" s="14" t="s">
@@ -7331,7 +7326,7 @@
       <c r="Z79" s="5"/>
       <c r="AA79" s="5"/>
     </row>
-    <row r="80" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" ht="13.5" customHeight="1">
       <c r="A80" s="7"/>
       <c r="B80" s="13"/>
       <c r="C80" s="14" t="s">
@@ -7368,7 +7363,7 @@
       <c r="Z80" s="5"/>
       <c r="AA80" s="5"/>
     </row>
-    <row r="81" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" ht="13.5" customHeight="1">
       <c r="A81" s="7"/>
       <c r="B81" s="13"/>
       <c r="C81" s="14" t="s">
@@ -7403,7 +7398,7 @@
       <c r="Z81" s="5"/>
       <c r="AA81" s="5"/>
     </row>
-    <row r="82" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" ht="13.5" customHeight="1">
       <c r="A82" s="7"/>
       <c r="B82" s="13"/>
       <c r="C82" s="14" t="s">
@@ -7440,7 +7435,7 @@
       <c r="Z82" s="5"/>
       <c r="AA82" s="5"/>
     </row>
-    <row r="83" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" ht="13.5" customHeight="1">
       <c r="A83" s="7"/>
       <c r="B83" s="13"/>
       <c r="C83" s="14" t="s">
@@ -7477,7 +7472,7 @@
       <c r="Z83" s="5"/>
       <c r="AA83" s="5"/>
     </row>
-    <row r="84" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" ht="13.5" customHeight="1">
       <c r="A84" s="7"/>
       <c r="B84" s="13"/>
       <c r="C84" s="14" t="s">
@@ -7514,7 +7509,7 @@
       <c r="Z84" s="5"/>
       <c r="AA84" s="5"/>
     </row>
-    <row r="85" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" ht="13.5" customHeight="1">
       <c r="A85" s="7"/>
       <c r="B85" s="13"/>
       <c r="C85" s="14" t="s">
@@ -7549,7 +7544,7 @@
       <c r="Z85" s="5"/>
       <c r="AA85" s="5"/>
     </row>
-    <row r="86" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" ht="13.5" customHeight="1">
       <c r="A86" s="7"/>
       <c r="B86" s="13"/>
       <c r="C86" s="14" t="s">
@@ -7586,7 +7581,7 @@
       <c r="Z86" s="5"/>
       <c r="AA86" s="5"/>
     </row>
-    <row r="87" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" ht="13.5" customHeight="1">
       <c r="A87" s="7"/>
       <c r="B87" s="13"/>
       <c r="C87" s="14" t="s">
@@ -7621,7 +7616,7 @@
       <c r="Z87" s="5"/>
       <c r="AA87" s="5"/>
     </row>
-    <row r="88" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" ht="13.5" customHeight="1">
       <c r="A88" s="7"/>
       <c r="B88" s="13"/>
       <c r="C88" s="14" t="s">
@@ -7656,7 +7651,7 @@
       <c r="Z88" s="5"/>
       <c r="AA88" s="5"/>
     </row>
-    <row r="89" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" ht="13.5" customHeight="1">
       <c r="A89" s="7"/>
       <c r="B89" s="13"/>
       <c r="C89" s="14" t="s">
@@ -7693,7 +7688,7 @@
       <c r="Z89" s="5"/>
       <c r="AA89" s="5"/>
     </row>
-    <row r="90" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" ht="13.5" customHeight="1">
       <c r="A90" s="7"/>
       <c r="B90" s="13"/>
       <c r="C90" s="14" t="s">
@@ -7730,7 +7725,7 @@
       <c r="Z90" s="5"/>
       <c r="AA90" s="5"/>
     </row>
-    <row r="91" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" ht="13.5" customHeight="1">
       <c r="A91" s="7"/>
       <c r="B91" s="13"/>
       <c r="C91" s="14" t="s">
@@ -7767,7 +7762,7 @@
       <c r="Z91" s="5"/>
       <c r="AA91" s="5"/>
     </row>
-    <row r="92" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" ht="13.5" customHeight="1">
       <c r="A92" s="7"/>
       <c r="B92" s="13"/>
       <c r="C92" s="14" t="s">
@@ -7802,7 +7797,7 @@
       <c r="Z92" s="5"/>
       <c r="AA92" s="5"/>
     </row>
-    <row r="93" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" ht="13.5" customHeight="1">
       <c r="A93" s="7"/>
       <c r="B93" s="13"/>
       <c r="C93" s="14" t="s">
@@ -7837,7 +7832,7 @@
       <c r="Z93" s="5"/>
       <c r="AA93" s="5"/>
     </row>
-    <row r="94" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" ht="13.5" customHeight="1">
       <c r="A94" s="7"/>
       <c r="B94" s="13"/>
       <c r="C94" s="14" t="s">
@@ -7874,7 +7869,7 @@
       <c r="Z94" s="5"/>
       <c r="AA94" s="5"/>
     </row>
-    <row r="95" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" ht="13.5" customHeight="1">
       <c r="A95" s="7"/>
       <c r="B95" s="13"/>
       <c r="C95" s="14" t="s">
@@ -7909,7 +7904,7 @@
       <c r="Z95" s="5"/>
       <c r="AA95" s="5"/>
     </row>
-    <row r="96" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" ht="13.5" customHeight="1">
       <c r="A96" s="7"/>
       <c r="B96" s="13"/>
       <c r="C96" s="14" t="s">
@@ -7946,7 +7941,7 @@
       <c r="Z96" s="5"/>
       <c r="AA96" s="5"/>
     </row>
-    <row r="97" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" ht="13.5" customHeight="1">
       <c r="A97" s="7"/>
       <c r="B97" s="13"/>
       <c r="C97" s="14" t="s">
@@ -7983,7 +7978,7 @@
       <c r="Z97" s="5"/>
       <c r="AA97" s="5"/>
     </row>
-    <row r="98" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" ht="13.5" customHeight="1">
       <c r="A98" s="7"/>
       <c r="B98" s="13"/>
       <c r="C98" s="14" t="s">
@@ -8020,7 +8015,7 @@
       <c r="Z98" s="5"/>
       <c r="AA98" s="5"/>
     </row>
-    <row r="99" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" ht="13.5" customHeight="1">
       <c r="A99" s="7"/>
       <c r="B99" s="13"/>
       <c r="C99" s="14" t="s">
@@ -8057,7 +8052,7 @@
       <c r="Z99" s="5"/>
       <c r="AA99" s="5"/>
     </row>
-    <row r="100" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" ht="13.5" customHeight="1">
       <c r="A100" s="7"/>
       <c r="B100" s="13"/>
       <c r="C100" s="14" t="s">
@@ -8094,7 +8089,7 @@
       <c r="Z100" s="5"/>
       <c r="AA100" s="5"/>
     </row>
-    <row r="101" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" ht="13.5" customHeight="1">
       <c r="A101" s="7"/>
       <c r="B101" s="13"/>
       <c r="C101" s="14" t="s">
@@ -8131,7 +8126,7 @@
       <c r="Z101" s="5"/>
       <c r="AA101" s="5"/>
     </row>
-    <row r="102" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" ht="13.5" customHeight="1">
       <c r="A102" s="7"/>
       <c r="B102" s="13"/>
       <c r="C102" s="14" t="s">
@@ -8168,7 +8163,7 @@
       <c r="Z102" s="5"/>
       <c r="AA102" s="5"/>
     </row>
-    <row r="103" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" ht="13.5" customHeight="1">
       <c r="A103" s="7"/>
       <c r="B103" s="13"/>
       <c r="C103" s="14" t="s">
@@ -8205,7 +8200,7 @@
       <c r="Z103" s="5"/>
       <c r="AA103" s="5"/>
     </row>
-    <row r="104" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" ht="13.5" customHeight="1">
       <c r="A104" s="7"/>
       <c r="B104" s="13"/>
       <c r="C104" s="14" t="s">
@@ -8242,7 +8237,7 @@
       <c r="Z104" s="5"/>
       <c r="AA104" s="5"/>
     </row>
-    <row r="105" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" ht="13.5" customHeight="1">
       <c r="A105" s="7"/>
       <c r="B105" s="13"/>
       <c r="C105" s="14" t="s">
@@ -8277,7 +8272,7 @@
       <c r="Z105" s="5"/>
       <c r="AA105" s="5"/>
     </row>
-    <row r="106" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" ht="13.5" customHeight="1">
       <c r="A106" s="7"/>
       <c r="B106" s="13"/>
       <c r="C106" s="14" t="s">
@@ -8314,7 +8309,7 @@
       <c r="Z106" s="5"/>
       <c r="AA106" s="5"/>
     </row>
-    <row r="107" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" ht="13.5" customHeight="1">
       <c r="A107" s="7"/>
       <c r="B107" s="13"/>
       <c r="C107" s="14" t="s">
@@ -8351,7 +8346,7 @@
       <c r="Z107" s="5"/>
       <c r="AA107" s="5"/>
     </row>
-    <row r="108" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" ht="13.5" customHeight="1">
       <c r="A108" s="7"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -8380,7 +8375,7 @@
       <c r="Z108" s="5"/>
       <c r="AA108" s="5"/>
     </row>
-    <row r="109" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" ht="13.5" customHeight="1">
       <c r="A109" s="7"/>
       <c r="B109" s="13"/>
       <c r="C109" s="14" t="s">
@@ -8415,7 +8410,7 @@
       <c r="Z109" s="5"/>
       <c r="AA109" s="5"/>
     </row>
-    <row r="110" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" ht="13.5" customHeight="1">
       <c r="A110" s="7"/>
       <c r="B110" s="13"/>
       <c r="C110" s="14" t="s">
@@ -8450,7 +8445,7 @@
       <c r="Z110" s="5"/>
       <c r="AA110" s="5"/>
     </row>
-    <row r="111" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" ht="13.5" customHeight="1">
       <c r="A111" s="7"/>
       <c r="B111" s="13"/>
       <c r="C111" s="14" t="s">
@@ -8485,7 +8480,7 @@
       <c r="Z111" s="5"/>
       <c r="AA111" s="5"/>
     </row>
-    <row r="112" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" ht="13.5" customHeight="1">
       <c r="A112" s="7"/>
       <c r="B112" s="13"/>
       <c r="C112" s="14" t="s">
@@ -8522,7 +8517,7 @@
       <c r="Z112" s="5"/>
       <c r="AA112" s="5"/>
     </row>
-    <row r="113" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27" ht="13.5" customHeight="1">
       <c r="A113" s="7"/>
       <c r="B113" s="13"/>
       <c r="C113" s="14" t="s">
@@ -8557,7 +8552,7 @@
       <c r="Z113" s="5"/>
       <c r="AA113" s="5"/>
     </row>
-    <row r="114" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27" ht="13.5" customHeight="1">
       <c r="A114" s="7"/>
       <c r="B114" s="13"/>
       <c r="C114" s="14" t="s">
@@ -8594,7 +8589,7 @@
       <c r="Z114" s="5"/>
       <c r="AA114" s="5"/>
     </row>
-    <row r="115" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27" ht="13.5" customHeight="1">
       <c r="A115" s="7"/>
       <c r="B115" s="13"/>
       <c r="C115" s="14" t="s">
@@ -8631,7 +8626,7 @@
       <c r="Z115" s="5"/>
       <c r="AA115" s="5"/>
     </row>
-    <row r="116" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" ht="13.5" customHeight="1">
       <c r="A116" s="7"/>
       <c r="B116" s="13"/>
       <c r="C116" s="14" t="s">
@@ -8668,7 +8663,7 @@
       <c r="Z116" s="5"/>
       <c r="AA116" s="5"/>
     </row>
-    <row r="117" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" ht="13.5" customHeight="1">
       <c r="A117" s="7"/>
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
@@ -8697,7 +8692,7 @@
       <c r="Z117" s="5"/>
       <c r="AA117" s="5"/>
     </row>
-    <row r="118" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" ht="13.5" customHeight="1">
       <c r="A118" s="7"/>
       <c r="B118" s="13"/>
       <c r="C118" s="14" t="s">
@@ -8734,7 +8729,7 @@
       <c r="Z118" s="5"/>
       <c r="AA118" s="5"/>
     </row>
-    <row r="119" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" ht="13.5" customHeight="1">
       <c r="A119" s="7"/>
       <c r="B119" s="13"/>
       <c r="C119" s="14" t="s">
@@ -8771,7 +8766,7 @@
       <c r="Z119" s="5"/>
       <c r="AA119" s="5"/>
     </row>
-    <row r="120" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" ht="13.5" customHeight="1">
       <c r="A120" s="7"/>
       <c r="B120" s="13"/>
       <c r="C120" s="14" t="s">
@@ -8808,7 +8803,7 @@
       <c r="Z120" s="5"/>
       <c r="AA120" s="5"/>
     </row>
-    <row r="121" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" ht="13.5" customHeight="1">
       <c r="A121" s="7"/>
       <c r="B121" s="13"/>
       <c r="C121" s="14" t="s">
@@ -8845,7 +8840,7 @@
       <c r="Z121" s="5"/>
       <c r="AA121" s="5"/>
     </row>
-    <row r="122" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" ht="13.5" customHeight="1">
       <c r="A122" s="7"/>
       <c r="B122" s="13"/>
       <c r="C122" s="14" t="s">
@@ -8882,7 +8877,7 @@
       <c r="Z122" s="5"/>
       <c r="AA122" s="5"/>
     </row>
-    <row r="123" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" ht="13.5" customHeight="1">
       <c r="A123" s="7"/>
       <c r="B123" s="13"/>
       <c r="C123" s="14" t="s">
@@ -8919,7 +8914,7 @@
       <c r="Z123" s="5"/>
       <c r="AA123" s="5"/>
     </row>
-    <row r="124" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" ht="13.5" customHeight="1">
       <c r="A124" s="7"/>
       <c r="B124" s="13"/>
       <c r="C124" s="14" t="s">
@@ -8956,7 +8951,7 @@
       <c r="Z124" s="5"/>
       <c r="AA124" s="5"/>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27">
       <c r="A125" s="7"/>
       <c r="B125" s="5"/>
       <c r="C125" s="6" t="s">
@@ -8993,7 +8988,7 @@
       <c r="Z125" s="5"/>
       <c r="AA125" s="5"/>
     </row>
-    <row r="126" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" ht="25.5">
       <c r="A126" s="7"/>
       <c r="B126" s="5"/>
       <c r="C126" s="6" t="s">
@@ -9030,7 +9025,7 @@
       <c r="Z126" s="5"/>
       <c r="AA126" s="5"/>
     </row>
-    <row r="127" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27" ht="25.5">
       <c r="A127" s="7"/>
       <c r="B127" s="5"/>
       <c r="C127" s="6" t="s">
@@ -9067,7 +9062,7 @@
       <c r="Z127" s="5"/>
       <c r="AA127" s="5"/>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27">
       <c r="A128" s="7"/>
       <c r="B128" s="5"/>
       <c r="C128" s="6" t="s">
@@ -9102,7 +9097,7 @@
       <c r="Z128" s="5"/>
       <c r="AA128" s="5"/>
     </row>
-    <row r="129" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27" ht="25.5">
       <c r="A129" s="7"/>
       <c r="B129" s="5"/>
       <c r="C129" s="6" t="s">
@@ -9139,7 +9134,7 @@
       <c r="Z129" s="5"/>
       <c r="AA129" s="5"/>
     </row>
-    <row r="130" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27" ht="25.5">
       <c r="A130" s="7"/>
       <c r="B130" s="5"/>
       <c r="C130" s="6" t="s">
@@ -9174,7 +9169,7 @@
       <c r="Z130" s="5"/>
       <c r="AA130" s="5"/>
     </row>
-    <row r="131" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:27" ht="25.5">
       <c r="A131" s="7"/>
       <c r="B131" s="5"/>
       <c r="C131" s="6" t="s">
@@ -9211,7 +9206,7 @@
       <c r="Z131" s="5"/>
       <c r="AA131" s="5"/>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27">
       <c r="A132" s="7"/>
       <c r="B132" s="5"/>
       <c r="C132" s="6" t="s">
@@ -9248,7 +9243,7 @@
       <c r="Z132" s="5"/>
       <c r="AA132" s="5"/>
     </row>
-    <row r="133" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27" ht="25.5">
       <c r="A133" s="7"/>
       <c r="B133" s="5"/>
       <c r="C133" s="6" t="s">
@@ -9283,7 +9278,7 @@
       <c r="Z133" s="5"/>
       <c r="AA133" s="5"/>
     </row>
-    <row r="134" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27" ht="25.5">
       <c r="A134" s="7"/>
       <c r="B134" s="5"/>
       <c r="C134" s="6" t="s">
@@ -9318,7 +9313,7 @@
       <c r="Z134" s="5"/>
       <c r="AA134" s="5"/>
     </row>
-    <row r="135" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27" ht="25.5">
       <c r="A135" s="7"/>
       <c r="B135" s="5"/>
       <c r="C135" s="6" t="s">
@@ -9355,7 +9350,7 @@
       <c r="Z135" s="5"/>
       <c r="AA135" s="5"/>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27">
       <c r="A136" s="7"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -9384,7 +9379,7 @@
       <c r="Z136" s="5"/>
       <c r="AA136" s="5"/>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:27">
       <c r="A137" s="7"/>
       <c r="B137" s="5"/>
       <c r="C137" s="6" t="s">
@@ -9421,7 +9416,7 @@
       <c r="Z137" s="5"/>
       <c r="AA137" s="5"/>
     </row>
-    <row r="138" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27" ht="25.5">
       <c r="A138" s="7"/>
       <c r="B138" s="5"/>
       <c r="C138" s="6" t="s">
@@ -9458,7 +9453,7 @@
       <c r="Z138" s="5"/>
       <c r="AA138" s="5"/>
     </row>
-    <row r="139" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27" ht="25.5">
       <c r="A139" s="7"/>
       <c r="B139" s="5"/>
       <c r="C139" s="6" t="s">
@@ -9493,7 +9488,7 @@
       <c r="Z139" s="5"/>
       <c r="AA139" s="5"/>
     </row>
-    <row r="140" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27" ht="25.5">
       <c r="A140" s="7"/>
       <c r="B140" s="5"/>
       <c r="C140" s="6" t="s">
@@ -9528,7 +9523,7 @@
       <c r="Z140" s="5"/>
       <c r="AA140" s="5"/>
     </row>
-    <row r="141" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27" ht="25.5">
       <c r="A141" s="7"/>
       <c r="B141" s="5"/>
       <c r="C141" s="6" t="s">
@@ -9565,7 +9560,7 @@
       <c r="Z141" s="5"/>
       <c r="AA141" s="5"/>
     </row>
-    <row r="142" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27" ht="25.5">
       <c r="A142" s="7"/>
       <c r="B142" s="5"/>
       <c r="C142" s="6" t="s">
@@ -9602,7 +9597,7 @@
       <c r="Z142" s="5"/>
       <c r="AA142" s="5"/>
     </row>
-    <row r="143" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:27" ht="25.5">
       <c r="A143" s="7"/>
       <c r="B143" s="5"/>
       <c r="C143" s="6" t="s">
@@ -9637,7 +9632,7 @@
       <c r="Z143" s="5"/>
       <c r="AA143" s="5"/>
     </row>
-    <row r="144" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27" ht="25.5">
       <c r="A144" s="7"/>
       <c r="B144" s="5"/>
       <c r="C144" s="6" t="s">
@@ -9674,7 +9669,7 @@
       <c r="Z144" s="5"/>
       <c r="AA144" s="5"/>
     </row>
-    <row r="145" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:27" ht="38.25">
       <c r="A145" s="7"/>
       <c r="B145" s="5"/>
       <c r="C145" s="6" t="s">
@@ -9711,7 +9706,7 @@
       <c r="Z145" s="5"/>
       <c r="AA145" s="5"/>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:27">
       <c r="A146" s="7"/>
       <c r="B146" s="5"/>
       <c r="C146" s="6" t="s">
@@ -9748,7 +9743,7 @@
       <c r="Z146" s="5"/>
       <c r="AA146" s="5"/>
     </row>
-    <row r="147" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:27" ht="38.25">
       <c r="A147" s="7"/>
       <c r="B147" s="5"/>
       <c r="C147" s="6" t="s">
@@ -9785,7 +9780,7 @@
       <c r="Z147" s="5"/>
       <c r="AA147" s="5"/>
     </row>
-    <row r="148" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:27" ht="25.5">
       <c r="A148" s="7"/>
       <c r="B148" s="5"/>
       <c r="C148" s="6" t="s">
@@ -9822,7 +9817,7 @@
       <c r="Z148" s="5"/>
       <c r="AA148" s="5"/>
     </row>
-    <row r="149" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:27" ht="25.5">
       <c r="A149" s="7"/>
       <c r="B149" s="5"/>
       <c r="C149" s="6" t="s">
@@ -9859,7 +9854,7 @@
       <c r="Z149" s="5"/>
       <c r="AA149" s="5"/>
     </row>
-    <row r="150" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:27" ht="25.5">
       <c r="A150" s="7"/>
       <c r="B150" s="5"/>
       <c r="C150" s="6" t="s">
@@ -9896,7 +9891,7 @@
       <c r="Z150" s="5"/>
       <c r="AA150" s="5"/>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:27">
       <c r="A151" s="7"/>
       <c r="B151" s="5"/>
       <c r="C151" s="6" t="s">
@@ -9931,7 +9926,7 @@
       <c r="Z151" s="5"/>
       <c r="AA151" s="5"/>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:27">
       <c r="A152" s="7"/>
       <c r="B152" s="5"/>
       <c r="C152" s="6" t="s">
@@ -9966,7 +9961,7 @@
       <c r="Z152" s="5"/>
       <c r="AA152" s="5"/>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:27">
       <c r="A153" s="7"/>
       <c r="B153" s="5"/>
       <c r="C153" s="6" t="s">
@@ -10001,7 +9996,7 @@
       <c r="Z153" s="5"/>
       <c r="AA153" s="5"/>
     </row>
-    <row r="154" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:27" ht="25.5">
       <c r="A154" s="7"/>
       <c r="B154" s="5"/>
       <c r="C154" s="6" t="s">
@@ -10038,7 +10033,7 @@
       <c r="Z154" s="5"/>
       <c r="AA154" s="5"/>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:27">
       <c r="A155" s="7"/>
       <c r="B155" s="5"/>
       <c r="C155" s="6" t="s">
@@ -10073,7 +10068,7 @@
       <c r="Z155" s="5"/>
       <c r="AA155" s="5"/>
     </row>
-    <row r="156" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:27" ht="25.5">
       <c r="A156" s="7"/>
       <c r="B156" s="5"/>
       <c r="C156" s="6" t="s">
@@ -10108,7 +10103,7 @@
       <c r="Z156" s="5"/>
       <c r="AA156" s="5"/>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:27">
       <c r="A157" s="7"/>
       <c r="B157" s="5"/>
       <c r="C157" s="6" t="s">
@@ -10145,7 +10140,7 @@
       <c r="Z157" s="5"/>
       <c r="AA157" s="5"/>
     </row>
-    <row r="158" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:27" ht="25.5">
       <c r="A158" s="7"/>
       <c r="B158" s="5"/>
       <c r="C158" s="6" t="s">
@@ -10182,7 +10177,7 @@
       <c r="Z158" s="5"/>
       <c r="AA158" s="5"/>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:27">
       <c r="A159" s="7"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -10211,7 +10206,7 @@
       <c r="Z159" s="5"/>
       <c r="AA159" s="5"/>
     </row>
-    <row r="160" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:27" ht="25.5">
       <c r="A160" s="7"/>
       <c r="B160" s="5"/>
       <c r="C160" s="6" t="s">
@@ -10248,7 +10243,7 @@
       <c r="Z160" s="5"/>
       <c r="AA160" s="5"/>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:27">
       <c r="A161" s="7"/>
       <c r="B161" s="5"/>
       <c r="C161" s="6" t="s">
@@ -10283,7 +10278,7 @@
       <c r="Z161" s="5"/>
       <c r="AA161" s="5"/>
     </row>
-    <row r="162" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:27" ht="25.5">
       <c r="A162" s="7"/>
       <c r="B162" s="5"/>
       <c r="C162" s="6" t="s">
@@ -10318,7 +10313,7 @@
       <c r="Z162" s="5"/>
       <c r="AA162" s="5"/>
     </row>
-    <row r="163" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:27" ht="25.5">
       <c r="A163" s="7"/>
       <c r="B163" s="5"/>
       <c r="C163" s="6" t="s">
@@ -10355,7 +10350,7 @@
       <c r="Z163" s="5"/>
       <c r="AA163" s="5"/>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:27">
       <c r="A164" s="7"/>
       <c r="B164" s="5"/>
       <c r="C164" s="6" t="s">
@@ -10390,7 +10385,7 @@
       <c r="Z164" s="5"/>
       <c r="AA164" s="5"/>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:27">
       <c r="A165" s="7"/>
       <c r="B165" s="5"/>
       <c r="C165" s="6" t="s">
@@ -10425,7 +10420,7 @@
       <c r="Z165" s="5"/>
       <c r="AA165" s="5"/>
     </row>
-    <row r="166" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:27" ht="25.5">
       <c r="A166" s="7"/>
       <c r="B166" s="5"/>
       <c r="C166" s="6" t="s">
@@ -10462,7 +10457,7 @@
       <c r="Z166" s="5"/>
       <c r="AA166" s="5"/>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:27">
       <c r="A167" s="7"/>
       <c r="B167" s="5"/>
       <c r="C167" s="6" t="s">
@@ -10499,7 +10494,7 @@
       <c r="Z167" s="5"/>
       <c r="AA167" s="5"/>
     </row>
-    <row r="168" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:27" ht="25.5">
       <c r="A168" s="7"/>
       <c r="B168" s="5"/>
       <c r="C168" s="6" t="s">
@@ -10534,7 +10529,7 @@
       <c r="Z168" s="5"/>
       <c r="AA168" s="5"/>
     </row>
-    <row r="169" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:27" ht="25.5">
       <c r="A169" s="7"/>
       <c r="B169" s="5"/>
       <c r="C169" s="6" t="s">
@@ -10571,7 +10566,7 @@
       <c r="Z169" s="5"/>
       <c r="AA169" s="5"/>
     </row>
-    <row r="170" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:27" ht="25.5">
       <c r="A170" s="7"/>
       <c r="B170" s="5"/>
       <c r="C170" s="6" t="s">
@@ -10606,7 +10601,7 @@
       <c r="Z170" s="5"/>
       <c r="AA170" s="5"/>
     </row>
-    <row r="171" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:27" ht="38.25">
       <c r="A171" s="7"/>
       <c r="B171" s="5"/>
       <c r="C171" s="6" t="s">
@@ -10643,7 +10638,7 @@
       <c r="Z171" s="5"/>
       <c r="AA171" s="5"/>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:27">
       <c r="A172" s="7"/>
       <c r="B172" s="5"/>
       <c r="C172" s="6" t="s">
@@ -10678,7 +10673,7 @@
       <c r="Z172" s="5"/>
       <c r="AA172" s="5"/>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:27">
       <c r="A173" s="7"/>
       <c r="B173" s="5"/>
       <c r="C173" s="6" t="s">
@@ -10713,7 +10708,7 @@
       <c r="Z173" s="5"/>
       <c r="AA173" s="5"/>
     </row>
-    <row r="174" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:27" ht="38.25">
       <c r="A174" s="7"/>
       <c r="B174" s="5"/>
       <c r="C174" s="6" t="s">
@@ -10750,7 +10745,7 @@
       <c r="Z174" s="5"/>
       <c r="AA174" s="5"/>
     </row>
-    <row r="175" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:27" ht="25.5">
       <c r="A175" s="7"/>
       <c r="B175" s="5"/>
       <c r="C175" s="6" t="s">
@@ -10787,7 +10782,7 @@
       <c r="Z175" s="5"/>
       <c r="AA175" s="5"/>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:27">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="6" t="s">
@@ -10822,7 +10817,7 @@
       <c r="Z176" s="5"/>
       <c r="AA176" s="5"/>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:27">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="6" t="s">
@@ -10857,7 +10852,7 @@
       <c r="Z177" s="5"/>
       <c r="AA177" s="5"/>
     </row>
-    <row r="178" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:27" ht="25.5">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="6" t="s">
@@ -10894,7 +10889,7 @@
       <c r="Z178" s="5"/>
       <c r="AA178" s="5"/>
     </row>
-    <row r="179" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:27" ht="25.5">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="6" t="s">
@@ -10931,7 +10926,7 @@
       <c r="Z179" s="5"/>
       <c r="AA179" s="5"/>
     </row>
-    <row r="180" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:27" ht="25.5">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="6" t="s">
@@ -10968,7 +10963,7 @@
       <c r="Z180" s="5"/>
       <c r="AA180" s="5"/>
     </row>
-    <row r="181" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:27" ht="25.5">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="6" t="s">
@@ -11003,7 +10998,7 @@
       <c r="Z181" s="5"/>
       <c r="AA181" s="5"/>
     </row>
-    <row r="182" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:27" ht="25.5">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="6" t="s">
@@ -11040,7 +11035,7 @@
       <c r="Z182" s="5"/>
       <c r="AA182" s="5"/>
     </row>
-    <row r="183" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:27" ht="25.5">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="6" t="s">
@@ -11077,7 +11072,7 @@
       <c r="Z183" s="5"/>
       <c r="AA183" s="5"/>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:27">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="6" t="s">
@@ -11114,7 +11109,7 @@
       <c r="Z184" s="5"/>
       <c r="AA184" s="5"/>
     </row>
-    <row r="185" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:27" ht="25.5">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="6" t="s">
@@ -11151,7 +11146,7 @@
       <c r="Z185" s="5"/>
       <c r="AA185" s="5"/>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:27">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="6" t="s">
@@ -11186,7 +11181,7 @@
       <c r="Z186" s="5"/>
       <c r="AA186" s="5"/>
     </row>
-    <row r="187" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:27" ht="38.25">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="6" t="s">
@@ -11223,7 +11218,7 @@
       <c r="Z187" s="5"/>
       <c r="AA187" s="5"/>
     </row>
-    <row r="188" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:27" ht="25.5">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="6" t="s">
@@ -11260,7 +11255,7 @@
       <c r="Z188" s="5"/>
       <c r="AA188" s="5"/>
     </row>
-    <row r="189" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:27" ht="25.5">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="6" t="s">
@@ -11297,7 +11292,7 @@
       <c r="Z189" s="5"/>
       <c r="AA189" s="5"/>
     </row>
-    <row r="190" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:27" ht="25.5">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="6" t="s">
@@ -11334,7 +11329,7 @@
       <c r="Z190" s="5"/>
       <c r="AA190" s="5"/>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:27">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -11363,7 +11358,7 @@
       <c r="Z191" s="5"/>
       <c r="AA191" s="5"/>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:27">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="6" t="s">
@@ -11398,7 +11393,7 @@
       <c r="Z192" s="5"/>
       <c r="AA192" s="5"/>
     </row>
-    <row r="193" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:27" ht="25.5">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="6" t="s">
@@ -11433,7 +11428,7 @@
       <c r="Z193" s="5"/>
       <c r="AA193" s="5"/>
     </row>
-    <row r="194" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:27" ht="25.5">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="6" t="s">
@@ -11468,7 +11463,7 @@
       <c r="Z194" s="5"/>
       <c r="AA194" s="5"/>
     </row>
-    <row r="195" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:27" ht="25.5">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="6" t="s">
@@ -11503,7 +11498,7 @@
       <c r="Z195" s="5"/>
       <c r="AA195" s="5"/>
     </row>
-    <row r="196" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:27" ht="25.5">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="6" t="s">
@@ -11538,7 +11533,7 @@
       <c r="Z196" s="5"/>
       <c r="AA196" s="5"/>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:27">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="6" t="s">
@@ -11573,7 +11568,7 @@
       <c r="Z197" s="5"/>
       <c r="AA197" s="5"/>
     </row>
-    <row r="198" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:27" ht="25.5">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="6" t="s">
@@ -11610,7 +11605,7 @@
       <c r="Z198" s="5"/>
       <c r="AA198" s="5"/>
     </row>
-    <row r="199" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:27" ht="38.25">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="6" t="s">
@@ -11645,7 +11640,7 @@
       <c r="Z199" s="5"/>
       <c r="AA199" s="5"/>
     </row>
-    <row r="200" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:27" ht="38.25">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="6" t="s">
@@ -11682,7 +11677,7 @@
       <c r="Z200" s="5"/>
       <c r="AA200" s="5"/>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:27">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="6" t="s">
@@ -11717,7 +11712,7 @@
       <c r="Z201" s="5"/>
       <c r="AA201" s="5"/>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:27">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -11746,7 +11741,7 @@
       <c r="Z202" s="5"/>
       <c r="AA202" s="5"/>
     </row>
-    <row r="203" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:27" ht="25.5">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="6" t="s">
@@ -11783,7 +11778,7 @@
       <c r="Z203" s="5"/>
       <c r="AA203" s="5"/>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:27">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="6" t="s">
@@ -11818,7 +11813,7 @@
       <c r="Z204" s="5"/>
       <c r="AA204" s="5"/>
     </row>
-    <row r="205" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:27" ht="25.5">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="6" t="s">
@@ -11853,7 +11848,7 @@
       <c r="Z205" s="5"/>
       <c r="AA205" s="5"/>
     </row>
-    <row r="206" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:27" ht="38.25">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="6" t="s">
@@ -11890,7 +11885,7 @@
       <c r="Z206" s="5"/>
       <c r="AA206" s="5"/>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:27">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -11919,7 +11914,7 @@
       <c r="Z207" s="5"/>
       <c r="AA207" s="5"/>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:27">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="6" t="s">
@@ -11954,7 +11949,7 @@
       <c r="Z208" s="5"/>
       <c r="AA208" s="5"/>
     </row>
-    <row r="209" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:27" ht="38.25">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="6" t="s">
@@ -11989,7 +11984,7 @@
       <c r="Z209" s="5"/>
       <c r="AA209" s="5"/>
     </row>
-    <row r="210" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:27" ht="25.5">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="6" t="s">
@@ -12026,7 +12021,7 @@
       <c r="Z210" s="5"/>
       <c r="AA210" s="5"/>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:27">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="6" t="s">
@@ -12063,7 +12058,7 @@
       <c r="Z211" s="5"/>
       <c r="AA211" s="5"/>
     </row>
-    <row r="212" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:27" ht="25.5">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="6" t="s">
@@ -12098,7 +12093,7 @@
       <c r="Z212" s="5"/>
       <c r="AA212" s="5"/>
     </row>
-    <row r="213" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:27" ht="25.5">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="6" t="s">
@@ -12135,7 +12130,7 @@
       <c r="Z213" s="5"/>
       <c r="AA213" s="5"/>
     </row>
-    <row r="214" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:27" ht="25.5">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="6" t="s">
@@ -12172,7 +12167,7 @@
       <c r="Z214" s="5"/>
       <c r="AA214" s="5"/>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:27">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="6" t="s">
@@ -12207,7 +12202,7 @@
       <c r="Z215" s="5"/>
       <c r="AA215" s="5"/>
     </row>
-    <row r="216" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:27" ht="25.5">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="6" t="s">
@@ -12242,7 +12237,7 @@
       <c r="Z216" s="5"/>
       <c r="AA216" s="5"/>
     </row>
-    <row r="217" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:27" ht="25.5">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="6" t="s">
@@ -12279,7 +12274,7 @@
       <c r="Z217" s="5"/>
       <c r="AA217" s="5"/>
     </row>
-    <row r="218" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:27" ht="25.5">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="6" t="s">
@@ -12314,7 +12309,7 @@
       <c r="Z218" s="5"/>
       <c r="AA218" s="5"/>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:27">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="6" t="s">
@@ -12349,7 +12344,7 @@
       <c r="Z219" s="5"/>
       <c r="AA219" s="5"/>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:27">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -12378,7 +12373,7 @@
       <c r="Z220" s="5"/>
       <c r="AA220" s="5"/>
     </row>
-    <row r="221" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:27" ht="25.5">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="6" t="s">
@@ -12415,7 +12410,7 @@
       <c r="Z221" s="5"/>
       <c r="AA221" s="5"/>
     </row>
-    <row r="222" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:27" ht="25.5">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="6" t="s">
@@ -12452,7 +12447,7 @@
       <c r="Z222" s="5"/>
       <c r="AA222" s="5"/>
     </row>
-    <row r="223" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:27" ht="25.5">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="6" t="s">
@@ -12487,7 +12482,7 @@
       <c r="Z223" s="5"/>
       <c r="AA223" s="5"/>
     </row>
-    <row r="224" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:27" ht="38.25">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="6" t="s">
@@ -12524,7 +12519,7 @@
       <c r="Z224" s="5"/>
       <c r="AA224" s="5"/>
     </row>
-    <row r="225" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:27" ht="25.5">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="6" t="s">
@@ -12559,7 +12554,7 @@
       <c r="Z225" s="5"/>
       <c r="AA225" s="5"/>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:27">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="6" t="s">
@@ -12594,7 +12589,7 @@
       <c r="Z226" s="5"/>
       <c r="AA226" s="5"/>
     </row>
-    <row r="227" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:27" ht="25.5">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="6" t="s">
@@ -12629,7 +12624,7 @@
       <c r="Z227" s="5"/>
       <c r="AA227" s="5"/>
     </row>
-    <row r="228" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:27" ht="25.5">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="6" t="s">
@@ -12666,7 +12661,7 @@
       <c r="Z228" s="5"/>
       <c r="AA228" s="5"/>
     </row>
-    <row r="229" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:27" ht="25.5">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="6" t="s">
@@ -12703,7 +12698,7 @@
       <c r="Z229" s="5"/>
       <c r="AA229" s="5"/>
     </row>
-    <row r="230" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:27" ht="25.5">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="6" t="s">
@@ -12740,7 +12735,7 @@
       <c r="Z230" s="5"/>
       <c r="AA230" s="5"/>
     </row>
-    <row r="231" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:27" ht="38.25">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="6" t="s">
@@ -12777,7 +12772,7 @@
       <c r="Z231" s="5"/>
       <c r="AA231" s="5"/>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:27">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="6" t="s">
@@ -12814,7 +12809,7 @@
       <c r="Z232" s="5"/>
       <c r="AA232" s="5"/>
     </row>
-    <row r="233" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:27" ht="25.5">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="6" t="s">
@@ -12851,7 +12846,7 @@
       <c r="Z233" s="5"/>
       <c r="AA233" s="5"/>
     </row>
-    <row r="234" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:27" ht="25.5">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="6" t="s">
@@ -12886,7 +12881,7 @@
       <c r="Z234" s="5"/>
       <c r="AA234" s="5"/>
     </row>
-    <row r="235" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:27" ht="25.5">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="6" t="s">
@@ -12923,7 +12918,7 @@
       <c r="Z235" s="5"/>
       <c r="AA235" s="5"/>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:27">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="6" t="s">
@@ -12958,7 +12953,7 @@
       <c r="Z236" s="5"/>
       <c r="AA236" s="5"/>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:27">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="6" t="s">
@@ -12993,7 +12988,7 @@
       <c r="Z237" s="5"/>
       <c r="AA237" s="5"/>
     </row>
-    <row r="238" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:27" ht="38.25">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="6" t="s">
@@ -13030,7 +13025,7 @@
       <c r="Z238" s="5"/>
       <c r="AA238" s="5"/>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:27">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -13061,7 +13056,7 @@
       <c r="Z239" s="5"/>
       <c r="AA239" s="5"/>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:27">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="6" t="s">
@@ -13098,7 +13093,7 @@
       <c r="Z240" s="5"/>
       <c r="AA240" s="5"/>
     </row>
-    <row r="241" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:27" ht="38.25">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="6" t="s">
@@ -13135,7 +13130,7 @@
       <c r="Z241" s="5"/>
       <c r="AA241" s="5"/>
     </row>
-    <row r="242" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:27" ht="25.5">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="6" t="s">
@@ -13172,7 +13167,7 @@
       <c r="Z242" s="5"/>
       <c r="AA242" s="5"/>
     </row>
-    <row r="243" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:27" ht="38.25">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="6" t="s">
@@ -13207,7 +13202,7 @@
       <c r="Z243" s="5"/>
       <c r="AA243" s="5"/>
     </row>
-    <row r="244" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:27" ht="38.25">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="6" t="s">
@@ -13242,7 +13237,7 @@
       <c r="Z244" s="5"/>
       <c r="AA244" s="5"/>
     </row>
-    <row r="245" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:27" ht="25.5">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="6" t="s">
@@ -13279,7 +13274,7 @@
       <c r="Z245" s="5"/>
       <c r="AA245" s="5"/>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:27">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -13308,7 +13303,7 @@
       <c r="Z246" s="5"/>
       <c r="AA246" s="5"/>
     </row>
-    <row r="247" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:27" ht="38.25">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="6" t="s">
@@ -13345,7 +13340,7 @@
       <c r="Z247" s="5"/>
       <c r="AA247" s="5"/>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:27">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -13374,7 +13369,7 @@
       <c r="Z248" s="5"/>
       <c r="AA248" s="5"/>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:27">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="6" t="s">
@@ -13409,7 +13404,7 @@
       <c r="Z249" s="5"/>
       <c r="AA249" s="5"/>
     </row>
-    <row r="250" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:27" ht="25.5">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="6" t="s">
@@ -13446,7 +13441,7 @@
       <c r="Z250" s="5"/>
       <c r="AA250" s="5"/>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:27">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="6" t="s">
@@ -13481,7 +13476,7 @@
       <c r="Z251" s="5"/>
       <c r="AA251" s="5"/>
     </row>
-    <row r="252" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:27" ht="38.25">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="6" t="s">
@@ -13518,7 +13513,7 @@
       <c r="Z252" s="5"/>
       <c r="AA252" s="5"/>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:27">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -13547,7 +13542,7 @@
       <c r="Z253" s="5"/>
       <c r="AA253" s="5"/>
     </row>
-    <row r="254" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:27" ht="25.5">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="6" t="s">
@@ -13584,7 +13579,7 @@
       <c r="Z254" s="5"/>
       <c r="AA254" s="5"/>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:27">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="6" t="s">
@@ -13619,7 +13614,7 @@
       <c r="Z255" s="5"/>
       <c r="AA255" s="5"/>
     </row>
-    <row r="256" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:27" ht="25.5">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="6" t="s">
@@ -13656,7 +13651,7 @@
       <c r="Z256" s="5"/>
       <c r="AA256" s="5"/>
     </row>
-    <row r="257" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:27" ht="25.5">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="6" t="s">
@@ -13693,7 +13688,7 @@
       <c r="Z257" s="5"/>
       <c r="AA257" s="5"/>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:27">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="6" t="s">
@@ -13730,7 +13725,7 @@
       <c r="Z258" s="5"/>
       <c r="AA258" s="5"/>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:27">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="6" t="s">
@@ -13767,7 +13762,7 @@
       <c r="Z259" s="5"/>
       <c r="AA259" s="5"/>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:27">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -13796,7 +13791,7 @@
       <c r="Z260" s="5"/>
       <c r="AA260" s="5"/>
     </row>
-    <row r="261" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:27" ht="25.5">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="6" t="s">
@@ -13833,7 +13828,7 @@
       <c r="Z261" s="5"/>
       <c r="AA261" s="5"/>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:27">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -13862,7 +13857,7 @@
       <c r="Z262" s="5"/>
       <c r="AA262" s="5"/>
     </row>
-    <row r="263" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:27" ht="25.5">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="6" t="s">
@@ -13899,7 +13894,7 @@
       <c r="Z263" s="5"/>
       <c r="AA263" s="5"/>
     </row>
-    <row r="264" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:27" ht="25.5">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="6" t="s">
@@ -13934,7 +13929,7 @@
       <c r="Z264" s="5"/>
       <c r="AA264" s="5"/>
     </row>
-    <row r="265" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:27" ht="38.25">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="6" t="s">
@@ -13971,7 +13966,7 @@
       <c r="Z265" s="5"/>
       <c r="AA265" s="5"/>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:27">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -14002,7 +13997,7 @@
       <c r="Z266" s="5"/>
       <c r="AA266" s="5"/>
     </row>
-    <row r="267" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:27" ht="25.5">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="6" t="s">
@@ -14039,7 +14034,7 @@
       <c r="Z267" s="5"/>
       <c r="AA267" s="5"/>
     </row>
-    <row r="268" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:27" ht="25.5">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="6" t="s">
@@ -14074,7 +14069,7 @@
       <c r="Z268" s="5"/>
       <c r="AA268" s="5"/>
     </row>
-    <row r="269" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:27" ht="25.5">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="6" t="s">
@@ -14109,7 +14104,7 @@
       <c r="Z269" s="5"/>
       <c r="AA269" s="5"/>
     </row>
-    <row r="270" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:27" ht="25.5">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="6" t="s">
@@ -14144,7 +14139,7 @@
       <c r="Z270" s="5"/>
       <c r="AA270" s="5"/>
     </row>
-    <row r="271" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:27" ht="25.5">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="6" t="s">
@@ -14179,7 +14174,7 @@
       <c r="Z271" s="5"/>
       <c r="AA271" s="5"/>
     </row>
-    <row r="272" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:27" ht="25.5">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="6" t="s">
@@ -14216,7 +14211,7 @@
       <c r="Z272" s="5"/>
       <c r="AA272" s="5"/>
     </row>
-    <row r="273" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:27" ht="25.5">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="6" t="s">
@@ -14253,7 +14248,7 @@
       <c r="Z273" s="5"/>
       <c r="AA273" s="5"/>
     </row>
-    <row r="274" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:27" ht="38.25">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="6" t="s">
@@ -14290,7 +14285,7 @@
       <c r="Z274" s="5"/>
       <c r="AA274" s="5"/>
     </row>
-    <row r="275" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:27" ht="38.25">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="6" t="s">
@@ -14327,7 +14322,7 @@
       <c r="Z275" s="5"/>
       <c r="AA275" s="5"/>
     </row>
-    <row r="276" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:27" ht="25.5">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="6" t="s">
@@ -14364,7 +14359,7 @@
       <c r="Z276" s="5"/>
       <c r="AA276" s="5"/>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:27">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="6" t="s">
@@ -14399,7 +14394,7 @@
       <c r="Z277" s="5"/>
       <c r="AA277" s="5"/>
     </row>
-    <row r="278" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:27" ht="25.5">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="6" t="s">
@@ -14436,7 +14431,7 @@
       <c r="Z278" s="5"/>
       <c r="AA278" s="5"/>
     </row>
-    <row r="279" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:27" ht="25.5">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="6" t="s">
@@ -14471,7 +14466,7 @@
       <c r="Z279" s="5"/>
       <c r="AA279" s="5"/>
     </row>
-    <row r="280" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:27" ht="38.25">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="6" t="s">
@@ -14508,7 +14503,7 @@
       <c r="Z280" s="5"/>
       <c r="AA280" s="5"/>
     </row>
-    <row r="281" spans="1:27" ht="51" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:27" ht="51">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="6" t="s">
@@ -14543,7 +14538,7 @@
       <c r="Z281" s="5"/>
       <c r="AA281" s="5"/>
     </row>
-    <row r="282" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:27" ht="25.5">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="6" t="s">
@@ -14580,7 +14575,7 @@
       <c r="Z282" s="5"/>
       <c r="AA282" s="5"/>
     </row>
-    <row r="283" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:27" ht="25.5">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="6" t="s">
@@ -14617,7 +14612,7 @@
       <c r="Z283" s="5"/>
       <c r="AA283" s="5"/>
     </row>
-    <row r="284" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:27" ht="25.5">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="6" t="s">
@@ -14654,7 +14649,7 @@
       <c r="Z284" s="5"/>
       <c r="AA284" s="5"/>
     </row>
-    <row r="285" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:27">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="6" t="s">
@@ -14689,7 +14684,7 @@
       <c r="Z285" s="5"/>
       <c r="AA285" s="5"/>
     </row>
-    <row r="286" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:27">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="6" t="s">
@@ -14724,7 +14719,7 @@
       <c r="Z286" s="5"/>
       <c r="AA286" s="5"/>
     </row>
-    <row r="287" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:27">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="6" t="s">
@@ -14759,7 +14754,7 @@
       <c r="Z287" s="5"/>
       <c r="AA287" s="5"/>
     </row>
-    <row r="288" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:27" ht="25.5">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="6" t="s">
@@ -14796,7 +14791,7 @@
       <c r="Z288" s="5"/>
       <c r="AA288" s="5"/>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:27">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="6" t="s">
@@ -14831,7 +14826,7 @@
       <c r="Z289" s="5"/>
       <c r="AA289" s="5"/>
     </row>
-    <row r="290" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:27" ht="38.25">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="6" t="s">
@@ -14868,7 +14863,7 @@
       <c r="Z290" s="5"/>
       <c r="AA290" s="5"/>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:27">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="6" t="s">
@@ -14903,7 +14898,7 @@
       <c r="Z291" s="5"/>
       <c r="AA291" s="5"/>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:27">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="6" t="s">
@@ -14938,7 +14933,7 @@
       <c r="Z292" s="5"/>
       <c r="AA292" s="5"/>
     </row>
-    <row r="293" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:27" ht="25.5">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="6" t="s">
@@ -14975,7 +14970,7 @@
       <c r="Z293" s="5"/>
       <c r="AA293" s="5"/>
     </row>
-    <row r="294" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:27" ht="38.25">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="6" t="s">
@@ -15010,7 +15005,7 @@
       <c r="Z294" s="5"/>
       <c r="AA294" s="5"/>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:27">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="6" t="s">
@@ -15047,7 +15042,7 @@
       <c r="Z295" s="5"/>
       <c r="AA295" s="5"/>
     </row>
-    <row r="296" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:27" ht="25.5">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="6" t="s">
@@ -15082,7 +15077,7 @@
       <c r="Z296" s="5"/>
       <c r="AA296" s="5"/>
     </row>
-    <row r="297" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:27" ht="25.5">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="6" t="s">
@@ -15119,7 +15114,7 @@
       <c r="Z297" s="5"/>
       <c r="AA297" s="5"/>
     </row>
-    <row r="298" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:27" ht="25.5">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="6" t="s">
@@ -15156,7 +15151,7 @@
       <c r="Z298" s="5"/>
       <c r="AA298" s="5"/>
     </row>
-    <row r="299" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:27" ht="25.5">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="6" t="s">
@@ -15193,7 +15188,7 @@
       <c r="Z299" s="5"/>
       <c r="AA299" s="5"/>
     </row>
-    <row r="300" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:27" ht="25.5">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="6" t="s">
@@ -15230,7 +15225,7 @@
       <c r="Z300" s="5"/>
       <c r="AA300" s="5"/>
     </row>
-    <row r="301" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:27" ht="25.5">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="6" t="s">
@@ -15267,7 +15262,7 @@
       <c r="Z301" s="5"/>
       <c r="AA301" s="5"/>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:27">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="6" t="s">
@@ -15302,7 +15297,7 @@
       <c r="Z302" s="5"/>
       <c r="AA302" s="5"/>
     </row>
-    <row r="303" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:27" ht="25.5">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="6" t="s">
@@ -15339,7 +15334,7 @@
       <c r="Z303" s="5"/>
       <c r="AA303" s="5"/>
     </row>
-    <row r="304" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:27" ht="25.5">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="6" t="s">
@@ -15376,7 +15371,7 @@
       <c r="Z304" s="5"/>
       <c r="AA304" s="5"/>
     </row>
-    <row r="305" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:27" ht="25.5">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="6" t="s">
@@ -15413,7 +15408,7 @@
       <c r="Z305" s="5"/>
       <c r="AA305" s="5"/>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:27">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -15442,7 +15437,7 @@
       <c r="Z306" s="5"/>
       <c r="AA306" s="5"/>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:27">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="6" t="s">
@@ -15477,7 +15472,7 @@
       <c r="Z307" s="5"/>
       <c r="AA307" s="5"/>
     </row>
-    <row r="308" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:27" ht="38.25">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="6" t="s">
@@ -15514,7 +15509,7 @@
       <c r="Z308" s="5"/>
       <c r="AA308" s="5"/>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:27">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="6" t="s">
@@ -15549,7 +15544,7 @@
       <c r="Z309" s="5"/>
       <c r="AA309" s="5"/>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:27">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="6" t="s">
@@ -15584,7 +15579,7 @@
       <c r="Z310" s="5"/>
       <c r="AA310" s="5"/>
     </row>
-    <row r="311" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:27" ht="25.5">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="6" t="s">
@@ -15621,7 +15616,7 @@
       <c r="Z311" s="5"/>
       <c r="AA311" s="5"/>
     </row>
-    <row r="312" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:27" ht="25.5">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="6" t="s">
@@ -15658,7 +15653,7 @@
       <c r="Z312" s="5"/>
       <c r="AA312" s="5"/>
     </row>
-    <row r="313" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:27" ht="38.25">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="6" t="s">
@@ -15695,7 +15690,7 @@
       <c r="Z313" s="5"/>
       <c r="AA313" s="5"/>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:27">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="6" t="s">
@@ -15730,7 +15725,7 @@
       <c r="Z314" s="5"/>
       <c r="AA314" s="5"/>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:27">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="6" t="s">
@@ -15765,7 +15760,7 @@
       <c r="Z315" s="5"/>
       <c r="AA315" s="5"/>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:27">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="6" t="s">
@@ -15800,7 +15795,7 @@
       <c r="Z316" s="5"/>
       <c r="AA316" s="5"/>
     </row>
-    <row r="317" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:27" ht="25.5">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="6" t="s">
@@ -15837,7 +15832,7 @@
       <c r="Z317" s="5"/>
       <c r="AA317" s="5"/>
     </row>
-    <row r="318" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:27" ht="25.5">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="6" t="s">
@@ -15874,7 +15869,7 @@
       <c r="Z318" s="5"/>
       <c r="AA318" s="5"/>
     </row>
-    <row r="319" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:27" ht="25.5">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="6" t="s">
@@ -15911,7 +15906,7 @@
       <c r="Z319" s="5"/>
       <c r="AA319" s="5"/>
     </row>
-    <row r="320" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:27" ht="25.5">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="6" t="s">
@@ -15948,7 +15943,7 @@
       <c r="Z320" s="5"/>
       <c r="AA320" s="5"/>
     </row>
-    <row r="321" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:27" ht="25.5">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="6" t="s">
@@ -15985,7 +15980,7 @@
       <c r="Z321" s="5"/>
       <c r="AA321" s="5"/>
     </row>
-    <row r="322" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:27" ht="25.5">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="6" t="s">
@@ -16020,7 +16015,7 @@
       <c r="Z322" s="5"/>
       <c r="AA322" s="5"/>
     </row>
-    <row r="323" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:27" ht="25.5">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="6" t="s">
@@ -16055,7 +16050,7 @@
       <c r="Z323" s="5"/>
       <c r="AA323" s="5"/>
     </row>
-    <row r="324" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:27">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="6" t="s">
@@ -16090,7 +16085,7 @@
       <c r="Z324" s="5"/>
       <c r="AA324" s="5"/>
     </row>
-    <row r="325" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:27">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="6" t="s">
@@ -16125,7 +16120,7 @@
       <c r="Z325" s="5"/>
       <c r="AA325" s="5"/>
     </row>
-    <row r="326" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:27" ht="38.25">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="6" t="s">
@@ -16162,7 +16157,7 @@
       <c r="Z326" s="5"/>
       <c r="AA326" s="5"/>
     </row>
-    <row r="327" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:27" ht="25.5">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="6" t="s">
@@ -16199,7 +16194,7 @@
       <c r="Z327" s="5"/>
       <c r="AA327" s="5"/>
     </row>
-    <row r="328" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:27" ht="25.5">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="6" t="s">
@@ -16234,7 +16229,7 @@
       <c r="Z328" s="5"/>
       <c r="AA328" s="5"/>
     </row>
-    <row r="329" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:27" ht="25.5">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="6" t="s">
@@ -16271,7 +16266,7 @@
       <c r="Z329" s="5"/>
       <c r="AA329" s="5"/>
     </row>
-    <row r="330" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:27" ht="38.25">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="6" t="s">
@@ -16308,7 +16303,7 @@
       <c r="Z330" s="5"/>
       <c r="AA330" s="5"/>
     </row>
-    <row r="331" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:27">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="6" t="s">
@@ -16343,7 +16338,7 @@
       <c r="Z331" s="5"/>
       <c r="AA331" s="5"/>
     </row>
-    <row r="332" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:27" ht="25.5">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="6" t="s">
@@ -16380,7 +16375,7 @@
       <c r="Z332" s="5"/>
       <c r="AA332" s="5"/>
     </row>
-    <row r="333" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:27">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="6" t="s">
@@ -16415,7 +16410,7 @@
       <c r="Z333" s="5"/>
       <c r="AA333" s="5"/>
     </row>
-    <row r="334" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:27" ht="38.25">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="6" t="s">
@@ -16452,7 +16447,7 @@
       <c r="Z334" s="5"/>
       <c r="AA334" s="5"/>
     </row>
-    <row r="335" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:27">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
@@ -16481,7 +16476,7 @@
       <c r="Z335" s="5"/>
       <c r="AA335" s="5"/>
     </row>
-    <row r="336" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:27" ht="25.5">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="6" t="s">
@@ -16518,7 +16513,7 @@
       <c r="Z336" s="5"/>
       <c r="AA336" s="5"/>
     </row>
-    <row r="337" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:27">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
@@ -16547,7 +16542,7 @@
       <c r="Z337" s="5"/>
       <c r="AA337" s="5"/>
     </row>
-    <row r="338" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:27" ht="25.5">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="6" t="s">
@@ -16584,7 +16579,7 @@
       <c r="Z338" s="5"/>
       <c r="AA338" s="5"/>
     </row>
-    <row r="339" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:27" ht="25.5">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="6" t="s">
@@ -16619,7 +16614,7 @@
       <c r="Z339" s="5"/>
       <c r="AA339" s="5"/>
     </row>
-    <row r="340" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:27">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="6" t="s">
@@ -16654,7 +16649,7 @@
       <c r="Z340" s="5"/>
       <c r="AA340" s="5"/>
     </row>
-    <row r="341" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:27" ht="25.5">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="6" t="s">
@@ -16691,7 +16686,7 @@
       <c r="Z341" s="5"/>
       <c r="AA341" s="5"/>
     </row>
-    <row r="342" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:27" ht="25.5">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="6" t="s">
@@ -16728,7 +16723,7 @@
       <c r="Z342" s="5"/>
       <c r="AA342" s="5"/>
     </row>
-    <row r="343" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:27">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="6" t="s">
@@ -16763,7 +16758,7 @@
       <c r="Z343" s="5"/>
       <c r="AA343" s="5"/>
     </row>
-    <row r="344" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:27">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="6" t="s">
@@ -16798,7 +16793,7 @@
       <c r="Z344" s="5"/>
       <c r="AA344" s="5"/>
     </row>
-    <row r="345" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:27">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="6" t="s">
@@ -16833,7 +16828,7 @@
       <c r="Z345" s="5"/>
       <c r="AA345" s="5"/>
     </row>
-    <row r="346" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:27" ht="25.5">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="6" t="s">
@@ -16870,7 +16865,7 @@
       <c r="Z346" s="5"/>
       <c r="AA346" s="5"/>
     </row>
-    <row r="347" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:27">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="6" t="s">
@@ -16907,7 +16902,7 @@
       <c r="Z347" s="5"/>
       <c r="AA347" s="5"/>
     </row>
-    <row r="348" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:27" ht="25.5">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="6" t="s">
@@ -16944,7 +16939,7 @@
       <c r="Z348" s="5"/>
       <c r="AA348" s="5"/>
     </row>
-    <row r="349" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:27" ht="25.5">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="6" t="s">
@@ -16981,7 +16976,7 @@
       <c r="Z349" s="5"/>
       <c r="AA349" s="5"/>
     </row>
-    <row r="350" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:27" ht="25.5">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="6" t="s">
@@ -17018,7 +17013,7 @@
       <c r="Z350" s="5"/>
       <c r="AA350" s="5"/>
     </row>
-    <row r="351" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:27" ht="25.5">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="6" t="s">
@@ -17055,7 +17050,7 @@
       <c r="Z351" s="5"/>
       <c r="AA351" s="5"/>
     </row>
-    <row r="352" spans="1:27" ht="51" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:27" ht="51">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="6" t="s">
@@ -17092,7 +17087,7 @@
       <c r="Z352" s="5"/>
       <c r="AA352" s="5"/>
     </row>
-    <row r="353" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:27" ht="25.5">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="6" t="s">
@@ -17129,7 +17124,7 @@
       <c r="Z353" s="5"/>
       <c r="AA353" s="5"/>
     </row>
-    <row r="354" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:27" ht="25.5">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="6" t="s">
@@ -17164,7 +17159,7 @@
       <c r="Z354" s="5"/>
       <c r="AA354" s="5"/>
     </row>
-    <row r="355" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:27" ht="25.5">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="6" t="s">
@@ -17199,7 +17194,7 @@
       <c r="Z355" s="5"/>
       <c r="AA355" s="5"/>
     </row>
-    <row r="356" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:27" ht="38.25">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="6" t="s">
@@ -17236,7 +17231,7 @@
       <c r="Z356" s="5"/>
       <c r="AA356" s="5"/>
     </row>
-    <row r="357" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:27" ht="25.5">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="6" t="s">
@@ -17273,7 +17268,7 @@
       <c r="Z357" s="5"/>
       <c r="AA357" s="5"/>
     </row>
-    <row r="358" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:27" ht="25.5">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="6" t="s">
@@ -17310,7 +17305,7 @@
       <c r="Z358" s="5"/>
       <c r="AA358" s="5"/>
     </row>
-    <row r="359" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:27" ht="25.5">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="6" t="s">
@@ -17347,7 +17342,7 @@
       <c r="Z359" s="5"/>
       <c r="AA359" s="5"/>
     </row>
-    <row r="360" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:27" ht="25.5">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="6" t="s">
@@ -17384,7 +17379,7 @@
       <c r="Z360" s="5"/>
       <c r="AA360" s="5"/>
     </row>
-    <row r="361" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:27">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="6" t="s">
@@ -17419,7 +17414,7 @@
       <c r="Z361" s="5"/>
       <c r="AA361" s="5"/>
     </row>
-    <row r="362" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:27">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -17448,7 +17443,7 @@
       <c r="Z362" s="5"/>
       <c r="AA362" s="5"/>
     </row>
-    <row r="363" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:27">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="6" t="s">
@@ -17483,7 +17478,7 @@
       <c r="Z363" s="5"/>
       <c r="AA363" s="5"/>
     </row>
-    <row r="364" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:27" ht="38.25">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="6" t="s">
@@ -17520,7 +17515,7 @@
       <c r="Z364" s="5"/>
       <c r="AA364" s="5"/>
     </row>
-    <row r="365" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:27" ht="25.5">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="6" t="s">
@@ -17557,7 +17552,7 @@
       <c r="Z365" s="5"/>
       <c r="AA365" s="5"/>
     </row>
-    <row r="366" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:27" ht="25.5">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="6" t="s">
@@ -17592,7 +17587,7 @@
       <c r="Z366" s="5"/>
       <c r="AA366" s="5"/>
     </row>
-    <row r="367" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:27">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="6" t="s">
@@ -17627,7 +17622,7 @@
       <c r="Z367" s="5"/>
       <c r="AA367" s="5"/>
     </row>
-    <row r="368" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:27" ht="25.5">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="6" t="s">
@@ -17662,7 +17657,7 @@
       <c r="Z368" s="5"/>
       <c r="AA368" s="5"/>
     </row>
-    <row r="369" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:27" ht="25.5">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="6" t="s">
@@ -17699,7 +17694,7 @@
       <c r="Z369" s="5"/>
       <c r="AA369" s="5"/>
     </row>
-    <row r="370" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:27" ht="25.5">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="6" t="s">
@@ -17736,7 +17731,7 @@
       <c r="Z370" s="5"/>
       <c r="AA370" s="5"/>
     </row>
-    <row r="371" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:27">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
@@ -17765,7 +17760,7 @@
       <c r="Z371" s="5"/>
       <c r="AA371" s="5"/>
     </row>
-    <row r="372" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:27" ht="25.5">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="6" t="s">
@@ -17802,7 +17797,7 @@
       <c r="Z372" s="5"/>
       <c r="AA372" s="5"/>
     </row>
-    <row r="373" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:27">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="6" t="s">
@@ -17837,7 +17832,7 @@
       <c r="Z373" s="5"/>
       <c r="AA373" s="5"/>
     </row>
-    <row r="374" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:27">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="6" t="s">
@@ -17872,7 +17867,7 @@
       <c r="Z374" s="5"/>
       <c r="AA374" s="5"/>
     </row>
-    <row r="375" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:27" ht="25.5">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="6" t="s">
@@ -17909,7 +17904,7 @@
       <c r="Z375" s="5"/>
       <c r="AA375" s="5"/>
     </row>
-    <row r="376" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:27" ht="25.5">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="6" t="s">
@@ -17944,7 +17939,7 @@
       <c r="Z376" s="5"/>
       <c r="AA376" s="5"/>
     </row>
-    <row r="377" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:27">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="6" t="s">
@@ -17979,7 +17974,7 @@
       <c r="Z377" s="5"/>
       <c r="AA377" s="5"/>
     </row>
-    <row r="378" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:27" ht="38.25">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="6" t="s">
@@ -18016,7 +18011,7 @@
       <c r="Z378" s="5"/>
       <c r="AA378" s="5"/>
     </row>
-    <row r="379" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:27" ht="25.5">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="6" t="s">
@@ -18053,7 +18048,7 @@
       <c r="Z379" s="5"/>
       <c r="AA379" s="5"/>
     </row>
-    <row r="380" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:27" ht="38.25">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="6" t="s">
@@ -18090,7 +18085,7 @@
       <c r="Z380" s="5"/>
       <c r="AA380" s="5"/>
     </row>
-    <row r="381" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:27">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="6" t="s">
@@ -18125,7 +18120,7 @@
       <c r="Z381" s="5"/>
       <c r="AA381" s="5"/>
     </row>
-    <row r="382" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:27" ht="25.5">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="6" t="s">
@@ -18160,7 +18155,7 @@
       <c r="Z382" s="5"/>
       <c r="AA382" s="5"/>
     </row>
-    <row r="383" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:27" ht="38.25">
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="6" t="s">
@@ -18197,7 +18192,7 @@
       <c r="Z383" s="5"/>
       <c r="AA383" s="5"/>
     </row>
-    <row r="384" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:27" ht="25.5">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="6" t="s">
@@ -18234,7 +18229,7 @@
       <c r="Z384" s="5"/>
       <c r="AA384" s="5"/>
     </row>
-    <row r="385" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:27">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="6" t="s">
@@ -18269,7 +18264,7 @@
       <c r="Z385" s="5"/>
       <c r="AA385" s="5"/>
     </row>
-    <row r="386" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:27">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="6" t="s">
@@ -18304,7 +18299,7 @@
       <c r="Z386" s="5"/>
       <c r="AA386" s="5"/>
     </row>
-    <row r="387" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:27" ht="38.25">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
       <c r="C387" s="6" t="s">
@@ -18341,7 +18336,7 @@
       <c r="Z387" s="5"/>
       <c r="AA387" s="5"/>
     </row>
-    <row r="388" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:27" ht="25.5">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="6" t="s">
@@ -18376,7 +18371,7 @@
       <c r="Z388" s="5"/>
       <c r="AA388" s="5"/>
     </row>
-    <row r="389" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:27" ht="25.5">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="6" t="s">
@@ -18413,7 +18408,7 @@
       <c r="Z389" s="5"/>
       <c r="AA389" s="5"/>
     </row>
-    <row r="390" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:27">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
@@ -18442,7 +18437,7 @@
       <c r="Z390" s="5"/>
       <c r="AA390" s="5"/>
     </row>
-    <row r="391" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:27" ht="38.25">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="6" t="s">
@@ -18477,7 +18472,7 @@
       <c r="Z391" s="5"/>
       <c r="AA391" s="5"/>
     </row>
-    <row r="392" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:27">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="6" t="s">
@@ -18514,7 +18509,7 @@
       <c r="Z392" s="5"/>
       <c r="AA392" s="5"/>
     </row>
-    <row r="393" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:27" ht="25.5">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="6" t="s">
@@ -18549,7 +18544,7 @@
       <c r="Z393" s="5"/>
       <c r="AA393" s="5"/>
     </row>
-    <row r="394" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:27" ht="38.25">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="6" t="s">
@@ -18586,7 +18581,7 @@
       <c r="Z394" s="5"/>
       <c r="AA394" s="5"/>
     </row>
-    <row r="395" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:27" ht="25.5">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="6" t="s">
@@ -18623,7 +18618,7 @@
       <c r="Z395" s="5"/>
       <c r="AA395" s="5"/>
     </row>
-    <row r="396" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:27">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
@@ -18652,7 +18647,7 @@
       <c r="Z396" s="5"/>
       <c r="AA396" s="5"/>
     </row>
-    <row r="397" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:27" ht="25.5">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
       <c r="C397" s="6" t="s">
@@ -18689,7 +18684,7 @@
       <c r="Z397" s="5"/>
       <c r="AA397" s="5"/>
     </row>
-    <row r="398" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:27" ht="25.5">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="6" t="s">
@@ -18724,7 +18719,7 @@
       <c r="Z398" s="5"/>
       <c r="AA398" s="5"/>
     </row>
-    <row r="399" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:27" ht="25.5">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="6" t="s">
@@ -18761,7 +18756,7 @@
       <c r="Z399" s="5"/>
       <c r="AA399" s="5"/>
     </row>
-    <row r="400" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:27" ht="25.5">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="6" t="s">
@@ -18798,7 +18793,7 @@
       <c r="Z400" s="5"/>
       <c r="AA400" s="5"/>
     </row>
-    <row r="401" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:27">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
@@ -18827,7 +18822,7 @@
       <c r="Z401" s="5"/>
       <c r="AA401" s="5"/>
     </row>
-    <row r="402" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:27" ht="38.25">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="6" t="s">
@@ -18864,7 +18859,7 @@
       <c r="Z402" s="5"/>
       <c r="AA402" s="5"/>
     </row>
-    <row r="403" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:27" ht="25.5">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="6" t="s">
@@ -18901,7 +18896,7 @@
       <c r="Z403" s="5"/>
       <c r="AA403" s="5"/>
     </row>
-    <row r="404" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:27" ht="25.5">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="6" t="s">
@@ -18936,7 +18931,7 @@
       <c r="Z404" s="5"/>
       <c r="AA404" s="5"/>
     </row>
-    <row r="405" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:27" ht="25.5">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="C405" s="6" t="s">
@@ -18971,7 +18966,7 @@
       <c r="Z405" s="5"/>
       <c r="AA405" s="5"/>
     </row>
-    <row r="406" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:27" ht="25.5">
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
       <c r="C406" s="6" t="s">
@@ -19006,7 +19001,7 @@
       <c r="Z406" s="5"/>
       <c r="AA406" s="5"/>
     </row>
-    <row r="407" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:27" ht="38.25">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="6" t="s">
@@ -19043,7 +19038,7 @@
       <c r="Z407" s="5"/>
       <c r="AA407" s="5"/>
     </row>
-    <row r="408" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:27" ht="38.25">
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
       <c r="C408" s="6" t="s">
@@ -19080,7 +19075,7 @@
       <c r="Z408" s="5"/>
       <c r="AA408" s="5"/>
     </row>
-    <row r="409" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:27" ht="25.5">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="6" t="s">
@@ -19115,7 +19110,7 @@
       <c r="Z409" s="5"/>
       <c r="AA409" s="5"/>
     </row>
-    <row r="410" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:27">
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
       <c r="C410" s="6" t="s">
@@ -19150,7 +19145,7 @@
       <c r="Z410" s="5"/>
       <c r="AA410" s="5"/>
     </row>
-    <row r="411" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:27">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="6" t="s">
@@ -19185,7 +19180,7 @@
       <c r="Z411" s="5"/>
       <c r="AA411" s="5"/>
     </row>
-    <row r="412" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:27" ht="25.5">
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
       <c r="C412" s="6" t="s">
@@ -19222,7 +19217,7 @@
       <c r="Z412" s="5"/>
       <c r="AA412" s="5"/>
     </row>
-    <row r="413" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:27">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="6" t="s">
@@ -19257,7 +19252,7 @@
       <c r="Z413" s="5"/>
       <c r="AA413" s="5"/>
     </row>
-    <row r="414" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:27" ht="25.5">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="6" t="s">
@@ -19294,7 +19289,7 @@
       <c r="Z414" s="5"/>
       <c r="AA414" s="5"/>
     </row>
-    <row r="415" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:27" ht="38.25">
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="C415" s="6" t="s">
@@ -19331,7 +19326,7 @@
       <c r="Z415" s="5"/>
       <c r="AA415" s="5"/>
     </row>
-    <row r="416" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:27" ht="25.5">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="6" t="s">
@@ -19368,7 +19363,7 @@
       <c r="Z416" s="5"/>
       <c r="AA416" s="5"/>
     </row>
-    <row r="417" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:27" ht="25.5">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="6" t="s">
@@ -19405,7 +19400,7 @@
       <c r="Z417" s="5"/>
       <c r="AA417" s="5"/>
     </row>
-    <row r="418" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:27" ht="25.5">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="6" t="s">
@@ -19442,7 +19437,7 @@
       <c r="Z418" s="5"/>
       <c r="AA418" s="5"/>
     </row>
-    <row r="419" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:27">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
@@ -19471,7 +19466,7 @@
       <c r="Z419" s="5"/>
       <c r="AA419" s="5"/>
     </row>
-    <row r="420" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:27">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
@@ -19500,7 +19495,7 @@
       <c r="Z420" s="5"/>
       <c r="AA420" s="5"/>
     </row>
-    <row r="421" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:27">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
@@ -19529,7 +19524,7 @@
       <c r="Z421" s="5"/>
       <c r="AA421" s="5"/>
     </row>
-    <row r="422" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:27" ht="25.5">
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
       <c r="C422" s="6" t="s">
@@ -19566,7 +19561,7 @@
       <c r="Z422" s="5"/>
       <c r="AA422" s="5"/>
     </row>
-    <row r="423" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:27">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="6" t="s">
@@ -19601,7 +19596,7 @@
       <c r="Z423" s="5"/>
       <c r="AA423" s="5"/>
     </row>
-    <row r="424" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:27">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="6" t="s">
@@ -19636,7 +19631,7 @@
       <c r="Z424" s="5"/>
       <c r="AA424" s="5"/>
     </row>
-    <row r="425" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:27" ht="25.5">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="6" t="s">
@@ -19671,7 +19666,7 @@
       <c r="Z425" s="5"/>
       <c r="AA425" s="5"/>
     </row>
-    <row r="426" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:27">
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
       <c r="C426" s="6" t="s">
@@ -19706,7 +19701,7 @@
       <c r="Z426" s="5"/>
       <c r="AA426" s="5"/>
     </row>
-    <row r="427" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:27">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="6" t="s">
@@ -19741,7 +19736,7 @@
       <c r="Z427" s="5"/>
       <c r="AA427" s="5"/>
     </row>
-    <row r="428" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:27" ht="25.5">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="6" t="s">
@@ -19778,7 +19773,7 @@
       <c r="Z428" s="5"/>
       <c r="AA428" s="5"/>
     </row>
-    <row r="429" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:27" ht="25.5">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="6" t="s">
@@ -19815,7 +19810,7 @@
       <c r="Z429" s="5"/>
       <c r="AA429" s="5"/>
     </row>
-    <row r="430" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:27">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="6" t="s">
@@ -19850,7 +19845,7 @@
       <c r="Z430" s="5"/>
       <c r="AA430" s="5"/>
     </row>
-    <row r="431" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:27" ht="25.5">
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="6" t="s">
@@ -19885,7 +19880,7 @@
       <c r="Z431" s="5"/>
       <c r="AA431" s="5"/>
     </row>
-    <row r="432" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:27">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="6" t="s">
@@ -19920,7 +19915,7 @@
       <c r="Z432" s="5"/>
       <c r="AA432" s="5"/>
     </row>
-    <row r="433" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:27" ht="25.5">
       <c r="A433" s="5"/>
       <c r="B433" s="5"/>
       <c r="C433" s="6" t="s">
@@ -19955,7 +19950,7 @@
       <c r="Z433" s="5"/>
       <c r="AA433" s="5"/>
     </row>
-    <row r="434" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:27">
       <c r="A434" s="5"/>
       <c r="B434" s="5"/>
       <c r="C434" s="6" t="s">
@@ -19992,7 +19987,7 @@
       <c r="Z434" s="5"/>
       <c r="AA434" s="5"/>
     </row>
-    <row r="435" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:27" ht="38.25">
       <c r="A435" s="5"/>
       <c r="B435" s="5"/>
       <c r="C435" s="6" t="s">
@@ -20029,7 +20024,7 @@
       <c r="Z435" s="5"/>
       <c r="AA435" s="5"/>
     </row>
-    <row r="436" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:27">
       <c r="A436" s="5"/>
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
@@ -20058,7 +20053,7 @@
       <c r="Z436" s="5"/>
       <c r="AA436" s="5"/>
     </row>
-    <row r="437" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:27" ht="38.25">
       <c r="A437" s="5"/>
       <c r="B437" s="5"/>
       <c r="C437" s="6" t="s">
@@ -20095,7 +20090,7 @@
       <c r="Z437" s="5"/>
       <c r="AA437" s="5"/>
     </row>
-    <row r="438" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:27" ht="25.5">
       <c r="A438" s="5"/>
       <c r="B438" s="5"/>
       <c r="C438" s="6" t="s">
@@ -20132,7 +20127,7 @@
       <c r="Z438" s="5"/>
       <c r="AA438" s="5"/>
     </row>
-    <row r="439" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:27" ht="25.5">
       <c r="A439" s="5"/>
       <c r="B439" s="5"/>
       <c r="C439" s="6" t="s">
@@ -20169,7 +20164,7 @@
       <c r="Z439" s="5"/>
       <c r="AA439" s="5"/>
     </row>
-    <row r="440" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:27" ht="38.25">
       <c r="A440" s="5"/>
       <c r="B440" s="5"/>
       <c r="C440" s="6" t="s">
@@ -20206,7 +20201,7 @@
       <c r="Z440" s="5"/>
       <c r="AA440" s="5"/>
     </row>
-    <row r="441" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:27">
       <c r="A441" s="5"/>
       <c r="B441" s="5"/>
       <c r="C441" s="6" t="s">
@@ -20241,7 +20236,7 @@
       <c r="Z441" s="5"/>
       <c r="AA441" s="5"/>
     </row>
-    <row r="442" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:27">
       <c r="A442" s="5"/>
       <c r="B442" s="5"/>
       <c r="C442" s="6" t="s">
@@ -20276,7 +20271,7 @@
       <c r="Z442" s="5"/>
       <c r="AA442" s="5"/>
     </row>
-    <row r="443" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:27" ht="38.25">
       <c r="A443" s="5"/>
       <c r="B443" s="5"/>
       <c r="C443" s="6" t="s">
@@ -20313,7 +20308,7 @@
       <c r="Z443" s="5"/>
       <c r="AA443" s="5"/>
     </row>
-    <row r="444" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:27">
       <c r="A444" s="5"/>
       <c r="B444" s="5"/>
       <c r="C444" s="6" t="s">
@@ -20348,7 +20343,7 @@
       <c r="Z444" s="5"/>
       <c r="AA444" s="5"/>
     </row>
-    <row r="445" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:27" ht="25.5">
       <c r="A445" s="5"/>
       <c r="B445" s="5"/>
       <c r="C445" s="6" t="s">
@@ -20383,7 +20378,7 @@
       <c r="Z445" s="5"/>
       <c r="AA445" s="5"/>
     </row>
-    <row r="446" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:27" ht="38.25">
       <c r="A446" s="5"/>
       <c r="B446" s="5"/>
       <c r="C446" s="6" t="s">
@@ -20420,7 +20415,7 @@
       <c r="Z446" s="5"/>
       <c r="AA446" s="5"/>
     </row>
-    <row r="447" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:27" ht="25.5">
       <c r="A447" s="5"/>
       <c r="B447" s="5"/>
       <c r="C447" s="6" t="s">
@@ -20457,7 +20452,7 @@
       <c r="Z447" s="5"/>
       <c r="AA447" s="5"/>
     </row>
-    <row r="448" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:27">
       <c r="A448" s="5"/>
       <c r="B448" s="5"/>
       <c r="C448" s="6" t="s">
@@ -20492,7 +20487,7 @@
       <c r="Z448" s="5"/>
       <c r="AA448" s="5"/>
     </row>
-    <row r="449" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:27" ht="25.5">
       <c r="A449" s="5"/>
       <c r="B449" s="5"/>
       <c r="C449" s="6" t="s">
@@ -20529,7 +20524,7 @@
       <c r="Z449" s="5"/>
       <c r="AA449" s="5"/>
     </row>
-    <row r="450" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:27">
       <c r="A450" s="5"/>
       <c r="B450" s="5"/>
       <c r="C450" s="6" t="s">
@@ -20564,7 +20559,7 @@
       <c r="Z450" s="5"/>
       <c r="AA450" s="5"/>
     </row>
-    <row r="451" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:27" ht="38.25">
       <c r="A451" s="5"/>
       <c r="B451" s="5"/>
       <c r="C451" s="6" t="s">
@@ -20601,7 +20596,7 @@
       <c r="Z451" s="5"/>
       <c r="AA451" s="5"/>
     </row>
-    <row r="452" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:27" ht="25.5">
       <c r="A452" s="5"/>
       <c r="B452" s="5"/>
       <c r="C452" s="6" t="s">
@@ -20638,7 +20633,7 @@
       <c r="Z452" s="5"/>
       <c r="AA452" s="5"/>
     </row>
-    <row r="453" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:27" ht="25.5">
       <c r="A453" s="5"/>
       <c r="B453" s="5"/>
       <c r="C453" s="6" t="s">
@@ -20675,7 +20670,7 @@
       <c r="Z453" s="5"/>
       <c r="AA453" s="5"/>
     </row>
-    <row r="454" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:27" ht="38.25">
       <c r="A454" s="5"/>
       <c r="B454" s="5"/>
       <c r="C454" s="6" t="s">
@@ -20712,7 +20707,7 @@
       <c r="Z454" s="5"/>
       <c r="AA454" s="5"/>
     </row>
-    <row r="455" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:27">
       <c r="A455" s="5"/>
       <c r="B455" s="5"/>
       <c r="C455" s="5"/>
@@ -20741,7 +20736,7 @@
       <c r="Z455" s="5"/>
       <c r="AA455" s="5"/>
     </row>
-    <row r="456" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:27" ht="25.5">
       <c r="A456" s="5"/>
       <c r="B456" s="5"/>
       <c r="C456" s="6" t="s">
@@ -20776,7 +20771,7 @@
       <c r="Z456" s="5"/>
       <c r="AA456" s="5"/>
     </row>
-    <row r="457" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:27">
       <c r="A457" s="5"/>
       <c r="B457" s="5"/>
       <c r="C457" s="6" t="s">
@@ -20813,7 +20808,7 @@
       <c r="Z457" s="5"/>
       <c r="AA457" s="5"/>
     </row>
-    <row r="458" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:27" ht="38.25">
       <c r="A458" s="5"/>
       <c r="B458" s="5"/>
       <c r="C458" s="6" t="s">
@@ -20850,7 +20845,7 @@
       <c r="Z458" s="5"/>
       <c r="AA458" s="5"/>
     </row>
-    <row r="459" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:27" ht="25.5">
       <c r="A459" s="5"/>
       <c r="B459" s="5"/>
       <c r="C459" s="6" t="s">
@@ -20885,7 +20880,7 @@
       <c r="Z459" s="5"/>
       <c r="AA459" s="5"/>
     </row>
-    <row r="460" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:27" ht="25.5">
       <c r="A460" s="5"/>
       <c r="B460" s="5"/>
       <c r="C460" s="6" t="s">
@@ -20920,7 +20915,7 @@
       <c r="Z460" s="5"/>
       <c r="AA460" s="5"/>
     </row>
-    <row r="461" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:27" ht="25.5">
       <c r="A461" s="5"/>
       <c r="B461" s="5"/>
       <c r="C461" s="6" t="s">
@@ -20957,7 +20952,7 @@
       <c r="Z461" s="5"/>
       <c r="AA461" s="5"/>
     </row>
-    <row r="462" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:27" ht="38.25">
       <c r="A462" s="5"/>
       <c r="B462" s="5"/>
       <c r="C462" s="6" t="s">
@@ -20994,7 +20989,7 @@
       <c r="Z462" s="5"/>
       <c r="AA462" s="5"/>
     </row>
-    <row r="463" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:27" ht="25.5">
       <c r="A463" s="5"/>
       <c r="B463" s="5"/>
       <c r="C463" s="6" t="s">
@@ -21029,7 +21024,7 @@
       <c r="Z463" s="5"/>
       <c r="AA463" s="5"/>
     </row>
-    <row r="464" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:27" ht="25.5">
       <c r="A464" s="5"/>
       <c r="B464" s="5"/>
       <c r="C464" s="6" t="s">
@@ -21066,7 +21061,7 @@
       <c r="Z464" s="5"/>
       <c r="AA464" s="5"/>
     </row>
-    <row r="465" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:27">
       <c r="A465" s="5"/>
       <c r="B465" s="5"/>
       <c r="C465" s="6" t="s">
@@ -21103,7 +21098,7 @@
       <c r="Z465" s="5"/>
       <c r="AA465" s="5"/>
     </row>
-    <row r="466" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:27" ht="25.5">
       <c r="A466" s="5"/>
       <c r="B466" s="5"/>
       <c r="C466" s="6" t="s">
@@ -21138,7 +21133,7 @@
       <c r="Z466" s="5"/>
       <c r="AA466" s="5"/>
     </row>
-    <row r="467" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:27" ht="38.25">
       <c r="A467" s="5"/>
       <c r="B467" s="5"/>
       <c r="C467" s="6" t="s">
@@ -21175,7 +21170,7 @@
       <c r="Z467" s="5"/>
       <c r="AA467" s="5"/>
     </row>
-    <row r="468" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:27" ht="25.5">
       <c r="A468" s="5"/>
       <c r="B468" s="5"/>
       <c r="C468" s="6" t="s">
@@ -21212,7 +21207,7 @@
       <c r="Z468" s="5"/>
       <c r="AA468" s="5"/>
     </row>
-    <row r="469" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:27" ht="25.5">
       <c r="A469" s="5"/>
       <c r="B469" s="5"/>
       <c r="C469" s="6" t="s">
@@ -21249,7 +21244,7 @@
       <c r="Z469" s="5"/>
       <c r="AA469" s="5"/>
     </row>
-    <row r="470" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:27" ht="25.5">
       <c r="A470" s="5"/>
       <c r="B470" s="5"/>
       <c r="C470" s="6" t="s">
@@ -21286,7 +21281,7 @@
       <c r="Z470" s="5"/>
       <c r="AA470" s="5"/>
     </row>
-    <row r="471" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:27">
       <c r="A471" s="5"/>
       <c r="B471" s="5"/>
       <c r="C471" s="6" t="s">
@@ -21321,7 +21316,7 @@
       <c r="Z471" s="5"/>
       <c r="AA471" s="5"/>
     </row>
-    <row r="472" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:27">
       <c r="A472" s="5"/>
       <c r="B472" s="5"/>
       <c r="C472" s="5"/>
@@ -21350,7 +21345,7 @@
       <c r="Z472" s="5"/>
       <c r="AA472" s="5"/>
     </row>
-    <row r="473" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:27" ht="25.5">
       <c r="A473" s="5"/>
       <c r="B473" s="5"/>
       <c r="C473" s="6" t="s">
@@ -21387,7 +21382,7 @@
       <c r="Z473" s="5"/>
       <c r="AA473" s="5"/>
     </row>
-    <row r="474" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:27">
       <c r="A474" s="5"/>
       <c r="B474" s="5"/>
       <c r="C474" s="6" t="s">
@@ -21422,7 +21417,7 @@
       <c r="Z474" s="5"/>
       <c r="AA474" s="5"/>
     </row>
-    <row r="475" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:27">
       <c r="A475" s="5"/>
       <c r="B475" s="5"/>
       <c r="C475" s="6" t="s">
@@ -21457,7 +21452,7 @@
       <c r="Z475" s="5"/>
       <c r="AA475" s="5"/>
     </row>
-    <row r="476" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:27" ht="25.5">
       <c r="A476" s="5"/>
       <c r="B476" s="5"/>
       <c r="C476" s="6" t="s">
@@ -21494,7 +21489,7 @@
       <c r="Z476" s="5"/>
       <c r="AA476" s="5"/>
     </row>
-    <row r="477" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:27" ht="25.5">
       <c r="A477" s="5"/>
       <c r="B477" s="5"/>
       <c r="C477" s="6" t="s">
@@ -21531,7 +21526,7 @@
       <c r="Z477" s="5"/>
       <c r="AA477" s="5"/>
     </row>
-    <row r="478" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:27">
       <c r="A478" s="5"/>
       <c r="B478" s="5"/>
       <c r="C478" s="6" t="s">
@@ -21566,7 +21561,7 @@
       <c r="Z478" s="5"/>
       <c r="AA478" s="5"/>
     </row>
-    <row r="479" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:27" ht="25.5">
       <c r="A479" s="5"/>
       <c r="B479" s="5"/>
       <c r="C479" s="6" t="s">
@@ -21601,7 +21596,7 @@
       <c r="Z479" s="5"/>
       <c r="AA479" s="5"/>
     </row>
-    <row r="480" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:27" ht="25.5">
       <c r="A480" s="5"/>
       <c r="B480" s="5"/>
       <c r="C480" s="6" t="s">
@@ -21636,7 +21631,7 @@
       <c r="Z480" s="5"/>
       <c r="AA480" s="5"/>
     </row>
-    <row r="481" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:27" ht="25.5">
       <c r="A481" s="5"/>
       <c r="B481" s="5"/>
       <c r="C481" s="6" t="s">
@@ -21673,7 +21668,7 @@
       <c r="Z481" s="5"/>
       <c r="AA481" s="5"/>
     </row>
-    <row r="482" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:27" ht="25.5">
       <c r="A482" s="5"/>
       <c r="B482" s="5"/>
       <c r="C482" s="6" t="s">
@@ -21708,7 +21703,7 @@
       <c r="Z482" s="5"/>
       <c r="AA482" s="5"/>
     </row>
-    <row r="483" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:27">
       <c r="A483" s="5"/>
       <c r="B483" s="5"/>
       <c r="C483" s="6" t="s">
@@ -21743,7 +21738,7 @@
       <c r="Z483" s="5"/>
       <c r="AA483" s="5"/>
     </row>
-    <row r="484" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:27">
       <c r="A484" s="5"/>
       <c r="B484" s="5"/>
       <c r="C484" s="6" t="s">
@@ -21778,7 +21773,7 @@
       <c r="Z484" s="5"/>
       <c r="AA484" s="5"/>
     </row>
-    <row r="485" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:27" ht="25.5">
       <c r="A485" s="5"/>
       <c r="B485" s="5"/>
       <c r="C485" s="6" t="s">
@@ -21815,7 +21810,7 @@
       <c r="Z485" s="5"/>
       <c r="AA485" s="5"/>
     </row>
-    <row r="486" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:27" ht="25.5">
       <c r="A486" s="5"/>
       <c r="B486" s="5"/>
       <c r="C486" s="6" t="s">
@@ -21852,7 +21847,7 @@
       <c r="Z486" s="5"/>
       <c r="AA486" s="5"/>
     </row>
-    <row r="487" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:27" ht="25.5">
       <c r="A487" s="5"/>
       <c r="B487" s="5"/>
       <c r="C487" s="6" t="s">
@@ -21889,7 +21884,7 @@
       <c r="Z487" s="5"/>
       <c r="AA487" s="5"/>
     </row>
-    <row r="488" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:27" ht="38.25">
       <c r="A488" s="5"/>
       <c r="B488" s="5"/>
       <c r="C488" s="6" t="s">
@@ -21926,7 +21921,7 @@
       <c r="Z488" s="5"/>
       <c r="AA488" s="5"/>
     </row>
-    <row r="489" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:27">
       <c r="A489" s="5"/>
       <c r="B489" s="5"/>
       <c r="C489" s="6" t="s">
@@ -21961,7 +21956,7 @@
       <c r="Z489" s="5"/>
       <c r="AA489" s="5"/>
     </row>
-    <row r="490" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:27">
       <c r="A490" s="5"/>
       <c r="B490" s="5"/>
       <c r="C490" s="6" t="s">
@@ -21996,7 +21991,7 @@
       <c r="Z490" s="5"/>
       <c r="AA490" s="5"/>
     </row>
-    <row r="491" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:27" ht="25.5">
       <c r="A491" s="5"/>
       <c r="B491" s="5"/>
       <c r="C491" s="6" t="s">
@@ -22033,7 +22028,7 @@
       <c r="Z491" s="5"/>
       <c r="AA491" s="5"/>
     </row>
-    <row r="492" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:27" ht="25.5">
       <c r="A492" s="5"/>
       <c r="B492" s="5"/>
       <c r="C492" s="6" t="s">
@@ -22070,7 +22065,7 @@
       <c r="Z492" s="5"/>
       <c r="AA492" s="5"/>
     </row>
-    <row r="493" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:27" ht="25.5">
       <c r="A493" s="5"/>
       <c r="B493" s="5"/>
       <c r="C493" s="6" t="s">
@@ -22107,7 +22102,7 @@
       <c r="Z493" s="5"/>
       <c r="AA493" s="5"/>
     </row>
-    <row r="494" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:27">
       <c r="A494" s="5"/>
       <c r="B494" s="5"/>
       <c r="C494" s="6" t="s">
@@ -22142,7 +22137,7 @@
       <c r="Z494" s="5"/>
       <c r="AA494" s="5"/>
     </row>
-    <row r="495" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:27">
       <c r="A495" s="5"/>
       <c r="B495" s="5"/>
       <c r="C495" s="6" t="s">
@@ -22177,7 +22172,7 @@
       <c r="Z495" s="5"/>
       <c r="AA495" s="5"/>
     </row>
-    <row r="496" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:27">
       <c r="A496" s="5"/>
       <c r="B496" s="5"/>
       <c r="C496" s="6" t="s">
@@ -22212,7 +22207,7 @@
       <c r="Z496" s="5"/>
       <c r="AA496" s="5"/>
     </row>
-    <row r="497" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:27" ht="38.25">
       <c r="A497" s="5"/>
       <c r="B497" s="5"/>
       <c r="C497" s="6" t="s">
@@ -22249,7 +22244,7 @@
       <c r="Z497" s="5"/>
       <c r="AA497" s="5"/>
     </row>
-    <row r="498" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:27" ht="25.5">
       <c r="A498" s="5"/>
       <c r="B498" s="5"/>
       <c r="C498" s="6" t="s">
@@ -22286,7 +22281,7 @@
       <c r="Z498" s="5"/>
       <c r="AA498" s="5"/>
     </row>
-    <row r="499" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:27" ht="25.5">
       <c r="A499" s="5"/>
       <c r="B499" s="5"/>
       <c r="C499" s="6" t="s">
@@ -22323,7 +22318,7 @@
       <c r="Z499" s="5"/>
       <c r="AA499" s="5"/>
     </row>
-    <row r="500" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:27">
       <c r="A500" s="5"/>
       <c r="B500" s="5"/>
       <c r="C500" s="6" t="s">
@@ -22358,7 +22353,7 @@
       <c r="Z500" s="5"/>
       <c r="AA500" s="5"/>
     </row>
-    <row r="501" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:27" ht="25.5">
       <c r="A501" s="5"/>
       <c r="B501" s="5"/>
       <c r="C501" s="6" t="s">
@@ -22393,7 +22388,7 @@
       <c r="Z501" s="5"/>
       <c r="AA501" s="5"/>
     </row>
-    <row r="502" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:27">
       <c r="A502" s="5"/>
       <c r="B502" s="5"/>
       <c r="C502" s="6" t="s">
@@ -22428,7 +22423,7 @@
       <c r="Z502" s="5"/>
       <c r="AA502" s="5"/>
     </row>
-    <row r="503" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:27" ht="25.5">
       <c r="A503" s="5"/>
       <c r="B503" s="5"/>
       <c r="C503" s="6" t="s">
@@ -22465,7 +22460,7 @@
       <c r="Z503" s="5"/>
       <c r="AA503" s="5"/>
     </row>
-    <row r="504" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:27" ht="25.5">
       <c r="A504" s="5"/>
       <c r="B504" s="5"/>
       <c r="C504" s="6" t="s">
@@ -22502,7 +22497,7 @@
       <c r="Z504" s="5"/>
       <c r="AA504" s="5"/>
     </row>
-    <row r="505" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:27" ht="25.5">
       <c r="A505" s="5"/>
       <c r="B505" s="5"/>
       <c r="C505" s="6" t="s">
@@ -22539,7 +22534,7 @@
       <c r="Z505" s="5"/>
       <c r="AA505" s="5"/>
     </row>
-    <row r="506" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:27" ht="25.5">
       <c r="A506" s="5"/>
       <c r="B506" s="5"/>
       <c r="C506" s="6" t="s">
@@ -22576,7 +22571,7 @@
       <c r="Z506" s="5"/>
       <c r="AA506" s="5"/>
     </row>
-    <row r="507" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:27" ht="25.5">
       <c r="A507" s="5"/>
       <c r="B507" s="5"/>
       <c r="C507" s="6" t="s">
@@ -22613,7 +22608,7 @@
       <c r="Z507" s="5"/>
       <c r="AA507" s="5"/>
     </row>
-    <row r="508" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:27">
       <c r="A508" s="5"/>
       <c r="B508" s="5"/>
       <c r="C508" s="6" t="s">
@@ -22648,7 +22643,7 @@
       <c r="Z508" s="5"/>
       <c r="AA508" s="5"/>
     </row>
-    <row r="509" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:27">
       <c r="A509" s="5"/>
       <c r="B509" s="5"/>
       <c r="C509" s="6" t="s">
@@ -22683,7 +22678,7 @@
       <c r="Z509" s="5"/>
       <c r="AA509" s="5"/>
     </row>
-    <row r="510" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:27" ht="25.5">
       <c r="A510" s="5"/>
       <c r="B510" s="5"/>
       <c r="C510" s="6" t="s">
@@ -22720,7 +22715,7 @@
       <c r="Z510" s="5"/>
       <c r="AA510" s="5"/>
     </row>
-    <row r="511" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:27">
       <c r="A511" s="5"/>
       <c r="B511" s="5"/>
       <c r="C511" s="6" t="s">
@@ -22755,7 +22750,7 @@
       <c r="Z511" s="5"/>
       <c r="AA511" s="5"/>
     </row>
-    <row r="512" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:27">
       <c r="A512" s="5"/>
       <c r="B512" s="5"/>
       <c r="C512" s="6" t="s">
@@ -22790,7 +22785,7 @@
       <c r="Z512" s="5"/>
       <c r="AA512" s="5"/>
     </row>
-    <row r="513" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:27" ht="25.5">
       <c r="A513" s="5"/>
       <c r="B513" s="5"/>
       <c r="C513" s="6" t="s">
@@ -22827,7 +22822,7 @@
       <c r="Z513" s="5"/>
       <c r="AA513" s="5"/>
     </row>
-    <row r="514" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:27" ht="25.5">
       <c r="A514" s="5"/>
       <c r="B514" s="5"/>
       <c r="C514" s="6" t="s">
@@ -22862,7 +22857,7 @@
       <c r="Z514" s="5"/>
       <c r="AA514" s="5"/>
     </row>
-    <row r="515" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:27" ht="25.5">
       <c r="A515" s="5"/>
       <c r="B515" s="5"/>
       <c r="C515" s="6" t="s">
@@ -22897,7 +22892,7 @@
       <c r="Z515" s="5"/>
       <c r="AA515" s="5"/>
     </row>
-    <row r="516" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:27" ht="25.5">
       <c r="A516" s="5"/>
       <c r="B516" s="5"/>
       <c r="C516" s="6" t="s">
@@ -22934,7 +22929,7 @@
       <c r="Z516" s="5"/>
       <c r="AA516" s="5"/>
     </row>
-    <row r="517" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:27">
       <c r="A517" s="5"/>
       <c r="B517" s="5"/>
       <c r="C517" s="6" t="s">
@@ -22969,7 +22964,7 @@
       <c r="Z517" s="5"/>
       <c r="AA517" s="5"/>
     </row>
-    <row r="518" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:27" ht="25.5">
       <c r="A518" s="5"/>
       <c r="B518" s="5"/>
       <c r="C518" s="6" t="s">
@@ -23004,7 +22999,7 @@
       <c r="Z518" s="5"/>
       <c r="AA518" s="5"/>
     </row>
-    <row r="519" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:27" ht="25.5">
       <c r="A519" s="5"/>
       <c r="B519" s="5"/>
       <c r="C519" s="6" t="s">
@@ -23041,7 +23036,7 @@
       <c r="Z519" s="5"/>
       <c r="AA519" s="5"/>
     </row>
-    <row r="520" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:27">
       <c r="A520" s="5"/>
       <c r="B520" s="5"/>
       <c r="C520" s="6" t="s">
@@ -23076,7 +23071,7 @@
       <c r="Z520" s="5"/>
       <c r="AA520" s="5"/>
     </row>
-    <row r="521" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:27" ht="25.5">
       <c r="A521" s="5"/>
       <c r="B521" s="5"/>
       <c r="C521" s="6" t="s">
@@ -23113,7 +23108,7 @@
       <c r="Z521" s="5"/>
       <c r="AA521" s="5"/>
     </row>
-    <row r="522" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:27" ht="25.5">
       <c r="A522" s="5"/>
       <c r="B522" s="5"/>
       <c r="C522" s="6" t="s">
@@ -23150,7 +23145,7 @@
       <c r="Z522" s="5"/>
       <c r="AA522" s="5"/>
     </row>
-    <row r="523" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:27" ht="25.5">
       <c r="A523" s="5"/>
       <c r="B523" s="5"/>
       <c r="C523" s="6" t="s">
@@ -23187,7 +23182,7 @@
       <c r="Z523" s="5"/>
       <c r="AA523" s="5"/>
     </row>
-    <row r="524" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:27" ht="25.5">
       <c r="A524" s="5"/>
       <c r="B524" s="5"/>
       <c r="C524" s="6" t="s">
@@ -23224,7 +23219,7 @@
       <c r="Z524" s="5"/>
       <c r="AA524" s="5"/>
     </row>
-    <row r="525" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:27">
       <c r="A525" s="5"/>
       <c r="B525" s="5"/>
       <c r="C525" s="6" t="s">
@@ -23259,7 +23254,7 @@
       <c r="Z525" s="5"/>
       <c r="AA525" s="5"/>
     </row>
-    <row r="526" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:27" ht="25.5">
       <c r="A526" s="5"/>
       <c r="B526" s="5"/>
       <c r="C526" s="6" t="s">
@@ -23294,7 +23289,7 @@
       <c r="Z526" s="5"/>
       <c r="AA526" s="5"/>
     </row>
-    <row r="527" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:27" ht="38.25">
       <c r="A527" s="5"/>
       <c r="B527" s="5"/>
       <c r="C527" s="6" t="s">
@@ -23331,7 +23326,7 @@
       <c r="Z527" s="5"/>
       <c r="AA527" s="5"/>
     </row>
-    <row r="528" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:27">
       <c r="A528" s="5"/>
       <c r="B528" s="5"/>
       <c r="C528" s="6" t="s">
@@ -23366,7 +23361,7 @@
       <c r="Z528" s="5"/>
       <c r="AA528" s="5"/>
     </row>
-    <row r="529" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:27" ht="25.5">
       <c r="A529" s="5"/>
       <c r="B529" s="5"/>
       <c r="C529" s="6" t="s">
@@ -23403,7 +23398,7 @@
       <c r="Z529" s="5"/>
       <c r="AA529" s="5"/>
     </row>
-    <row r="530" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:27" ht="38.25">
       <c r="A530" s="5"/>
       <c r="B530" s="5"/>
       <c r="C530" s="6" t="s">
@@ -23440,7 +23435,7 @@
       <c r="Z530" s="5"/>
       <c r="AA530" s="5"/>
     </row>
-    <row r="531" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:27">
       <c r="A531" s="5"/>
       <c r="B531" s="5"/>
       <c r="C531" s="5"/>
@@ -23469,7 +23464,7 @@
       <c r="Z531" s="5"/>
       <c r="AA531" s="5"/>
     </row>
-    <row r="532" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:27" ht="25.5">
       <c r="A532" s="5"/>
       <c r="B532" s="5"/>
       <c r="C532" s="6" t="s">
@@ -23506,7 +23501,7 @@
       <c r="Z532" s="5"/>
       <c r="AA532" s="5"/>
     </row>
-    <row r="533" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:27">
       <c r="A533" s="5"/>
       <c r="B533" s="5"/>
       <c r="C533" s="5"/>
@@ -23535,7 +23530,7 @@
       <c r="Z533" s="5"/>
       <c r="AA533" s="5"/>
     </row>
-    <row r="534" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:27" ht="25.5">
       <c r="A534" s="5"/>
       <c r="B534" s="5"/>
       <c r="C534" s="6" t="s">
@@ -23570,7 +23565,7 @@
       <c r="Z534" s="5"/>
       <c r="AA534" s="5"/>
     </row>
-    <row r="535" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:27" ht="25.5">
       <c r="A535" s="5"/>
       <c r="B535" s="5"/>
       <c r="C535" s="6" t="s">
@@ -23607,7 +23602,7 @@
       <c r="Z535" s="5"/>
       <c r="AA535" s="5"/>
     </row>
-    <row r="536" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:27" ht="25.5">
       <c r="A536" s="5"/>
       <c r="B536" s="5"/>
       <c r="C536" s="6" t="s">
@@ -23644,7 +23639,7 @@
       <c r="Z536" s="5"/>
       <c r="AA536" s="5"/>
     </row>
-    <row r="537" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:27" ht="25.5">
       <c r="A537" s="5"/>
       <c r="B537" s="5"/>
       <c r="C537" s="6" t="s">
@@ -23681,7 +23676,7 @@
       <c r="Z537" s="5"/>
       <c r="AA537" s="5"/>
     </row>
-    <row r="538" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:27" ht="25.5">
       <c r="A538" s="5"/>
       <c r="B538" s="5"/>
       <c r="C538" s="6" t="s">
@@ -23718,7 +23713,7 @@
       <c r="Z538" s="5"/>
       <c r="AA538" s="5"/>
     </row>
-    <row r="539" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:27">
       <c r="A539" s="5"/>
       <c r="B539" s="5"/>
       <c r="C539" s="6" t="s">
@@ -23755,7 +23750,7 @@
       <c r="Z539" s="5"/>
       <c r="AA539" s="5"/>
     </row>
-    <row r="540" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:27" ht="25.5">
       <c r="A540" s="5"/>
       <c r="B540" s="5"/>
       <c r="C540" s="6" t="s">
@@ -23792,7 +23787,7 @@
       <c r="Z540" s="5"/>
       <c r="AA540" s="5"/>
     </row>
-    <row r="541" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:27" ht="25.5">
       <c r="A541" s="5"/>
       <c r="B541" s="5"/>
       <c r="C541" s="6" t="s">
@@ -23829,7 +23824,7 @@
       <c r="Z541" s="5"/>
       <c r="AA541" s="5"/>
     </row>
-    <row r="542" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:27">
       <c r="A542" s="5"/>
       <c r="B542" s="5"/>
       <c r="C542" s="5"/>
@@ -23858,7 +23853,7 @@
       <c r="Z542" s="5"/>
       <c r="AA542" s="5"/>
     </row>
-    <row r="543" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:27" ht="25.5">
       <c r="A543" s="5"/>
       <c r="B543" s="5"/>
       <c r="C543" s="6" t="s">
@@ -23895,7 +23890,7 @@
       <c r="Z543" s="5"/>
       <c r="AA543" s="5"/>
     </row>
-    <row r="544" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:27" ht="25.5">
       <c r="A544" s="5"/>
       <c r="B544" s="5"/>
       <c r="C544" s="6" t="s">
@@ -23932,7 +23927,7 @@
       <c r="Z544" s="5"/>
       <c r="AA544" s="5"/>
     </row>
-    <row r="545" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:27">
       <c r="A545" s="5"/>
       <c r="B545" s="5"/>
       <c r="C545" s="5"/>
@@ -23961,7 +23956,7 @@
       <c r="Z545" s="5"/>
       <c r="AA545" s="5"/>
     </row>
-    <row r="546" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:27" ht="25.5">
       <c r="A546" s="5"/>
       <c r="B546" s="5"/>
       <c r="C546" s="6" t="s">
@@ -23998,7 +23993,7 @@
       <c r="Z546" s="5"/>
       <c r="AA546" s="5"/>
     </row>
-    <row r="547" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:27" ht="25.5">
       <c r="A547" s="5"/>
       <c r="B547" s="5"/>
       <c r="C547" s="6" t="s">
@@ -24035,7 +24030,7 @@
       <c r="Z547" s="5"/>
       <c r="AA547" s="5"/>
     </row>
-    <row r="548" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:27" ht="25.5">
       <c r="A548" s="5"/>
       <c r="B548" s="5"/>
       <c r="C548" s="6" t="s">
@@ -24072,7 +24067,7 @@
       <c r="Z548" s="5"/>
       <c r="AA548" s="5"/>
     </row>
-    <row r="549" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:27" ht="25.5">
       <c r="A549" s="5"/>
       <c r="B549" s="5"/>
       <c r="C549" s="6" t="s">
@@ -24109,7 +24104,7 @@
       <c r="Z549" s="5"/>
       <c r="AA549" s="5"/>
     </row>
-    <row r="550" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:27" ht="38.25">
       <c r="A550" s="5"/>
       <c r="B550" s="5"/>
       <c r="C550" s="6" t="s">
@@ -24146,7 +24141,7 @@
       <c r="Z550" s="5"/>
       <c r="AA550" s="5"/>
     </row>
-    <row r="551" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:27" ht="25.5">
       <c r="A551" s="5"/>
       <c r="B551" s="5"/>
       <c r="C551" s="6" t="s">
@@ -24183,7 +24178,7 @@
       <c r="Z551" s="5"/>
       <c r="AA551" s="5"/>
     </row>
-    <row r="552" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:27">
       <c r="A552" s="5"/>
       <c r="B552" s="5"/>
       <c r="C552" s="5"/>
@@ -24212,7 +24207,7 @@
       <c r="Z552" s="5"/>
       <c r="AA552" s="5"/>
     </row>
-    <row r="553" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:27" ht="25.5">
       <c r="A553" s="5"/>
       <c r="B553" s="5"/>
       <c r="C553" s="6" t="s">
@@ -24249,7 +24244,7 @@
       <c r="Z553" s="5"/>
       <c r="AA553" s="5"/>
     </row>
-    <row r="554" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:27" ht="25.5">
       <c r="A554" s="5"/>
       <c r="B554" s="5"/>
       <c r="C554" s="6" t="s">
@@ -24286,7 +24281,7 @@
       <c r="Z554" s="5"/>
       <c r="AA554" s="5"/>
     </row>
-    <row r="555" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:27" ht="38.25">
       <c r="A555" s="5"/>
       <c r="B555" s="5"/>
       <c r="C555" s="6" t="s">
@@ -24321,7 +24316,7 @@
       <c r="Z555" s="5"/>
       <c r="AA555" s="5"/>
     </row>
-    <row r="556" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:27" ht="38.25">
       <c r="A556" s="5"/>
       <c r="B556" s="5"/>
       <c r="C556" s="6" t="s">
@@ -24358,7 +24353,7 @@
       <c r="Z556" s="5"/>
       <c r="AA556" s="5"/>
     </row>
-    <row r="557" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:27">
       <c r="A557" s="5"/>
       <c r="B557" s="5"/>
       <c r="C557" s="6" t="s">
@@ -24393,7 +24388,7 @@
       <c r="Z557" s="5"/>
       <c r="AA557" s="5"/>
     </row>
-    <row r="558" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:27" ht="25.5">
       <c r="A558" s="5"/>
       <c r="B558" s="5"/>
       <c r="C558" s="6" t="s">
@@ -24430,7 +24425,7 @@
       <c r="Z558" s="5"/>
       <c r="AA558" s="5"/>
     </row>
-    <row r="559" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:27" ht="25.5">
       <c r="A559" s="5"/>
       <c r="B559" s="5"/>
       <c r="C559" s="6" t="s">
@@ -24467,7 +24462,7 @@
       <c r="Z559" s="5"/>
       <c r="AA559" s="5"/>
     </row>
-    <row r="560" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:27" ht="25.5">
       <c r="A560" s="5"/>
       <c r="B560" s="5"/>
       <c r="C560" s="6" t="s">
@@ -24504,7 +24499,7 @@
       <c r="Z560" s="5"/>
       <c r="AA560" s="5"/>
     </row>
-    <row r="561" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:27">
       <c r="A561" s="5"/>
       <c r="B561" s="5"/>
       <c r="C561" s="6" t="s">
@@ -24539,7 +24534,7 @@
       <c r="Z561" s="5"/>
       <c r="AA561" s="5"/>
     </row>
-    <row r="562" spans="1:27" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:27" ht="26.25">
       <c r="A562" s="5"/>
       <c r="B562" s="5"/>
       <c r="C562" s="6" t="s">
@@ -24576,7 +24571,7 @@
       <c r="Z562" s="5"/>
       <c r="AA562" s="5"/>
     </row>
-    <row r="563" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:27" ht="25.5">
       <c r="A563" s="5"/>
       <c r="B563" s="5"/>
       <c r="C563" s="6" t="s">
@@ -24613,7 +24608,7 @@
       <c r="Z563" s="5"/>
       <c r="AA563" s="5"/>
     </row>
-    <row r="564" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:27" ht="25.5">
       <c r="A564" s="5"/>
       <c r="B564" s="5"/>
       <c r="C564" s="6" t="s">
@@ -24650,7 +24645,7 @@
       <c r="Z564" s="5"/>
       <c r="AA564" s="5"/>
     </row>
-    <row r="565" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:27" ht="25.5">
       <c r="A565" s="5"/>
       <c r="B565" s="5"/>
       <c r="C565" s="6" t="s">
@@ -24687,7 +24682,7 @@
       <c r="Z565" s="5"/>
       <c r="AA565" s="5"/>
     </row>
-    <row r="566" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:27" ht="25.5">
       <c r="A566" s="5"/>
       <c r="B566" s="5"/>
       <c r="C566" s="6" t="s">
@@ -24722,7 +24717,7 @@
       <c r="Z566" s="5"/>
       <c r="AA566" s="5"/>
     </row>
-    <row r="567" spans="1:27" ht="51" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:27" ht="51">
       <c r="A567" s="5"/>
       <c r="B567" s="5"/>
       <c r="C567" s="6" t="s">
@@ -24759,7 +24754,7 @@
       <c r="Z567" s="5"/>
       <c r="AA567" s="5"/>
     </row>
-    <row r="568" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:27">
       <c r="A568" s="5"/>
       <c r="B568" s="5"/>
       <c r="C568" s="6" t="s">
@@ -24796,7 +24791,7 @@
       <c r="Z568" s="5"/>
       <c r="AA568" s="5"/>
     </row>
-    <row r="569" spans="1:27" ht="51" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:27" ht="51">
       <c r="A569" s="5"/>
       <c r="B569" s="5"/>
       <c r="C569" s="6" t="s">
@@ -24833,7 +24828,7 @@
       <c r="Z569" s="5"/>
       <c r="AA569" s="5"/>
     </row>
-    <row r="570" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:27">
       <c r="A570" s="5"/>
       <c r="B570" s="5"/>
       <c r="C570" s="6" t="s">
@@ -24870,7 +24865,7 @@
       <c r="Z570" s="5"/>
       <c r="AA570" s="5"/>
     </row>
-    <row r="571" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:27" ht="25.5">
       <c r="A571" s="5"/>
       <c r="B571" s="5"/>
       <c r="C571" s="6" t="s">
@@ -24907,7 +24902,7 @@
       <c r="Z571" s="5"/>
       <c r="AA571" s="5"/>
     </row>
-    <row r="572" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:27">
       <c r="A572" s="5"/>
       <c r="B572" s="5"/>
       <c r="C572" s="6" t="s">
@@ -24942,7 +24937,7 @@
       <c r="Z572" s="5"/>
       <c r="AA572" s="5"/>
     </row>
-    <row r="573" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:27" ht="25.5">
       <c r="A573" s="5"/>
       <c r="B573" s="5"/>
       <c r="C573" s="6" t="s">
@@ -24979,7 +24974,7 @@
       <c r="Z573" s="5"/>
       <c r="AA573" s="5"/>
     </row>
-    <row r="574" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:27" ht="25.5">
       <c r="A574" s="5"/>
       <c r="B574" s="5"/>
       <c r="C574" s="6" t="s">
@@ -25016,7 +25011,7 @@
       <c r="Z574" s="5"/>
       <c r="AA574" s="5"/>
     </row>
-    <row r="575" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:27">
       <c r="A575" s="5"/>
       <c r="B575" s="5"/>
       <c r="C575" s="6" t="s">
@@ -25051,7 +25046,7 @@
       <c r="Z575" s="5"/>
       <c r="AA575" s="5"/>
     </row>
-    <row r="576" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:27">
       <c r="A576" s="5"/>
       <c r="B576" s="5"/>
       <c r="C576" s="6" t="s">
@@ -25086,7 +25081,7 @@
       <c r="Z576" s="5"/>
       <c r="AA576" s="5"/>
     </row>
-    <row r="577" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:27" ht="25.5">
       <c r="A577" s="5"/>
       <c r="B577" s="5"/>
       <c r="C577" s="6" t="s">
@@ -25121,7 +25116,7 @@
       <c r="Z577" s="5"/>
       <c r="AA577" s="5"/>
     </row>
-    <row r="578" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:27" ht="25.5">
       <c r="A578" s="5"/>
       <c r="B578" s="5"/>
       <c r="C578" s="6" t="s">
@@ -25158,7 +25153,7 @@
       <c r="Z578" s="5"/>
       <c r="AA578" s="5"/>
     </row>
-    <row r="579" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:27">
       <c r="A579" s="5"/>
       <c r="B579" s="5"/>
       <c r="C579" s="5"/>
@@ -25187,7 +25182,7 @@
       <c r="Z579" s="5"/>
       <c r="AA579" s="5"/>
     </row>
-    <row r="580" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:27" ht="25.5">
       <c r="A580" s="5"/>
       <c r="B580" s="5"/>
       <c r="C580" s="6" t="s">
@@ -25224,7 +25219,7 @@
       <c r="Z580" s="5"/>
       <c r="AA580" s="5"/>
     </row>
-    <row r="581" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:27">
       <c r="A581" s="5"/>
       <c r="B581" s="5"/>
       <c r="C581" s="6" t="s">
@@ -25259,7 +25254,7 @@
       <c r="Z581" s="5"/>
       <c r="AA581" s="5"/>
     </row>
-    <row r="582" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:27" ht="25.5">
       <c r="A582" s="5"/>
       <c r="B582" s="5"/>
       <c r="C582" s="6" t="s">
@@ -25296,7 +25291,7 @@
       <c r="Z582" s="5"/>
       <c r="AA582" s="5"/>
     </row>
-    <row r="583" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:27" ht="25.5">
       <c r="A583" s="5"/>
       <c r="B583" s="5"/>
       <c r="C583" s="6" t="s">
@@ -25333,7 +25328,7 @@
       <c r="Z583" s="5"/>
       <c r="AA583" s="5"/>
     </row>
-    <row r="584" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:27" ht="25.5">
       <c r="A584" s="5"/>
       <c r="B584" s="5"/>
       <c r="C584" s="6" t="s">
@@ -25370,7 +25365,7 @@
       <c r="Z584" s="5"/>
       <c r="AA584" s="5"/>
     </row>
-    <row r="585" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:27">
       <c r="A585" s="5"/>
       <c r="B585" s="5"/>
       <c r="C585" s="6" t="s">
@@ -25405,7 +25400,7 @@
       <c r="Z585" s="5"/>
       <c r="AA585" s="5"/>
     </row>
-    <row r="586" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:27" ht="25.5">
       <c r="A586" s="5"/>
       <c r="B586" s="5"/>
       <c r="C586" s="6" t="s">
@@ -25442,7 +25437,7 @@
       <c r="Z586" s="5"/>
       <c r="AA586" s="5"/>
     </row>
-    <row r="587" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:27">
       <c r="A587" s="5"/>
       <c r="B587" s="5"/>
       <c r="C587" s="6" t="s">
@@ -25477,7 +25472,7 @@
       <c r="Z587" s="5"/>
       <c r="AA587" s="5"/>
     </row>
-    <row r="588" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:27" ht="25.5">
       <c r="A588" s="5"/>
       <c r="B588" s="5"/>
       <c r="C588" s="6" t="s">
@@ -25512,7 +25507,7 @@
       <c r="Z588" s="5"/>
       <c r="AA588" s="5"/>
     </row>
-    <row r="589" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:27" ht="25.5">
       <c r="A589" s="5"/>
       <c r="B589" s="5"/>
       <c r="C589" s="6" t="s">
@@ -25549,7 +25544,7 @@
       <c r="Z589" s="5"/>
       <c r="AA589" s="5"/>
     </row>
-    <row r="590" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:27">
       <c r="A590" s="5"/>
       <c r="B590" s="5"/>
       <c r="C590" s="5"/>
@@ -25578,7 +25573,7 @@
       <c r="Z590" s="5"/>
       <c r="AA590" s="5"/>
     </row>
-    <row r="591" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:27">
       <c r="A591" s="5"/>
       <c r="B591" s="5"/>
       <c r="C591" s="5"/>
@@ -25607,7 +25602,7 @@
       <c r="Z591" s="5"/>
       <c r="AA591" s="5"/>
     </row>
-    <row r="592" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:27">
       <c r="A592" s="5"/>
       <c r="B592" s="5"/>
       <c r="C592" s="5"/>
@@ -25636,7 +25631,7 @@
       <c r="Z592" s="5"/>
       <c r="AA592" s="5"/>
     </row>
-    <row r="593" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:27">
       <c r="A593" s="5"/>
       <c r="B593" s="5"/>
       <c r="C593" s="6" t="s">
@@ -25671,7 +25666,7 @@
       <c r="Z593" s="5"/>
       <c r="AA593" s="5"/>
     </row>
-    <row r="594" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:27" ht="25.5">
       <c r="A594" s="5"/>
       <c r="B594" s="5"/>
       <c r="C594" s="6" t="s">
@@ -25706,7 +25701,7 @@
       <c r="Z594" s="5"/>
       <c r="AA594" s="5"/>
     </row>
-    <row r="595" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:27" ht="25.5">
       <c r="A595" s="5"/>
       <c r="B595" s="5"/>
       <c r="C595" s="6" t="s">
@@ -25743,7 +25738,7 @@
       <c r="Z595" s="5"/>
       <c r="AA595" s="5"/>
     </row>
-    <row r="596" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:27" ht="25.5">
       <c r="A596" s="5"/>
       <c r="B596" s="5"/>
       <c r="C596" s="6" t="s">
@@ -25780,7 +25775,7 @@
       <c r="Z596" s="5"/>
       <c r="AA596" s="5"/>
     </row>
-    <row r="597" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:27" ht="25.5">
       <c r="A597" s="5"/>
       <c r="B597" s="5"/>
       <c r="C597" s="6" t="s">
@@ -25817,7 +25812,7 @@
       <c r="Z597" s="5"/>
       <c r="AA597" s="5"/>
     </row>
-    <row r="598" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:27" ht="25.5">
       <c r="A598" s="5"/>
       <c r="B598" s="5"/>
       <c r="C598" s="6" t="s">
@@ -25854,7 +25849,7 @@
       <c r="Z598" s="5"/>
       <c r="AA598" s="5"/>
     </row>
-    <row r="599" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:27">
       <c r="A599" s="5"/>
       <c r="B599" s="5"/>
       <c r="C599" s="6" t="s">
@@ -25889,7 +25884,7 @@
       <c r="Z599" s="5"/>
       <c r="AA599" s="5"/>
     </row>
-    <row r="600" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:27">
       <c r="A600" s="5"/>
       <c r="B600" s="5"/>
       <c r="C600" s="6" t="s">
@@ -25924,7 +25919,7 @@
       <c r="Z600" s="5"/>
       <c r="AA600" s="5"/>
     </row>
-    <row r="601" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:27">
       <c r="A601" s="5"/>
       <c r="B601" s="5"/>
       <c r="C601" s="5"/>
@@ -25953,7 +25948,7 @@
       <c r="Z601" s="5"/>
       <c r="AA601" s="5"/>
     </row>
-    <row r="602" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:27" ht="25.5">
       <c r="A602" s="5"/>
       <c r="B602" s="5"/>
       <c r="C602" s="6" t="s">
@@ -25990,7 +25985,7 @@
       <c r="Z602" s="5"/>
       <c r="AA602" s="5"/>
     </row>
-    <row r="603" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:27" ht="38.25">
       <c r="A603" s="5"/>
       <c r="B603" s="5"/>
       <c r="C603" s="6" t="s">
@@ -26027,7 +26022,7 @@
       <c r="Z603" s="5"/>
       <c r="AA603" s="5"/>
     </row>
-    <row r="604" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:27" ht="25.5">
       <c r="A604" s="5"/>
       <c r="B604" s="5"/>
       <c r="C604" s="6" t="s">
@@ -26064,7 +26059,7 @@
       <c r="Z604" s="5"/>
       <c r="AA604" s="5"/>
     </row>
-    <row r="605" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:27" ht="25.5">
       <c r="A605" s="5"/>
       <c r="B605" s="5"/>
       <c r="C605" s="6" t="s">
@@ -26101,7 +26096,7 @@
       <c r="Z605" s="5"/>
       <c r="AA605" s="5"/>
     </row>
-    <row r="606" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:27" ht="25.5">
       <c r="A606" s="5"/>
       <c r="B606" s="5"/>
       <c r="C606" s="6" t="s">
@@ -26138,7 +26133,7 @@
       <c r="Z606" s="5"/>
       <c r="AA606" s="5"/>
     </row>
-    <row r="607" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:27" ht="25.5">
       <c r="A607" s="5"/>
       <c r="B607" s="5"/>
       <c r="C607" s="6" t="s">
@@ -26175,7 +26170,7 @@
       <c r="Z607" s="5"/>
       <c r="AA607" s="5"/>
     </row>
-    <row r="608" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:27" ht="25.5">
       <c r="A608" s="5"/>
       <c r="B608" s="5"/>
       <c r="C608" s="6" t="s">
@@ -26212,7 +26207,7 @@
       <c r="Z608" s="5"/>
       <c r="AA608" s="5"/>
     </row>
-    <row r="609" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:27">
       <c r="A609" s="5"/>
       <c r="B609" s="5"/>
       <c r="C609" s="6" t="s">
@@ -26249,7 +26244,7 @@
       <c r="Z609" s="5"/>
       <c r="AA609" s="5"/>
     </row>
-    <row r="610" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:27" ht="38.25">
       <c r="A610" s="5"/>
       <c r="B610" s="5"/>
       <c r="C610" s="6" t="s">
@@ -26286,7 +26281,7 @@
       <c r="Z610" s="5"/>
       <c r="AA610" s="5"/>
     </row>
-    <row r="611" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:27">
       <c r="A611" s="5"/>
       <c r="B611" s="5"/>
       <c r="C611" s="5"/>
@@ -26315,7 +26310,7 @@
       <c r="Z611" s="5"/>
       <c r="AA611" s="5"/>
     </row>
-    <row r="612" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:27" ht="25.5">
       <c r="A612" s="5"/>
       <c r="B612" s="5"/>
       <c r="C612" s="6" t="s">
@@ -26350,7 +26345,7 @@
       <c r="Z612" s="5"/>
       <c r="AA612" s="5"/>
     </row>
-    <row r="613" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:27" ht="25.5">
       <c r="A613" s="5"/>
       <c r="B613" s="5"/>
       <c r="C613" s="6" t="s">
@@ -26387,7 +26382,7 @@
       <c r="Z613" s="5"/>
       <c r="AA613" s="5"/>
     </row>
-    <row r="614" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:27">
       <c r="A614" s="5"/>
       <c r="B614" s="5"/>
       <c r="C614" s="5"/>
@@ -26416,7 +26411,7 @@
       <c r="Z614" s="5"/>
       <c r="AA614" s="5"/>
     </row>
-    <row r="615" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:27" ht="38.25">
       <c r="A615" s="5"/>
       <c r="B615" s="5"/>
       <c r="C615" s="6" t="s">
@@ -26453,7 +26448,7 @@
       <c r="Z615" s="5"/>
       <c r="AA615" s="5"/>
     </row>
-    <row r="616" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:27">
       <c r="A616" s="5"/>
       <c r="B616" s="5"/>
       <c r="C616" s="5"/>
@@ -26482,7 +26477,7 @@
       <c r="Z616" s="5"/>
       <c r="AA616" s="5"/>
     </row>
-    <row r="617" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:27" ht="25.5">
       <c r="A617" s="5"/>
       <c r="B617" s="5"/>
       <c r="C617" s="6" t="s">
@@ -26517,7 +26512,7 @@
       <c r="Z617" s="5"/>
       <c r="AA617" s="5"/>
     </row>
-    <row r="618" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:27">
       <c r="A618" s="5"/>
       <c r="B618" s="5"/>
       <c r="C618" s="6" t="s">
@@ -26554,7 +26549,7 @@
       <c r="Z618" s="5"/>
       <c r="AA618" s="5"/>
     </row>
-    <row r="619" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:27" ht="25.5">
       <c r="A619" s="5"/>
       <c r="B619" s="5"/>
       <c r="C619" s="6" t="s">
@@ -26591,7 +26586,7 @@
       <c r="Z619" s="5"/>
       <c r="AA619" s="5"/>
     </row>
-    <row r="620" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:27" ht="25.5">
       <c r="A620" s="5"/>
       <c r="B620" s="5"/>
       <c r="C620" s="6" t="s">
@@ -26626,7 +26621,7 @@
       <c r="Z620" s="5"/>
       <c r="AA620" s="5"/>
     </row>
-    <row r="621" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:27" ht="25.5">
       <c r="A621" s="5"/>
       <c r="B621" s="5"/>
       <c r="C621" s="6" t="s">
@@ -26663,7 +26658,7 @@
       <c r="Z621" s="5"/>
       <c r="AA621" s="5"/>
     </row>
-    <row r="622" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:27" ht="38.25">
       <c r="A622" s="5"/>
       <c r="B622" s="5"/>
       <c r="C622" s="6" t="s">
@@ -26700,7 +26695,7 @@
       <c r="Z622" s="5"/>
       <c r="AA622" s="5"/>
     </row>
-    <row r="623" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:27" ht="25.5">
       <c r="A623" s="5"/>
       <c r="B623" s="5"/>
       <c r="C623" s="6" t="s">
@@ -26737,7 +26732,7 @@
       <c r="Z623" s="5"/>
       <c r="AA623" s="5"/>
     </row>
-    <row r="624" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:27">
       <c r="A624" s="5"/>
       <c r="B624" s="5"/>
       <c r="C624" s="6" t="s">
@@ -26774,7 +26769,7 @@
       <c r="Z624" s="5"/>
       <c r="AA624" s="5"/>
     </row>
-    <row r="625" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:27" ht="38.25">
       <c r="A625" s="5"/>
       <c r="B625" s="5"/>
       <c r="C625" s="6" t="s">
@@ -26811,7 +26806,7 @@
       <c r="Z625" s="5"/>
       <c r="AA625" s="5"/>
     </row>
-    <row r="626" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:27" ht="25.5">
       <c r="A626" s="5"/>
       <c r="B626" s="5"/>
       <c r="C626" s="5"/>
@@ -26842,7 +26837,7 @@
       <c r="Z626" s="5"/>
       <c r="AA626" s="5"/>
     </row>
-    <row r="627" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:27" ht="25.5">
       <c r="A627" s="5"/>
       <c r="B627" s="5"/>
       <c r="C627" s="6" t="s">
@@ -26879,7 +26874,7 @@
       <c r="Z627" s="5"/>
       <c r="AA627" s="5"/>
     </row>
-    <row r="628" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:27" ht="38.25">
       <c r="A628" s="5"/>
       <c r="B628" s="5"/>
       <c r="C628" s="6" t="s">
@@ -26914,7 +26909,7 @@
       <c r="Z628" s="5"/>
       <c r="AA628" s="5"/>
     </row>
-    <row r="629" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:27">
       <c r="A629" s="5"/>
       <c r="B629" s="5"/>
       <c r="C629" s="6" t="s">
@@ -26951,7 +26946,7 @@
       <c r="Z629" s="5"/>
       <c r="AA629" s="5"/>
     </row>
-    <row r="630" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:27" ht="25.5">
       <c r="A630" s="5"/>
       <c r="B630" s="5"/>
       <c r="C630" s="6" t="s">
@@ -26988,7 +26983,7 @@
       <c r="Z630" s="5"/>
       <c r="AA630" s="5"/>
     </row>
-    <row r="631" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:27" ht="25.5">
       <c r="A631" s="5"/>
       <c r="B631" s="5"/>
       <c r="C631" s="6" t="s">
@@ -27025,7 +27020,7 @@
       <c r="Z631" s="5"/>
       <c r="AA631" s="5"/>
     </row>
-    <row r="632" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:27" ht="25.5">
       <c r="A632" s="5"/>
       <c r="B632" s="5"/>
       <c r="C632" s="6" t="s">
@@ -27062,7 +27057,7 @@
       <c r="Z632" s="5"/>
       <c r="AA632" s="5"/>
     </row>
-    <row r="633" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:27" ht="25.5">
       <c r="A633" s="5"/>
       <c r="B633" s="5"/>
       <c r="C633" s="6" t="s">
@@ -27097,7 +27092,7 @@
       <c r="Z633" s="5"/>
       <c r="AA633" s="5"/>
     </row>
-    <row r="634" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:27" ht="25.5">
       <c r="A634" s="5"/>
       <c r="B634" s="5"/>
       <c r="C634" s="6" t="s">
@@ -27134,7 +27129,7 @@
       <c r="Z634" s="5"/>
       <c r="AA634" s="5"/>
     </row>
-    <row r="635" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:27" ht="25.5">
       <c r="A635" s="5"/>
       <c r="B635" s="5"/>
       <c r="C635" s="6" t="s">
@@ -27171,7 +27166,7 @@
       <c r="Z635" s="5"/>
       <c r="AA635" s="5"/>
     </row>
-    <row r="636" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:27">
       <c r="A636" s="5"/>
       <c r="B636" s="5"/>
       <c r="C636" s="6" t="s">
@@ -27206,7 +27201,7 @@
       <c r="Z636" s="5"/>
       <c r="AA636" s="5"/>
     </row>
-    <row r="637" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:27" ht="25.5">
       <c r="A637" s="5"/>
       <c r="B637" s="5"/>
       <c r="C637" s="6" t="s">
@@ -27243,7 +27238,7 @@
       <c r="Z637" s="5"/>
       <c r="AA637" s="5"/>
     </row>
-    <row r="638" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:27" ht="25.5">
       <c r="A638" s="5"/>
       <c r="B638" s="5"/>
       <c r="C638" s="6" t="s">
@@ -27280,7 +27275,7 @@
       <c r="Z638" s="5"/>
       <c r="AA638" s="5"/>
     </row>
-    <row r="639" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:27">
       <c r="A639" s="5"/>
       <c r="B639" s="5"/>
       <c r="C639" s="6" t="s">
@@ -27315,7 +27310,7 @@
       <c r="Z639" s="5"/>
       <c r="AA639" s="5"/>
     </row>
-    <row r="640" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:27" ht="25.5">
       <c r="A640" s="5"/>
       <c r="B640" s="5"/>
       <c r="C640" s="6" t="s">
@@ -27352,7 +27347,7 @@
       <c r="Z640" s="5"/>
       <c r="AA640" s="5"/>
     </row>
-    <row r="641" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:27">
       <c r="A641" s="5"/>
       <c r="B641" s="5"/>
       <c r="C641" s="6" t="s">
@@ -27387,7 +27382,7 @@
       <c r="Z641" s="5"/>
       <c r="AA641" s="5"/>
     </row>
-    <row r="642" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:27" ht="25.5">
       <c r="A642" s="5"/>
       <c r="B642" s="5"/>
       <c r="C642" s="6" t="s">
@@ -27424,7 +27419,7 @@
       <c r="Z642" s="5"/>
       <c r="AA642" s="5"/>
     </row>
-    <row r="643" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:27" ht="25.5">
       <c r="A643" s="5"/>
       <c r="B643" s="5"/>
       <c r="C643" s="6" t="s">
@@ -27461,7 +27456,7 @@
       <c r="Z643" s="5"/>
       <c r="AA643" s="5"/>
     </row>
-    <row r="644" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:27" ht="25.5">
       <c r="A644" s="5"/>
       <c r="B644" s="5"/>
       <c r="C644" s="6" t="s">
@@ -27498,7 +27493,7 @@
       <c r="Z644" s="5"/>
       <c r="AA644" s="5"/>
     </row>
-    <row r="645" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:27" ht="25.5">
       <c r="A645" s="5"/>
       <c r="B645" s="5"/>
       <c r="C645" s="6" t="s">
@@ -27535,7 +27530,7 @@
       <c r="Z645" s="5"/>
       <c r="AA645" s="5"/>
     </row>
-    <row r="646" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:27" ht="25.5">
       <c r="A646" s="5"/>
       <c r="B646" s="5"/>
       <c r="C646" s="6" t="s">
@@ -27572,7 +27567,7 @@
       <c r="Z646" s="5"/>
       <c r="AA646" s="5"/>
     </row>
-    <row r="647" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:27">
       <c r="A647" s="5"/>
       <c r="B647" s="5"/>
       <c r="C647" s="6" t="s">
@@ -27607,7 +27602,7 @@
       <c r="Z647" s="5"/>
       <c r="AA647" s="5"/>
     </row>
-    <row r="648" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:27">
       <c r="A648" s="5"/>
       <c r="B648" s="5"/>
       <c r="C648" s="6" t="s">
@@ -27642,7 +27637,7 @@
       <c r="Z648" s="5"/>
       <c r="AA648" s="5"/>
     </row>
-    <row r="649" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:27" ht="25.5">
       <c r="A649" s="5"/>
       <c r="B649" s="5"/>
       <c r="C649" s="6" t="s">
@@ -27679,7 +27674,7 @@
       <c r="Z649" s="5"/>
       <c r="AA649" s="5"/>
     </row>
-    <row r="650" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:27">
       <c r="A650" s="5"/>
       <c r="B650" s="5"/>
       <c r="C650" s="6" t="s">
@@ -27716,7 +27711,7 @@
       <c r="Z650" s="5"/>
       <c r="AA650" s="5"/>
     </row>
-    <row r="651" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:27" ht="25.5">
       <c r="A651" s="5"/>
       <c r="B651" s="5"/>
       <c r="C651" s="6" t="s">
@@ -27751,7 +27746,7 @@
       <c r="Z651" s="5"/>
       <c r="AA651" s="5"/>
     </row>
-    <row r="652" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:27" ht="25.5">
       <c r="A652" s="5"/>
       <c r="B652" s="5"/>
       <c r="C652" s="6" t="s">
@@ -27788,7 +27783,7 @@
       <c r="Z652" s="5"/>
       <c r="AA652" s="5"/>
     </row>
-    <row r="653" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:27" ht="38.25">
       <c r="A653" s="5"/>
       <c r="B653" s="5"/>
       <c r="C653" s="6" t="s">
@@ -27825,7 +27820,7 @@
       <c r="Z653" s="5"/>
       <c r="AA653" s="5"/>
     </row>
-    <row r="654" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:27">
       <c r="A654" s="5"/>
       <c r="B654" s="5"/>
       <c r="C654" s="5"/>
@@ -27854,7 +27849,7 @@
       <c r="Z654" s="5"/>
       <c r="AA654" s="5"/>
     </row>
-    <row r="655" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:27" ht="25.5">
       <c r="A655" s="5"/>
       <c r="B655" s="5"/>
       <c r="C655" s="6" t="s">
@@ -27891,7 +27886,7 @@
       <c r="Z655" s="5"/>
       <c r="AA655" s="5"/>
     </row>
-    <row r="656" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:27" ht="25.5">
       <c r="A656" s="5"/>
       <c r="B656" s="5"/>
       <c r="C656" s="6" t="s">
@@ -27928,7 +27923,7 @@
       <c r="Z656" s="5"/>
       <c r="AA656" s="5"/>
     </row>
-    <row r="657" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:27" ht="25.5">
       <c r="A657" s="5"/>
       <c r="B657" s="5"/>
       <c r="C657" s="6" t="s">
@@ -27965,7 +27960,7 @@
       <c r="Z657" s="5"/>
       <c r="AA657" s="5"/>
     </row>
-    <row r="658" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:27">
       <c r="A658" s="5"/>
       <c r="B658" s="5"/>
       <c r="C658" s="6" t="s">
@@ -28000,7 +27995,7 @@
       <c r="Z658" s="5"/>
       <c r="AA658" s="5"/>
     </row>
-    <row r="659" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:27" ht="25.5">
       <c r="A659" s="5"/>
       <c r="B659" s="5"/>
       <c r="C659" s="6" t="s">
@@ -28035,7 +28030,7 @@
       <c r="Z659" s="5"/>
       <c r="AA659" s="5"/>
     </row>
-    <row r="660" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:27" ht="25.5">
       <c r="A660" s="5"/>
       <c r="B660" s="5"/>
       <c r="C660" s="6" t="s">
@@ -28072,7 +28067,7 @@
       <c r="Z660" s="5"/>
       <c r="AA660" s="5"/>
     </row>
-    <row r="661" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:27" ht="25.5">
       <c r="A661" s="5"/>
       <c r="B661" s="5"/>
       <c r="C661" s="6" t="s">
@@ -28109,7 +28104,7 @@
       <c r="Z661" s="5"/>
       <c r="AA661" s="5"/>
     </row>
-    <row r="662" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:27" ht="25.5">
       <c r="A662" s="5"/>
       <c r="B662" s="5"/>
       <c r="C662" s="6" t="s">
@@ -28144,7 +28139,7 @@
       <c r="Z662" s="5"/>
       <c r="AA662" s="5"/>
     </row>
-    <row r="663" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:27" ht="25.5">
       <c r="A663" s="5"/>
       <c r="B663" s="5"/>
       <c r="C663" s="6" t="s">
@@ -28179,7 +28174,7 @@
       <c r="Z663" s="5"/>
       <c r="AA663" s="5"/>
     </row>
-    <row r="664" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:27" ht="25.5">
       <c r="A664" s="5"/>
       <c r="B664" s="5"/>
       <c r="C664" s="6" t="s">
@@ -28216,7 +28211,7 @@
       <c r="Z664" s="5"/>
       <c r="AA664" s="5"/>
     </row>
-    <row r="665" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:27" ht="25.5">
       <c r="A665" s="5"/>
       <c r="B665" s="5"/>
       <c r="C665" s="6" t="s">
@@ -28253,7 +28248,7 @@
       <c r="Z665" s="5"/>
       <c r="AA665" s="5"/>
     </row>
-    <row r="666" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:27">
       <c r="A666" s="5"/>
       <c r="B666" s="5"/>
       <c r="C666" s="6" t="s">
@@ -28288,7 +28283,7 @@
       <c r="Z666" s="5"/>
       <c r="AA666" s="5"/>
     </row>
-    <row r="667" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:27" ht="25.5">
       <c r="A667" s="5"/>
       <c r="B667" s="5"/>
       <c r="C667" s="6" t="s">
@@ -28325,7 +28320,7 @@
       <c r="Z667" s="5"/>
       <c r="AA667" s="5"/>
     </row>
-    <row r="668" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:27" ht="25.5">
       <c r="A668" s="5"/>
       <c r="B668" s="5"/>
       <c r="C668" s="6" t="s">
@@ -28362,7 +28357,7 @@
       <c r="Z668" s="5"/>
       <c r="AA668" s="5"/>
     </row>
-    <row r="669" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:27">
       <c r="A669" s="5"/>
       <c r="B669" s="5"/>
       <c r="C669" s="6" t="s">
@@ -28397,7 +28392,7 @@
       <c r="Z669" s="5"/>
       <c r="AA669" s="5"/>
     </row>
-    <row r="670" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:27">
       <c r="A670" s="5"/>
       <c r="B670" s="5"/>
       <c r="C670" s="6" t="s">
@@ -28432,7 +28427,7 @@
       <c r="Z670" s="5"/>
       <c r="AA670" s="5"/>
     </row>
-    <row r="671" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:27">
       <c r="A671" s="5"/>
       <c r="B671" s="5"/>
       <c r="C671" s="6" t="s">
@@ -28467,7 +28462,7 @@
       <c r="Z671" s="5"/>
       <c r="AA671" s="5"/>
     </row>
-    <row r="672" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:27" ht="25.5">
       <c r="A672" s="5"/>
       <c r="B672" s="5"/>
       <c r="C672" s="6" t="s">
@@ -28504,7 +28499,7 @@
       <c r="Z672" s="5"/>
       <c r="AA672" s="5"/>
     </row>
-    <row r="673" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:27" ht="25.5">
       <c r="A673" s="5"/>
       <c r="B673" s="5"/>
       <c r="C673" s="6" t="s">
@@ -28541,7 +28536,7 @@
       <c r="Z673" s="5"/>
       <c r="AA673" s="5"/>
     </row>
-    <row r="674" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:27" ht="25.5">
       <c r="A674" s="5"/>
       <c r="B674" s="5"/>
       <c r="C674" s="6" t="s">
@@ -28578,7 +28573,7 @@
       <c r="Z674" s="5"/>
       <c r="AA674" s="5"/>
     </row>
-    <row r="675" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:27" ht="25.5">
       <c r="A675" s="5"/>
       <c r="B675" s="5"/>
       <c r="C675" s="6" t="s">
@@ -28615,7 +28610,7 @@
       <c r="Z675" s="5"/>
       <c r="AA675" s="5"/>
     </row>
-    <row r="676" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:27">
       <c r="A676" s="5"/>
       <c r="B676" s="5"/>
       <c r="C676" s="6" t="s">
@@ -28650,7 +28645,7 @@
       <c r="Z676" s="5"/>
       <c r="AA676" s="5"/>
     </row>
-    <row r="677" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:27" ht="38.25">
       <c r="A677" s="5"/>
       <c r="B677" s="5"/>
       <c r="C677" s="6" t="s">
@@ -28687,7 +28682,7 @@
       <c r="Z677" s="5"/>
       <c r="AA677" s="5"/>
     </row>
-    <row r="678" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:27">
       <c r="A678" s="5"/>
       <c r="B678" s="5"/>
       <c r="C678" s="5"/>
@@ -28716,7 +28711,7 @@
       <c r="Z678" s="5"/>
       <c r="AA678" s="5"/>
     </row>
-    <row r="679" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:27" ht="25.5">
       <c r="A679" s="5"/>
       <c r="B679" s="5"/>
       <c r="C679" s="6" t="s">
@@ -28753,7 +28748,7 @@
       <c r="Z679" s="5"/>
       <c r="AA679" s="5"/>
     </row>
-    <row r="680" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:27" ht="25.5">
       <c r="A680" s="5"/>
       <c r="B680" s="5"/>
       <c r="C680" s="6" t="s">
@@ -28790,7 +28785,7 @@
       <c r="Z680" s="5"/>
       <c r="AA680" s="5"/>
     </row>
-    <row r="681" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:27" ht="25.5">
       <c r="A681" s="5"/>
       <c r="B681" s="5"/>
       <c r="C681" s="6" t="s">
@@ -28827,7 +28822,7 @@
       <c r="Z681" s="5"/>
       <c r="AA681" s="5"/>
     </row>
-    <row r="682" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:27" ht="25.5">
       <c r="A682" s="5"/>
       <c r="B682" s="5"/>
       <c r="C682" s="6" t="s">
@@ -28862,7 +28857,7 @@
       <c r="Z682" s="5"/>
       <c r="AA682" s="5"/>
     </row>
-    <row r="683" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:27" ht="25.5">
       <c r="A683" s="5"/>
       <c r="B683" s="5"/>
       <c r="C683" s="6" t="s">
@@ -28899,7 +28894,7 @@
       <c r="Z683" s="5"/>
       <c r="AA683" s="5"/>
     </row>
-    <row r="684" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:27" ht="25.5">
       <c r="A684" s="5"/>
       <c r="B684" s="5"/>
       <c r="C684" s="6" t="s">
@@ -28934,7 +28929,7 @@
       <c r="Z684" s="5"/>
       <c r="AA684" s="5"/>
     </row>
-    <row r="685" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:27">
       <c r="A685" s="5"/>
       <c r="B685" s="5"/>
       <c r="C685" s="6" t="s">
@@ -28971,7 +28966,7 @@
       <c r="Z685" s="5"/>
       <c r="AA685" s="5"/>
     </row>
-    <row r="686" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:27">
       <c r="A686" s="5"/>
       <c r="B686" s="5"/>
       <c r="C686" s="5"/>
@@ -29000,7 +28995,7 @@
       <c r="Z686" s="5"/>
       <c r="AA686" s="5"/>
     </row>
-    <row r="687" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:27" ht="25.5">
       <c r="A687" s="5"/>
       <c r="B687" s="5"/>
       <c r="C687" s="6" t="s">
@@ -29037,7 +29032,7 @@
       <c r="Z687" s="5"/>
       <c r="AA687" s="5"/>
     </row>
-    <row r="688" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:27" ht="38.25">
       <c r="A688" s="5"/>
       <c r="B688" s="5"/>
       <c r="C688" s="6" t="s">
@@ -29074,7 +29069,7 @@
       <c r="Z688" s="5"/>
       <c r="AA688" s="5"/>
     </row>
-    <row r="689" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:27">
       <c r="A689" s="5"/>
       <c r="B689" s="5"/>
       <c r="C689" s="5"/>
@@ -29103,7 +29098,7 @@
       <c r="Z689" s="5"/>
       <c r="AA689" s="5"/>
     </row>
-    <row r="690" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:27">
       <c r="A690" s="5"/>
       <c r="B690" s="5"/>
       <c r="C690" s="6" t="s">
@@ -29138,7 +29133,7 @@
       <c r="Z690" s="5"/>
       <c r="AA690" s="5"/>
     </row>
-    <row r="691" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:27">
       <c r="A691" s="5"/>
       <c r="B691" s="5"/>
       <c r="C691" s="6" t="s">
@@ -29175,7 +29170,7 @@
       <c r="Z691" s="5"/>
       <c r="AA691" s="5"/>
     </row>
-    <row r="692" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:27" ht="38.25">
       <c r="A692" s="5"/>
       <c r="B692" s="5"/>
       <c r="C692" s="6" t="s">
@@ -29212,7 +29207,7 @@
       <c r="Z692" s="5"/>
       <c r="AA692" s="5"/>
     </row>
-    <row r="693" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:27" ht="25.5">
       <c r="A693" s="5"/>
       <c r="B693" s="5"/>
       <c r="C693" s="6" t="s">
@@ -29249,7 +29244,7 @@
       <c r="Z693" s="5"/>
       <c r="AA693" s="5"/>
     </row>
-    <row r="694" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:27" ht="38.25">
       <c r="A694" s="5"/>
       <c r="B694" s="5"/>
       <c r="C694" s="6" t="s">
@@ -29286,7 +29281,7 @@
       <c r="Z694" s="5"/>
       <c r="AA694" s="5"/>
     </row>
-    <row r="695" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:27">
       <c r="A695" s="5"/>
       <c r="B695" s="5"/>
       <c r="C695" s="5"/>
@@ -29315,7 +29310,7 @@
       <c r="Z695" s="5"/>
       <c r="AA695" s="5"/>
     </row>
-    <row r="696" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:27" ht="38.25">
       <c r="A696" s="5"/>
       <c r="B696" s="5"/>
       <c r="C696" s="6" t="s">
@@ -29350,7 +29345,7 @@
       <c r="Z696" s="5"/>
       <c r="AA696" s="5"/>
     </row>
-    <row r="697" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:27" ht="25.5">
       <c r="A697" s="5"/>
       <c r="B697" s="5"/>
       <c r="C697" s="6" t="s">
@@ -29387,7 +29382,7 @@
       <c r="Z697" s="5"/>
       <c r="AA697" s="5"/>
     </row>
-    <row r="698" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:27" ht="38.25">
       <c r="A698" s="5"/>
       <c r="B698" s="5"/>
       <c r="C698" s="6" t="s">
@@ -29424,7 +29419,7 @@
       <c r="Z698" s="5"/>
       <c r="AA698" s="5"/>
     </row>
-    <row r="699" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:27" ht="25.5">
       <c r="A699" s="5"/>
       <c r="B699" s="5"/>
       <c r="C699" s="6" t="s">
@@ -29461,7 +29456,7 @@
       <c r="Z699" s="5"/>
       <c r="AA699" s="5"/>
     </row>
-    <row r="700" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:27">
       <c r="A700" s="5"/>
       <c r="B700" s="5"/>
       <c r="C700" s="6" t="s">
@@ -29496,7 +29491,7 @@
       <c r="Z700" s="5"/>
       <c r="AA700" s="5"/>
     </row>
-    <row r="701" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:27" ht="25.5">
       <c r="A701" s="5"/>
       <c r="B701" s="5"/>
       <c r="C701" s="6" t="s">
@@ -29531,7 +29526,7 @@
       <c r="Z701" s="5"/>
       <c r="AA701" s="5"/>
     </row>
-    <row r="702" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:27" ht="25.5">
       <c r="A702" s="5"/>
       <c r="B702" s="5"/>
       <c r="C702" s="6" t="s">
@@ -29566,7 +29561,7 @@
       <c r="Z702" s="5"/>
       <c r="AA702" s="5"/>
     </row>
-    <row r="703" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:27">
       <c r="A703" s="5"/>
       <c r="B703" s="5"/>
       <c r="C703" s="5"/>
@@ -29595,7 +29590,7 @@
       <c r="Z703" s="5"/>
       <c r="AA703" s="5"/>
     </row>
-    <row r="704" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:27" ht="38.25">
       <c r="A704" s="5"/>
       <c r="B704" s="5"/>
       <c r="C704" s="6" t="s">
@@ -29632,7 +29627,7 @@
       <c r="Z704" s="5"/>
       <c r="AA704" s="5"/>
     </row>
-    <row r="705" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:27" ht="25.5">
       <c r="A705" s="5"/>
       <c r="B705" s="5"/>
       <c r="C705" s="6" t="s">
@@ -29669,7 +29664,7 @@
       <c r="Z705" s="5"/>
       <c r="AA705" s="5"/>
     </row>
-    <row r="706" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:27" ht="25.5">
       <c r="A706" s="5"/>
       <c r="B706" s="5"/>
       <c r="C706" s="6" t="s">
@@ -29706,7 +29701,7 @@
       <c r="Z706" s="5"/>
       <c r="AA706" s="5"/>
     </row>
-    <row r="707" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:27" ht="25.5">
       <c r="A707" s="5"/>
       <c r="B707" s="5"/>
       <c r="C707" s="6" t="s">
@@ -29743,7 +29738,7 @@
       <c r="Z707" s="5"/>
       <c r="AA707" s="5"/>
     </row>
-    <row r="708" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:27" ht="25.5">
       <c r="A708" s="5"/>
       <c r="B708" s="5"/>
       <c r="C708" s="6" t="s">
@@ -29780,7 +29775,7 @@
       <c r="Z708" s="5"/>
       <c r="AA708" s="5"/>
     </row>
-    <row r="709" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:27" ht="25.5">
       <c r="A709" s="5"/>
       <c r="B709" s="5"/>
       <c r="C709" s="6" t="s">
@@ -29815,7 +29810,7 @@
       <c r="Z709" s="5"/>
       <c r="AA709" s="5"/>
     </row>
-    <row r="710" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:27" ht="25.5">
       <c r="A710" s="5"/>
       <c r="B710" s="5"/>
       <c r="C710" s="6" t="s">
@@ -29852,7 +29847,7 @@
       <c r="Z710" s="5"/>
       <c r="AA710" s="5"/>
     </row>
-    <row r="711" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:27" ht="38.25">
       <c r="A711" s="5"/>
       <c r="B711" s="5"/>
       <c r="C711" s="6" t="s">
@@ -29887,7 +29882,7 @@
       <c r="Z711" s="5"/>
       <c r="AA711" s="5"/>
     </row>
-    <row r="712" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:27" ht="25.5">
       <c r="A712" s="5"/>
       <c r="B712" s="5"/>
       <c r="C712" s="6" t="s">
@@ -29924,7 +29919,7 @@
       <c r="Z712" s="5"/>
       <c r="AA712" s="5"/>
     </row>
-    <row r="713" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:27" ht="25.5">
       <c r="A713" s="5"/>
       <c r="B713" s="5"/>
       <c r="C713" s="6" t="s">
@@ -29961,7 +29956,7 @@
       <c r="Z713" s="5"/>
       <c r="AA713" s="5"/>
     </row>
-    <row r="714" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:27">
       <c r="A714" s="5"/>
       <c r="B714" s="5"/>
       <c r="C714" s="6" t="s">
@@ -29996,7 +29991,7 @@
       <c r="Z714" s="5"/>
       <c r="AA714" s="5"/>
     </row>
-    <row r="715" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:27">
       <c r="A715" s="5"/>
       <c r="B715" s="5"/>
       <c r="C715" s="6" t="s">
@@ -30031,7 +30026,7 @@
       <c r="Z715" s="5"/>
       <c r="AA715" s="5"/>
     </row>
-    <row r="716" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:27" ht="25.5">
       <c r="A716" s="5"/>
       <c r="B716" s="5"/>
       <c r="C716" s="6" t="s">
@@ -30068,7 +30063,7 @@
       <c r="Z716" s="5"/>
       <c r="AA716" s="5"/>
     </row>
-    <row r="717" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:27" ht="25.5">
       <c r="A717" s="5"/>
       <c r="B717" s="5"/>
       <c r="C717" s="6" t="s">
@@ -30105,7 +30100,7 @@
       <c r="Z717" s="5"/>
       <c r="AA717" s="5"/>
     </row>
-    <row r="718" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:27" ht="25.5">
       <c r="A718" s="5"/>
       <c r="B718" s="5"/>
       <c r="C718" s="6" t="s">
@@ -30142,7 +30137,7 @@
       <c r="Z718" s="5"/>
       <c r="AA718" s="5"/>
     </row>
-    <row r="719" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:27" ht="25.5">
       <c r="A719" s="5"/>
       <c r="B719" s="5"/>
       <c r="C719" s="6" t="s">
@@ -30179,7 +30174,7 @@
       <c r="Z719" s="5"/>
       <c r="AA719" s="5"/>
     </row>
-    <row r="720" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:27" ht="25.5">
       <c r="A720" s="5"/>
       <c r="B720" s="5"/>
       <c r="C720" s="6" t="s">
@@ -30216,7 +30211,7 @@
       <c r="Z720" s="5"/>
       <c r="AA720" s="5"/>
     </row>
-    <row r="721" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:27">
       <c r="A721" s="5"/>
       <c r="B721" s="5"/>
       <c r="C721" s="6" t="s">
@@ -30251,7 +30246,7 @@
       <c r="Z721" s="5"/>
       <c r="AA721" s="5"/>
     </row>
-    <row r="722" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:27">
       <c r="A722" s="5"/>
       <c r="B722" s="5"/>
       <c r="C722" s="6" t="s">
@@ -30288,7 +30283,7 @@
       <c r="Z722" s="5"/>
       <c r="AA722" s="5"/>
     </row>
-    <row r="723" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:27" ht="25.5">
       <c r="A723" s="5"/>
       <c r="B723" s="5"/>
       <c r="C723" s="6" t="s">
@@ -30325,7 +30320,7 @@
       <c r="Z723" s="5"/>
       <c r="AA723" s="5"/>
     </row>
-    <row r="724" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:27">
       <c r="A724" s="5"/>
       <c r="B724" s="5"/>
       <c r="C724" s="6" t="s">
@@ -30360,7 +30355,7 @@
       <c r="Z724" s="5"/>
       <c r="AA724" s="5"/>
     </row>
-    <row r="725" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:27" ht="25.5">
       <c r="A725" s="5"/>
       <c r="B725" s="5"/>
       <c r="C725" s="6" t="s">
@@ -30397,7 +30392,7 @@
       <c r="Z725" s="5"/>
       <c r="AA725" s="5"/>
     </row>
-    <row r="726" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:27">
       <c r="A726" s="5"/>
       <c r="B726" s="5"/>
       <c r="C726" s="6" t="s">
@@ -30432,7 +30427,7 @@
       <c r="Z726" s="5"/>
       <c r="AA726" s="5"/>
     </row>
-    <row r="727" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:27" ht="25.5">
       <c r="A727" s="5"/>
       <c r="B727" s="5"/>
       <c r="C727" s="6" t="s">
@@ -30469,7 +30464,7 @@
       <c r="Z727" s="5"/>
       <c r="AA727" s="5"/>
     </row>
-    <row r="728" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:27" ht="25.5">
       <c r="A728" s="5"/>
       <c r="B728" s="5"/>
       <c r="C728" s="6" t="s">
@@ -30506,7 +30501,7 @@
       <c r="Z728" s="5"/>
       <c r="AA728" s="5"/>
     </row>
-    <row r="729" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:27" ht="25.5">
       <c r="A729" s="5"/>
       <c r="B729" s="5"/>
       <c r="C729" s="6" t="s">
@@ -30543,7 +30538,7 @@
       <c r="Z729" s="5"/>
       <c r="AA729" s="5"/>
     </row>
-    <row r="730" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:27">
       <c r="A730" s="5"/>
       <c r="B730" s="5"/>
       <c r="C730" s="5"/>
@@ -30572,7 +30567,7 @@
       <c r="Z730" s="5"/>
       <c r="AA730" s="5"/>
     </row>
-    <row r="731" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:27" ht="25.5">
       <c r="A731" s="5"/>
       <c r="B731" s="5"/>
       <c r="C731" s="6" t="s">
@@ -30609,7 +30604,7 @@
       <c r="Z731" s="5"/>
       <c r="AA731" s="5"/>
     </row>
-    <row r="732" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:27">
       <c r="A732" s="5"/>
       <c r="B732" s="5"/>
       <c r="C732" s="6" t="s">
@@ -30644,7 +30639,7 @@
       <c r="Z732" s="5"/>
       <c r="AA732" s="5"/>
     </row>
-    <row r="733" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:27" ht="25.5">
       <c r="A733" s="5"/>
       <c r="B733" s="5"/>
       <c r="C733" s="6" t="s">
@@ -30681,7 +30676,7 @@
       <c r="Z733" s="5"/>
       <c r="AA733" s="5"/>
     </row>
-    <row r="734" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:27" ht="25.5">
       <c r="A734" s="5"/>
       <c r="B734" s="5"/>
       <c r="C734" s="6" t="s">
@@ -30718,7 +30713,7 @@
       <c r="Z734" s="5"/>
       <c r="AA734" s="5"/>
     </row>
-    <row r="735" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:27">
       <c r="A735" s="5"/>
       <c r="B735" s="5"/>
       <c r="C735" s="6" t="s">
@@ -30753,7 +30748,7 @@
       <c r="Z735" s="5"/>
       <c r="AA735" s="5"/>
     </row>
-    <row r="736" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:27" ht="25.5">
       <c r="A736" s="5"/>
       <c r="B736" s="5"/>
       <c r="C736" s="6" t="s">
@@ -30790,7 +30785,7 @@
       <c r="Z736" s="5"/>
       <c r="AA736" s="5"/>
     </row>
-    <row r="737" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:27">
       <c r="A737" s="5"/>
       <c r="B737" s="5"/>
       <c r="C737" s="5"/>
@@ -30819,7 +30814,7 @@
       <c r="Z737" s="5"/>
       <c r="AA737" s="5"/>
     </row>
-    <row r="738" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:27">
       <c r="A738" s="5"/>
       <c r="B738" s="5"/>
       <c r="C738" s="5"/>
@@ -30848,7 +30843,7 @@
       <c r="Z738" s="5"/>
       <c r="AA738" s="5"/>
     </row>
-    <row r="739" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:27">
       <c r="A739" s="5"/>
       <c r="B739" s="5"/>
       <c r="C739" s="5"/>
@@ -30877,7 +30872,7 @@
       <c r="Z739" s="5"/>
       <c r="AA739" s="5"/>
     </row>
-    <row r="740" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:27">
       <c r="A740" s="5"/>
       <c r="B740" s="5"/>
       <c r="C740" s="6" t="s">
@@ -30912,7 +30907,7 @@
       <c r="Z740" s="5"/>
       <c r="AA740" s="5"/>
     </row>
-    <row r="741" spans="1:27" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:27" ht="63.75">
       <c r="A741" s="5"/>
       <c r="B741" s="5"/>
       <c r="C741" s="6" t="s">
@@ -30949,7 +30944,7 @@
       <c r="Z741" s="5"/>
       <c r="AA741" s="5"/>
     </row>
-    <row r="742" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:27">
       <c r="A742" s="5"/>
       <c r="B742" s="5"/>
       <c r="C742" s="5"/>
@@ -30978,7 +30973,7 @@
       <c r="Z742" s="5"/>
       <c r="AA742" s="5"/>
     </row>
-    <row r="743" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:27">
       <c r="A743" s="5"/>
       <c r="B743" s="5"/>
       <c r="C743" s="5"/>
@@ -31007,7 +31002,7 @@
       <c r="Z743" s="5"/>
       <c r="AA743" s="5"/>
     </row>
-    <row r="744" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:27">
       <c r="A744" s="5"/>
       <c r="B744" s="5"/>
       <c r="C744" s="5"/>
@@ -31036,7 +31031,7 @@
       <c r="Z744" s="5"/>
       <c r="AA744" s="5"/>
     </row>
-    <row r="745" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:27" ht="25.5">
       <c r="A745" s="5"/>
       <c r="B745" s="5"/>
       <c r="C745" s="6" t="s">
@@ -31073,7 +31068,7 @@
       <c r="Z745" s="5"/>
       <c r="AA745" s="5"/>
     </row>
-    <row r="746" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:27" ht="25.5">
       <c r="A746" s="5"/>
       <c r="B746" s="5"/>
       <c r="C746" s="6" t="s">
@@ -31110,7 +31105,7 @@
       <c r="Z746" s="5"/>
       <c r="AA746" s="5"/>
     </row>
-    <row r="747" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:27" ht="25.5">
       <c r="A747" s="5"/>
       <c r="B747" s="5"/>
       <c r="C747" s="6" t="s">
@@ -31147,7 +31142,7 @@
       <c r="Z747" s="5"/>
       <c r="AA747" s="5"/>
     </row>
-    <row r="748" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:27" ht="25.5">
       <c r="A748" s="5"/>
       <c r="B748" s="5"/>
       <c r="C748" s="6" t="s">
@@ -31184,7 +31179,7 @@
       <c r="Z748" s="5"/>
       <c r="AA748" s="5"/>
     </row>
-    <row r="749" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:27" ht="25.5">
       <c r="A749" s="5"/>
       <c r="B749" s="5"/>
       <c r="C749" s="6" t="s">
@@ -31221,7 +31216,7 @@
       <c r="Z749" s="5"/>
       <c r="AA749" s="5"/>
     </row>
-    <row r="750" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:27" ht="25.5">
       <c r="A750" s="5"/>
       <c r="B750" s="5"/>
       <c r="C750" s="6" t="s">
@@ -31258,7 +31253,7 @@
       <c r="Z750" s="5"/>
       <c r="AA750" s="5"/>
     </row>
-    <row r="751" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:27" ht="25.5">
       <c r="A751" s="5"/>
       <c r="B751" s="5"/>
       <c r="C751" s="6" t="s">
@@ -31295,7 +31290,7 @@
       <c r="Z751" s="5"/>
       <c r="AA751" s="5"/>
     </row>
-    <row r="752" spans="1:27" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:27" ht="63.75">
       <c r="A752" s="5"/>
       <c r="B752" s="5"/>
       <c r="C752" s="6" t="s">
@@ -31332,7 +31327,7 @@
       <c r="Z752" s="5"/>
       <c r="AA752" s="5"/>
     </row>
-    <row r="753" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:27">
       <c r="A753" s="5"/>
       <c r="B753" s="5"/>
       <c r="C753" s="5"/>
@@ -31361,7 +31356,7 @@
       <c r="Z753" s="5"/>
       <c r="AA753" s="5"/>
     </row>
-    <row r="754" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:27">
       <c r="A754" s="5"/>
       <c r="B754" s="5"/>
       <c r="C754" s="5"/>
@@ -31390,7 +31385,7 @@
       <c r="Z754" s="5"/>
       <c r="AA754" s="5"/>
     </row>
-    <row r="755" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:27">
       <c r="A755" s="5"/>
       <c r="B755" s="5"/>
       <c r="C755" s="5"/>
@@ -31419,7 +31414,7 @@
       <c r="Z755" s="5"/>
       <c r="AA755" s="5"/>
     </row>
-    <row r="756" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:27">
       <c r="A756" s="5"/>
       <c r="B756" s="5"/>
       <c r="C756" s="5"/>
@@ -31448,7 +31443,7 @@
       <c r="Z756" s="5"/>
       <c r="AA756" s="5"/>
     </row>
-    <row r="757" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:27">
       <c r="A757" s="5"/>
       <c r="B757" s="5"/>
       <c r="C757" s="6" t="s">
@@ -31483,7 +31478,7 @@
       <c r="Z757" s="5"/>
       <c r="AA757" s="5"/>
     </row>
-    <row r="758" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:27" ht="25.5">
       <c r="A758" s="5"/>
       <c r="B758" s="5"/>
       <c r="C758" s="6" t="s">
@@ -31520,7 +31515,7 @@
       <c r="Z758" s="5"/>
       <c r="AA758" s="5"/>
     </row>
-    <row r="759" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:27" ht="25.5">
       <c r="A759" s="5"/>
       <c r="B759" s="5"/>
       <c r="C759" s="6" t="s">
@@ -31555,7 +31550,7 @@
       <c r="Z759" s="5"/>
       <c r="AA759" s="5"/>
     </row>
-    <row r="760" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:27" ht="25.5">
       <c r="A760" s="5"/>
       <c r="B760" s="5"/>
       <c r="C760" s="6" t="s">
@@ -31592,7 +31587,7 @@
       <c r="Z760" s="5"/>
       <c r="AA760" s="5"/>
     </row>
-    <row r="761" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:27" ht="25.5">
       <c r="A761" s="5"/>
       <c r="B761" s="5"/>
       <c r="C761" s="6" t="s">
@@ -31629,7 +31624,7 @@
       <c r="Z761" s="5"/>
       <c r="AA761" s="5"/>
     </row>
-    <row r="762" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:27" ht="25.5">
       <c r="A762" s="5"/>
       <c r="B762" s="5"/>
       <c r="C762" s="6" t="s">
@@ -31666,7 +31661,7 @@
       <c r="Z762" s="5"/>
       <c r="AA762" s="5"/>
     </row>
-    <row r="763" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:27" ht="25.5">
       <c r="A763" s="5"/>
       <c r="B763" s="5"/>
       <c r="C763" s="6" t="s">
@@ -31703,7 +31698,7 @@
       <c r="Z763" s="5"/>
       <c r="AA763" s="5"/>
     </row>
-    <row r="764" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:27" ht="25.5">
       <c r="A764" s="5"/>
       <c r="B764" s="5"/>
       <c r="C764" s="6" t="s">
@@ -31740,7 +31735,7 @@
       <c r="Z764" s="5"/>
       <c r="AA764" s="5"/>
     </row>
-    <row r="765" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:27" ht="38.25">
       <c r="A765" s="5"/>
       <c r="B765" s="5"/>
       <c r="C765" s="6" t="s">
@@ -31777,7 +31772,7 @@
       <c r="Z765" s="5"/>
       <c r="AA765" s="5"/>
     </row>
-    <row r="766" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:27">
       <c r="A766" s="5"/>
       <c r="B766" s="5"/>
       <c r="C766" s="5"/>
@@ -31806,7 +31801,7 @@
       <c r="Z766" s="5"/>
       <c r="AA766" s="5"/>
     </row>
-    <row r="767" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:27">
       <c r="A767" s="5"/>
       <c r="B767" s="5"/>
       <c r="C767" s="6" t="s">
@@ -31843,7 +31838,7 @@
       <c r="Z767" s="5"/>
       <c r="AA767" s="5"/>
     </row>
-    <row r="768" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:27" ht="38.25">
       <c r="A768" s="5"/>
       <c r="B768" s="5"/>
       <c r="C768" s="6" t="s">
@@ -31880,7 +31875,7 @@
       <c r="Z768" s="5"/>
       <c r="AA768" s="5"/>
     </row>
-    <row r="769" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:27" ht="25.5">
       <c r="A769" s="5"/>
       <c r="B769" s="5"/>
       <c r="C769" s="6" t="s">
@@ -31917,7 +31912,7 @@
       <c r="Z769" s="5"/>
       <c r="AA769" s="5"/>
     </row>
-    <row r="770" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:27">
       <c r="A770" s="5"/>
       <c r="B770" s="5"/>
       <c r="C770" s="5"/>
@@ -31946,7 +31941,7 @@
       <c r="Z770" s="5"/>
       <c r="AA770" s="5"/>
     </row>
-    <row r="771" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:27">
       <c r="A771" s="5"/>
       <c r="B771" s="5"/>
       <c r="C771" s="5"/>
@@ -31975,7 +31970,7 @@
       <c r="Z771" s="5"/>
       <c r="AA771" s="5"/>
     </row>
-    <row r="772" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:27" ht="25.5">
       <c r="A772" s="5"/>
       <c r="B772" s="5"/>
       <c r="C772" s="6" t="s">
@@ -32012,7 +32007,7 @@
       <c r="Z772" s="5"/>
       <c r="AA772" s="5"/>
     </row>
-    <row r="773" spans="1:27" ht="51" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:27" ht="51">
       <c r="A773" s="5"/>
       <c r="B773" s="5"/>
       <c r="C773" s="6" t="s">
@@ -32049,7 +32044,7 @@
       <c r="Z773" s="5"/>
       <c r="AA773" s="5"/>
     </row>
-    <row r="774" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:27">
       <c r="A774" s="5"/>
       <c r="B774" s="5"/>
       <c r="C774" s="5"/>
@@ -32078,7 +32073,7 @@
       <c r="Z774" s="5"/>
       <c r="AA774" s="5"/>
     </row>
-    <row r="775" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:27">
       <c r="A775" s="5"/>
       <c r="B775" s="5"/>
       <c r="C775" s="5"/>
@@ -32107,7 +32102,7 @@
       <c r="Z775" s="5"/>
       <c r="AA775" s="5"/>
     </row>
-    <row r="776" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:27">
       <c r="A776" s="5"/>
       <c r="B776" s="5"/>
       <c r="C776" s="6" t="s">
@@ -32142,7 +32137,7 @@
       <c r="Z776" s="5"/>
       <c r="AA776" s="5"/>
     </row>
-    <row r="777" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:27">
       <c r="A777" s="5"/>
       <c r="B777" s="5"/>
       <c r="C777" s="6" t="s">
@@ -32177,7 +32172,7 @@
       <c r="Z777" s="5"/>
       <c r="AA777" s="5"/>
     </row>
-    <row r="778" spans="1:27" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:27" ht="76.5">
       <c r="A778" s="5"/>
       <c r="B778" s="5"/>
       <c r="C778" s="6" t="s">
@@ -32214,7 +32209,7 @@
       <c r="Z778" s="5"/>
       <c r="AA778" s="5"/>
     </row>
-    <row r="779" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:27">
       <c r="A779" s="5"/>
       <c r="B779" s="5"/>
       <c r="C779" s="5"/>
@@ -32243,7 +32238,7 @@
       <c r="Z779" s="5"/>
       <c r="AA779" s="5"/>
     </row>
-    <row r="780" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:27">
       <c r="A780" s="5"/>
       <c r="B780" s="5"/>
       <c r="C780" s="5"/>
@@ -32272,7 +32267,7 @@
       <c r="Z780" s="5"/>
       <c r="AA780" s="5"/>
     </row>
-    <row r="781" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:27">
       <c r="A781" s="5"/>
       <c r="B781" s="5"/>
       <c r="C781" s="5"/>
@@ -32301,7 +32296,7 @@
       <c r="Z781" s="5"/>
       <c r="AA781" s="5"/>
     </row>
-    <row r="782" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:27">
       <c r="A782" s="5"/>
       <c r="B782" s="5"/>
       <c r="C782" s="5"/>
@@ -32330,7 +32325,7 @@
       <c r="Z782" s="5"/>
       <c r="AA782" s="5"/>
     </row>
-    <row r="783" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:27">
       <c r="A783" s="5"/>
       <c r="B783" s="5"/>
       <c r="C783" s="5"/>
@@ -32359,7 +32354,7 @@
       <c r="Z783" s="5"/>
       <c r="AA783" s="5"/>
     </row>
-    <row r="784" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:27">
       <c r="A784" s="5"/>
       <c r="B784" s="5"/>
       <c r="C784" s="6" t="s">
@@ -32396,7 +32391,7 @@
       <c r="Z784" s="5"/>
       <c r="AA784" s="5"/>
     </row>
-    <row r="785" spans="1:27" ht="51" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:27" ht="51">
       <c r="A785" s="5"/>
       <c r="B785" s="5"/>
       <c r="C785" s="6" t="s">
@@ -32433,7 +32428,7 @@
       <c r="Z785" s="5"/>
       <c r="AA785" s="5"/>
     </row>
-    <row r="786" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:27">
       <c r="A786" s="5"/>
       <c r="B786" s="5"/>
       <c r="C786" s="5"/>
@@ -32462,7 +32457,7 @@
       <c r="Z786" s="5"/>
       <c r="AA786" s="5"/>
     </row>
-    <row r="787" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:27">
       <c r="A787" s="5"/>
       <c r="B787" s="5"/>
       <c r="C787" s="5"/>
@@ -32491,7 +32486,7 @@
       <c r="Z787" s="5"/>
       <c r="AA787" s="5"/>
     </row>
-    <row r="788" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:27" ht="38.25">
       <c r="A788" s="5"/>
       <c r="B788" s="5"/>
       <c r="C788" s="6" t="s">
@@ -32528,7 +32523,7 @@
       <c r="Z788" s="5"/>
       <c r="AA788" s="5"/>
     </row>
-    <row r="789" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:27">
       <c r="A789" s="5"/>
       <c r="B789" s="5"/>
       <c r="C789" s="5"/>
@@ -32557,7 +32552,7 @@
       <c r="Z789" s="5"/>
       <c r="AA789" s="5"/>
     </row>
-    <row r="790" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:27">
       <c r="A790" s="5"/>
       <c r="B790" s="5"/>
       <c r="C790" s="5"/>
@@ -32586,7 +32581,7 @@
       <c r="Z790" s="5"/>
       <c r="AA790" s="5"/>
     </row>
-    <row r="791" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:27">
       <c r="A791" s="5"/>
       <c r="B791" s="5"/>
       <c r="C791" s="5"/>
@@ -32615,7 +32610,7 @@
       <c r="Z791" s="5"/>
       <c r="AA791" s="5"/>
     </row>
-    <row r="792" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:27">
       <c r="A792" s="5"/>
       <c r="B792" s="5"/>
       <c r="C792" s="5"/>
@@ -32644,7 +32639,7 @@
       <c r="Z792" s="5"/>
       <c r="AA792" s="5"/>
     </row>
-    <row r="793" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:27">
       <c r="A793" s="5"/>
       <c r="B793" s="5"/>
       <c r="C793" s="5"/>
@@ -32673,7 +32668,7 @@
       <c r="Z793" s="5"/>
       <c r="AA793" s="5"/>
     </row>
-    <row r="794" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:27">
       <c r="A794" s="5"/>
       <c r="B794" s="5"/>
       <c r="C794" s="5"/>
@@ -32702,7 +32697,7 @@
       <c r="Z794" s="5"/>
       <c r="AA794" s="5"/>
     </row>
-    <row r="795" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:27">
       <c r="A795" s="5"/>
       <c r="B795" s="5"/>
       <c r="C795" s="5"/>
@@ -32731,7 +32726,7 @@
       <c r="Z795" s="5"/>
       <c r="AA795" s="5"/>
     </row>
-    <row r="796" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:27">
       <c r="A796" s="5"/>
       <c r="B796" s="5"/>
       <c r="C796" s="5"/>
@@ -32760,7 +32755,7 @@
       <c r="Z796" s="5"/>
       <c r="AA796" s="5"/>
     </row>
-    <row r="797" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:27">
       <c r="A797" s="5"/>
       <c r="B797" s="5"/>
       <c r="C797" s="5"/>
@@ -32789,7 +32784,7 @@
       <c r="Z797" s="5"/>
       <c r="AA797" s="5"/>
     </row>
-    <row r="798" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:27">
       <c r="A798" s="5"/>
       <c r="B798" s="5"/>
       <c r="C798" s="5"/>
@@ -32818,7 +32813,7 @@
       <c r="Z798" s="5"/>
       <c r="AA798" s="5"/>
     </row>
-    <row r="799" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:27">
       <c r="A799" s="5"/>
       <c r="B799" s="5"/>
       <c r="C799" s="5"/>
@@ -32847,7 +32842,7 @@
       <c r="Z799" s="5"/>
       <c r="AA799" s="5"/>
     </row>
-    <row r="800" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:27">
       <c r="A800" s="5"/>
       <c r="B800" s="5"/>
       <c r="C800" s="5"/>
@@ -32876,7 +32871,7 @@
       <c r="Z800" s="5"/>
       <c r="AA800" s="5"/>
     </row>
-    <row r="801" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:27">
       <c r="A801" s="5"/>
       <c r="B801" s="5"/>
       <c r="C801" s="5"/>
@@ -32905,7 +32900,7 @@
       <c r="Z801" s="5"/>
       <c r="AA801" s="5"/>
     </row>
-    <row r="802" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:27">
       <c r="A802" s="5"/>
       <c r="B802" s="5"/>
       <c r="C802" s="5"/>
@@ -32934,7 +32929,7 @@
       <c r="Z802" s="5"/>
       <c r="AA802" s="5"/>
     </row>
-    <row r="803" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:27">
       <c r="A803" s="5"/>
       <c r="B803" s="5"/>
       <c r="C803" s="5"/>
@@ -32963,7 +32958,7 @@
       <c r="Z803" s="5"/>
       <c r="AA803" s="5"/>
     </row>
-    <row r="804" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:27">
       <c r="A804" s="5"/>
       <c r="B804" s="5"/>
       <c r="C804" s="5"/>
@@ -32992,7 +32987,7 @@
       <c r="Z804" s="5"/>
       <c r="AA804" s="5"/>
     </row>
-    <row r="805" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:27">
       <c r="A805" s="5"/>
       <c r="B805" s="5"/>
       <c r="C805" s="5"/>
@@ -33021,7 +33016,7 @@
       <c r="Z805" s="5"/>
       <c r="AA805" s="5"/>
     </row>
-    <row r="806" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:27">
       <c r="A806" s="5"/>
       <c r="B806" s="5"/>
       <c r="C806" s="5"/>
@@ -33050,7 +33045,7 @@
       <c r="Z806" s="5"/>
       <c r="AA806" s="5"/>
     </row>
-    <row r="807" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:27">
       <c r="A807" s="5"/>
       <c r="B807" s="5"/>
       <c r="C807" s="5"/>
@@ -33079,7 +33074,7 @@
       <c r="Z807" s="5"/>
       <c r="AA807" s="5"/>
     </row>
-    <row r="808" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:27">
       <c r="A808" s="5"/>
       <c r="B808" s="5"/>
       <c r="C808" s="5"/>
@@ -33108,7 +33103,7 @@
       <c r="Z808" s="5"/>
       <c r="AA808" s="5"/>
     </row>
-    <row r="809" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:27">
       <c r="A809" s="5"/>
       <c r="B809" s="5"/>
       <c r="C809" s="5"/>
@@ -33137,7 +33132,7 @@
       <c r="Z809" s="5"/>
       <c r="AA809" s="5"/>
     </row>
-    <row r="810" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:27">
       <c r="A810" s="5"/>
       <c r="B810" s="5"/>
       <c r="C810" s="5"/>
@@ -33166,7 +33161,7 @@
       <c r="Z810" s="5"/>
       <c r="AA810" s="5"/>
     </row>
-    <row r="811" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:27">
       <c r="A811" s="5"/>
       <c r="B811" s="5"/>
       <c r="C811" s="5"/>
@@ -33195,7 +33190,7 @@
       <c r="Z811" s="5"/>
       <c r="AA811" s="5"/>
     </row>
-    <row r="812" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:27">
       <c r="A812" s="5"/>
       <c r="B812" s="5"/>
       <c r="C812" s="5"/>
@@ -33224,7 +33219,7 @@
       <c r="Z812" s="5"/>
       <c r="AA812" s="5"/>
     </row>
-    <row r="813" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:27">
       <c r="A813" s="5"/>
       <c r="B813" s="5"/>
       <c r="C813" s="5"/>
@@ -33253,7 +33248,7 @@
       <c r="Z813" s="5"/>
       <c r="AA813" s="5"/>
     </row>
-    <row r="814" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:27">
       <c r="A814" s="5"/>
       <c r="B814" s="5"/>
       <c r="C814" s="5"/>
@@ -33282,7 +33277,7 @@
       <c r="Z814" s="5"/>
       <c r="AA814" s="5"/>
     </row>
-    <row r="815" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:27">
       <c r="A815" s="5"/>
       <c r="B815" s="5"/>
       <c r="C815" s="5"/>
@@ -33311,7 +33306,7 @@
       <c r="Z815" s="5"/>
       <c r="AA815" s="5"/>
     </row>
-    <row r="816" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:27">
       <c r="A816" s="5"/>
       <c r="B816" s="5"/>
       <c r="C816" s="5"/>
@@ -33340,7 +33335,7 @@
       <c r="Z816" s="5"/>
       <c r="AA816" s="5"/>
     </row>
-    <row r="817" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:27">
       <c r="A817" s="5"/>
       <c r="B817" s="5"/>
       <c r="C817" s="5"/>
@@ -33369,7 +33364,7 @@
       <c r="Z817" s="5"/>
       <c r="AA817" s="5"/>
     </row>
-    <row r="818" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:27">
       <c r="A818" s="5"/>
       <c r="B818" s="5"/>
       <c r="C818" s="5"/>
@@ -33398,7 +33393,7 @@
       <c r="Z818" s="5"/>
       <c r="AA818" s="5"/>
     </row>
-    <row r="819" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:27">
       <c r="A819" s="5"/>
       <c r="B819" s="5"/>
       <c r="C819" s="5"/>
@@ -33427,7 +33422,7 @@
       <c r="Z819" s="5"/>
       <c r="AA819" s="5"/>
     </row>
-    <row r="820" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:27">
       <c r="A820" s="5"/>
       <c r="B820" s="5"/>
       <c r="C820" s="5"/>
@@ -33456,7 +33451,7 @@
       <c r="Z820" s="5"/>
       <c r="AA820" s="5"/>
     </row>
-    <row r="821" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:27">
       <c r="A821" s="5"/>
       <c r="B821" s="5"/>
       <c r="C821" s="5"/>
@@ -33485,7 +33480,7 @@
       <c r="Z821" s="5"/>
       <c r="AA821" s="5"/>
     </row>
-    <row r="822" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:27">
       <c r="A822" s="5"/>
       <c r="B822" s="5"/>
       <c r="C822" s="5"/>
@@ -33514,7 +33509,7 @@
       <c r="Z822" s="5"/>
       <c r="AA822" s="5"/>
     </row>
-    <row r="823" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:27">
       <c r="A823" s="5"/>
       <c r="B823" s="5"/>
       <c r="C823" s="5"/>
@@ -33543,7 +33538,7 @@
       <c r="Z823" s="5"/>
       <c r="AA823" s="5"/>
     </row>
-    <row r="824" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:27">
       <c r="A824" s="5"/>
       <c r="B824" s="5"/>
       <c r="C824" s="5"/>
@@ -33572,7 +33567,7 @@
       <c r="Z824" s="5"/>
       <c r="AA824" s="5"/>
     </row>
-    <row r="825" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:27">
       <c r="A825" s="5"/>
       <c r="B825" s="5"/>
       <c r="C825" s="5"/>
@@ -33601,7 +33596,7 @@
       <c r="Z825" s="5"/>
       <c r="AA825" s="5"/>
     </row>
-    <row r="826" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:27">
       <c r="A826" s="5"/>
       <c r="B826" s="5"/>
       <c r="C826" s="5"/>
@@ -33630,7 +33625,7 @@
       <c r="Z826" s="5"/>
       <c r="AA826" s="5"/>
     </row>
-    <row r="827" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:27">
       <c r="A827" s="5"/>
       <c r="B827" s="5"/>
       <c r="C827" s="5"/>
@@ -33659,7 +33654,7 @@
       <c r="Z827" s="5"/>
       <c r="AA827" s="5"/>
     </row>
-    <row r="828" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:27">
       <c r="A828" s="5"/>
       <c r="B828" s="5"/>
       <c r="C828" s="5"/>
@@ -33688,7 +33683,7 @@
       <c r="Z828" s="5"/>
       <c r="AA828" s="5"/>
     </row>
-    <row r="829" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:27">
       <c r="A829" s="5"/>
       <c r="B829" s="5"/>
       <c r="C829" s="5"/>
@@ -33717,7 +33712,7 @@
       <c r="Z829" s="5"/>
       <c r="AA829" s="5"/>
     </row>
-    <row r="830" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:27">
       <c r="A830" s="5"/>
       <c r="B830" s="5"/>
       <c r="C830" s="5"/>
@@ -33746,7 +33741,7 @@
       <c r="Z830" s="5"/>
       <c r="AA830" s="5"/>
     </row>
-    <row r="831" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:27">
       <c r="A831" s="5"/>
       <c r="B831" s="5"/>
       <c r="C831" s="5"/>
@@ -33775,7 +33770,7 @@
       <c r="Z831" s="5"/>
       <c r="AA831" s="5"/>
     </row>
-    <row r="832" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:27">
       <c r="A832" s="5"/>
       <c r="B832" s="5"/>
       <c r="C832" s="5"/>
@@ -33804,7 +33799,7 @@
       <c r="Z832" s="5"/>
       <c r="AA832" s="5"/>
     </row>
-    <row r="833" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:27">
       <c r="A833" s="5"/>
       <c r="B833" s="5"/>
       <c r="C833" s="5"/>
@@ -33833,7 +33828,7 @@
       <c r="Z833" s="5"/>
       <c r="AA833" s="5"/>
     </row>
-    <row r="834" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:27">
       <c r="A834" s="5"/>
       <c r="B834" s="5"/>
       <c r="C834" s="5"/>
@@ -33862,7 +33857,7 @@
       <c r="Z834" s="5"/>
       <c r="AA834" s="5"/>
     </row>
-    <row r="835" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:27">
       <c r="A835" s="5"/>
       <c r="B835" s="5"/>
       <c r="C835" s="5"/>
@@ -33891,7 +33886,7 @@
       <c r="Z835" s="5"/>
       <c r="AA835" s="5"/>
     </row>
-    <row r="836" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:27">
       <c r="A836" s="5"/>
       <c r="B836" s="5"/>
       <c r="C836" s="5"/>
@@ -33920,7 +33915,7 @@
       <c r="Z836" s="5"/>
       <c r="AA836" s="5"/>
     </row>
-    <row r="837" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:27">
       <c r="A837" s="5"/>
       <c r="B837" s="5"/>
       <c r="C837" s="5"/>
@@ -33949,7 +33944,7 @@
       <c r="Z837" s="5"/>
       <c r="AA837" s="5"/>
     </row>
-    <row r="838" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:27">
       <c r="A838" s="5"/>
       <c r="B838" s="5"/>
       <c r="C838" s="5"/>
@@ -33978,7 +33973,7 @@
       <c r="Z838" s="5"/>
       <c r="AA838" s="5"/>
     </row>
-    <row r="839" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:27">
       <c r="A839" s="5"/>
       <c r="B839" s="5"/>
       <c r="C839" s="5"/>
@@ -34007,7 +34002,7 @@
       <c r="Z839" s="5"/>
       <c r="AA839" s="5"/>
     </row>
-    <row r="840" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:27">
       <c r="A840" s="5"/>
       <c r="B840" s="5"/>
       <c r="C840" s="5"/>
@@ -34036,7 +34031,7 @@
       <c r="Z840" s="5"/>
       <c r="AA840" s="5"/>
     </row>
-    <row r="841" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:27">
       <c r="A841" s="5"/>
       <c r="B841" s="5"/>
       <c r="C841" s="5"/>
@@ -34065,7 +34060,7 @@
       <c r="Z841" s="5"/>
       <c r="AA841" s="5"/>
     </row>
-    <row r="842" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:27">
       <c r="A842" s="5"/>
       <c r="B842" s="5"/>
       <c r="C842" s="5"/>
@@ -34094,7 +34089,7 @@
       <c r="Z842" s="5"/>
       <c r="AA842" s="5"/>
     </row>
-    <row r="843" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:27">
       <c r="A843" s="5"/>
       <c r="B843" s="5"/>
       <c r="C843" s="5"/>
@@ -34123,7 +34118,7 @@
       <c r="Z843" s="5"/>
       <c r="AA843" s="5"/>
     </row>
-    <row r="844" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:27">
       <c r="A844" s="5"/>
       <c r="B844" s="5"/>
       <c r="C844" s="5"/>
@@ -34152,7 +34147,7 @@
       <c r="Z844" s="5"/>
       <c r="AA844" s="5"/>
     </row>
-    <row r="845" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:27">
       <c r="A845" s="5"/>
       <c r="B845" s="5"/>
       <c r="C845" s="5"/>
@@ -34181,7 +34176,7 @@
       <c r="Z845" s="5"/>
       <c r="AA845" s="5"/>
     </row>
-    <row r="846" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:27">
       <c r="A846" s="5"/>
       <c r="B846" s="5"/>
       <c r="C846" s="5"/>
@@ -34210,7 +34205,7 @@
       <c r="Z846" s="5"/>
       <c r="AA846" s="5"/>
     </row>
-    <row r="847" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:27">
       <c r="A847" s="5"/>
       <c r="B847" s="5"/>
       <c r="C847" s="5"/>
@@ -34239,7 +34234,7 @@
       <c r="Z847" s="5"/>
       <c r="AA847" s="5"/>
     </row>
-    <row r="848" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:27">
       <c r="A848" s="5"/>
       <c r="B848" s="5"/>
       <c r="C848" s="5"/>
@@ -34268,7 +34263,7 @@
       <c r="Z848" s="5"/>
       <c r="AA848" s="5"/>
     </row>
-    <row r="849" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:27">
       <c r="A849" s="5"/>
       <c r="B849" s="5"/>
       <c r="C849" s="5"/>
@@ -34297,7 +34292,7 @@
       <c r="Z849" s="5"/>
       <c r="AA849" s="5"/>
     </row>
-    <row r="850" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:27">
       <c r="A850" s="5"/>
       <c r="B850" s="5"/>
       <c r="C850" s="5"/>
@@ -34326,7 +34321,7 @@
       <c r="Z850" s="5"/>
       <c r="AA850" s="5"/>
     </row>
-    <row r="851" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:27">
       <c r="A851" s="5"/>
       <c r="B851" s="5"/>
       <c r="C851" s="5"/>
@@ -34355,7 +34350,7 @@
       <c r="Z851" s="5"/>
       <c r="AA851" s="5"/>
     </row>
-    <row r="852" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:27">
       <c r="A852" s="5"/>
       <c r="B852" s="5"/>
       <c r="C852" s="5"/>
@@ -34384,7 +34379,7 @@
       <c r="Z852" s="5"/>
       <c r="AA852" s="5"/>
     </row>
-    <row r="853" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:27">
       <c r="A853" s="5"/>
       <c r="B853" s="5"/>
       <c r="C853" s="5"/>
@@ -34413,7 +34408,7 @@
       <c r="Z853" s="5"/>
       <c r="AA853" s="5"/>
     </row>
-    <row r="854" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:27">
       <c r="A854" s="5"/>
       <c r="B854" s="5"/>
       <c r="C854" s="5"/>
@@ -34442,7 +34437,7 @@
       <c r="Z854" s="5"/>
       <c r="AA854" s="5"/>
     </row>
-    <row r="855" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:27">
       <c r="A855" s="5"/>
       <c r="B855" s="5"/>
       <c r="C855" s="5"/>
@@ -34471,7 +34466,7 @@
       <c r="Z855" s="5"/>
       <c r="AA855" s="5"/>
     </row>
-    <row r="856" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:27">
       <c r="A856" s="5"/>
       <c r="B856" s="5"/>
       <c r="C856" s="5"/>
@@ -34500,7 +34495,7 @@
       <c r="Z856" s="5"/>
       <c r="AA856" s="5"/>
     </row>
-    <row r="857" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:27">
       <c r="A857" s="5"/>
       <c r="B857" s="5"/>
       <c r="C857" s="5"/>
@@ -34529,7 +34524,7 @@
       <c r="Z857" s="5"/>
       <c r="AA857" s="5"/>
     </row>
-    <row r="858" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:27">
       <c r="A858" s="5"/>
       <c r="B858" s="5"/>
       <c r="C858" s="5"/>
@@ -34558,7 +34553,7 @@
       <c r="Z858" s="5"/>
       <c r="AA858" s="5"/>
     </row>
-    <row r="859" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:27">
       <c r="A859" s="5"/>
       <c r="B859" s="5"/>
       <c r="C859" s="5"/>
@@ -34587,7 +34582,7 @@
       <c r="Z859" s="5"/>
       <c r="AA859" s="5"/>
     </row>
-    <row r="860" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:27">
       <c r="A860" s="5"/>
       <c r="B860" s="5"/>
       <c r="C860" s="5"/>
@@ -34616,7 +34611,7 @@
       <c r="Z860" s="5"/>
       <c r="AA860" s="5"/>
     </row>
-    <row r="861" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:27">
       <c r="A861" s="5"/>
       <c r="B861" s="5"/>
       <c r="C861" s="5"/>
@@ -34645,7 +34640,7 @@
       <c r="Z861" s="5"/>
       <c r="AA861" s="5"/>
     </row>
-    <row r="862" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:27">
       <c r="A862" s="5"/>
       <c r="B862" s="5"/>
       <c r="C862" s="5"/>
@@ -34674,7 +34669,7 @@
       <c r="Z862" s="5"/>
       <c r="AA862" s="5"/>
     </row>
-    <row r="863" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:27">
       <c r="A863" s="5"/>
       <c r="B863" s="5"/>
       <c r="C863" s="5"/>
@@ -34703,7 +34698,7 @@
       <c r="Z863" s="5"/>
       <c r="AA863" s="5"/>
     </row>
-    <row r="864" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:27">
       <c r="A864" s="5"/>
       <c r="B864" s="5"/>
       <c r="C864" s="5"/>
@@ -34732,7 +34727,7 @@
       <c r="Z864" s="5"/>
       <c r="AA864" s="5"/>
     </row>
-    <row r="865" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:27">
       <c r="A865" s="5"/>
       <c r="B865" s="5"/>
       <c r="C865" s="5"/>
@@ -34761,7 +34756,7 @@
       <c r="Z865" s="5"/>
       <c r="AA865" s="5"/>
     </row>
-    <row r="866" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:27">
       <c r="A866" s="5"/>
       <c r="B866" s="5"/>
       <c r="C866" s="5"/>
@@ -34790,7 +34785,7 @@
       <c r="Z866" s="5"/>
       <c r="AA866" s="5"/>
     </row>
-    <row r="867" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:27">
       <c r="A867" s="5"/>
       <c r="B867" s="5"/>
       <c r="C867" s="5"/>
@@ -34819,7 +34814,7 @@
       <c r="Z867" s="5"/>
       <c r="AA867" s="5"/>
     </row>
-    <row r="868" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:27">
       <c r="A868" s="5"/>
       <c r="B868" s="5"/>
       <c r="C868" s="5"/>
@@ -34848,7 +34843,7 @@
       <c r="Z868" s="5"/>
       <c r="AA868" s="5"/>
     </row>
-    <row r="869" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:27">
       <c r="A869" s="5"/>
       <c r="B869" s="5"/>
       <c r="C869" s="5"/>
@@ -34877,7 +34872,7 @@
       <c r="Z869" s="5"/>
       <c r="AA869" s="5"/>
     </row>
-    <row r="870" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:27">
       <c r="A870" s="5"/>
       <c r="B870" s="5"/>
       <c r="C870" s="5"/>
@@ -34906,7 +34901,7 @@
       <c r="Z870" s="5"/>
       <c r="AA870" s="5"/>
     </row>
-    <row r="871" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:27">
       <c r="A871" s="5"/>
       <c r="B871" s="5"/>
       <c r="C871" s="5"/>
@@ -34935,7 +34930,7 @@
       <c r="Z871" s="5"/>
       <c r="AA871" s="5"/>
     </row>
-    <row r="872" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:27">
       <c r="A872" s="5"/>
       <c r="B872" s="5"/>
       <c r="C872" s="5"/>
@@ -34964,7 +34959,7 @@
       <c r="Z872" s="5"/>
       <c r="AA872" s="5"/>
     </row>
-    <row r="873" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:27">
       <c r="A873" s="5"/>
       <c r="B873" s="5"/>
       <c r="C873" s="5"/>
@@ -34993,7 +34988,7 @@
       <c r="Z873" s="5"/>
       <c r="AA873" s="5"/>
     </row>
-    <row r="874" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:27">
       <c r="A874" s="5"/>
       <c r="B874" s="5"/>
       <c r="C874" s="5"/>
@@ -35022,7 +35017,7 @@
       <c r="Z874" s="5"/>
       <c r="AA874" s="5"/>
     </row>
-    <row r="875" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:27">
       <c r="A875" s="5"/>
       <c r="B875" s="5"/>
       <c r="C875" s="5"/>
@@ -35051,7 +35046,7 @@
       <c r="Z875" s="5"/>
       <c r="AA875" s="5"/>
     </row>
-    <row r="876" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:27">
       <c r="A876" s="5"/>
       <c r="B876" s="5"/>
       <c r="C876" s="5"/>
@@ -35080,7 +35075,7 @@
       <c r="Z876" s="5"/>
       <c r="AA876" s="5"/>
     </row>
-    <row r="877" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:27">
       <c r="A877" s="5"/>
       <c r="B877" s="5"/>
       <c r="C877" s="5"/>
@@ -35109,7 +35104,7 @@
       <c r="Z877" s="5"/>
       <c r="AA877" s="5"/>
     </row>
-    <row r="878" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:27">
       <c r="A878" s="5"/>
       <c r="B878" s="5"/>
       <c r="C878" s="5"/>
@@ -35138,7 +35133,7 @@
       <c r="Z878" s="5"/>
       <c r="AA878" s="5"/>
     </row>
-    <row r="879" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:27">
       <c r="A879" s="5"/>
       <c r="B879" s="5"/>
       <c r="C879" s="5"/>
@@ -35167,7 +35162,7 @@
       <c r="Z879" s="5"/>
       <c r="AA879" s="5"/>
     </row>
-    <row r="880" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:27">
       <c r="A880" s="5"/>
       <c r="B880" s="5"/>
       <c r="C880" s="5"/>
@@ -35196,7 +35191,7 @@
       <c r="Z880" s="5"/>
       <c r="AA880" s="5"/>
     </row>
-    <row r="881" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:27">
       <c r="A881" s="5"/>
       <c r="B881" s="5"/>
       <c r="C881" s="5"/>
@@ -35225,7 +35220,7 @@
       <c r="Z881" s="5"/>
       <c r="AA881" s="5"/>
     </row>
-    <row r="882" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:27">
       <c r="A882" s="5"/>
       <c r="B882" s="5"/>
       <c r="C882" s="5"/>
@@ -35254,7 +35249,7 @@
       <c r="Z882" s="5"/>
       <c r="AA882" s="5"/>
     </row>
-    <row r="883" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:27">
       <c r="A883" s="5"/>
       <c r="B883" s="5"/>
       <c r="C883" s="5"/>
@@ -35283,7 +35278,7 @@
       <c r="Z883" s="5"/>
       <c r="AA883" s="5"/>
     </row>
-    <row r="884" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:27">
       <c r="A884" s="5"/>
       <c r="B884" s="5"/>
       <c r="C884" s="5"/>
@@ -35312,7 +35307,7 @@
       <c r="Z884" s="5"/>
       <c r="AA884" s="5"/>
     </row>
-    <row r="885" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:27">
       <c r="A885" s="5"/>
       <c r="B885" s="5"/>
       <c r="C885" s="5"/>
@@ -35341,7 +35336,7 @@
       <c r="Z885" s="5"/>
       <c r="AA885" s="5"/>
     </row>
-    <row r="886" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:27">
       <c r="A886" s="5"/>
       <c r="B886" s="5"/>
       <c r="C886" s="5"/>
@@ -35370,7 +35365,7 @@
       <c r="Z886" s="5"/>
       <c r="AA886" s="5"/>
     </row>
-    <row r="887" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:27">
       <c r="A887" s="5"/>
       <c r="B887" s="5"/>
       <c r="C887" s="5"/>
@@ -35399,7 +35394,7 @@
       <c r="Z887" s="5"/>
       <c r="AA887" s="5"/>
     </row>
-    <row r="888" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:27">
       <c r="A888" s="5"/>
       <c r="B888" s="5"/>
       <c r="C888" s="5"/>
@@ -35428,7 +35423,7 @@
       <c r="Z888" s="5"/>
       <c r="AA888" s="5"/>
     </row>
-    <row r="889" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:27">
       <c r="A889" s="5"/>
       <c r="B889" s="5"/>
       <c r="C889" s="5"/>
@@ -35457,7 +35452,7 @@
       <c r="Z889" s="5"/>
       <c r="AA889" s="5"/>
     </row>
-    <row r="890" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:27">
       <c r="A890" s="5"/>
       <c r="B890" s="5"/>
       <c r="C890" s="5"/>
@@ -35486,7 +35481,7 @@
       <c r="Z890" s="5"/>
       <c r="AA890" s="5"/>
     </row>
-    <row r="891" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:27">
       <c r="A891" s="5"/>
       <c r="B891" s="5"/>
       <c r="C891" s="5"/>
@@ -35515,7 +35510,7 @@
       <c r="Z891" s="5"/>
       <c r="AA891" s="5"/>
     </row>
-    <row r="892" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:27">
       <c r="A892" s="5"/>
       <c r="B892" s="5"/>
       <c r="C892" s="5"/>
@@ -35544,7 +35539,7 @@
       <c r="Z892" s="5"/>
       <c r="AA892" s="5"/>
     </row>
-    <row r="893" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:27">
       <c r="A893" s="5"/>
       <c r="B893" s="5"/>
       <c r="C893" s="5"/>
@@ -35573,7 +35568,7 @@
       <c r="Z893" s="5"/>
       <c r="AA893" s="5"/>
     </row>
-    <row r="894" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:27">
       <c r="A894" s="5"/>
       <c r="B894" s="5"/>
       <c r="C894" s="5"/>
@@ -35602,7 +35597,7 @@
       <c r="Z894" s="5"/>
       <c r="AA894" s="5"/>
     </row>
-    <row r="895" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:27">
       <c r="A895" s="5"/>
       <c r="B895" s="5"/>
       <c r="C895" s="5"/>
@@ -35631,7 +35626,7 @@
       <c r="Z895" s="5"/>
       <c r="AA895" s="5"/>
     </row>
-    <row r="896" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:27">
       <c r="A896" s="5"/>
       <c r="B896" s="5"/>
       <c r="C896" s="5"/>
@@ -35660,7 +35655,7 @@
       <c r="Z896" s="5"/>
       <c r="AA896" s="5"/>
     </row>
-    <row r="897" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:27">
       <c r="A897" s="5"/>
       <c r="B897" s="5"/>
       <c r="C897" s="5"/>
@@ -35689,7 +35684,7 @@
       <c r="Z897" s="5"/>
       <c r="AA897" s="5"/>
     </row>
-    <row r="898" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:27">
       <c r="A898" s="5"/>
       <c r="B898" s="5"/>
       <c r="C898" s="5"/>
@@ -35718,7 +35713,7 @@
       <c r="Z898" s="5"/>
       <c r="AA898" s="5"/>
     </row>
-    <row r="899" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:27">
       <c r="A899" s="5"/>
       <c r="B899" s="5"/>
       <c r="C899" s="5"/>
@@ -35747,7 +35742,7 @@
       <c r="Z899" s="5"/>
       <c r="AA899" s="5"/>
     </row>
-    <row r="900" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:27">
       <c r="A900" s="5"/>
       <c r="B900" s="5"/>
       <c r="C900" s="5"/>
@@ -35776,7 +35771,7 @@
       <c r="Z900" s="5"/>
       <c r="AA900" s="5"/>
     </row>
-    <row r="901" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:27">
       <c r="A901" s="5"/>
       <c r="B901" s="5"/>
       <c r="C901" s="5"/>
@@ -35805,7 +35800,7 @@
       <c r="Z901" s="5"/>
       <c r="AA901" s="5"/>
     </row>
-    <row r="902" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:27">
       <c r="A902" s="5"/>
       <c r="B902" s="5"/>
       <c r="C902" s="5"/>
@@ -35834,7 +35829,7 @@
       <c r="Z902" s="5"/>
       <c r="AA902" s="5"/>
     </row>
-    <row r="903" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:27">
       <c r="A903" s="5"/>
       <c r="B903" s="5"/>
       <c r="C903" s="5"/>
@@ -35863,7 +35858,7 @@
       <c r="Z903" s="5"/>
       <c r="AA903" s="5"/>
     </row>
-    <row r="904" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:27">
       <c r="A904" s="5"/>
       <c r="B904" s="5"/>
       <c r="C904" s="5"/>
@@ -35892,7 +35887,7 @@
       <c r="Z904" s="5"/>
       <c r="AA904" s="5"/>
     </row>
-    <row r="905" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:27">
       <c r="A905" s="5"/>
       <c r="B905" s="5"/>
       <c r="C905" s="5"/>
@@ -35921,7 +35916,7 @@
       <c r="Z905" s="5"/>
       <c r="AA905" s="5"/>
     </row>
-    <row r="906" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:27">
       <c r="A906" s="5"/>
       <c r="B906" s="5"/>
       <c r="C906" s="5"/>
@@ -35950,7 +35945,7 @@
       <c r="Z906" s="5"/>
       <c r="AA906" s="5"/>
     </row>
-    <row r="907" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:27">
       <c r="A907" s="5"/>
       <c r="B907" s="5"/>
       <c r="C907" s="5"/>
@@ -35979,7 +35974,7 @@
       <c r="Z907" s="5"/>
       <c r="AA907" s="5"/>
     </row>
-    <row r="908" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:27">
       <c r="A908" s="5"/>
       <c r="B908" s="5"/>
       <c r="C908" s="5"/>
@@ -36008,7 +36003,7 @@
       <c r="Z908" s="5"/>
       <c r="AA908" s="5"/>
     </row>
-    <row r="909" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:27">
       <c r="A909" s="5"/>
       <c r="B909" s="5"/>
       <c r="C909" s="5"/>
@@ -36037,7 +36032,7 @@
       <c r="Z909" s="5"/>
       <c r="AA909" s="5"/>
     </row>
-    <row r="910" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:27">
       <c r="A910" s="5"/>
       <c r="B910" s="5"/>
       <c r="C910" s="5"/>
@@ -36066,7 +36061,7 @@
       <c r="Z910" s="5"/>
       <c r="AA910" s="5"/>
     </row>
-    <row r="911" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:27">
       <c r="A911" s="5"/>
       <c r="B911" s="5"/>
       <c r="C911" s="5"/>
@@ -36095,7 +36090,7 @@
       <c r="Z911" s="5"/>
       <c r="AA911" s="5"/>
     </row>
-    <row r="912" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:27">
       <c r="A912" s="5"/>
       <c r="B912" s="5"/>
       <c r="C912" s="5"/>
@@ -36124,7 +36119,7 @@
       <c r="Z912" s="5"/>
       <c r="AA912" s="5"/>
     </row>
-    <row r="913" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:27">
       <c r="A913" s="5"/>
       <c r="B913" s="5"/>
       <c r="C913" s="5"/>
@@ -36153,7 +36148,7 @@
       <c r="Z913" s="5"/>
       <c r="AA913" s="5"/>
     </row>
-    <row r="914" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:27">
       <c r="A914" s="5"/>
       <c r="B914" s="5"/>
       <c r="C914" s="5"/>
@@ -36182,7 +36177,7 @@
       <c r="Z914" s="5"/>
       <c r="AA914" s="5"/>
     </row>
-    <row r="915" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:27">
       <c r="A915" s="5"/>
       <c r="B915" s="5"/>
       <c r="C915" s="5"/>
@@ -36211,7 +36206,7 @@
       <c r="Z915" s="5"/>
       <c r="AA915" s="5"/>
     </row>
-    <row r="916" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:27">
       <c r="A916" s="5"/>
       <c r="B916" s="5"/>
       <c r="C916" s="5"/>
@@ -36240,7 +36235,7 @@
       <c r="Z916" s="5"/>
       <c r="AA916" s="5"/>
     </row>
-    <row r="917" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:27">
       <c r="A917" s="5"/>
       <c r="B917" s="5"/>
       <c r="C917" s="5"/>
@@ -36269,7 +36264,7 @@
       <c r="Z917" s="5"/>
       <c r="AA917" s="5"/>
     </row>
-    <row r="918" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:27">
       <c r="A918" s="5"/>
       <c r="B918" s="5"/>
       <c r="C918" s="5"/>
@@ -36298,7 +36293,7 @@
       <c r="Z918" s="5"/>
       <c r="AA918" s="5"/>
     </row>
-    <row r="919" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:27">
       <c r="A919" s="5"/>
       <c r="B919" s="5"/>
       <c r="C919" s="5"/>
@@ -36327,7 +36322,7 @@
       <c r="Z919" s="5"/>
       <c r="AA919" s="5"/>
     </row>
-    <row r="920" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:27">
       <c r="A920" s="5"/>
       <c r="B920" s="5"/>
       <c r="C920" s="5"/>
@@ -36356,7 +36351,7 @@
       <c r="Z920" s="5"/>
       <c r="AA920" s="5"/>
     </row>
-    <row r="921" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:27">
       <c r="A921" s="5"/>
       <c r="B921" s="5"/>
       <c r="C921" s="5"/>
@@ -36385,7 +36380,7 @@
       <c r="Z921" s="5"/>
       <c r="AA921" s="5"/>
     </row>
-    <row r="922" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:27">
       <c r="A922" s="5"/>
       <c r="B922" s="5"/>
       <c r="C922" s="5"/>
@@ -36414,7 +36409,7 @@
       <c r="Z922" s="5"/>
       <c r="AA922" s="5"/>
     </row>
-    <row r="923" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:27">
       <c r="A923" s="5"/>
       <c r="B923" s="5"/>
       <c r="C923" s="5"/>
@@ -36443,7 +36438,7 @@
       <c r="Z923" s="5"/>
       <c r="AA923" s="5"/>
     </row>
-    <row r="924" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:27">
       <c r="A924" s="5"/>
       <c r="B924" s="5"/>
       <c r="C924" s="5"/>
@@ -36472,7 +36467,7 @@
       <c r="Z924" s="5"/>
       <c r="AA924" s="5"/>
     </row>
-    <row r="925" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:27">
       <c r="A925" s="5"/>
       <c r="B925" s="5"/>
       <c r="C925" s="5"/>
@@ -36501,7 +36496,7 @@
       <c r="Z925" s="5"/>
       <c r="AA925" s="5"/>
     </row>
-    <row r="926" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:27">
       <c r="A926" s="5"/>
       <c r="B926" s="5"/>
       <c r="C926" s="5"/>
@@ -36530,7 +36525,7 @@
       <c r="Z926" s="5"/>
       <c r="AA926" s="5"/>
     </row>
-    <row r="927" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:27">
       <c r="A927" s="5"/>
       <c r="B927" s="5"/>
       <c r="C927" s="5"/>
@@ -36559,7 +36554,7 @@
       <c r="Z927" s="5"/>
       <c r="AA927" s="5"/>
     </row>
-    <row r="928" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:27">
       <c r="A928" s="5"/>
       <c r="B928" s="5"/>
       <c r="C928" s="5"/>
@@ -36588,7 +36583,7 @@
       <c r="Z928" s="5"/>
       <c r="AA928" s="5"/>
     </row>
-    <row r="929" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:27">
       <c r="A929" s="5"/>
       <c r="B929" s="5"/>
       <c r="C929" s="5"/>
@@ -36617,7 +36612,7 @@
       <c r="Z929" s="5"/>
       <c r="AA929" s="5"/>
     </row>
-    <row r="930" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:27">
       <c r="A930" s="5"/>
       <c r="B930" s="5"/>
       <c r="C930" s="5"/>
@@ -36646,7 +36641,7 @@
       <c r="Z930" s="5"/>
       <c r="AA930" s="5"/>
     </row>
-    <row r="931" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:27">
       <c r="A931" s="5"/>
       <c r="B931" s="5"/>
       <c r="C931" s="5"/>
@@ -36675,7 +36670,7 @@
       <c r="Z931" s="5"/>
       <c r="AA931" s="5"/>
     </row>
-    <row r="932" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:27">
       <c r="A932" s="5"/>
       <c r="B932" s="5"/>
       <c r="C932" s="5"/>
@@ -36704,7 +36699,7 @@
       <c r="Z932" s="5"/>
       <c r="AA932" s="5"/>
     </row>
-    <row r="933" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:27">
       <c r="A933" s="5"/>
       <c r="B933" s="5"/>
       <c r="C933" s="5"/>
@@ -36733,7 +36728,7 @@
       <c r="Z933" s="5"/>
       <c r="AA933" s="5"/>
     </row>
-    <row r="934" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:27">
       <c r="A934" s="5"/>
       <c r="B934" s="5"/>
       <c r="C934" s="5"/>
@@ -36762,7 +36757,7 @@
       <c r="Z934" s="5"/>
       <c r="AA934" s="5"/>
     </row>
-    <row r="935" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:27">
       <c r="A935" s="5"/>
       <c r="B935" s="5"/>
       <c r="C935" s="5"/>
@@ -36791,7 +36786,7 @@
       <c r="Z935" s="5"/>
       <c r="AA935" s="5"/>
     </row>
-    <row r="936" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:27">
       <c r="A936" s="5"/>
       <c r="B936" s="5"/>
       <c r="C936" s="5"/>
@@ -36820,7 +36815,7 @@
       <c r="Z936" s="5"/>
       <c r="AA936" s="5"/>
     </row>
-    <row r="937" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:27">
       <c r="A937" s="5"/>
       <c r="B937" s="5"/>
       <c r="C937" s="5"/>
@@ -36849,7 +36844,7 @@
       <c r="Z937" s="5"/>
       <c r="AA937" s="5"/>
     </row>
-    <row r="938" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:27">
       <c r="A938" s="5"/>
       <c r="B938" s="5"/>
       <c r="C938" s="5"/>
@@ -36878,7 +36873,7 @@
       <c r="Z938" s="5"/>
       <c r="AA938" s="5"/>
     </row>
-    <row r="939" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:27">
       <c r="A939" s="5"/>
       <c r="B939" s="5"/>
       <c r="C939" s="5"/>
@@ -36907,7 +36902,7 @@
       <c r="Z939" s="5"/>
       <c r="AA939" s="5"/>
     </row>
-    <row r="940" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:27">
       <c r="A940" s="5"/>
       <c r="B940" s="5"/>
       <c r="C940" s="5"/>
@@ -36936,7 +36931,7 @@
       <c r="Z940" s="5"/>
       <c r="AA940" s="5"/>
     </row>
-    <row r="941" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:27">
       <c r="A941" s="5"/>
       <c r="B941" s="5"/>
       <c r="C941" s="5"/>
@@ -36965,7 +36960,7 @@
       <c r="Z941" s="5"/>
       <c r="AA941" s="5"/>
     </row>
-    <row r="942" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:27">
       <c r="A942" s="5"/>
       <c r="B942" s="5"/>
       <c r="C942" s="5"/>
@@ -36994,7 +36989,7 @@
       <c r="Z942" s="5"/>
       <c r="AA942" s="5"/>
     </row>
-    <row r="943" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:27">
       <c r="A943" s="5"/>
       <c r="B943" s="5"/>
       <c r="C943" s="5"/>
@@ -37023,7 +37018,7 @@
       <c r="Z943" s="5"/>
       <c r="AA943" s="5"/>
     </row>
-    <row r="944" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:27">
       <c r="A944" s="5"/>
       <c r="B944" s="5"/>
       <c r="C944" s="5"/>
@@ -37052,7 +37047,7 @@
       <c r="Z944" s="5"/>
       <c r="AA944" s="5"/>
     </row>
-    <row r="945" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:27">
       <c r="A945" s="5"/>
       <c r="B945" s="5"/>
       <c r="C945" s="5"/>
@@ -37081,7 +37076,7 @@
       <c r="Z945" s="5"/>
       <c r="AA945" s="5"/>
     </row>
-    <row r="946" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:27">
       <c r="A946" s="5"/>
       <c r="B946" s="5"/>
       <c r="C946" s="5"/>
@@ -37110,7 +37105,7 @@
       <c r="Z946" s="5"/>
       <c r="AA946" s="5"/>
     </row>
-    <row r="947" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:27">
       <c r="A947" s="5"/>
       <c r="B947" s="5"/>
       <c r="C947" s="5"/>
@@ -37139,7 +37134,7 @@
       <c r="Z947" s="5"/>
       <c r="AA947" s="5"/>
     </row>
-    <row r="948" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:27">
       <c r="A948" s="5"/>
       <c r="B948" s="5"/>
       <c r="C948" s="5"/>
@@ -37168,7 +37163,7 @@
       <c r="Z948" s="5"/>
       <c r="AA948" s="5"/>
     </row>
-    <row r="949" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:27">
       <c r="A949" s="5"/>
       <c r="B949" s="5"/>
       <c r="C949" s="5"/>
@@ -37197,7 +37192,7 @@
       <c r="Z949" s="5"/>
       <c r="AA949" s="5"/>
     </row>
-    <row r="950" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:27">
       <c r="A950" s="5"/>
       <c r="B950" s="5"/>
       <c r="C950" s="5"/>
@@ -37226,7 +37221,7 @@
       <c r="Z950" s="5"/>
       <c r="AA950" s="5"/>
     </row>
-    <row r="951" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:27">
       <c r="A951" s="5"/>
       <c r="B951" s="5"/>
       <c r="C951" s="5"/>
@@ -37255,7 +37250,7 @@
       <c r="Z951" s="5"/>
       <c r="AA951" s="5"/>
     </row>
-    <row r="952" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:27">
       <c r="A952" s="5"/>
       <c r="B952" s="5"/>
       <c r="C952" s="5"/>
@@ -37284,7 +37279,7 @@
       <c r="Z952" s="5"/>
       <c r="AA952" s="5"/>
     </row>
-    <row r="953" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:27">
       <c r="A953" s="5"/>
       <c r="B953" s="5"/>
       <c r="C953" s="5"/>
@@ -37313,7 +37308,7 @@
       <c r="Z953" s="5"/>
       <c r="AA953" s="5"/>
     </row>
-    <row r="954" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:27">
       <c r="A954" s="5"/>
       <c r="B954" s="5"/>
       <c r="C954" s="5"/>
@@ -37342,7 +37337,7 @@
       <c r="Z954" s="5"/>
       <c r="AA954" s="5"/>
     </row>
-    <row r="955" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:27">
       <c r="A955" s="5"/>
       <c r="B955" s="5"/>
       <c r="C955" s="5"/>
@@ -37371,7 +37366,7 @@
       <c r="Z955" s="5"/>
       <c r="AA955" s="5"/>
     </row>
-    <row r="956" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:27">
       <c r="A956" s="5"/>
       <c r="B956" s="5"/>
       <c r="C956" s="5"/>
@@ -37400,7 +37395,7 @@
       <c r="Z956" s="5"/>
       <c r="AA956" s="5"/>
     </row>
-    <row r="957" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:27">
       <c r="A957" s="5"/>
       <c r="B957" s="5"/>
       <c r="C957" s="5"/>
@@ -37429,7 +37424,7 @@
       <c r="Z957" s="5"/>
       <c r="AA957" s="5"/>
     </row>
-    <row r="958" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:27">
       <c r="A958" s="5"/>
       <c r="B958" s="5"/>
       <c r="C958" s="5"/>
@@ -37458,7 +37453,7 @@
       <c r="Z958" s="5"/>
       <c r="AA958" s="5"/>
     </row>
-    <row r="959" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:27">
       <c r="A959" s="5"/>
       <c r="B959" s="5"/>
       <c r="C959" s="5"/>
@@ -37487,7 +37482,7 @@
       <c r="Z959" s="5"/>
       <c r="AA959" s="5"/>
     </row>
-    <row r="960" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:27">
       <c r="A960" s="5"/>
       <c r="B960" s="5"/>
       <c r="C960" s="5"/>
@@ -37516,7 +37511,7 @@
       <c r="Z960" s="5"/>
       <c r="AA960" s="5"/>
     </row>
-    <row r="961" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:27">
       <c r="A961" s="5"/>
       <c r="B961" s="5"/>
       <c r="C961" s="5"/>
@@ -37545,7 +37540,7 @@
       <c r="Z961" s="5"/>
       <c r="AA961" s="5"/>
     </row>
-    <row r="962" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:27">
       <c r="A962" s="5"/>
       <c r="B962" s="5"/>
       <c r="C962" s="5"/>
@@ -37574,7 +37569,7 @@
       <c r="Z962" s="5"/>
       <c r="AA962" s="5"/>
     </row>
-    <row r="963" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:27">
       <c r="A963" s="5"/>
       <c r="B963" s="5"/>
       <c r="C963" s="5"/>
@@ -37603,7 +37598,7 @@
       <c r="Z963" s="5"/>
       <c r="AA963" s="5"/>
     </row>
-    <row r="964" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:27">
       <c r="A964" s="5"/>
       <c r="B964" s="5"/>
       <c r="C964" s="5"/>
@@ -37632,7 +37627,7 @@
       <c r="Z964" s="5"/>
       <c r="AA964" s="5"/>
     </row>
-    <row r="965" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:27">
       <c r="A965" s="5"/>
       <c r="B965" s="5"/>
       <c r="C965" s="5"/>
@@ -37661,7 +37656,7 @@
       <c r="Z965" s="5"/>
       <c r="AA965" s="5"/>
     </row>
-    <row r="966" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:27">
       <c r="A966" s="5"/>
       <c r="B966" s="5"/>
       <c r="C966" s="5"/>
@@ -37690,7 +37685,7 @@
       <c r="Z966" s="5"/>
       <c r="AA966" s="5"/>
     </row>
-    <row r="967" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:27">
       <c r="A967" s="5"/>
       <c r="B967" s="5"/>
       <c r="C967" s="5"/>
@@ -37719,7 +37714,7 @@
       <c r="Z967" s="5"/>
       <c r="AA967" s="5"/>
     </row>
-    <row r="968" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:27">
       <c r="A968" s="5"/>
       <c r="B968" s="5"/>
       <c r="C968" s="5"/>
@@ -37748,7 +37743,7 @@
       <c r="Z968" s="5"/>
       <c r="AA968" s="5"/>
     </row>
-    <row r="969" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:27">
       <c r="A969" s="5"/>
       <c r="B969" s="5"/>
       <c r="C969" s="5"/>
@@ -37777,7 +37772,7 @@
       <c r="Z969" s="5"/>
       <c r="AA969" s="5"/>
     </row>
-    <row r="970" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:27">
       <c r="A970" s="5"/>
       <c r="B970" s="5"/>
       <c r="C970" s="5"/>
@@ -37806,7 +37801,7 @@
       <c r="Z970" s="5"/>
       <c r="AA970" s="5"/>
     </row>
-    <row r="971" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:27">
       <c r="A971" s="5"/>
       <c r="B971" s="5"/>
       <c r="C971" s="5"/>
@@ -37835,7 +37830,7 @@
       <c r="Z971" s="5"/>
       <c r="AA971" s="5"/>
     </row>
-    <row r="972" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:27">
       <c r="A972" s="5"/>
       <c r="B972" s="5"/>
       <c r="C972" s="5"/>
@@ -37864,7 +37859,7 @@
       <c r="Z972" s="5"/>
       <c r="AA972" s="5"/>
     </row>
-    <row r="973" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:27">
       <c r="A973" s="5"/>
       <c r="B973" s="5"/>
       <c r="C973" s="5"/>
@@ -37893,7 +37888,7 @@
       <c r="Z973" s="5"/>
       <c r="AA973" s="5"/>
     </row>
-    <row r="974" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:27">
       <c r="A974" s="5"/>
       <c r="B974" s="5"/>
       <c r="C974" s="5"/>
@@ -37922,7 +37917,7 @@
       <c r="Z974" s="5"/>
       <c r="AA974" s="5"/>
     </row>
-    <row r="975" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:27">
       <c r="A975" s="5"/>
       <c r="B975" s="5"/>
       <c r="C975" s="5"/>
@@ -37951,7 +37946,7 @@
       <c r="Z975" s="5"/>
       <c r="AA975" s="5"/>
     </row>
-    <row r="976" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:27">
       <c r="A976" s="5"/>
       <c r="B976" s="5"/>
       <c r="C976" s="5"/>
@@ -37980,7 +37975,7 @@
       <c r="Z976" s="5"/>
       <c r="AA976" s="5"/>
     </row>
-    <row r="977" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:27">
       <c r="A977" s="5"/>
       <c r="B977" s="5"/>
       <c r="C977" s="5"/>
@@ -38009,7 +38004,7 @@
       <c r="Z977" s="5"/>
       <c r="AA977" s="5"/>
     </row>
-    <row r="978" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:27">
       <c r="A978" s="5"/>
       <c r="B978" s="5"/>
       <c r="C978" s="5"/>
@@ -38038,7 +38033,7 @@
       <c r="Z978" s="5"/>
       <c r="AA978" s="5"/>
     </row>
-    <row r="979" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:27">
       <c r="A979" s="5"/>
       <c r="B979" s="5"/>
       <c r="C979" s="5"/>
@@ -38067,7 +38062,7 @@
       <c r="Z979" s="5"/>
       <c r="AA979" s="5"/>
     </row>
-    <row r="980" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:27">
       <c r="A980" s="5"/>
       <c r="B980" s="5"/>
       <c r="C980" s="5"/>
@@ -38096,7 +38091,7 @@
       <c r="Z980" s="5"/>
       <c r="AA980" s="5"/>
     </row>
-    <row r="981" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:27">
       <c r="A981" s="5"/>
       <c r="B981" s="5"/>
       <c r="C981" s="5"/>
@@ -38125,7 +38120,7 @@
       <c r="Z981" s="5"/>
       <c r="AA981" s="5"/>
     </row>
-    <row r="982" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:27">
       <c r="A982" s="5"/>
       <c r="B982" s="5"/>
       <c r="C982" s="5"/>
@@ -38154,7 +38149,7 @@
       <c r="Z982" s="5"/>
       <c r="AA982" s="5"/>
     </row>
-    <row r="983" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:27">
       <c r="A983" s="5"/>
       <c r="B983" s="5"/>
       <c r="C983" s="5"/>
@@ -38183,7 +38178,7 @@
       <c r="Z983" s="5"/>
       <c r="AA983" s="5"/>
     </row>
-    <row r="984" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:27">
       <c r="A984" s="5"/>
       <c r="B984" s="5"/>
       <c r="C984" s="5"/>
@@ -38212,7 +38207,7 @@
       <c r="Z984" s="5"/>
       <c r="AA984" s="5"/>
     </row>
-    <row r="985" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:27">
       <c r="A985" s="5"/>
       <c r="B985" s="5"/>
       <c r="C985" s="5"/>
@@ -38241,7 +38236,7 @@
       <c r="Z985" s="5"/>
       <c r="AA985" s="5"/>
     </row>
-    <row r="986" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:27">
       <c r="A986" s="5"/>
       <c r="B986" s="5"/>
       <c r="C986" s="5"/>
@@ -38270,7 +38265,7 @@
       <c r="Z986" s="5"/>
       <c r="AA986" s="5"/>
     </row>
-    <row r="987" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:27">
       <c r="A987" s="5"/>
       <c r="B987" s="5"/>
       <c r="C987" s="5"/>
@@ -38299,7 +38294,7 @@
       <c r="Z987" s="5"/>
       <c r="AA987" s="5"/>
     </row>
-    <row r="988" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:27">
       <c r="A988" s="5"/>
       <c r="B988" s="5"/>
       <c r="C988" s="5"/>
@@ -38328,7 +38323,7 @@
       <c r="Z988" s="5"/>
       <c r="AA988" s="5"/>
     </row>
-    <row r="989" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:27">
       <c r="A989" s="5"/>
       <c r="B989" s="5"/>
       <c r="C989" s="5"/>
@@ -38357,7 +38352,7 @@
       <c r="Z989" s="5"/>
       <c r="AA989" s="5"/>
     </row>
-    <row r="990" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:27">
       <c r="A990" s="5"/>
       <c r="B990" s="5"/>
       <c r="C990" s="5"/>
@@ -38386,7 +38381,7 @@
       <c r="Z990" s="5"/>
       <c r="AA990" s="5"/>
     </row>
-    <row r="991" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:27">
       <c r="A991" s="5"/>
       <c r="B991" s="5"/>
       <c r="C991" s="5"/>
@@ -38415,7 +38410,7 @@
       <c r="Z991" s="5"/>
       <c r="AA991" s="5"/>
     </row>
-    <row r="992" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:27">
       <c r="A992" s="5"/>
       <c r="B992" s="5"/>
       <c r="C992" s="5"/>
@@ -38444,7 +38439,7 @@
       <c r="Z992" s="5"/>
       <c r="AA992" s="5"/>
     </row>
-    <row r="993" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:27">
       <c r="A993" s="5"/>
       <c r="B993" s="5"/>
       <c r="C993" s="5"/>
@@ -38473,7 +38468,7 @@
       <c r="Z993" s="5"/>
       <c r="AA993" s="5"/>
     </row>
-    <row r="994" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:27">
       <c r="A994" s="5"/>
       <c r="B994" s="5"/>
       <c r="C994" s="5"/>
@@ -38502,7 +38497,7 @@
       <c r="Z994" s="5"/>
       <c r="AA994" s="5"/>
     </row>
-    <row r="995" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:27">
       <c r="A995" s="5"/>
       <c r="B995" s="5"/>
       <c r="C995" s="5"/>
@@ -38531,7 +38526,7 @@
       <c r="Z995" s="5"/>
       <c r="AA995" s="5"/>
     </row>
-    <row r="996" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:27">
       <c r="A996" s="5"/>
       <c r="B996" s="5"/>
       <c r="C996" s="5"/>
@@ -38560,7 +38555,7 @@
       <c r="Z996" s="5"/>
       <c r="AA996" s="5"/>
     </row>
-    <row r="997" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:27">
       <c r="A997" s="5"/>
       <c r="B997" s="5"/>
       <c r="C997" s="5"/>
@@ -38589,7 +38584,7 @@
       <c r="Z997" s="5"/>
       <c r="AA997" s="5"/>
     </row>
-    <row r="998" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:27">
       <c r="A998" s="5"/>
       <c r="B998" s="5"/>
       <c r="C998" s="5"/>
@@ -38618,7 +38613,7 @@
       <c r="Z998" s="5"/>
       <c r="AA998" s="5"/>
     </row>
-    <row r="999" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:27">
       <c r="A999" s="5"/>
       <c r="B999" s="5"/>
       <c r="C999" s="5"/>
@@ -38647,7 +38642,7 @@
       <c r="Z999" s="5"/>
       <c r="AA999" s="5"/>
     </row>
-    <row r="1000" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:27">
       <c r="A1000" s="5"/>
       <c r="B1000" s="5"/>
       <c r="C1000" s="5"/>
